--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -230,12 +230,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$279</f>
+              <f>'连板数据分析'!$A$2:$A$281</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$279</f>
+              <f>'连板数据分析'!$B$2:$B$281</f>
             </numRef>
           </val>
         </ser>
@@ -352,12 +352,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$279</f>
+              <f>'连板数据分析'!$A$2:$A$281</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$279</f>
+              <f>'连板数据分析'!$C$2:$C$281</f>
             </numRef>
           </val>
         </ser>
@@ -387,12 +387,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$279</f>
+              <f>'连板数据分析'!$A$2:$A$281</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$279</f>
+              <f>'连板数据分析'!$D$2:$D$281</f>
             </numRef>
           </val>
         </ser>
@@ -509,12 +509,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$279</f>
+              <f>'连板数据分析'!$A$2:$A$281</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$279</f>
+              <f>'连板数据分析'!$F$2:$F$281</f>
             </numRef>
           </val>
         </ser>
@@ -592,7 +592,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="50040000" cy="2700000"/>
+    <ext cx="50400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -614,7 +614,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="50040000" cy="2700000"/>
+    <ext cx="50400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -636,7 +636,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="50040000" cy="2700000"/>
+    <ext cx="50400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -943,7 +943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JS23"/>
+  <dimension ref="A1:JU23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1231,6 +1231,8 @@
     <col width="70.8" customWidth="1" min="277" max="277"/>
     <col width="100.8" customWidth="1" min="278" max="278"/>
     <col width="33.6" customWidth="1" min="279" max="279"/>
+    <col width="62.4" customWidth="1" min="280" max="280"/>
+    <col width="133.2" customWidth="1" min="281" max="281"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2625,6 +2627,16 @@
           <t>2024-02-28</t>
         </is>
       </c>
+      <c r="JT1" s="7" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="JU1" s="7" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -3391,6 +3403,11 @@
           <t>克劳斯</t>
         </is>
       </c>
+      <c r="JU19" s="6" t="inlineStr">
+        <is>
+          <t>东方精工</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -3848,6 +3865,11 @@
           <t>亚世光电, 汉马科技</t>
         </is>
       </c>
+      <c r="JT20" s="6" t="inlineStr">
+        <is>
+          <t>东方精工</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
@@ -4625,6 +4647,16 @@
           <t>东方精工, 博杰股份</t>
         </is>
       </c>
+      <c r="JT21" s="6" t="inlineStr">
+        <is>
+          <t>天永智能</t>
+        </is>
+      </c>
+      <c r="JU21" s="6" t="inlineStr">
+        <is>
+          <t>汇源通信, 安奈儿, 四川金顶</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -5722,6 +5754,16 @@
           <t>亚联发展, 标准股份, 天永智能</t>
         </is>
       </c>
+      <c r="JT22" s="6" t="inlineStr">
+        <is>
+          <t>汇源通信, 安奈儿, 四川金顶</t>
+        </is>
+      </c>
+      <c r="JU22" s="6" t="inlineStr">
+        <is>
+          <t>达意隆, 洪涛股份, 天元智能, 康普顿</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -7082,6 +7124,16 @@
       <c r="JS23" s="6" t="inlineStr">
         <is>
           <t>汇源通信, 众生药业, 安奈儿, 四川金顶, 西上海</t>
+        </is>
+      </c>
+      <c r="JT23" s="6" t="inlineStr">
+        <is>
+          <t>达意隆, 洪涛股份, 东易日盛, 九鼎投资, 华资实业, 京城股份, 神驰机电, 天元智能, 康普顿</t>
+        </is>
+      </c>
+      <c r="JU23" s="6" t="inlineStr">
+        <is>
+          <t>美锦能源, 紫光股份, 威尔泰, 纳思达, 宏达新材, 联络互动, 光迅科技, 爱仕达, 康盛股份, 雄韬股份, 高斯贝尔, 宇晶股份, 全柴动力, 张江高科, 柏诚股份, 华立股份, 可川科技, 福蓉科技, 京华激光</t>
         </is>
       </c>
     </row>
@@ -7096,7 +7148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G279"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13252,6 +13304,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>5</v>
+      </c>
+      <c r="C280" t="n">
+        <v>90</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" t="n">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>6</v>
+      </c>
+      <c r="C281" t="n">
+        <v>62</v>
+      </c>
+      <c r="D281" t="n">
+        <v>3</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1</v>
+      </c>
+      <c r="F281" t="n">
+        <v>10.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="760" yWindow="500" windowWidth="28040" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="780" yWindow="500" windowWidth="28020" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,11 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <b val="1"/>
       <sz val="15"/>
     </font>
@@ -84,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -98,13 +103,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -230,12 +238,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$281</f>
+              <f>'连板数据分析'!$A$2:$A$284</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$281</f>
+              <f>'连板数据分析'!$B$2:$B$284</f>
             </numRef>
           </val>
         </ser>
@@ -352,12 +360,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$281</f>
+              <f>'连板数据分析'!$A$2:$A$284</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$281</f>
+              <f>'连板数据分析'!$C$2:$C$284</f>
             </numRef>
           </val>
         </ser>
@@ -387,12 +395,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$281</f>
+              <f>'连板数据分析'!$A$2:$A$284</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$281</f>
+              <f>'连板数据分析'!$D$2:$D$284</f>
             </numRef>
           </val>
         </ser>
@@ -509,12 +517,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$281</f>
+              <f>'连板数据分析'!$A$2:$A$284</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$281</f>
+              <f>'连板数据分析'!$F$2:$F$284</f>
             </numRef>
           </val>
         </ser>
@@ -592,7 +600,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="50400000" cy="2700000"/>
+    <ext cx="50940000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -614,7 +622,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="50400000" cy="2700000"/>
+    <ext cx="50940000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -636,7 +644,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="50400000" cy="2700000"/>
+    <ext cx="50940000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -943,11 +951,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JU23"/>
+  <dimension ref="A1:JX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JR1" sqref="JR1:JW1"/>
+      <selection pane="topRight" activeCell="IQ17" sqref="IQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1233,1408 +1241,1426 @@
     <col width="33.6" customWidth="1" min="279" max="279"/>
     <col width="62.4" customWidth="1" min="280" max="280"/>
     <col width="133.2" customWidth="1" min="281" max="281"/>
+    <col width="57.59999999999999" customWidth="1" min="282" max="282"/>
+    <col width="57.59999999999999" customWidth="1" min="283" max="283"/>
+    <col width="54" customWidth="1" min="284" max="284"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="6" t="n"/>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="A1" s="7" t="n"/>
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>2023-01-04</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>2023-01-05</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>2023-01-06</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>2023-01-09</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>2023-01-10</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t>2023-01-11</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
         <is>
           <t>2023-01-12</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="8" t="inlineStr">
         <is>
           <t>2023-01-13</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="8" t="inlineStr">
         <is>
           <t>2023-01-16</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="8" t="inlineStr">
         <is>
           <t>2023-01-17</t>
         </is>
       </c>
-      <c r="M1" s="7" t="inlineStr">
+      <c r="M1" s="8" t="inlineStr">
         <is>
           <t>2023-01-18</t>
         </is>
       </c>
-      <c r="N1" s="7" t="inlineStr">
+      <c r="N1" s="8" t="inlineStr">
         <is>
           <t>2023-01-19</t>
         </is>
       </c>
-      <c r="O1" s="7" t="inlineStr">
+      <c r="O1" s="8" t="inlineStr">
         <is>
           <t>2023-01-20</t>
         </is>
       </c>
-      <c r="P1" s="7" t="inlineStr">
+      <c r="P1" s="8" t="inlineStr">
         <is>
           <t>2023-01-30</t>
         </is>
       </c>
-      <c r="Q1" s="7" t="inlineStr">
+      <c r="Q1" s="8" t="inlineStr">
         <is>
           <t>2023-01-31</t>
         </is>
       </c>
-      <c r="R1" s="7" t="inlineStr">
+      <c r="R1" s="8" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="S1" s="7" t="inlineStr">
+      <c r="S1" s="8" t="inlineStr">
         <is>
           <t>2023-02-02</t>
         </is>
       </c>
-      <c r="T1" s="7" t="inlineStr">
+      <c r="T1" s="8" t="inlineStr">
         <is>
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="U1" s="7" t="inlineStr">
+      <c r="U1" s="8" t="inlineStr">
         <is>
           <t>2023-02-06</t>
         </is>
       </c>
-      <c r="V1" s="7" t="inlineStr">
+      <c r="V1" s="8" t="inlineStr">
         <is>
           <t>2023-02-07</t>
         </is>
       </c>
-      <c r="W1" s="7" t="inlineStr">
+      <c r="W1" s="8" t="inlineStr">
         <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="X1" s="7" t="inlineStr">
+      <c r="X1" s="8" t="inlineStr">
         <is>
           <t>2023-02-09</t>
         </is>
       </c>
-      <c r="Y1" s="7" t="inlineStr">
+      <c r="Y1" s="8" t="inlineStr">
         <is>
           <t>2023-02-10</t>
         </is>
       </c>
-      <c r="Z1" s="7" t="inlineStr">
+      <c r="Z1" s="8" t="inlineStr">
         <is>
           <t>2023-02-13</t>
         </is>
       </c>
-      <c r="AA1" s="7" t="inlineStr">
+      <c r="AA1" s="8" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="AB1" s="7" t="inlineStr">
+      <c r="AB1" s="8" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="AC1" s="7" t="inlineStr">
+      <c r="AC1" s="8" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="AD1" s="7" t="inlineStr">
+      <c r="AD1" s="8" t="inlineStr">
         <is>
           <t>2023-02-17</t>
         </is>
       </c>
-      <c r="AE1" s="7" t="inlineStr">
+      <c r="AE1" s="8" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="AF1" s="7" t="inlineStr">
+      <c r="AF1" s="8" t="inlineStr">
         <is>
           <t>2023-02-21</t>
         </is>
       </c>
-      <c r="AG1" s="7" t="inlineStr">
+      <c r="AG1" s="8" t="inlineStr">
         <is>
           <t>2023-02-22</t>
         </is>
       </c>
-      <c r="AH1" s="7" t="inlineStr">
+      <c r="AH1" s="8" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="AI1" s="7" t="inlineStr">
+      <c r="AI1" s="8" t="inlineStr">
         <is>
           <t>2023-02-24</t>
         </is>
       </c>
-      <c r="AJ1" s="7" t="inlineStr">
+      <c r="AJ1" s="8" t="inlineStr">
         <is>
           <t>2023-02-27</t>
         </is>
       </c>
-      <c r="AK1" s="7" t="inlineStr">
+      <c r="AK1" s="8" t="inlineStr">
         <is>
           <t>2023-02-28</t>
         </is>
       </c>
-      <c r="AL1" s="7" t="inlineStr">
+      <c r="AL1" s="8" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="AM1" s="7" t="inlineStr">
+      <c r="AM1" s="8" t="inlineStr">
         <is>
           <t>2023-03-02</t>
         </is>
       </c>
-      <c r="AN1" s="7" t="inlineStr">
+      <c r="AN1" s="8" t="inlineStr">
         <is>
           <t>2023-03-03</t>
         </is>
       </c>
-      <c r="AO1" s="7" t="inlineStr">
+      <c r="AO1" s="8" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="AP1" s="7" t="inlineStr">
+      <c r="AP1" s="8" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="AQ1" s="7" t="inlineStr">
+      <c r="AQ1" s="8" t="inlineStr">
         <is>
           <t>2023-03-08</t>
         </is>
       </c>
-      <c r="AR1" s="7" t="inlineStr">
+      <c r="AR1" s="8" t="inlineStr">
         <is>
           <t>2023-03-09</t>
         </is>
       </c>
-      <c r="AS1" s="7" t="inlineStr">
+      <c r="AS1" s="8" t="inlineStr">
         <is>
           <t>2023-03-10</t>
         </is>
       </c>
-      <c r="AT1" s="7" t="inlineStr">
+      <c r="AT1" s="8" t="inlineStr">
         <is>
           <t>2023-03-13</t>
         </is>
       </c>
-      <c r="AU1" s="7" t="inlineStr">
+      <c r="AU1" s="8" t="inlineStr">
         <is>
           <t>2023-03-14</t>
         </is>
       </c>
-      <c r="AV1" s="7" t="inlineStr">
+      <c r="AV1" s="8" t="inlineStr">
         <is>
           <t>2023-03-15</t>
         </is>
       </c>
-      <c r="AW1" s="7" t="inlineStr">
+      <c r="AW1" s="8" t="inlineStr">
         <is>
           <t>2023-03-16</t>
         </is>
       </c>
-      <c r="AX1" s="7" t="inlineStr">
+      <c r="AX1" s="8" t="inlineStr">
         <is>
           <t>2023-03-17</t>
         </is>
       </c>
-      <c r="AY1" s="7" t="inlineStr">
+      <c r="AY1" s="8" t="inlineStr">
         <is>
           <t>2023-03-20</t>
         </is>
       </c>
-      <c r="AZ1" s="7" t="inlineStr">
+      <c r="AZ1" s="8" t="inlineStr">
         <is>
           <t>2023-03-21</t>
         </is>
       </c>
-      <c r="BA1" s="7" t="inlineStr">
+      <c r="BA1" s="8" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
       </c>
-      <c r="BB1" s="7" t="inlineStr">
+      <c r="BB1" s="8" t="inlineStr">
         <is>
           <t>2023-03-23</t>
         </is>
       </c>
-      <c r="BC1" s="7" t="inlineStr">
+      <c r="BC1" s="8" t="inlineStr">
         <is>
           <t>2023-03-24</t>
         </is>
       </c>
-      <c r="BD1" s="7" t="inlineStr">
+      <c r="BD1" s="8" t="inlineStr">
         <is>
           <t>2023-03-27</t>
         </is>
       </c>
-      <c r="BE1" s="7" t="inlineStr">
+      <c r="BE1" s="8" t="inlineStr">
         <is>
           <t>2023-03-28</t>
         </is>
       </c>
-      <c r="BF1" s="7" t="inlineStr">
+      <c r="BF1" s="8" t="inlineStr">
         <is>
           <t>2023-03-29</t>
         </is>
       </c>
-      <c r="BG1" s="7" t="inlineStr">
+      <c r="BG1" s="8" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="BH1" s="7" t="inlineStr">
+      <c r="BH1" s="8" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="BI1" s="7" t="inlineStr">
+      <c r="BI1" s="8" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="BJ1" s="7" t="inlineStr">
+      <c r="BJ1" s="8" t="inlineStr">
         <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="BK1" s="7" t="inlineStr">
+      <c r="BK1" s="8" t="inlineStr">
         <is>
           <t>2023-04-06</t>
         </is>
       </c>
-      <c r="BL1" s="7" t="inlineStr">
+      <c r="BL1" s="8" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
       </c>
-      <c r="BM1" s="7" t="inlineStr">
+      <c r="BM1" s="8" t="inlineStr">
         <is>
           <t>2023-04-10</t>
         </is>
       </c>
-      <c r="BN1" s="7" t="inlineStr">
+      <c r="BN1" s="8" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
       </c>
-      <c r="BO1" s="7" t="inlineStr">
+      <c r="BO1" s="8" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="BP1" s="7" t="inlineStr">
+      <c r="BP1" s="8" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
       </c>
-      <c r="BQ1" s="7" t="inlineStr">
+      <c r="BQ1" s="8" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="BR1" s="7" t="inlineStr">
+      <c r="BR1" s="8" t="inlineStr">
         <is>
           <t>2023-04-17</t>
         </is>
       </c>
-      <c r="BS1" s="7" t="inlineStr">
+      <c r="BS1" s="8" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
-      <c r="BT1" s="7" t="inlineStr">
+      <c r="BT1" s="8" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
       </c>
-      <c r="BU1" s="7" t="inlineStr">
+      <c r="BU1" s="8" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="BV1" s="7" t="inlineStr">
+      <c r="BV1" s="8" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="BW1" s="7" t="inlineStr">
+      <c r="BW1" s="8" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
       </c>
-      <c r="BX1" s="7" t="inlineStr">
+      <c r="BX1" s="8" t="inlineStr">
         <is>
           <t>2023-04-25</t>
         </is>
       </c>
-      <c r="BY1" s="7" t="inlineStr">
+      <c r="BY1" s="8" t="inlineStr">
         <is>
           <t>2023-04-26</t>
         </is>
       </c>
-      <c r="BZ1" s="7" t="inlineStr">
+      <c r="BZ1" s="8" t="inlineStr">
         <is>
           <t>2023-04-27</t>
         </is>
       </c>
-      <c r="CA1" s="7" t="inlineStr">
+      <c r="CA1" s="8" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="CB1" s="7" t="inlineStr">
+      <c r="CB1" s="8" t="inlineStr">
         <is>
           <t>2023-05-04</t>
         </is>
       </c>
-      <c r="CC1" s="7" t="inlineStr">
+      <c r="CC1" s="8" t="inlineStr">
         <is>
           <t>2023-05-05</t>
         </is>
       </c>
-      <c r="CD1" s="7" t="inlineStr">
+      <c r="CD1" s="8" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
-      <c r="CE1" s="7" t="inlineStr">
+      <c r="CE1" s="8" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="CF1" s="7" t="inlineStr">
+      <c r="CF1" s="8" t="inlineStr">
         <is>
           <t>2023-05-10</t>
         </is>
       </c>
-      <c r="CG1" s="7" t="inlineStr">
+      <c r="CG1" s="8" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="CH1" s="7" t="inlineStr">
+      <c r="CH1" s="8" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="CI1" s="7" t="inlineStr">
+      <c r="CI1" s="8" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="CJ1" s="7" t="inlineStr">
+      <c r="CJ1" s="8" t="inlineStr">
         <is>
           <t>2023-05-16</t>
         </is>
       </c>
-      <c r="CK1" s="7" t="inlineStr">
+      <c r="CK1" s="8" t="inlineStr">
         <is>
           <t>2023-05-17</t>
         </is>
       </c>
-      <c r="CL1" s="7" t="inlineStr">
+      <c r="CL1" s="8" t="inlineStr">
         <is>
           <t>2023-05-18</t>
         </is>
       </c>
-      <c r="CM1" s="7" t="inlineStr">
+      <c r="CM1" s="8" t="inlineStr">
         <is>
           <t>2023-05-19</t>
         </is>
       </c>
-      <c r="CN1" s="7" t="inlineStr">
+      <c r="CN1" s="8" t="inlineStr">
         <is>
           <t>2023-05-22</t>
         </is>
       </c>
-      <c r="CO1" s="7" t="inlineStr">
+      <c r="CO1" s="8" t="inlineStr">
         <is>
           <t>2023-05-23</t>
         </is>
       </c>
-      <c r="CP1" s="7" t="inlineStr">
+      <c r="CP1" s="8" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="CQ1" s="7" t="inlineStr">
+      <c r="CQ1" s="8" t="inlineStr">
         <is>
           <t>2023-05-25</t>
         </is>
       </c>
-      <c r="CR1" s="7" t="inlineStr">
+      <c r="CR1" s="8" t="inlineStr">
         <is>
           <t>2023-05-26</t>
         </is>
       </c>
-      <c r="CS1" s="7" t="inlineStr">
+      <c r="CS1" s="8" t="inlineStr">
         <is>
           <t>2023-05-29</t>
         </is>
       </c>
-      <c r="CT1" s="7" t="inlineStr">
+      <c r="CT1" s="8" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
       </c>
-      <c r="CU1" s="7" t="inlineStr">
+      <c r="CU1" s="8" t="inlineStr">
         <is>
           <t>2023-05-31</t>
         </is>
       </c>
-      <c r="CV1" s="7" t="inlineStr">
+      <c r="CV1" s="8" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="CW1" s="7" t="inlineStr">
+      <c r="CW1" s="8" t="inlineStr">
         <is>
           <t>2023-06-02</t>
         </is>
       </c>
-      <c r="CX1" s="7" t="inlineStr">
+      <c r="CX1" s="8" t="inlineStr">
         <is>
           <t>2023-06-05</t>
         </is>
       </c>
-      <c r="CY1" s="7" t="inlineStr">
+      <c r="CY1" s="8" t="inlineStr">
         <is>
           <t>2023-06-06</t>
         </is>
       </c>
-      <c r="CZ1" s="7" t="inlineStr">
+      <c r="CZ1" s="8" t="inlineStr">
         <is>
           <t>2023-06-07</t>
         </is>
       </c>
-      <c r="DA1" s="7" t="inlineStr">
+      <c r="DA1" s="8" t="inlineStr">
         <is>
           <t>2023-06-08</t>
         </is>
       </c>
-      <c r="DB1" s="7" t="inlineStr">
+      <c r="DB1" s="8" t="inlineStr">
         <is>
           <t>2023-06-09</t>
         </is>
       </c>
-      <c r="DC1" s="7" t="inlineStr">
+      <c r="DC1" s="8" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
-      <c r="DD1" s="7" t="inlineStr">
+      <c r="DD1" s="8" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="DE1" s="7" t="inlineStr">
+      <c r="DE1" s="8" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="DF1" s="7" t="inlineStr">
+      <c r="DF1" s="8" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="DG1" s="7" t="inlineStr">
+      <c r="DG1" s="8" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="DH1" s="7" t="inlineStr">
+      <c r="DH1" s="8" t="inlineStr">
         <is>
           <t>2023-06-19</t>
         </is>
       </c>
-      <c r="DI1" s="7" t="inlineStr">
+      <c r="DI1" s="8" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="DJ1" s="7" t="inlineStr">
+      <c r="DJ1" s="8" t="inlineStr">
         <is>
           <t>2023-06-21</t>
         </is>
       </c>
-      <c r="DK1" s="7" t="inlineStr">
+      <c r="DK1" s="8" t="inlineStr">
         <is>
           <t>2023-06-26</t>
         </is>
       </c>
-      <c r="DL1" s="7" t="inlineStr">
+      <c r="DL1" s="8" t="inlineStr">
         <is>
           <t>2023-06-27</t>
         </is>
       </c>
-      <c r="DM1" s="7" t="inlineStr">
+      <c r="DM1" s="8" t="inlineStr">
         <is>
           <t>2023-06-28</t>
         </is>
       </c>
-      <c r="DN1" s="7" t="inlineStr">
+      <c r="DN1" s="8" t="inlineStr">
         <is>
           <t>2023-06-29</t>
         </is>
       </c>
-      <c r="DO1" s="7" t="inlineStr">
+      <c r="DO1" s="8" t="inlineStr">
         <is>
           <t>2023-06-30</t>
         </is>
       </c>
-      <c r="DP1" s="7" t="inlineStr">
+      <c r="DP1" s="8" t="inlineStr">
         <is>
           <t>2023-07-03</t>
         </is>
       </c>
-      <c r="DQ1" s="7" t="inlineStr">
+      <c r="DQ1" s="8" t="inlineStr">
         <is>
           <t>2023-07-04</t>
         </is>
       </c>
-      <c r="DR1" s="7" t="inlineStr">
+      <c r="DR1" s="8" t="inlineStr">
         <is>
           <t>2023-07-05</t>
         </is>
       </c>
-      <c r="DS1" s="7" t="inlineStr">
+      <c r="DS1" s="8" t="inlineStr">
         <is>
           <t>2023-07-06</t>
         </is>
       </c>
-      <c r="DT1" s="7" t="inlineStr">
+      <c r="DT1" s="8" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="DU1" s="7" t="inlineStr">
+      <c r="DU1" s="8" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
       </c>
-      <c r="DV1" s="7" t="inlineStr">
+      <c r="DV1" s="8" t="inlineStr">
         <is>
           <t>2023-07-11</t>
         </is>
       </c>
-      <c r="DW1" s="7" t="inlineStr">
+      <c r="DW1" s="8" t="inlineStr">
         <is>
           <t>2023-07-12</t>
         </is>
       </c>
-      <c r="DX1" s="7" t="inlineStr">
+      <c r="DX1" s="8" t="inlineStr">
         <is>
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="DY1" s="7" t="inlineStr">
+      <c r="DY1" s="8" t="inlineStr">
         <is>
           <t>2023-07-14</t>
         </is>
       </c>
-      <c r="DZ1" s="7" t="inlineStr">
+      <c r="DZ1" s="8" t="inlineStr">
         <is>
           <t>2023-07-17</t>
         </is>
       </c>
-      <c r="EA1" s="7" t="inlineStr">
+      <c r="EA1" s="8" t="inlineStr">
         <is>
           <t>2023-07-18</t>
         </is>
       </c>
-      <c r="EB1" s="7" t="inlineStr">
+      <c r="EB1" s="8" t="inlineStr">
         <is>
           <t>2023-07-19</t>
         </is>
       </c>
-      <c r="EC1" s="7" t="inlineStr">
+      <c r="EC1" s="8" t="inlineStr">
         <is>
           <t>2023-07-20</t>
         </is>
       </c>
-      <c r="ED1" s="7" t="inlineStr">
+      <c r="ED1" s="8" t="inlineStr">
         <is>
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="EE1" s="7" t="inlineStr">
+      <c r="EE1" s="8" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="EF1" s="7" t="inlineStr">
+      <c r="EF1" s="8" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
       </c>
-      <c r="EG1" s="7" t="inlineStr">
+      <c r="EG1" s="8" t="inlineStr">
         <is>
           <t>2023-07-26</t>
         </is>
       </c>
-      <c r="EH1" s="7" t="inlineStr">
+      <c r="EH1" s="8" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="EI1" s="7" t="inlineStr">
+      <c r="EI1" s="8" t="inlineStr">
         <is>
           <t>2023-07-28</t>
         </is>
       </c>
-      <c r="EJ1" s="7" t="inlineStr">
+      <c r="EJ1" s="8" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
       </c>
-      <c r="EK1" s="7" t="inlineStr">
+      <c r="EK1" s="8" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="EL1" s="7" t="inlineStr">
+      <c r="EL1" s="8" t="inlineStr">
         <is>
           <t>2023-08-02</t>
         </is>
       </c>
-      <c r="EM1" s="7" t="inlineStr">
+      <c r="EM1" s="8" t="inlineStr">
         <is>
           <t>2023-08-03</t>
         </is>
       </c>
-      <c r="EN1" s="7" t="inlineStr">
+      <c r="EN1" s="8" t="inlineStr">
         <is>
           <t>2023-08-04</t>
         </is>
       </c>
-      <c r="EO1" s="7" t="inlineStr">
+      <c r="EO1" s="8" t="inlineStr">
         <is>
           <t>2023-08-07</t>
         </is>
       </c>
-      <c r="EP1" s="7" t="inlineStr">
+      <c r="EP1" s="8" t="inlineStr">
         <is>
           <t>2023-08-08</t>
         </is>
       </c>
-      <c r="EQ1" s="7" t="inlineStr">
+      <c r="EQ1" s="8" t="inlineStr">
         <is>
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="ER1" s="7" t="inlineStr">
+      <c r="ER1" s="8" t="inlineStr">
         <is>
           <t>2023-08-10</t>
         </is>
       </c>
-      <c r="ES1" s="7" t="inlineStr">
+      <c r="ES1" s="8" t="inlineStr">
         <is>
           <t>2023-08-11</t>
         </is>
       </c>
-      <c r="ET1" s="7" t="inlineStr">
+      <c r="ET1" s="8" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="EU1" s="7" t="inlineStr">
+      <c r="EU1" s="8" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="EV1" s="7" t="inlineStr">
+      <c r="EV1" s="8" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="EW1" s="7" t="inlineStr">
+      <c r="EW1" s="8" t="inlineStr">
         <is>
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="EX1" s="7" t="inlineStr">
+      <c r="EX1" s="8" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="EY1" s="7" t="inlineStr">
+      <c r="EY1" s="8" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="EZ1" s="7" t="inlineStr">
+      <c r="EZ1" s="8" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="FA1" s="7" t="inlineStr">
+      <c r="FA1" s="8" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="FB1" s="7" t="inlineStr">
+      <c r="FB1" s="8" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="FC1" s="7" t="inlineStr">
+      <c r="FC1" s="8" t="inlineStr">
         <is>
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="FD1" s="7" t="inlineStr">
+      <c r="FD1" s="8" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="FE1" s="7" t="inlineStr">
+      <c r="FE1" s="8" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="FF1" s="7" t="inlineStr">
+      <c r="FF1" s="8" t="inlineStr">
         <is>
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="FG1" s="7" t="inlineStr">
+      <c r="FG1" s="8" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="FH1" s="7" t="inlineStr">
+      <c r="FH1" s="8" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="FI1" s="7" t="inlineStr">
+      <c r="FI1" s="8" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="FJ1" s="7" t="inlineStr">
+      <c r="FJ1" s="8" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="FK1" s="7" t="inlineStr">
+      <c r="FK1" s="8" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="FL1" s="7" t="inlineStr">
+      <c r="FL1" s="8" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="FM1" s="7" t="inlineStr">
+      <c r="FM1" s="8" t="inlineStr">
         <is>
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="FN1" s="7" t="inlineStr">
+      <c r="FN1" s="8" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="FO1" s="7" t="inlineStr">
+      <c r="FO1" s="8" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="FP1" s="7" t="inlineStr">
+      <c r="FP1" s="8" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="FQ1" s="7" t="inlineStr">
+      <c r="FQ1" s="8" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="FR1" s="7" t="inlineStr">
+      <c r="FR1" s="8" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="FS1" s="7" t="inlineStr">
+      <c r="FS1" s="8" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="FT1" s="7" t="inlineStr">
+      <c r="FT1" s="8" t="inlineStr">
         <is>
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="FU1" s="7" t="inlineStr">
+      <c r="FU1" s="8" t="inlineStr">
         <is>
           <t>2023-09-20</t>
         </is>
       </c>
-      <c r="FV1" s="7" t="inlineStr">
+      <c r="FV1" s="8" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="FW1" s="7" t="inlineStr">
+      <c r="FW1" s="8" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="FX1" s="7" t="inlineStr">
+      <c r="FX1" s="8" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="FY1" s="7" t="inlineStr">
+      <c r="FY1" s="8" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="FZ1" s="7" t="inlineStr">
+      <c r="FZ1" s="8" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
       </c>
-      <c r="GA1" s="7" t="inlineStr">
+      <c r="GA1" s="8" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="GB1" s="7" t="inlineStr">
+      <c r="GB1" s="8" t="inlineStr">
         <is>
           <t>2023-10-09</t>
         </is>
       </c>
-      <c r="GC1" s="7" t="inlineStr">
+      <c r="GC1" s="8" t="inlineStr">
         <is>
           <t>2023-10-10</t>
         </is>
       </c>
-      <c r="GD1" s="7" t="inlineStr">
+      <c r="GD1" s="8" t="inlineStr">
         <is>
           <t>2023-10-11</t>
         </is>
       </c>
-      <c r="GE1" s="7" t="inlineStr">
+      <c r="GE1" s="8" t="inlineStr">
         <is>
           <t>2023-10-12</t>
         </is>
       </c>
-      <c r="GF1" s="7" t="inlineStr">
+      <c r="GF1" s="8" t="inlineStr">
         <is>
           <t>2023-10-13</t>
         </is>
       </c>
-      <c r="GG1" s="7" t="inlineStr">
+      <c r="GG1" s="8" t="inlineStr">
         <is>
           <t>2023-10-16</t>
         </is>
       </c>
-      <c r="GH1" s="7" t="inlineStr">
+      <c r="GH1" s="8" t="inlineStr">
         <is>
           <t>2023-10-17</t>
         </is>
       </c>
-      <c r="GI1" s="7" t="inlineStr">
+      <c r="GI1" s="8" t="inlineStr">
         <is>
           <t>2023-10-18</t>
         </is>
       </c>
-      <c r="GJ1" s="7" t="inlineStr">
+      <c r="GJ1" s="8" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="GK1" s="7" t="inlineStr">
+      <c r="GK1" s="8" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="GL1" s="7" t="inlineStr">
+      <c r="GL1" s="8" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="GM1" s="7" t="inlineStr">
+      <c r="GM1" s="8" t="inlineStr">
         <is>
           <t>2023-10-24</t>
         </is>
       </c>
-      <c r="GN1" s="7" t="inlineStr">
+      <c r="GN1" s="8" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
       </c>
-      <c r="GO1" s="7" t="inlineStr">
+      <c r="GO1" s="8" t="inlineStr">
         <is>
           <t>2023-10-26</t>
         </is>
       </c>
-      <c r="GP1" s="7" t="inlineStr">
+      <c r="GP1" s="8" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
       </c>
-      <c r="GQ1" s="7" t="inlineStr">
+      <c r="GQ1" s="8" t="inlineStr">
         <is>
           <t>2023-10-30</t>
         </is>
       </c>
-      <c r="GR1" s="7" t="inlineStr">
+      <c r="GR1" s="8" t="inlineStr">
         <is>
           <t>2023-10-31</t>
         </is>
       </c>
-      <c r="GS1" s="7" t="inlineStr">
+      <c r="GS1" s="8" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="GT1" s="7" t="inlineStr">
+      <c r="GT1" s="8" t="inlineStr">
         <is>
           <t>2023-11-02</t>
         </is>
       </c>
-      <c r="GU1" s="7" t="inlineStr">
+      <c r="GU1" s="8" t="inlineStr">
         <is>
           <t>2023-11-03</t>
         </is>
       </c>
-      <c r="GV1" s="7" t="inlineStr">
+      <c r="GV1" s="8" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="GW1" s="7" t="inlineStr">
+      <c r="GW1" s="8" t="inlineStr">
         <is>
           <t>2023-11-07</t>
         </is>
       </c>
-      <c r="GX1" s="7" t="inlineStr">
+      <c r="GX1" s="8" t="inlineStr">
         <is>
           <t>2023-11-08</t>
         </is>
       </c>
-      <c r="GY1" s="7" t="inlineStr">
+      <c r="GY1" s="8" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
       </c>
-      <c r="GZ1" s="7" t="inlineStr">
+      <c r="GZ1" s="8" t="inlineStr">
         <is>
           <t>2023-11-10</t>
         </is>
       </c>
-      <c r="HA1" s="7" t="inlineStr">
+      <c r="HA1" s="8" t="inlineStr">
         <is>
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="HB1" s="7" t="inlineStr">
+      <c r="HB1" s="8" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
       </c>
-      <c r="HC1" s="7" t="inlineStr">
+      <c r="HC1" s="8" t="inlineStr">
         <is>
           <t>2023-11-15</t>
         </is>
       </c>
-      <c r="HD1" s="7" t="inlineStr">
+      <c r="HD1" s="8" t="inlineStr">
         <is>
           <t>2023-11-16</t>
         </is>
       </c>
-      <c r="HE1" s="7" t="inlineStr">
+      <c r="HE1" s="8" t="inlineStr">
         <is>
           <t>2023-11-17</t>
         </is>
       </c>
-      <c r="HF1" s="7" t="inlineStr">
+      <c r="HF1" s="8" t="inlineStr">
         <is>
           <t>2023-11-20</t>
         </is>
       </c>
-      <c r="HG1" s="7" t="inlineStr">
+      <c r="HG1" s="8" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="HH1" s="7" t="inlineStr">
+      <c r="HH1" s="8" t="inlineStr">
         <is>
           <t>2023-11-22</t>
         </is>
       </c>
-      <c r="HI1" s="7" t="inlineStr">
+      <c r="HI1" s="8" t="inlineStr">
         <is>
           <t>2023-11-23</t>
         </is>
       </c>
-      <c r="HJ1" s="7" t="inlineStr">
+      <c r="HJ1" s="8" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="HK1" s="7" t="inlineStr">
+      <c r="HK1" s="8" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="HL1" s="7" t="inlineStr">
+      <c r="HL1" s="8" t="inlineStr">
         <is>
           <t>2023-11-28</t>
         </is>
       </c>
-      <c r="HM1" s="7" t="inlineStr">
+      <c r="HM1" s="8" t="inlineStr">
         <is>
           <t>2023-11-29</t>
         </is>
       </c>
-      <c r="HN1" s="7" t="inlineStr">
+      <c r="HN1" s="8" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="HO1" s="7" t="inlineStr">
+      <c r="HO1" s="8" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="HP1" s="7" t="inlineStr">
+      <c r="HP1" s="8" t="inlineStr">
         <is>
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="HQ1" s="7" t="inlineStr">
+      <c r="HQ1" s="8" t="inlineStr">
         <is>
           <t>2023-12-05</t>
         </is>
       </c>
-      <c r="HR1" s="7" t="inlineStr">
+      <c r="HR1" s="8" t="inlineStr">
         <is>
           <t>2023-12-06</t>
         </is>
       </c>
-      <c r="HS1" s="7" t="inlineStr">
+      <c r="HS1" s="8" t="inlineStr">
         <is>
           <t>2023-12-07</t>
         </is>
       </c>
-      <c r="HT1" s="7" t="inlineStr">
+      <c r="HT1" s="8" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="HU1" s="7" t="inlineStr">
+      <c r="HU1" s="8" t="inlineStr">
         <is>
           <t>2023-12-11</t>
         </is>
       </c>
-      <c r="HV1" s="7" t="inlineStr">
+      <c r="HV1" s="8" t="inlineStr">
         <is>
           <t>2023-12-12</t>
         </is>
       </c>
-      <c r="HW1" s="7" t="inlineStr">
+      <c r="HW1" s="8" t="inlineStr">
         <is>
           <t>2023-12-13</t>
         </is>
       </c>
-      <c r="HX1" s="7" t="inlineStr">
+      <c r="HX1" s="8" t="inlineStr">
         <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="HY1" s="7" t="inlineStr">
+      <c r="HY1" s="8" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="HZ1" s="7" t="inlineStr">
+      <c r="HZ1" s="8" t="inlineStr">
         <is>
           <t>2023-12-18</t>
         </is>
       </c>
-      <c r="IA1" s="7" t="inlineStr">
+      <c r="IA1" s="8" t="inlineStr">
         <is>
           <t>2023-12-19</t>
         </is>
       </c>
-      <c r="IB1" s="7" t="inlineStr">
+      <c r="IB1" s="8" t="inlineStr">
         <is>
           <t>2023-12-20</t>
         </is>
       </c>
-      <c r="IC1" s="7" t="inlineStr">
+      <c r="IC1" s="8" t="inlineStr">
         <is>
           <t>2023-12-21</t>
         </is>
       </c>
-      <c r="ID1" s="7" t="inlineStr">
+      <c r="ID1" s="8" t="inlineStr">
         <is>
           <t>2023-12-22</t>
         </is>
       </c>
-      <c r="IE1" s="7" t="inlineStr">
+      <c r="IE1" s="8" t="inlineStr">
         <is>
           <t>2023-12-25</t>
         </is>
       </c>
-      <c r="IF1" s="7" t="inlineStr">
+      <c r="IF1" s="8" t="inlineStr">
         <is>
           <t>2023-12-26</t>
         </is>
       </c>
-      <c r="IG1" s="7" t="inlineStr">
+      <c r="IG1" s="8" t="inlineStr">
         <is>
           <t>2023-12-27</t>
         </is>
       </c>
-      <c r="IH1" s="7" t="inlineStr">
+      <c r="IH1" s="8" t="inlineStr">
         <is>
           <t>2023-12-28</t>
         </is>
       </c>
-      <c r="II1" s="7" t="inlineStr">
+      <c r="II1" s="8" t="inlineStr">
         <is>
           <t>2023-12-29</t>
         </is>
       </c>
-      <c r="IJ1" s="7" t="inlineStr">
+      <c r="IJ1" s="8" t="inlineStr">
         <is>
           <t>2024-01-02</t>
         </is>
       </c>
-      <c r="IK1" s="7" t="inlineStr">
+      <c r="IK1" s="8" t="inlineStr">
         <is>
           <t>2024-01-03</t>
         </is>
       </c>
-      <c r="IL1" s="7" t="inlineStr">
+      <c r="IL1" s="8" t="inlineStr">
         <is>
           <t>2024-01-04</t>
         </is>
       </c>
-      <c r="IM1" s="7" t="inlineStr">
+      <c r="IM1" s="8" t="inlineStr">
         <is>
           <t>2024-01-05</t>
         </is>
       </c>
-      <c r="IN1" s="7" t="inlineStr">
+      <c r="IN1" s="8" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="IO1" s="7" t="inlineStr">
+      <c r="IO1" s="8" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="IP1" s="7" t="inlineStr">
+      <c r="IP1" s="8" t="inlineStr">
         <is>
           <t>2024-01-10</t>
         </is>
       </c>
-      <c r="IQ1" s="7" t="inlineStr">
+      <c r="IQ1" s="8" t="inlineStr">
         <is>
           <t>2024-01-11</t>
         </is>
       </c>
-      <c r="IR1" s="7" t="inlineStr">
+      <c r="IR1" s="8" t="inlineStr">
         <is>
           <t>2024-01-12</t>
         </is>
       </c>
-      <c r="IS1" s="7" t="inlineStr">
+      <c r="IS1" s="8" t="inlineStr">
         <is>
           <t>2024-01-15</t>
         </is>
       </c>
-      <c r="IT1" s="7" t="inlineStr">
+      <c r="IT1" s="8" t="inlineStr">
         <is>
           <t>2024-01-16</t>
         </is>
       </c>
-      <c r="IU1" s="7" t="inlineStr">
+      <c r="IU1" s="8" t="inlineStr">
         <is>
           <t>2024-01-17</t>
         </is>
       </c>
-      <c r="IV1" s="7" t="inlineStr">
+      <c r="IV1" s="8" t="inlineStr">
         <is>
           <t>2024-01-18</t>
         </is>
       </c>
-      <c r="IW1" s="7" t="inlineStr">
+      <c r="IW1" s="8" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="IX1" s="7" t="inlineStr">
+      <c r="IX1" s="8" t="inlineStr">
         <is>
           <t>2024-01-22</t>
         </is>
       </c>
-      <c r="IY1" s="7" t="inlineStr">
+      <c r="IY1" s="8" t="inlineStr">
         <is>
           <t>2024-01-23</t>
         </is>
       </c>
-      <c r="IZ1" s="7" t="inlineStr">
+      <c r="IZ1" s="8" t="inlineStr">
         <is>
           <t>2024-01-24</t>
         </is>
       </c>
-      <c r="JA1" s="7" t="inlineStr">
+      <c r="JA1" s="8" t="inlineStr">
         <is>
           <t>2024-01-25</t>
         </is>
       </c>
-      <c r="JB1" s="7" t="inlineStr">
+      <c r="JB1" s="8" t="inlineStr">
         <is>
           <t>2024-01-26</t>
         </is>
       </c>
-      <c r="JC1" s="7" t="inlineStr">
+      <c r="JC1" s="8" t="inlineStr">
         <is>
           <t>2024-01-29</t>
         </is>
       </c>
-      <c r="JD1" s="7" t="inlineStr">
+      <c r="JD1" s="8" t="inlineStr">
         <is>
           <t>2024-01-30</t>
         </is>
       </c>
-      <c r="JE1" s="7" t="inlineStr">
+      <c r="JE1" s="8" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
       </c>
-      <c r="JF1" s="7" t="inlineStr">
+      <c r="JF1" s="8" t="inlineStr">
         <is>
           <t>2024-02-01</t>
         </is>
       </c>
-      <c r="JG1" s="7" t="inlineStr">
+      <c r="JG1" s="8" t="inlineStr">
         <is>
           <t>2024-02-02</t>
         </is>
       </c>
-      <c r="JH1" s="7" t="inlineStr">
+      <c r="JH1" s="8" t="inlineStr">
         <is>
           <t>2024-02-05</t>
         </is>
       </c>
-      <c r="JI1" s="7" t="inlineStr">
+      <c r="JI1" s="8" t="inlineStr">
         <is>
           <t>2024-02-06</t>
         </is>
       </c>
-      <c r="JJ1" s="7" t="inlineStr">
+      <c r="JJ1" s="8" t="inlineStr">
         <is>
           <t>2024-02-07</t>
         </is>
       </c>
-      <c r="JK1" s="7" t="inlineStr">
+      <c r="JK1" s="8" t="inlineStr">
         <is>
           <t>2024-02-08</t>
         </is>
       </c>
-      <c r="JL1" s="7" t="inlineStr">
+      <c r="JL1" s="8" t="inlineStr">
         <is>
           <t>2024-02-19</t>
         </is>
       </c>
-      <c r="JM1" s="7" t="inlineStr">
+      <c r="JM1" s="8" t="inlineStr">
         <is>
           <t>2024-02-20</t>
         </is>
       </c>
-      <c r="JN1" s="7" t="inlineStr">
+      <c r="JN1" s="8" t="inlineStr">
         <is>
           <t>2024-02-21</t>
         </is>
       </c>
-      <c r="JO1" s="7" t="inlineStr">
+      <c r="JO1" s="8" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
       </c>
-      <c r="JP1" s="7" t="inlineStr">
+      <c r="JP1" s="8" t="inlineStr">
         <is>
           <t>2024-02-23</t>
         </is>
       </c>
-      <c r="JQ1" s="7" t="inlineStr">
+      <c r="JQ1" s="8" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
       </c>
-      <c r="JR1" s="7" t="inlineStr">
+      <c r="JR1" s="8" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
       </c>
-      <c r="JS1" s="7" t="inlineStr">
+      <c r="JS1" s="8" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="JT1" s="7" t="inlineStr">
+      <c r="JT1" s="8" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="JU1" s="7" t="inlineStr">
+      <c r="JU1" s="8" t="inlineStr">
         <is>
           <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="JV1" s="8" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="JW1" s="8" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="JX1" s="8" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
         </is>
       </c>
     </row>
@@ -2862,6 +2888,11 @@
           <t>高新发展</t>
         </is>
       </c>
+      <c r="GU16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="GV16" s="1" t="inlineStr">
         <is>
           <t>天龙股份</t>
@@ -2914,6 +2945,11 @@
           <t>日播时尚</t>
         </is>
       </c>
+      <c r="FJ17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
       <c r="FK17" s="1" t="inlineStr">
         <is>
           <t>我乐家居</t>
@@ -2989,7 +3025,7 @@
           <t>睿能科技</t>
         </is>
       </c>
-      <c r="JS17" s="6" t="inlineStr">
+      <c r="JS17" s="5" t="inlineStr">
         <is>
           <t>国脉文化, 华扬联众</t>
         </is>
@@ -3151,6 +3187,11 @@
           <t>国脉文化, 华扬联众</t>
         </is>
       </c>
+      <c r="JX18" s="7" t="inlineStr">
+        <is>
+          <t>安奈儿</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -3403,9 +3444,19 @@
           <t>克劳斯</t>
         </is>
       </c>
-      <c r="JU19" s="6" t="inlineStr">
+      <c r="JU19" s="5" t="inlineStr">
         <is>
           <t>东方精工</t>
+        </is>
+      </c>
+      <c r="JW19" s="7" t="inlineStr">
+        <is>
+          <t>安奈儿</t>
+        </is>
+      </c>
+      <c r="JX19" s="7" t="inlineStr">
+        <is>
+          <t>天元智能</t>
         </is>
       </c>
     </row>
@@ -3800,6 +3851,11 @@
           <t>大连圣亚</t>
         </is>
       </c>
+      <c r="IP20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">思进智能 </t>
+        </is>
+      </c>
       <c r="IS20" s="1" t="inlineStr">
         <is>
           <t>深中华A</t>
@@ -3865,9 +3921,24 @@
           <t>亚世光电, 汉马科技</t>
         </is>
       </c>
-      <c r="JT20" s="6" t="inlineStr">
+      <c r="JT20" s="5" t="inlineStr">
         <is>
           <t>东方精工</t>
+        </is>
+      </c>
+      <c r="JV20" s="7" t="inlineStr">
+        <is>
+          <t>安奈儿, 四川金顶</t>
+        </is>
+      </c>
+      <c r="JW20" s="7" t="inlineStr">
+        <is>
+          <t>天元智能</t>
+        </is>
+      </c>
+      <c r="JX20" s="7" t="inlineStr">
+        <is>
+          <t>福蓉科技</t>
         </is>
       </c>
     </row>
@@ -3957,6 +4028,11 @@
           <t>鸿博股份, 金龙羽</t>
         </is>
       </c>
+      <c r="AB21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="AF21" s="1" t="inlineStr">
         <is>
           <t>坤泰股份, 扬州金泉</t>
@@ -4642,19 +4718,34 @@
           <t>日海智能, 爱仕达, 美吉姆, 傲农生物</t>
         </is>
       </c>
-      <c r="JS21" s="6" t="inlineStr">
+      <c r="JS21" s="5" t="inlineStr">
         <is>
           <t>东方精工, 博杰股份</t>
         </is>
       </c>
-      <c r="JT21" s="6" t="inlineStr">
+      <c r="JT21" s="5" t="inlineStr">
         <is>
           <t>天永智能</t>
         </is>
       </c>
-      <c r="JU21" s="6" t="inlineStr">
+      <c r="JU21" s="5" t="inlineStr">
         <is>
           <t>汇源通信, 安奈儿, 四川金顶</t>
+        </is>
+      </c>
+      <c r="JV21" s="7" t="inlineStr">
+        <is>
+          <t>天元智能</t>
+        </is>
+      </c>
+      <c r="JW21" s="7" t="inlineStr">
+        <is>
+          <t>福蓉科技</t>
+        </is>
+      </c>
+      <c r="JX21" s="7" t="inlineStr">
+        <is>
+          <t>文投控股</t>
         </is>
       </c>
     </row>
@@ -5749,19 +5840,34 @@
           <t>人人乐, 日发精机, 东方精工, 博杰股份, 迪马股份</t>
         </is>
       </c>
-      <c r="JS22" s="6" t="inlineStr">
+      <c r="JS22" s="5" t="inlineStr">
         <is>
           <t>亚联发展, 标准股份, 天永智能</t>
         </is>
       </c>
-      <c r="JT22" s="6" t="inlineStr">
+      <c r="JT22" s="5" t="inlineStr">
         <is>
           <t>汇源通信, 安奈儿, 四川金顶</t>
         </is>
       </c>
-      <c r="JU22" s="6" t="inlineStr">
+      <c r="JU22" s="5" t="inlineStr">
         <is>
           <t>达意隆, 洪涛股份, 天元智能, 康普顿</t>
+        </is>
+      </c>
+      <c r="JV22" s="7" t="inlineStr">
+        <is>
+          <t>光迅科技, 康盛股份, 高斯贝尔, 福蓉科技</t>
+        </is>
+      </c>
+      <c r="JW22" s="7" t="inlineStr">
+        <is>
+          <t>卓翼科技, 文投控股</t>
+        </is>
+      </c>
+      <c r="JX22" s="7" t="inlineStr">
+        <is>
+          <t>川润股份, 润都股份</t>
         </is>
       </c>
     </row>
@@ -7121,19 +7227,34 @@
           <t>皇庭国际, 珠海中富, 天奇股份, 华东数控, 亚联发展, 南方精工, 华东重机, 东方嘉盛, 标准股份, 渤海汽车, 音飞储存, 康尼机电, 日盈电子, 天永智能</t>
         </is>
       </c>
-      <c r="JS23" s="6" t="inlineStr">
+      <c r="JS23" s="5" t="inlineStr">
         <is>
           <t>汇源通信, 众生药业, 安奈儿, 四川金顶, 西上海</t>
         </is>
       </c>
-      <c r="JT23" s="6" t="inlineStr">
+      <c r="JT23" s="5" t="inlineStr">
         <is>
           <t>达意隆, 洪涛股份, 东易日盛, 九鼎投资, 华资实业, 京城股份, 神驰机电, 天元智能, 康普顿</t>
         </is>
       </c>
-      <c r="JU23" s="6" t="inlineStr">
+      <c r="JU23" s="5" t="inlineStr">
         <is>
           <t>美锦能源, 紫光股份, 威尔泰, 纳思达, 宏达新材, 联络互动, 光迅科技, 爱仕达, 康盛股份, 雄韬股份, 高斯贝尔, 宇晶股份, 全柴动力, 张江高科, 柏诚股份, 华立股份, 可川科技, 福蓉科技, 京华激光</t>
+        </is>
+      </c>
+      <c r="JV23" s="7" t="inlineStr">
+        <is>
+          <t>卓翼科技, 美格智能, 城市传媒, 文投控股, 上海电影, 宏和科技, 思维列控, 苏州科达</t>
+        </is>
+      </c>
+      <c r="JW23" s="7" t="inlineStr">
+        <is>
+          <t>高新发展, 川润股份, 道明光学, 智能自控, 润都股份, 汉商集团, 中广天择, 时空科技</t>
+        </is>
+      </c>
+      <c r="JX23" s="7" t="inlineStr">
+        <is>
+          <t>好上好, 红宝丽, 合力泰, 安彩高科, 大连圣亚, 上海沪工, 立航科技, 艾艾精工</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G281"/>
+  <dimension ref="A1:G284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13050,10 +13171,10 @@
         <v>4</v>
       </c>
       <c r="C268" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>1258</v>
+        <v>0</v>
       </c>
       <c r="E268" t="n">
         <v>1</v>
@@ -13346,6 +13467,72 @@
       </c>
       <c r="F281" t="n">
         <v>10.04</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>5</v>
+      </c>
+      <c r="C282" t="n">
+        <v>64</v>
+      </c>
+      <c r="D282" t="n">
+        <v>4</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2</v>
+      </c>
+      <c r="F282" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>6</v>
+      </c>
+      <c r="C283" t="n">
+        <v>43</v>
+      </c>
+      <c r="D283" t="n">
+        <v>2</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>7</v>
+      </c>
+      <c r="C284" t="n">
+        <v>72</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="780" yWindow="500" windowWidth="28020" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-1060" yWindow="-20340" windowWidth="28020" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,11 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <b val="1"/>
       <sz val="15"/>
     </font>
@@ -89,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -106,13 +111,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -238,12 +246,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$284</f>
+              <f>'连板数据分析'!$A$2:$A$287</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$284</f>
+              <f>'连板数据分析'!$B$2:$B$287</f>
             </numRef>
           </val>
         </ser>
@@ -360,12 +368,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$284</f>
+              <f>'连板数据分析'!$A$2:$A$287</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$284</f>
+              <f>'连板数据分析'!$C$2:$C$287</f>
             </numRef>
           </val>
         </ser>
@@ -395,12 +403,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$284</f>
+              <f>'连板数据分析'!$A$2:$A$287</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$284</f>
+              <f>'连板数据分析'!$D$2:$D$287</f>
             </numRef>
           </val>
         </ser>
@@ -517,12 +525,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$284</f>
+              <f>'连板数据分析'!$A$2:$A$287</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$284</f>
+              <f>'连板数据分析'!$F$2:$F$287</f>
             </numRef>
           </val>
         </ser>
@@ -600,7 +608,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="50940000" cy="2700000"/>
+    <ext cx="51480000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -622,7 +630,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="50940000" cy="2700000"/>
+    <ext cx="51480000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -644,7 +652,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="50940000" cy="2700000"/>
+    <ext cx="51480000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -951,11 +959,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JX23"/>
+  <dimension ref="A1:KA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="IQ17" sqref="IQ17"/>
+      <selection pane="topRight" activeCell="BY22" sqref="BY22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1241,1426 +1249,1444 @@
     <col width="33.6" customWidth="1" min="279" max="279"/>
     <col width="62.4" customWidth="1" min="280" max="280"/>
     <col width="133.2" customWidth="1" min="281" max="281"/>
-    <col width="57.59999999999999" customWidth="1" min="282" max="282"/>
+    <col width="57.59999999999999" customWidth="1" min="282" max="283"/>
     <col width="57.59999999999999" customWidth="1" min="283" max="283"/>
     <col width="54" customWidth="1" min="284" max="284"/>
+    <col width="48" customWidth="1" min="285" max="285"/>
+    <col width="57.59999999999999" customWidth="1" min="286" max="286"/>
+    <col width="57.59999999999999" customWidth="1" min="287" max="287"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="7" t="n"/>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="A1" s="8" t="n"/>
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>2023-01-04</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>2023-01-05</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>2023-01-06</t>
         </is>
       </c>
-      <c r="F1" s="8" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>2023-01-09</t>
         </is>
       </c>
-      <c r="G1" s="8" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>2023-01-10</t>
         </is>
       </c>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>2023-01-11</t>
         </is>
       </c>
-      <c r="I1" s="8" t="inlineStr">
+      <c r="I1" s="9" t="inlineStr">
         <is>
           <t>2023-01-12</t>
         </is>
       </c>
-      <c r="J1" s="8" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>2023-01-13</t>
         </is>
       </c>
-      <c r="K1" s="8" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>2023-01-16</t>
         </is>
       </c>
-      <c r="L1" s="8" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>2023-01-17</t>
         </is>
       </c>
-      <c r="M1" s="8" t="inlineStr">
+      <c r="M1" s="9" t="inlineStr">
         <is>
           <t>2023-01-18</t>
         </is>
       </c>
-      <c r="N1" s="8" t="inlineStr">
+      <c r="N1" s="9" t="inlineStr">
         <is>
           <t>2023-01-19</t>
         </is>
       </c>
-      <c r="O1" s="8" t="inlineStr">
+      <c r="O1" s="9" t="inlineStr">
         <is>
           <t>2023-01-20</t>
         </is>
       </c>
-      <c r="P1" s="8" t="inlineStr">
+      <c r="P1" s="9" t="inlineStr">
         <is>
           <t>2023-01-30</t>
         </is>
       </c>
-      <c r="Q1" s="8" t="inlineStr">
+      <c r="Q1" s="9" t="inlineStr">
         <is>
           <t>2023-01-31</t>
         </is>
       </c>
-      <c r="R1" s="8" t="inlineStr">
+      <c r="R1" s="9" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="S1" s="8" t="inlineStr">
+      <c r="S1" s="9" t="inlineStr">
         <is>
           <t>2023-02-02</t>
         </is>
       </c>
-      <c r="T1" s="8" t="inlineStr">
+      <c r="T1" s="9" t="inlineStr">
         <is>
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="U1" s="8" t="inlineStr">
+      <c r="U1" s="9" t="inlineStr">
         <is>
           <t>2023-02-06</t>
         </is>
       </c>
-      <c r="V1" s="8" t="inlineStr">
+      <c r="V1" s="9" t="inlineStr">
         <is>
           <t>2023-02-07</t>
         </is>
       </c>
-      <c r="W1" s="8" t="inlineStr">
+      <c r="W1" s="9" t="inlineStr">
         <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="X1" s="8" t="inlineStr">
+      <c r="X1" s="9" t="inlineStr">
         <is>
           <t>2023-02-09</t>
         </is>
       </c>
-      <c r="Y1" s="8" t="inlineStr">
+      <c r="Y1" s="9" t="inlineStr">
         <is>
           <t>2023-02-10</t>
         </is>
       </c>
-      <c r="Z1" s="8" t="inlineStr">
+      <c r="Z1" s="9" t="inlineStr">
         <is>
           <t>2023-02-13</t>
         </is>
       </c>
-      <c r="AA1" s="8" t="inlineStr">
+      <c r="AA1" s="9" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="AB1" s="8" t="inlineStr">
+      <c r="AB1" s="9" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="AC1" s="8" t="inlineStr">
+      <c r="AC1" s="9" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="AD1" s="8" t="inlineStr">
+      <c r="AD1" s="9" t="inlineStr">
         <is>
           <t>2023-02-17</t>
         </is>
       </c>
-      <c r="AE1" s="8" t="inlineStr">
+      <c r="AE1" s="9" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="AF1" s="8" t="inlineStr">
+      <c r="AF1" s="9" t="inlineStr">
         <is>
           <t>2023-02-21</t>
         </is>
       </c>
-      <c r="AG1" s="8" t="inlineStr">
+      <c r="AG1" s="9" t="inlineStr">
         <is>
           <t>2023-02-22</t>
         </is>
       </c>
-      <c r="AH1" s="8" t="inlineStr">
+      <c r="AH1" s="9" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="AI1" s="8" t="inlineStr">
+      <c r="AI1" s="9" t="inlineStr">
         <is>
           <t>2023-02-24</t>
         </is>
       </c>
-      <c r="AJ1" s="8" t="inlineStr">
+      <c r="AJ1" s="9" t="inlineStr">
         <is>
           <t>2023-02-27</t>
         </is>
       </c>
-      <c r="AK1" s="8" t="inlineStr">
+      <c r="AK1" s="9" t="inlineStr">
         <is>
           <t>2023-02-28</t>
         </is>
       </c>
-      <c r="AL1" s="8" t="inlineStr">
+      <c r="AL1" s="9" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="AM1" s="8" t="inlineStr">
+      <c r="AM1" s="9" t="inlineStr">
         <is>
           <t>2023-03-02</t>
         </is>
       </c>
-      <c r="AN1" s="8" t="inlineStr">
+      <c r="AN1" s="9" t="inlineStr">
         <is>
           <t>2023-03-03</t>
         </is>
       </c>
-      <c r="AO1" s="8" t="inlineStr">
+      <c r="AO1" s="9" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="AP1" s="8" t="inlineStr">
+      <c r="AP1" s="9" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="AQ1" s="8" t="inlineStr">
+      <c r="AQ1" s="9" t="inlineStr">
         <is>
           <t>2023-03-08</t>
         </is>
       </c>
-      <c r="AR1" s="8" t="inlineStr">
+      <c r="AR1" s="9" t="inlineStr">
         <is>
           <t>2023-03-09</t>
         </is>
       </c>
-      <c r="AS1" s="8" t="inlineStr">
+      <c r="AS1" s="9" t="inlineStr">
         <is>
           <t>2023-03-10</t>
         </is>
       </c>
-      <c r="AT1" s="8" t="inlineStr">
+      <c r="AT1" s="9" t="inlineStr">
         <is>
           <t>2023-03-13</t>
         </is>
       </c>
-      <c r="AU1" s="8" t="inlineStr">
+      <c r="AU1" s="9" t="inlineStr">
         <is>
           <t>2023-03-14</t>
         </is>
       </c>
-      <c r="AV1" s="8" t="inlineStr">
+      <c r="AV1" s="9" t="inlineStr">
         <is>
           <t>2023-03-15</t>
         </is>
       </c>
-      <c r="AW1" s="8" t="inlineStr">
+      <c r="AW1" s="9" t="inlineStr">
         <is>
           <t>2023-03-16</t>
         </is>
       </c>
-      <c r="AX1" s="8" t="inlineStr">
+      <c r="AX1" s="9" t="inlineStr">
         <is>
           <t>2023-03-17</t>
         </is>
       </c>
-      <c r="AY1" s="8" t="inlineStr">
+      <c r="AY1" s="9" t="inlineStr">
         <is>
           <t>2023-03-20</t>
         </is>
       </c>
-      <c r="AZ1" s="8" t="inlineStr">
+      <c r="AZ1" s="9" t="inlineStr">
         <is>
           <t>2023-03-21</t>
         </is>
       </c>
-      <c r="BA1" s="8" t="inlineStr">
+      <c r="BA1" s="9" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
       </c>
-      <c r="BB1" s="8" t="inlineStr">
+      <c r="BB1" s="9" t="inlineStr">
         <is>
           <t>2023-03-23</t>
         </is>
       </c>
-      <c r="BC1" s="8" t="inlineStr">
+      <c r="BC1" s="9" t="inlineStr">
         <is>
           <t>2023-03-24</t>
         </is>
       </c>
-      <c r="BD1" s="8" t="inlineStr">
+      <c r="BD1" s="9" t="inlineStr">
         <is>
           <t>2023-03-27</t>
         </is>
       </c>
-      <c r="BE1" s="8" t="inlineStr">
+      <c r="BE1" s="9" t="inlineStr">
         <is>
           <t>2023-03-28</t>
         </is>
       </c>
-      <c r="BF1" s="8" t="inlineStr">
+      <c r="BF1" s="9" t="inlineStr">
         <is>
           <t>2023-03-29</t>
         </is>
       </c>
-      <c r="BG1" s="8" t="inlineStr">
+      <c r="BG1" s="9" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="BH1" s="8" t="inlineStr">
+      <c r="BH1" s="9" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="BI1" s="8" t="inlineStr">
+      <c r="BI1" s="9" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="BJ1" s="8" t="inlineStr">
+      <c r="BJ1" s="9" t="inlineStr">
         <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="BK1" s="8" t="inlineStr">
+      <c r="BK1" s="9" t="inlineStr">
         <is>
           <t>2023-04-06</t>
         </is>
       </c>
-      <c r="BL1" s="8" t="inlineStr">
+      <c r="BL1" s="9" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
       </c>
-      <c r="BM1" s="8" t="inlineStr">
+      <c r="BM1" s="9" t="inlineStr">
         <is>
           <t>2023-04-10</t>
         </is>
       </c>
-      <c r="BN1" s="8" t="inlineStr">
+      <c r="BN1" s="9" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
       </c>
-      <c r="BO1" s="8" t="inlineStr">
+      <c r="BO1" s="9" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="BP1" s="8" t="inlineStr">
+      <c r="BP1" s="9" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
       </c>
-      <c r="BQ1" s="8" t="inlineStr">
+      <c r="BQ1" s="9" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="BR1" s="8" t="inlineStr">
+      <c r="BR1" s="9" t="inlineStr">
         <is>
           <t>2023-04-17</t>
         </is>
       </c>
-      <c r="BS1" s="8" t="inlineStr">
+      <c r="BS1" s="9" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
-      <c r="BT1" s="8" t="inlineStr">
+      <c r="BT1" s="9" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
       </c>
-      <c r="BU1" s="8" t="inlineStr">
+      <c r="BU1" s="9" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="BV1" s="8" t="inlineStr">
+      <c r="BV1" s="9" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="BW1" s="8" t="inlineStr">
+      <c r="BW1" s="9" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
       </c>
-      <c r="BX1" s="8" t="inlineStr">
+      <c r="BX1" s="9" t="inlineStr">
         <is>
           <t>2023-04-25</t>
         </is>
       </c>
-      <c r="BY1" s="8" t="inlineStr">
+      <c r="BY1" s="9" t="inlineStr">
         <is>
           <t>2023-04-26</t>
         </is>
       </c>
-      <c r="BZ1" s="8" t="inlineStr">
+      <c r="BZ1" s="9" t="inlineStr">
         <is>
           <t>2023-04-27</t>
         </is>
       </c>
-      <c r="CA1" s="8" t="inlineStr">
+      <c r="CA1" s="9" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="CB1" s="8" t="inlineStr">
+      <c r="CB1" s="9" t="inlineStr">
         <is>
           <t>2023-05-04</t>
         </is>
       </c>
-      <c r="CC1" s="8" t="inlineStr">
+      <c r="CC1" s="9" t="inlineStr">
         <is>
           <t>2023-05-05</t>
         </is>
       </c>
-      <c r="CD1" s="8" t="inlineStr">
+      <c r="CD1" s="9" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
-      <c r="CE1" s="8" t="inlineStr">
+      <c r="CE1" s="9" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="CF1" s="8" t="inlineStr">
+      <c r="CF1" s="9" t="inlineStr">
         <is>
           <t>2023-05-10</t>
         </is>
       </c>
-      <c r="CG1" s="8" t="inlineStr">
+      <c r="CG1" s="9" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="CH1" s="8" t="inlineStr">
+      <c r="CH1" s="9" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="CI1" s="8" t="inlineStr">
+      <c r="CI1" s="9" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="CJ1" s="8" t="inlineStr">
+      <c r="CJ1" s="9" t="inlineStr">
         <is>
           <t>2023-05-16</t>
         </is>
       </c>
-      <c r="CK1" s="8" t="inlineStr">
+      <c r="CK1" s="9" t="inlineStr">
         <is>
           <t>2023-05-17</t>
         </is>
       </c>
-      <c r="CL1" s="8" t="inlineStr">
+      <c r="CL1" s="9" t="inlineStr">
         <is>
           <t>2023-05-18</t>
         </is>
       </c>
-      <c r="CM1" s="8" t="inlineStr">
+      <c r="CM1" s="9" t="inlineStr">
         <is>
           <t>2023-05-19</t>
         </is>
       </c>
-      <c r="CN1" s="8" t="inlineStr">
+      <c r="CN1" s="9" t="inlineStr">
         <is>
           <t>2023-05-22</t>
         </is>
       </c>
-      <c r="CO1" s="8" t="inlineStr">
+      <c r="CO1" s="9" t="inlineStr">
         <is>
           <t>2023-05-23</t>
         </is>
       </c>
-      <c r="CP1" s="8" t="inlineStr">
+      <c r="CP1" s="9" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="CQ1" s="8" t="inlineStr">
+      <c r="CQ1" s="9" t="inlineStr">
         <is>
           <t>2023-05-25</t>
         </is>
       </c>
-      <c r="CR1" s="8" t="inlineStr">
+      <c r="CR1" s="9" t="inlineStr">
         <is>
           <t>2023-05-26</t>
         </is>
       </c>
-      <c r="CS1" s="8" t="inlineStr">
+      <c r="CS1" s="9" t="inlineStr">
         <is>
           <t>2023-05-29</t>
         </is>
       </c>
-      <c r="CT1" s="8" t="inlineStr">
+      <c r="CT1" s="9" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
       </c>
-      <c r="CU1" s="8" t="inlineStr">
+      <c r="CU1" s="9" t="inlineStr">
         <is>
           <t>2023-05-31</t>
         </is>
       </c>
-      <c r="CV1" s="8" t="inlineStr">
+      <c r="CV1" s="9" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="CW1" s="8" t="inlineStr">
+      <c r="CW1" s="9" t="inlineStr">
         <is>
           <t>2023-06-02</t>
         </is>
       </c>
-      <c r="CX1" s="8" t="inlineStr">
+      <c r="CX1" s="9" t="inlineStr">
         <is>
           <t>2023-06-05</t>
         </is>
       </c>
-      <c r="CY1" s="8" t="inlineStr">
+      <c r="CY1" s="9" t="inlineStr">
         <is>
           <t>2023-06-06</t>
         </is>
       </c>
-      <c r="CZ1" s="8" t="inlineStr">
+      <c r="CZ1" s="9" t="inlineStr">
         <is>
           <t>2023-06-07</t>
         </is>
       </c>
-      <c r="DA1" s="8" t="inlineStr">
+      <c r="DA1" s="9" t="inlineStr">
         <is>
           <t>2023-06-08</t>
         </is>
       </c>
-      <c r="DB1" s="8" t="inlineStr">
+      <c r="DB1" s="9" t="inlineStr">
         <is>
           <t>2023-06-09</t>
         </is>
       </c>
-      <c r="DC1" s="8" t="inlineStr">
+      <c r="DC1" s="9" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
-      <c r="DD1" s="8" t="inlineStr">
+      <c r="DD1" s="9" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="DE1" s="8" t="inlineStr">
+      <c r="DE1" s="9" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="DF1" s="8" t="inlineStr">
+      <c r="DF1" s="9" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="DG1" s="8" t="inlineStr">
+      <c r="DG1" s="9" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="DH1" s="8" t="inlineStr">
+      <c r="DH1" s="9" t="inlineStr">
         <is>
           <t>2023-06-19</t>
         </is>
       </c>
-      <c r="DI1" s="8" t="inlineStr">
+      <c r="DI1" s="9" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="DJ1" s="8" t="inlineStr">
+      <c r="DJ1" s="9" t="inlineStr">
         <is>
           <t>2023-06-21</t>
         </is>
       </c>
-      <c r="DK1" s="8" t="inlineStr">
+      <c r="DK1" s="9" t="inlineStr">
         <is>
           <t>2023-06-26</t>
         </is>
       </c>
-      <c r="DL1" s="8" t="inlineStr">
+      <c r="DL1" s="9" t="inlineStr">
         <is>
           <t>2023-06-27</t>
         </is>
       </c>
-      <c r="DM1" s="8" t="inlineStr">
+      <c r="DM1" s="9" t="inlineStr">
         <is>
           <t>2023-06-28</t>
         </is>
       </c>
-      <c r="DN1" s="8" t="inlineStr">
+      <c r="DN1" s="9" t="inlineStr">
         <is>
           <t>2023-06-29</t>
         </is>
       </c>
-      <c r="DO1" s="8" t="inlineStr">
+      <c r="DO1" s="9" t="inlineStr">
         <is>
           <t>2023-06-30</t>
         </is>
       </c>
-      <c r="DP1" s="8" t="inlineStr">
+      <c r="DP1" s="9" t="inlineStr">
         <is>
           <t>2023-07-03</t>
         </is>
       </c>
-      <c r="DQ1" s="8" t="inlineStr">
+      <c r="DQ1" s="9" t="inlineStr">
         <is>
           <t>2023-07-04</t>
         </is>
       </c>
-      <c r="DR1" s="8" t="inlineStr">
+      <c r="DR1" s="9" t="inlineStr">
         <is>
           <t>2023-07-05</t>
         </is>
       </c>
-      <c r="DS1" s="8" t="inlineStr">
+      <c r="DS1" s="9" t="inlineStr">
         <is>
           <t>2023-07-06</t>
         </is>
       </c>
-      <c r="DT1" s="8" t="inlineStr">
+      <c r="DT1" s="9" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="DU1" s="8" t="inlineStr">
+      <c r="DU1" s="9" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
       </c>
-      <c r="DV1" s="8" t="inlineStr">
+      <c r="DV1" s="9" t="inlineStr">
         <is>
           <t>2023-07-11</t>
         </is>
       </c>
-      <c r="DW1" s="8" t="inlineStr">
+      <c r="DW1" s="9" t="inlineStr">
         <is>
           <t>2023-07-12</t>
         </is>
       </c>
-      <c r="DX1" s="8" t="inlineStr">
+      <c r="DX1" s="9" t="inlineStr">
         <is>
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="DY1" s="8" t="inlineStr">
+      <c r="DY1" s="9" t="inlineStr">
         <is>
           <t>2023-07-14</t>
         </is>
       </c>
-      <c r="DZ1" s="8" t="inlineStr">
+      <c r="DZ1" s="9" t="inlineStr">
         <is>
           <t>2023-07-17</t>
         </is>
       </c>
-      <c r="EA1" s="8" t="inlineStr">
+      <c r="EA1" s="9" t="inlineStr">
         <is>
           <t>2023-07-18</t>
         </is>
       </c>
-      <c r="EB1" s="8" t="inlineStr">
+      <c r="EB1" s="9" t="inlineStr">
         <is>
           <t>2023-07-19</t>
         </is>
       </c>
-      <c r="EC1" s="8" t="inlineStr">
+      <c r="EC1" s="9" t="inlineStr">
         <is>
           <t>2023-07-20</t>
         </is>
       </c>
-      <c r="ED1" s="8" t="inlineStr">
+      <c r="ED1" s="9" t="inlineStr">
         <is>
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="EE1" s="8" t="inlineStr">
+      <c r="EE1" s="9" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="EF1" s="8" t="inlineStr">
+      <c r="EF1" s="9" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
       </c>
-      <c r="EG1" s="8" t="inlineStr">
+      <c r="EG1" s="9" t="inlineStr">
         <is>
           <t>2023-07-26</t>
         </is>
       </c>
-      <c r="EH1" s="8" t="inlineStr">
+      <c r="EH1" s="9" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="EI1" s="8" t="inlineStr">
+      <c r="EI1" s="9" t="inlineStr">
         <is>
           <t>2023-07-28</t>
         </is>
       </c>
-      <c r="EJ1" s="8" t="inlineStr">
+      <c r="EJ1" s="9" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
       </c>
-      <c r="EK1" s="8" t="inlineStr">
+      <c r="EK1" s="9" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="EL1" s="8" t="inlineStr">
+      <c r="EL1" s="9" t="inlineStr">
         <is>
           <t>2023-08-02</t>
         </is>
       </c>
-      <c r="EM1" s="8" t="inlineStr">
+      <c r="EM1" s="9" t="inlineStr">
         <is>
           <t>2023-08-03</t>
         </is>
       </c>
-      <c r="EN1" s="8" t="inlineStr">
+      <c r="EN1" s="9" t="inlineStr">
         <is>
           <t>2023-08-04</t>
         </is>
       </c>
-      <c r="EO1" s="8" t="inlineStr">
+      <c r="EO1" s="9" t="inlineStr">
         <is>
           <t>2023-08-07</t>
         </is>
       </c>
-      <c r="EP1" s="8" t="inlineStr">
+      <c r="EP1" s="9" t="inlineStr">
         <is>
           <t>2023-08-08</t>
         </is>
       </c>
-      <c r="EQ1" s="8" t="inlineStr">
+      <c r="EQ1" s="9" t="inlineStr">
         <is>
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="ER1" s="8" t="inlineStr">
+      <c r="ER1" s="9" t="inlineStr">
         <is>
           <t>2023-08-10</t>
         </is>
       </c>
-      <c r="ES1" s="8" t="inlineStr">
+      <c r="ES1" s="9" t="inlineStr">
         <is>
           <t>2023-08-11</t>
         </is>
       </c>
-      <c r="ET1" s="8" t="inlineStr">
+      <c r="ET1" s="9" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="EU1" s="8" t="inlineStr">
+      <c r="EU1" s="9" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="EV1" s="8" t="inlineStr">
+      <c r="EV1" s="9" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="EW1" s="8" t="inlineStr">
+      <c r="EW1" s="9" t="inlineStr">
         <is>
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="EX1" s="8" t="inlineStr">
+      <c r="EX1" s="9" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="EY1" s="8" t="inlineStr">
+      <c r="EY1" s="9" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="EZ1" s="8" t="inlineStr">
+      <c r="EZ1" s="9" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="FA1" s="8" t="inlineStr">
+      <c r="FA1" s="9" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="FB1" s="8" t="inlineStr">
+      <c r="FB1" s="9" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="FC1" s="8" t="inlineStr">
+      <c r="FC1" s="9" t="inlineStr">
         <is>
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="FD1" s="8" t="inlineStr">
+      <c r="FD1" s="9" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="FE1" s="8" t="inlineStr">
+      <c r="FE1" s="9" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="FF1" s="8" t="inlineStr">
+      <c r="FF1" s="9" t="inlineStr">
         <is>
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="FG1" s="8" t="inlineStr">
+      <c r="FG1" s="9" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="FH1" s="8" t="inlineStr">
+      <c r="FH1" s="9" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="FI1" s="8" t="inlineStr">
+      <c r="FI1" s="9" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="FJ1" s="8" t="inlineStr">
+      <c r="FJ1" s="9" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="FK1" s="8" t="inlineStr">
+      <c r="FK1" s="9" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="FL1" s="8" t="inlineStr">
+      <c r="FL1" s="9" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="FM1" s="8" t="inlineStr">
+      <c r="FM1" s="9" t="inlineStr">
         <is>
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="FN1" s="8" t="inlineStr">
+      <c r="FN1" s="9" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="FO1" s="8" t="inlineStr">
+      <c r="FO1" s="9" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="FP1" s="8" t="inlineStr">
+      <c r="FP1" s="9" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="FQ1" s="8" t="inlineStr">
+      <c r="FQ1" s="9" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="FR1" s="8" t="inlineStr">
+      <c r="FR1" s="9" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="FS1" s="8" t="inlineStr">
+      <c r="FS1" s="9" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="FT1" s="8" t="inlineStr">
+      <c r="FT1" s="9" t="inlineStr">
         <is>
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="FU1" s="8" t="inlineStr">
+      <c r="FU1" s="9" t="inlineStr">
         <is>
           <t>2023-09-20</t>
         </is>
       </c>
-      <c r="FV1" s="8" t="inlineStr">
+      <c r="FV1" s="9" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="FW1" s="8" t="inlineStr">
+      <c r="FW1" s="9" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="FX1" s="8" t="inlineStr">
+      <c r="FX1" s="9" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="FY1" s="8" t="inlineStr">
+      <c r="FY1" s="9" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="FZ1" s="8" t="inlineStr">
+      <c r="FZ1" s="9" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
       </c>
-      <c r="GA1" s="8" t="inlineStr">
+      <c r="GA1" s="9" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="GB1" s="8" t="inlineStr">
+      <c r="GB1" s="9" t="inlineStr">
         <is>
           <t>2023-10-09</t>
         </is>
       </c>
-      <c r="GC1" s="8" t="inlineStr">
+      <c r="GC1" s="9" t="inlineStr">
         <is>
           <t>2023-10-10</t>
         </is>
       </c>
-      <c r="GD1" s="8" t="inlineStr">
+      <c r="GD1" s="9" t="inlineStr">
         <is>
           <t>2023-10-11</t>
         </is>
       </c>
-      <c r="GE1" s="8" t="inlineStr">
+      <c r="GE1" s="9" t="inlineStr">
         <is>
           <t>2023-10-12</t>
         </is>
       </c>
-      <c r="GF1" s="8" t="inlineStr">
+      <c r="GF1" s="9" t="inlineStr">
         <is>
           <t>2023-10-13</t>
         </is>
       </c>
-      <c r="GG1" s="8" t="inlineStr">
+      <c r="GG1" s="9" t="inlineStr">
         <is>
           <t>2023-10-16</t>
         </is>
       </c>
-      <c r="GH1" s="8" t="inlineStr">
+      <c r="GH1" s="9" t="inlineStr">
         <is>
           <t>2023-10-17</t>
         </is>
       </c>
-      <c r="GI1" s="8" t="inlineStr">
+      <c r="GI1" s="9" t="inlineStr">
         <is>
           <t>2023-10-18</t>
         </is>
       </c>
-      <c r="GJ1" s="8" t="inlineStr">
+      <c r="GJ1" s="9" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="GK1" s="8" t="inlineStr">
+      <c r="GK1" s="9" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="GL1" s="8" t="inlineStr">
+      <c r="GL1" s="9" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="GM1" s="8" t="inlineStr">
+      <c r="GM1" s="9" t="inlineStr">
         <is>
           <t>2023-10-24</t>
         </is>
       </c>
-      <c r="GN1" s="8" t="inlineStr">
+      <c r="GN1" s="9" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
       </c>
-      <c r="GO1" s="8" t="inlineStr">
+      <c r="GO1" s="9" t="inlineStr">
         <is>
           <t>2023-10-26</t>
         </is>
       </c>
-      <c r="GP1" s="8" t="inlineStr">
+      <c r="GP1" s="9" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
       </c>
-      <c r="GQ1" s="8" t="inlineStr">
+      <c r="GQ1" s="9" t="inlineStr">
         <is>
           <t>2023-10-30</t>
         </is>
       </c>
-      <c r="GR1" s="8" t="inlineStr">
+      <c r="GR1" s="9" t="inlineStr">
         <is>
           <t>2023-10-31</t>
         </is>
       </c>
-      <c r="GS1" s="8" t="inlineStr">
+      <c r="GS1" s="9" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="GT1" s="8" t="inlineStr">
+      <c r="GT1" s="9" t="inlineStr">
         <is>
           <t>2023-11-02</t>
         </is>
       </c>
-      <c r="GU1" s="8" t="inlineStr">
+      <c r="GU1" s="9" t="inlineStr">
         <is>
           <t>2023-11-03</t>
         </is>
       </c>
-      <c r="GV1" s="8" t="inlineStr">
+      <c r="GV1" s="9" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="GW1" s="8" t="inlineStr">
+      <c r="GW1" s="9" t="inlineStr">
         <is>
           <t>2023-11-07</t>
         </is>
       </c>
-      <c r="GX1" s="8" t="inlineStr">
+      <c r="GX1" s="9" t="inlineStr">
         <is>
           <t>2023-11-08</t>
         </is>
       </c>
-      <c r="GY1" s="8" t="inlineStr">
+      <c r="GY1" s="9" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
       </c>
-      <c r="GZ1" s="8" t="inlineStr">
+      <c r="GZ1" s="9" t="inlineStr">
         <is>
           <t>2023-11-10</t>
         </is>
       </c>
-      <c r="HA1" s="8" t="inlineStr">
+      <c r="HA1" s="9" t="inlineStr">
         <is>
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="HB1" s="8" t="inlineStr">
+      <c r="HB1" s="9" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
       </c>
-      <c r="HC1" s="8" t="inlineStr">
+      <c r="HC1" s="9" t="inlineStr">
         <is>
           <t>2023-11-15</t>
         </is>
       </c>
-      <c r="HD1" s="8" t="inlineStr">
+      <c r="HD1" s="9" t="inlineStr">
         <is>
           <t>2023-11-16</t>
         </is>
       </c>
-      <c r="HE1" s="8" t="inlineStr">
+      <c r="HE1" s="9" t="inlineStr">
         <is>
           <t>2023-11-17</t>
         </is>
       </c>
-      <c r="HF1" s="8" t="inlineStr">
+      <c r="HF1" s="9" t="inlineStr">
         <is>
           <t>2023-11-20</t>
         </is>
       </c>
-      <c r="HG1" s="8" t="inlineStr">
+      <c r="HG1" s="9" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="HH1" s="8" t="inlineStr">
+      <c r="HH1" s="9" t="inlineStr">
         <is>
           <t>2023-11-22</t>
         </is>
       </c>
-      <c r="HI1" s="8" t="inlineStr">
+      <c r="HI1" s="9" t="inlineStr">
         <is>
           <t>2023-11-23</t>
         </is>
       </c>
-      <c r="HJ1" s="8" t="inlineStr">
+      <c r="HJ1" s="9" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="HK1" s="8" t="inlineStr">
+      <c r="HK1" s="9" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="HL1" s="8" t="inlineStr">
+      <c r="HL1" s="9" t="inlineStr">
         <is>
           <t>2023-11-28</t>
         </is>
       </c>
-      <c r="HM1" s="8" t="inlineStr">
+      <c r="HM1" s="9" t="inlineStr">
         <is>
           <t>2023-11-29</t>
         </is>
       </c>
-      <c r="HN1" s="8" t="inlineStr">
+      <c r="HN1" s="9" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="HO1" s="8" t="inlineStr">
+      <c r="HO1" s="9" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="HP1" s="8" t="inlineStr">
+      <c r="HP1" s="9" t="inlineStr">
         <is>
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="HQ1" s="8" t="inlineStr">
+      <c r="HQ1" s="9" t="inlineStr">
         <is>
           <t>2023-12-05</t>
         </is>
       </c>
-      <c r="HR1" s="8" t="inlineStr">
+      <c r="HR1" s="9" t="inlineStr">
         <is>
           <t>2023-12-06</t>
         </is>
       </c>
-      <c r="HS1" s="8" t="inlineStr">
+      <c r="HS1" s="9" t="inlineStr">
         <is>
           <t>2023-12-07</t>
         </is>
       </c>
-      <c r="HT1" s="8" t="inlineStr">
+      <c r="HT1" s="9" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="HU1" s="8" t="inlineStr">
+      <c r="HU1" s="9" t="inlineStr">
         <is>
           <t>2023-12-11</t>
         </is>
       </c>
-      <c r="HV1" s="8" t="inlineStr">
+      <c r="HV1" s="9" t="inlineStr">
         <is>
           <t>2023-12-12</t>
         </is>
       </c>
-      <c r="HW1" s="8" t="inlineStr">
+      <c r="HW1" s="9" t="inlineStr">
         <is>
           <t>2023-12-13</t>
         </is>
       </c>
-      <c r="HX1" s="8" t="inlineStr">
+      <c r="HX1" s="9" t="inlineStr">
         <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="HY1" s="8" t="inlineStr">
+      <c r="HY1" s="9" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="HZ1" s="8" t="inlineStr">
+      <c r="HZ1" s="9" t="inlineStr">
         <is>
           <t>2023-12-18</t>
         </is>
       </c>
-      <c r="IA1" s="8" t="inlineStr">
+      <c r="IA1" s="9" t="inlineStr">
         <is>
           <t>2023-12-19</t>
         </is>
       </c>
-      <c r="IB1" s="8" t="inlineStr">
+      <c r="IB1" s="9" t="inlineStr">
         <is>
           <t>2023-12-20</t>
         </is>
       </c>
-      <c r="IC1" s="8" t="inlineStr">
+      <c r="IC1" s="9" t="inlineStr">
         <is>
           <t>2023-12-21</t>
         </is>
       </c>
-      <c r="ID1" s="8" t="inlineStr">
+      <c r="ID1" s="9" t="inlineStr">
         <is>
           <t>2023-12-22</t>
         </is>
       </c>
-      <c r="IE1" s="8" t="inlineStr">
+      <c r="IE1" s="9" t="inlineStr">
         <is>
           <t>2023-12-25</t>
         </is>
       </c>
-      <c r="IF1" s="8" t="inlineStr">
+      <c r="IF1" s="9" t="inlineStr">
         <is>
           <t>2023-12-26</t>
         </is>
       </c>
-      <c r="IG1" s="8" t="inlineStr">
+      <c r="IG1" s="9" t="inlineStr">
         <is>
           <t>2023-12-27</t>
         </is>
       </c>
-      <c r="IH1" s="8" t="inlineStr">
+      <c r="IH1" s="9" t="inlineStr">
         <is>
           <t>2023-12-28</t>
         </is>
       </c>
-      <c r="II1" s="8" t="inlineStr">
+      <c r="II1" s="9" t="inlineStr">
         <is>
           <t>2023-12-29</t>
         </is>
       </c>
-      <c r="IJ1" s="8" t="inlineStr">
+      <c r="IJ1" s="9" t="inlineStr">
         <is>
           <t>2024-01-02</t>
         </is>
       </c>
-      <c r="IK1" s="8" t="inlineStr">
+      <c r="IK1" s="9" t="inlineStr">
         <is>
           <t>2024-01-03</t>
         </is>
       </c>
-      <c r="IL1" s="8" t="inlineStr">
+      <c r="IL1" s="9" t="inlineStr">
         <is>
           <t>2024-01-04</t>
         </is>
       </c>
-      <c r="IM1" s="8" t="inlineStr">
+      <c r="IM1" s="9" t="inlineStr">
         <is>
           <t>2024-01-05</t>
         </is>
       </c>
-      <c r="IN1" s="8" t="inlineStr">
+      <c r="IN1" s="9" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="IO1" s="8" t="inlineStr">
+      <c r="IO1" s="9" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="IP1" s="8" t="inlineStr">
+      <c r="IP1" s="9" t="inlineStr">
         <is>
           <t>2024-01-10</t>
         </is>
       </c>
-      <c r="IQ1" s="8" t="inlineStr">
+      <c r="IQ1" s="9" t="inlineStr">
         <is>
           <t>2024-01-11</t>
         </is>
       </c>
-      <c r="IR1" s="8" t="inlineStr">
+      <c r="IR1" s="9" t="inlineStr">
         <is>
           <t>2024-01-12</t>
         </is>
       </c>
-      <c r="IS1" s="8" t="inlineStr">
+      <c r="IS1" s="9" t="inlineStr">
         <is>
           <t>2024-01-15</t>
         </is>
       </c>
-      <c r="IT1" s="8" t="inlineStr">
+      <c r="IT1" s="9" t="inlineStr">
         <is>
           <t>2024-01-16</t>
         </is>
       </c>
-      <c r="IU1" s="8" t="inlineStr">
+      <c r="IU1" s="9" t="inlineStr">
         <is>
           <t>2024-01-17</t>
         </is>
       </c>
-      <c r="IV1" s="8" t="inlineStr">
+      <c r="IV1" s="9" t="inlineStr">
         <is>
           <t>2024-01-18</t>
         </is>
       </c>
-      <c r="IW1" s="8" t="inlineStr">
+      <c r="IW1" s="9" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="IX1" s="8" t="inlineStr">
+      <c r="IX1" s="9" t="inlineStr">
         <is>
           <t>2024-01-22</t>
         </is>
       </c>
-      <c r="IY1" s="8" t="inlineStr">
+      <c r="IY1" s="9" t="inlineStr">
         <is>
           <t>2024-01-23</t>
         </is>
       </c>
-      <c r="IZ1" s="8" t="inlineStr">
+      <c r="IZ1" s="9" t="inlineStr">
         <is>
           <t>2024-01-24</t>
         </is>
       </c>
-      <c r="JA1" s="8" t="inlineStr">
+      <c r="JA1" s="9" t="inlineStr">
         <is>
           <t>2024-01-25</t>
         </is>
       </c>
-      <c r="JB1" s="8" t="inlineStr">
+      <c r="JB1" s="9" t="inlineStr">
         <is>
           <t>2024-01-26</t>
         </is>
       </c>
-      <c r="JC1" s="8" t="inlineStr">
+      <c r="JC1" s="9" t="inlineStr">
         <is>
           <t>2024-01-29</t>
         </is>
       </c>
-      <c r="JD1" s="8" t="inlineStr">
+      <c r="JD1" s="9" t="inlineStr">
         <is>
           <t>2024-01-30</t>
         </is>
       </c>
-      <c r="JE1" s="8" t="inlineStr">
+      <c r="JE1" s="9" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
       </c>
-      <c r="JF1" s="8" t="inlineStr">
+      <c r="JF1" s="9" t="inlineStr">
         <is>
           <t>2024-02-01</t>
         </is>
       </c>
-      <c r="JG1" s="8" t="inlineStr">
+      <c r="JG1" s="9" t="inlineStr">
         <is>
           <t>2024-02-02</t>
         </is>
       </c>
-      <c r="JH1" s="8" t="inlineStr">
+      <c r="JH1" s="9" t="inlineStr">
         <is>
           <t>2024-02-05</t>
         </is>
       </c>
-      <c r="JI1" s="8" t="inlineStr">
+      <c r="JI1" s="9" t="inlineStr">
         <is>
           <t>2024-02-06</t>
         </is>
       </c>
-      <c r="JJ1" s="8" t="inlineStr">
+      <c r="JJ1" s="9" t="inlineStr">
         <is>
           <t>2024-02-07</t>
         </is>
       </c>
-      <c r="JK1" s="8" t="inlineStr">
+      <c r="JK1" s="9" t="inlineStr">
         <is>
           <t>2024-02-08</t>
         </is>
       </c>
-      <c r="JL1" s="8" t="inlineStr">
+      <c r="JL1" s="9" t="inlineStr">
         <is>
           <t>2024-02-19</t>
         </is>
       </c>
-      <c r="JM1" s="8" t="inlineStr">
+      <c r="JM1" s="9" t="inlineStr">
         <is>
           <t>2024-02-20</t>
         </is>
       </c>
-      <c r="JN1" s="8" t="inlineStr">
+      <c r="JN1" s="9" t="inlineStr">
         <is>
           <t>2024-02-21</t>
         </is>
       </c>
-      <c r="JO1" s="8" t="inlineStr">
+      <c r="JO1" s="9" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
       </c>
-      <c r="JP1" s="8" t="inlineStr">
+      <c r="JP1" s="9" t="inlineStr">
         <is>
           <t>2024-02-23</t>
         </is>
       </c>
-      <c r="JQ1" s="8" t="inlineStr">
+      <c r="JQ1" s="9" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
       </c>
-      <c r="JR1" s="8" t="inlineStr">
+      <c r="JR1" s="9" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
       </c>
-      <c r="JS1" s="8" t="inlineStr">
+      <c r="JS1" s="9" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="JT1" s="8" t="inlineStr">
+      <c r="JT1" s="9" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="JU1" s="8" t="inlineStr">
+      <c r="JU1" s="9" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="JV1" s="8" t="inlineStr">
+      <c r="JV1" s="9" t="inlineStr">
         <is>
           <t>2024-03-04</t>
         </is>
       </c>
-      <c r="JW1" s="8" t="inlineStr">
+      <c r="JW1" s="9" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="JX1" s="8" t="inlineStr">
+      <c r="JX1" s="9" t="inlineStr">
         <is>
           <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="JY1" s="9" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="JZ1" s="9" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="KA1" s="9" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3213,7 @@
           <t>国脉文化, 华扬联众</t>
         </is>
       </c>
-      <c r="JX18" s="7" t="inlineStr">
+      <c r="JX18" s="6" t="inlineStr">
         <is>
           <t>安奈儿</t>
         </is>
@@ -3449,12 +3475,12 @@
           <t>东方精工</t>
         </is>
       </c>
-      <c r="JW19" s="7" t="inlineStr">
+      <c r="JW19" s="6" t="inlineStr">
         <is>
           <t>安奈儿</t>
         </is>
       </c>
-      <c r="JX19" s="7" t="inlineStr">
+      <c r="JX19" s="6" t="inlineStr">
         <is>
           <t>天元智能</t>
         </is>
@@ -3926,19 +3952,24 @@
           <t>东方精工</t>
         </is>
       </c>
-      <c r="JV20" s="7" t="inlineStr">
+      <c r="JV20" s="6" t="inlineStr">
         <is>
           <t>安奈儿, 四川金顶</t>
         </is>
       </c>
-      <c r="JW20" s="7" t="inlineStr">
+      <c r="JW20" s="6" t="inlineStr">
         <is>
           <t>天元智能</t>
         </is>
       </c>
-      <c r="JX20" s="7" t="inlineStr">
+      <c r="JX20" s="6" t="inlineStr">
         <is>
           <t>福蓉科技</t>
+        </is>
+      </c>
+      <c r="JY20" s="8" t="inlineStr">
+        <is>
+          <t>文投控股</t>
         </is>
       </c>
     </row>
@@ -4733,19 +4764,34 @@
           <t>汇源通信, 安奈儿, 四川金顶</t>
         </is>
       </c>
-      <c r="JV21" s="7" t="inlineStr">
+      <c r="JV21" s="6" t="inlineStr">
         <is>
           <t>天元智能</t>
         </is>
       </c>
-      <c r="JW21" s="7" t="inlineStr">
+      <c r="JW21" s="6" t="inlineStr">
         <is>
           <t>福蓉科技</t>
         </is>
       </c>
-      <c r="JX21" s="7" t="inlineStr">
+      <c r="JX21" s="6" t="inlineStr">
         <is>
           <t>文投控股</t>
+        </is>
+      </c>
+      <c r="JY21" s="8" t="inlineStr">
+        <is>
+          <t>川润股份</t>
+        </is>
+      </c>
+      <c r="JZ21" s="8" t="inlineStr">
+        <is>
+          <t>安彩高科, 上海沪工, 立航科技, 艾艾精工</t>
+        </is>
+      </c>
+      <c r="KA21" s="8" t="inlineStr">
+        <is>
+          <t>安彩高科, 上海沪工, 立航科技, 艾艾精工</t>
         </is>
       </c>
     </row>
@@ -5855,19 +5901,34 @@
           <t>达意隆, 洪涛股份, 天元智能, 康普顿</t>
         </is>
       </c>
-      <c r="JV22" s="7" t="inlineStr">
+      <c r="JV22" s="6" t="inlineStr">
         <is>
           <t>光迅科技, 康盛股份, 高斯贝尔, 福蓉科技</t>
         </is>
       </c>
-      <c r="JW22" s="7" t="inlineStr">
+      <c r="JW22" s="6" t="inlineStr">
         <is>
           <t>卓翼科技, 文投控股</t>
         </is>
       </c>
-      <c r="JX22" s="7" t="inlineStr">
+      <c r="JX22" s="6" t="inlineStr">
         <is>
           <t>川润股份, 润都股份</t>
+        </is>
+      </c>
+      <c r="JY22" s="8" t="inlineStr">
+        <is>
+          <t>好上好, 合力泰, 安彩高科, 大连圣亚, 上海沪工, 立航科技, 艾艾精工</t>
+        </is>
+      </c>
+      <c r="JZ22" s="8" t="inlineStr">
+        <is>
+          <t>华阳新材</t>
+        </is>
+      </c>
+      <c r="KA22" s="8" t="inlineStr">
+        <is>
+          <t>华阳新材</t>
         </is>
       </c>
     </row>
@@ -7242,19 +7303,34 @@
           <t>美锦能源, 紫光股份, 威尔泰, 纳思达, 宏达新材, 联络互动, 光迅科技, 爱仕达, 康盛股份, 雄韬股份, 高斯贝尔, 宇晶股份, 全柴动力, 张江高科, 柏诚股份, 华立股份, 可川科技, 福蓉科技, 京华激光</t>
         </is>
       </c>
-      <c r="JV23" s="7" t="inlineStr">
+      <c r="JV23" s="6" t="inlineStr">
         <is>
           <t>卓翼科技, 美格智能, 城市传媒, 文投控股, 上海电影, 宏和科技, 思维列控, 苏州科达</t>
         </is>
       </c>
-      <c r="JW23" s="7" t="inlineStr">
+      <c r="JW23" s="6" t="inlineStr">
         <is>
           <t>高新发展, 川润股份, 道明光学, 智能自控, 润都股份, 汉商集团, 中广天择, 时空科技</t>
         </is>
       </c>
-      <c r="JX23" s="7" t="inlineStr">
+      <c r="JX23" s="6" t="inlineStr">
         <is>
           <t>好上好, 红宝丽, 合力泰, 安彩高科, 大连圣亚, 上海沪工, 立航科技, 艾艾精工</t>
+        </is>
+      </c>
+      <c r="JY23" s="8" t="inlineStr">
+        <is>
+          <t>天奇股份, 竞业达, 华阳新材, 金自天正, 海汽集团</t>
+        </is>
+      </c>
+      <c r="JZ23" s="8" t="inlineStr">
+        <is>
+          <t>神州高铁, 华菱线缆, 洪兴股份, 长青科技, 三晖电气, 元成股份, 思维列控, 必得科技</t>
+        </is>
+      </c>
+      <c r="KA23" s="8" t="inlineStr">
+        <is>
+          <t>神州高铁, 华菱线缆, 洪兴股份, 长青科技, 三晖电气, 元成股份, 思维列控, 必得科技</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G284"/>
+  <dimension ref="A1:G287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13535,6 +13611,72 @@
         <v>0</v>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>5</v>
+      </c>
+      <c r="C285" t="n">
+        <v>54</v>
+      </c>
+      <c r="D285" t="n">
+        <v>3</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>4</v>
+      </c>
+      <c r="C286" t="n">
+        <v>57</v>
+      </c>
+      <c r="D286" t="n">
+        <v>2</v>
+      </c>
+      <c r="E286" t="n">
+        <v>4</v>
+      </c>
+      <c r="F286" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>4</v>
+      </c>
+      <c r="C287" t="n">
+        <v>57</v>
+      </c>
+      <c r="D287" t="n">
+        <v>2</v>
+      </c>
+      <c r="E287" t="n">
+        <v>4</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -246,12 +246,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$287</f>
+              <f>'连板数据分析'!$A$2:$A$290</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$287</f>
+              <f>'连板数据分析'!$B$2:$B$290</f>
             </numRef>
           </val>
         </ser>
@@ -368,12 +368,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$287</f>
+              <f>'连板数据分析'!$A$2:$A$290</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$287</f>
+              <f>'连板数据分析'!$C$2:$C$290</f>
             </numRef>
           </val>
         </ser>
@@ -403,12 +403,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$287</f>
+              <f>'连板数据分析'!$A$2:$A$290</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$287</f>
+              <f>'连板数据分析'!$D$2:$D$290</f>
             </numRef>
           </val>
         </ser>
@@ -525,12 +525,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$287</f>
+              <f>'连板数据分析'!$A$2:$A$290</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$287</f>
+              <f>'连板数据分析'!$F$2:$F$290</f>
             </numRef>
           </val>
         </ser>
@@ -608,7 +608,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="51480000" cy="2700000"/>
+    <ext cx="52020000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -630,7 +630,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="51480000" cy="2700000"/>
+    <ext cx="52020000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -652,7 +652,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="51480000" cy="2700000"/>
+    <ext cx="52020000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -959,7 +959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KA23"/>
+  <dimension ref="A1:KD23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1255,6 +1255,9 @@
     <col width="48" customWidth="1" min="285" max="285"/>
     <col width="57.59999999999999" customWidth="1" min="286" max="286"/>
     <col width="57.59999999999999" customWidth="1" min="287" max="287"/>
+    <col width="64.8" customWidth="1" min="288" max="288"/>
+    <col width="57.59999999999999" customWidth="1" min="289" max="289"/>
+    <col width="57.59999999999999" customWidth="1" min="290" max="290"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2689,6 +2692,21 @@
           <t>2024-03-11</t>
         </is>
       </c>
+      <c r="KB1" s="9" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="KC1" s="9" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="KD1" s="9" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -3218,6 +3236,16 @@
           <t>安奈儿</t>
         </is>
       </c>
+      <c r="KC18" s="8" t="inlineStr">
+        <is>
+          <t>立航科技, 艾艾精工</t>
+        </is>
+      </c>
+      <c r="KD18" s="8" t="inlineStr">
+        <is>
+          <t>立航科技, 艾艾精工</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -3485,6 +3513,11 @@
           <t>天元智能</t>
         </is>
       </c>
+      <c r="KB19" s="8" t="inlineStr">
+        <is>
+          <t>立航科技, 艾艾精工</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -4794,6 +4827,21 @@
           <t>安彩高科, 上海沪工, 立航科技, 艾艾精工</t>
         </is>
       </c>
+      <c r="KB21" s="8" t="inlineStr">
+        <is>
+          <t>必得科技</t>
+        </is>
+      </c>
+      <c r="KC21" s="8" t="inlineStr">
+        <is>
+          <t>中电兴发, 铭普光磁</t>
+        </is>
+      </c>
+      <c r="KD21" s="8" t="inlineStr">
+        <is>
+          <t>中电兴发, 铭普光磁</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -5931,6 +5979,21 @@
           <t>华阳新材</t>
         </is>
       </c>
+      <c r="KB22" s="8" t="inlineStr">
+        <is>
+          <t>中电兴发, 日海智能, 高德红外, 新天药业, 铭普光磁</t>
+        </is>
+      </c>
+      <c r="KC22" s="8" t="inlineStr">
+        <is>
+          <t>星光股份, 普天科技, 英联股份, 掌阅科技</t>
+        </is>
+      </c>
+      <c r="KD22" s="8" t="inlineStr">
+        <is>
+          <t>星光股份, 普天科技, 英联股份, 掌阅科技</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -7331,6 +7394,21 @@
       <c r="KA23" s="8" t="inlineStr">
         <is>
           <t>神州高铁, 华菱线缆, 洪兴股份, 长青科技, 三晖电气, 元成股份, 思维列控, 必得科技</t>
+        </is>
+      </c>
+      <c r="KB23" s="8" t="inlineStr">
+        <is>
+          <t>中洲控股, 星光股份, 万丰奥威, 普天科技, 天际股份, 英联股份, 时代万恒, 上工申贝, 掌阅科技</t>
+        </is>
+      </c>
+      <c r="KC23" s="8" t="inlineStr">
+        <is>
+          <t>中信海直, 凯撒文化, 榕基软件, 明牌珠宝, 济南高新, 英利汽车, 永悦科技, 大理药业</t>
+        </is>
+      </c>
+      <c r="KD23" s="8" t="inlineStr">
+        <is>
+          <t>中信海直, 凯撒文化, 榕基软件, 明牌珠宝, 济南高新, 英利汽车, 永悦科技, 大理药业</t>
         </is>
       </c>
     </row>
@@ -7345,7 +7423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G287"/>
+  <dimension ref="A1:G290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13677,6 +13755,72 @@
         <v>0</v>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>6</v>
+      </c>
+      <c r="C288" t="n">
+        <v>65</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+      <c r="E288" t="n">
+        <v>2</v>
+      </c>
+      <c r="F288" t="n">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>7</v>
+      </c>
+      <c r="C289" t="n">
+        <v>54</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>2</v>
+      </c>
+      <c r="F289" t="n">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>7</v>
+      </c>
+      <c r="C290" t="n">
+        <v>54</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>2</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -860,12 +860,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$291</f>
+              <f>'连板数据分析'!$A$2:$A$292</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$291</f>
+              <f>'连板数据分析'!$B$2:$B$292</f>
             </numRef>
           </val>
         </ser>
@@ -982,12 +982,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$291</f>
+              <f>'连板数据分析'!$A$2:$A$292</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$291</f>
+              <f>'连板数据分析'!$C$2:$C$292</f>
             </numRef>
           </val>
         </ser>
@@ -1017,12 +1017,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$291</f>
+              <f>'连板数据分析'!$A$2:$A$292</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$291</f>
+              <f>'连板数据分析'!$D$2:$D$292</f>
             </numRef>
           </val>
         </ser>
@@ -1139,12 +1139,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$291</f>
+              <f>'连板数据分析'!$A$2:$A$292</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$291</f>
+              <f>'连板数据分析'!$F$2:$F$292</f>
             </numRef>
           </val>
         </ser>
@@ -1222,7 +1222,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="52200000" cy="2700000"/>
+    <ext cx="52380000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1244,7 +1244,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="52200000" cy="2700000"/>
+    <ext cx="52380000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1266,7 +1266,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="52200000" cy="2700000"/>
+    <ext cx="52380000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1572,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KE23"/>
+  <dimension ref="A1:KF23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1873,6 +1873,7 @@
     <col width="57.59999999999999" customWidth="1" min="289" max="289"/>
     <col width="21.6" customWidth="1" min="290" max="290"/>
     <col width="93.59999999999999" customWidth="1" min="291" max="291"/>
+    <col width="85.2" customWidth="1" min="292" max="292"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -3327,6 +3328,11 @@
           <t>2024-03-15</t>
         </is>
       </c>
+      <c r="KF1" s="7" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -3515,6 +3521,11 @@
           <t>克来机电</t>
         </is>
       </c>
+      <c r="KF15" s="6" t="inlineStr">
+        <is>
+          <t>艾艾精工</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
@@ -4640,6 +4651,11 @@
           <t>星光股份</t>
         </is>
       </c>
+      <c r="KF20" s="6" t="inlineStr">
+        <is>
+          <t>永悦科技, 大理药业</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -6634,6 +6650,11 @@
           <t>永悦科技, 大理药业</t>
         </is>
       </c>
+      <c r="KF22" s="6" t="inlineStr">
+        <is>
+          <t>新大洲A, 宏达新材, 合锻智能, 越剑智能</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -8054,6 +8075,11 @@
       <c r="KE23" s="6" t="inlineStr">
         <is>
           <t>新大洲A, 北方铜业, 财信发展, 宏达新材, 华宏科技, 三夫户外, 郑中设计, 赛隆药业, 合锻智能, 越剑智能, 富佳股份, 亚振家居, 恒盛能源</t>
+        </is>
+      </c>
+      <c r="KF23" s="6" t="inlineStr">
+        <is>
+          <t>电广传媒, 万丰奥威, 中光学, 泰尔股份, 声迅股份, 东风汽车, 博信股份, 华嵘控股, 国芳集团, 怡球资源, 恒银科技, 诚邦股份</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G291"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14488,6 +14514,28 @@
         <v>9.98</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>10</v>
+      </c>
+      <c r="C292" t="n">
+        <v>77</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -860,12 +860,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$292</f>
+              <f>'连板数据分析'!$A$2:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$292</f>
+              <f>'连板数据分析'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -982,12 +982,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$292</f>
+              <f>'连板数据分析'!$A$2:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$292</f>
+              <f>'连板数据分析'!$C$2:$C$296</f>
             </numRef>
           </val>
         </ser>
@@ -1017,12 +1017,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$292</f>
+              <f>'连板数据分析'!$A$2:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$292</f>
+              <f>'连板数据分析'!$D$2:$D$296</f>
             </numRef>
           </val>
         </ser>
@@ -1139,12 +1139,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$292</f>
+              <f>'连板数据分析'!$A$2:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$292</f>
+              <f>'连板数据分析'!$F$2:$F$296</f>
             </numRef>
           </val>
         </ser>
@@ -1222,7 +1222,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="52380000" cy="2700000"/>
+    <ext cx="53100000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1244,7 +1244,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="52380000" cy="2700000"/>
+    <ext cx="53100000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1266,7 +1266,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="52380000" cy="2700000"/>
+    <ext cx="53100000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1572,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KF23"/>
+  <dimension ref="A1:KJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1874,6 +1874,10 @@
     <col width="21.6" customWidth="1" min="290" max="290"/>
     <col width="93.59999999999999" customWidth="1" min="291" max="291"/>
     <col width="85.2" customWidth="1" min="292" max="292"/>
+    <col width="57.59999999999999" customWidth="1" min="293" max="293"/>
+    <col width="92.39999999999999" customWidth="1" min="294" max="294"/>
+    <col width="91.2" customWidth="1" min="295" max="295"/>
+    <col width="57.59999999999999" customWidth="1" min="296" max="296"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -3333,6 +3337,26 @@
           <t>2024-03-18</t>
         </is>
       </c>
+      <c r="KG1" s="7" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="KH1" s="7" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="KI1" s="7" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="KJ1" s="7" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -3430,6 +3454,11 @@
           <t>克来机电</t>
         </is>
       </c>
+      <c r="KI12" s="6" t="inlineStr">
+        <is>
+          <t>艾艾精工</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
@@ -3452,6 +3481,11 @@
           <t>克来机电</t>
         </is>
       </c>
+      <c r="KH13" s="6" t="inlineStr">
+        <is>
+          <t>艾艾精工</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
@@ -3484,6 +3518,11 @@
           <t>克来机电</t>
         </is>
       </c>
+      <c r="KG14" s="6" t="inlineStr">
+        <is>
+          <t>艾艾精工</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
@@ -3715,6 +3754,11 @@
           <t>艾艾精工</t>
         </is>
       </c>
+      <c r="KI17" s="6" t="inlineStr">
+        <is>
+          <t>永悦科技, 大理药业</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
@@ -3882,6 +3926,11 @@
           <t>立航科技, 艾艾精工</t>
         </is>
       </c>
+      <c r="KH18" s="6" t="inlineStr">
+        <is>
+          <t>永悦科技, 大理药业</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
@@ -4154,6 +4203,16 @@
           <t>立航科技, 艾艾精工</t>
         </is>
       </c>
+      <c r="KG19" s="6" t="inlineStr">
+        <is>
+          <t>永悦科技, 大理药业</t>
+        </is>
+      </c>
+      <c r="KJ19" s="6" t="inlineStr">
+        <is>
+          <t>博信股份</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -4656,6 +4715,21 @@
           <t>永悦科技, 大理药业</t>
         </is>
       </c>
+      <c r="KH20" s="6" t="inlineStr">
+        <is>
+          <t>宏达新材</t>
+        </is>
+      </c>
+      <c r="KI20" s="6" t="inlineStr">
+        <is>
+          <t>博信股份</t>
+        </is>
+      </c>
+      <c r="KJ20" s="6" t="inlineStr">
+        <is>
+          <t>动力新科</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -5498,6 +5572,21 @@
           <t>永悦科技, 大理药业</t>
         </is>
       </c>
+      <c r="KG21" s="6" t="inlineStr">
+        <is>
+          <t>新大洲A, 宏达新材</t>
+        </is>
+      </c>
+      <c r="KH21" s="6" t="inlineStr">
+        <is>
+          <t>电广传媒, 博信股份</t>
+        </is>
+      </c>
+      <c r="KI21" s="6" t="inlineStr">
+        <is>
+          <t>贝瑞基因, 动力新科, 东方时尚</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -6655,6 +6744,26 @@
           <t>新大洲A, 宏达新材, 合锻智能, 越剑智能</t>
         </is>
       </c>
+      <c r="KG22" s="6" t="inlineStr">
+        <is>
+          <t>电广传媒, 博信股份</t>
+        </is>
+      </c>
+      <c r="KH22" s="6" t="inlineStr">
+        <is>
+          <t>贝瑞基因, 动力新科, 福蓉科技, 东方时尚, 塞力医疗</t>
+        </is>
+      </c>
+      <c r="KI22" s="6" t="inlineStr">
+        <is>
+          <t>威帝股份, 傲农生物, 新亚电子</t>
+        </is>
+      </c>
+      <c r="KJ22" s="6" t="inlineStr">
+        <is>
+          <t>沃尔核材, 宁科生物, 掌阅科技, 中广天择</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -8080,6 +8189,26 @@
       <c r="KF23" s="6" t="inlineStr">
         <is>
           <t>电广传媒, 万丰奥威, 中光学, 泰尔股份, 声迅股份, 东风汽车, 博信股份, 华嵘控股, 国芳集团, 怡球资源, 恒银科技, 诚邦股份</t>
+        </is>
+      </c>
+      <c r="KG23" s="6" t="inlineStr">
+        <is>
+          <t>贝瑞基因, 方正电机, 瀛通通讯, 宸展光电, 动力新科, 福蓉科技, 东方时尚, 塞力医疗</t>
+        </is>
+      </c>
+      <c r="KH23" s="6" t="inlineStr">
+        <is>
+          <t>甘肃能源, 四川九洲, 依依股份, 得润电子, 辉丰股份, 维科技术, 威帝股份, 海鸥股份, 傲农生物, 安邦护卫, 盛景微, 再升科技, 新亚电子</t>
+        </is>
+      </c>
+      <c r="KI23" s="6" t="inlineStr">
+        <is>
+          <t>德明利, 沃尔核材, 北纬科技, 威创股份, 美吉姆, 实丰文化, 伟隆股份, 宁科生物, 卧龙电驱, 设计总院, 掌阅科技, 中广天择, 咸亨国际</t>
+        </is>
+      </c>
+      <c r="KJ23" s="6" t="inlineStr">
+        <is>
+          <t>大为股份, 南方精工, 王子新材, 科新发展, 青海华鼎, 博威合金, 翔港科技, 华生科技</t>
         </is>
       </c>
     </row>
@@ -8094,7 +8223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14533,6 +14662,94 @@
         <v>1</v>
       </c>
       <c r="F292" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>11</v>
+      </c>
+      <c r="C293" t="n">
+        <v>57</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1</v>
+      </c>
+      <c r="F293" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>12</v>
+      </c>
+      <c r="C294" t="n">
+        <v>73</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1</v>
+      </c>
+      <c r="F294" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>13</v>
+      </c>
+      <c r="C295" t="n">
+        <v>65</v>
+      </c>
+      <c r="D295" t="n">
+        <v>3</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1</v>
+      </c>
+      <c r="F295" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>6</v>
+      </c>
+      <c r="C296" t="n">
+        <v>50</v>
+      </c>
+      <c r="D296" t="n">
+        <v>10</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1</v>
+      </c>
+      <c r="F296" t="n">
         <v>0</v>
       </c>
     </row>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28040" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28060" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="连板数据分析" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="连板数据分析" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -40,12 +40,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <sz val="15"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
@@ -54,7 +48,22 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -62,7 +71,30 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -70,15 +102,7 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -93,37 +117,8 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -144,16 +139,31 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -170,29 +180,6 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,19 +208,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,31 +304,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,91 +370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,25 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,21 +408,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -447,15 +419,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +447,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -501,17 +499,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -520,153 +507,153 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -680,13 +667,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -814,13 +798,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,7 +827,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
@@ -853,19 +837,19 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$296</f>
+              <f>'连板数据分析'!$A$2:$A$301</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$296</f>
+              <f>'连板数据分析'!$B$2:$B$301</f>
             </numRef>
           </val>
         </ser>
@@ -881,8 +865,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -909,8 +893,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -936,13 +920,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -965,7 +949,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -975,19 +959,19 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$296</f>
+              <f>'连板数据分析'!$A$2:$A$301</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$296</f>
+              <f>'连板数据分析'!$C$2:$C$301</f>
             </numRef>
           </val>
         </ser>
@@ -1000,7 +984,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="00FF00"/>
               </a:solidFill>
@@ -1010,19 +994,19 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$296</f>
+              <f>'连板数据分析'!$A$2:$A$301</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$296</f>
+              <f>'连板数据分析'!$D$2:$D$301</f>
             </numRef>
           </val>
         </ser>
@@ -1038,8 +1022,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -1066,8 +1050,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -1093,13 +1077,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1122,7 +1106,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1132,19 +1116,19 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$296</f>
+              <f>'连板数据分析'!$A$2:$A$301</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$296</f>
+              <f>'连板数据分析'!$F$2:$F$301</f>
             </numRef>
           </val>
         </ser>
@@ -1160,8 +1144,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -1187,8 +1171,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -1214,7 +1198,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>6</col>
@@ -1222,16 +1206,16 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="53100000" cy="2700000"/>
+    <ext cx="54000000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1244,16 +1228,16 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="53100000" cy="2700000"/>
+    <ext cx="54000000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1266,16 +1250,16 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="53100000" cy="2700000"/>
+    <ext cx="54000000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1572,12 +1556,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KJ23"/>
+  <dimension ref="A1:KO23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="KF7" sqref="KF7"/>
+      <selection pane="topRight" activeCell="KO1" sqref="KO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="14"/>
@@ -1878,1483 +1862,1513 @@
     <col width="92.39999999999999" customWidth="1" min="294" max="294"/>
     <col width="91.2" customWidth="1" min="295" max="295"/>
     <col width="57.59999999999999" customWidth="1" min="296" max="296"/>
+    <col width="49.2" customWidth="1" min="297" max="297"/>
+    <col width="43.2" customWidth="1" min="298" max="298"/>
+    <col width="36" customWidth="1" min="299" max="299"/>
+    <col width="33.6" customWidth="1" min="300" max="300"/>
+    <col width="56.4" customWidth="1" min="301" max="301"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="6" t="n"/>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="n"/>
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>2023-01-04</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>2023-01-05</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>2023-01-06</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>2023-01-09</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>2023-01-10</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>2023-01-11</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>2023-01-12</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>2023-01-13</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>2023-01-16</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>2023-01-17</t>
         </is>
       </c>
-      <c r="M1" s="7" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>2023-01-18</t>
         </is>
       </c>
-      <c r="N1" s="7" t="inlineStr">
+      <c r="N1" s="6" t="inlineStr">
         <is>
           <t>2023-01-19</t>
         </is>
       </c>
-      <c r="O1" s="7" t="inlineStr">
+      <c r="O1" s="6" t="inlineStr">
         <is>
           <t>2023-01-20</t>
         </is>
       </c>
-      <c r="P1" s="7" t="inlineStr">
+      <c r="P1" s="6" t="inlineStr">
         <is>
           <t>2023-01-30</t>
         </is>
       </c>
-      <c r="Q1" s="7" t="inlineStr">
+      <c r="Q1" s="6" t="inlineStr">
         <is>
           <t>2023-01-31</t>
         </is>
       </c>
-      <c r="R1" s="7" t="inlineStr">
+      <c r="R1" s="6" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="S1" s="7" t="inlineStr">
+      <c r="S1" s="6" t="inlineStr">
         <is>
           <t>2023-02-02</t>
         </is>
       </c>
-      <c r="T1" s="7" t="inlineStr">
+      <c r="T1" s="6" t="inlineStr">
         <is>
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="U1" s="7" t="inlineStr">
+      <c r="U1" s="6" t="inlineStr">
         <is>
           <t>2023-02-06</t>
         </is>
       </c>
-      <c r="V1" s="7" t="inlineStr">
+      <c r="V1" s="6" t="inlineStr">
         <is>
           <t>2023-02-07</t>
         </is>
       </c>
-      <c r="W1" s="7" t="inlineStr">
+      <c r="W1" s="6" t="inlineStr">
         <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="X1" s="7" t="inlineStr">
+      <c r="X1" s="6" t="inlineStr">
         <is>
           <t>2023-02-09</t>
         </is>
       </c>
-      <c r="Y1" s="7" t="inlineStr">
+      <c r="Y1" s="6" t="inlineStr">
         <is>
           <t>2023-02-10</t>
         </is>
       </c>
-      <c r="Z1" s="7" t="inlineStr">
+      <c r="Z1" s="6" t="inlineStr">
         <is>
           <t>2023-02-13</t>
         </is>
       </c>
-      <c r="AA1" s="7" t="inlineStr">
+      <c r="AA1" s="6" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="AB1" s="7" t="inlineStr">
+      <c r="AB1" s="6" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="AC1" s="7" t="inlineStr">
+      <c r="AC1" s="6" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="AD1" s="7" t="inlineStr">
+      <c r="AD1" s="6" t="inlineStr">
         <is>
           <t>2023-02-17</t>
         </is>
       </c>
-      <c r="AE1" s="7" t="inlineStr">
+      <c r="AE1" s="6" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="AF1" s="7" t="inlineStr">
+      <c r="AF1" s="6" t="inlineStr">
         <is>
           <t>2023-02-21</t>
         </is>
       </c>
-      <c r="AG1" s="7" t="inlineStr">
+      <c r="AG1" s="6" t="inlineStr">
         <is>
           <t>2023-02-22</t>
         </is>
       </c>
-      <c r="AH1" s="7" t="inlineStr">
+      <c r="AH1" s="6" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="AI1" s="7" t="inlineStr">
+      <c r="AI1" s="6" t="inlineStr">
         <is>
           <t>2023-02-24</t>
         </is>
       </c>
-      <c r="AJ1" s="7" t="inlineStr">
+      <c r="AJ1" s="6" t="inlineStr">
         <is>
           <t>2023-02-27</t>
         </is>
       </c>
-      <c r="AK1" s="7" t="inlineStr">
+      <c r="AK1" s="6" t="inlineStr">
         <is>
           <t>2023-02-28</t>
         </is>
       </c>
-      <c r="AL1" s="7" t="inlineStr">
+      <c r="AL1" s="6" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="AM1" s="7" t="inlineStr">
+      <c r="AM1" s="6" t="inlineStr">
         <is>
           <t>2023-03-02</t>
         </is>
       </c>
-      <c r="AN1" s="7" t="inlineStr">
+      <c r="AN1" s="6" t="inlineStr">
         <is>
           <t>2023-03-03</t>
         </is>
       </c>
-      <c r="AO1" s="7" t="inlineStr">
+      <c r="AO1" s="6" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="AP1" s="7" t="inlineStr">
+      <c r="AP1" s="6" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="AQ1" s="7" t="inlineStr">
+      <c r="AQ1" s="6" t="inlineStr">
         <is>
           <t>2023-03-08</t>
         </is>
       </c>
-      <c r="AR1" s="7" t="inlineStr">
+      <c r="AR1" s="6" t="inlineStr">
         <is>
           <t>2023-03-09</t>
         </is>
       </c>
-      <c r="AS1" s="7" t="inlineStr">
+      <c r="AS1" s="6" t="inlineStr">
         <is>
           <t>2023-03-10</t>
         </is>
       </c>
-      <c r="AT1" s="7" t="inlineStr">
+      <c r="AT1" s="6" t="inlineStr">
         <is>
           <t>2023-03-13</t>
         </is>
       </c>
-      <c r="AU1" s="7" t="inlineStr">
+      <c r="AU1" s="6" t="inlineStr">
         <is>
           <t>2023-03-14</t>
         </is>
       </c>
-      <c r="AV1" s="7" t="inlineStr">
+      <c r="AV1" s="6" t="inlineStr">
         <is>
           <t>2023-03-15</t>
         </is>
       </c>
-      <c r="AW1" s="7" t="inlineStr">
+      <c r="AW1" s="6" t="inlineStr">
         <is>
           <t>2023-03-16</t>
         </is>
       </c>
-      <c r="AX1" s="7" t="inlineStr">
+      <c r="AX1" s="6" t="inlineStr">
         <is>
           <t>2023-03-17</t>
         </is>
       </c>
-      <c r="AY1" s="7" t="inlineStr">
+      <c r="AY1" s="6" t="inlineStr">
         <is>
           <t>2023-03-20</t>
         </is>
       </c>
-      <c r="AZ1" s="7" t="inlineStr">
+      <c r="AZ1" s="6" t="inlineStr">
         <is>
           <t>2023-03-21</t>
         </is>
       </c>
-      <c r="BA1" s="7" t="inlineStr">
+      <c r="BA1" s="6" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
       </c>
-      <c r="BB1" s="7" t="inlineStr">
+      <c r="BB1" s="6" t="inlineStr">
         <is>
           <t>2023-03-23</t>
         </is>
       </c>
-      <c r="BC1" s="7" t="inlineStr">
+      <c r="BC1" s="6" t="inlineStr">
         <is>
           <t>2023-03-24</t>
         </is>
       </c>
-      <c r="BD1" s="7" t="inlineStr">
+      <c r="BD1" s="6" t="inlineStr">
         <is>
           <t>2023-03-27</t>
         </is>
       </c>
-      <c r="BE1" s="7" t="inlineStr">
+      <c r="BE1" s="6" t="inlineStr">
         <is>
           <t>2023-03-28</t>
         </is>
       </c>
-      <c r="BF1" s="7" t="inlineStr">
+      <c r="BF1" s="6" t="inlineStr">
         <is>
           <t>2023-03-29</t>
         </is>
       </c>
-      <c r="BG1" s="7" t="inlineStr">
+      <c r="BG1" s="6" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="BH1" s="7" t="inlineStr">
+      <c r="BH1" s="6" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="BI1" s="7" t="inlineStr">
+      <c r="BI1" s="6" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="BJ1" s="7" t="inlineStr">
+      <c r="BJ1" s="6" t="inlineStr">
         <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="BK1" s="7" t="inlineStr">
+      <c r="BK1" s="6" t="inlineStr">
         <is>
           <t>2023-04-06</t>
         </is>
       </c>
-      <c r="BL1" s="7" t="inlineStr">
+      <c r="BL1" s="6" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
       </c>
-      <c r="BM1" s="7" t="inlineStr">
+      <c r="BM1" s="6" t="inlineStr">
         <is>
           <t>2023-04-10</t>
         </is>
       </c>
-      <c r="BN1" s="7" t="inlineStr">
+      <c r="BN1" s="6" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
       </c>
-      <c r="BO1" s="7" t="inlineStr">
+      <c r="BO1" s="6" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="BP1" s="7" t="inlineStr">
+      <c r="BP1" s="6" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
       </c>
-      <c r="BQ1" s="7" t="inlineStr">
+      <c r="BQ1" s="6" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="BR1" s="7" t="inlineStr">
+      <c r="BR1" s="6" t="inlineStr">
         <is>
           <t>2023-04-17</t>
         </is>
       </c>
-      <c r="BS1" s="7" t="inlineStr">
+      <c r="BS1" s="6" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
-      <c r="BT1" s="7" t="inlineStr">
+      <c r="BT1" s="6" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
       </c>
-      <c r="BU1" s="7" t="inlineStr">
+      <c r="BU1" s="6" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="BV1" s="7" t="inlineStr">
+      <c r="BV1" s="6" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="BW1" s="7" t="inlineStr">
+      <c r="BW1" s="6" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
       </c>
-      <c r="BX1" s="7" t="inlineStr">
+      <c r="BX1" s="6" t="inlineStr">
         <is>
           <t>2023-04-25</t>
         </is>
       </c>
-      <c r="BY1" s="7" t="inlineStr">
+      <c r="BY1" s="6" t="inlineStr">
         <is>
           <t>2023-04-26</t>
         </is>
       </c>
-      <c r="BZ1" s="7" t="inlineStr">
+      <c r="BZ1" s="6" t="inlineStr">
         <is>
           <t>2023-04-27</t>
         </is>
       </c>
-      <c r="CA1" s="7" t="inlineStr">
+      <c r="CA1" s="6" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="CB1" s="7" t="inlineStr">
+      <c r="CB1" s="6" t="inlineStr">
         <is>
           <t>2023-05-04</t>
         </is>
       </c>
-      <c r="CC1" s="7" t="inlineStr">
+      <c r="CC1" s="6" t="inlineStr">
         <is>
           <t>2023-05-05</t>
         </is>
       </c>
-      <c r="CD1" s="7" t="inlineStr">
+      <c r="CD1" s="6" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
-      <c r="CE1" s="7" t="inlineStr">
+      <c r="CE1" s="6" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="CF1" s="7" t="inlineStr">
+      <c r="CF1" s="6" t="inlineStr">
         <is>
           <t>2023-05-10</t>
         </is>
       </c>
-      <c r="CG1" s="7" t="inlineStr">
+      <c r="CG1" s="6" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="CH1" s="7" t="inlineStr">
+      <c r="CH1" s="6" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="CI1" s="7" t="inlineStr">
+      <c r="CI1" s="6" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="CJ1" s="7" t="inlineStr">
+      <c r="CJ1" s="6" t="inlineStr">
         <is>
           <t>2023-05-16</t>
         </is>
       </c>
-      <c r="CK1" s="7" t="inlineStr">
+      <c r="CK1" s="6" t="inlineStr">
         <is>
           <t>2023-05-17</t>
         </is>
       </c>
-      <c r="CL1" s="7" t="inlineStr">
+      <c r="CL1" s="6" t="inlineStr">
         <is>
           <t>2023-05-18</t>
         </is>
       </c>
-      <c r="CM1" s="7" t="inlineStr">
+      <c r="CM1" s="6" t="inlineStr">
         <is>
           <t>2023-05-19</t>
         </is>
       </c>
-      <c r="CN1" s="7" t="inlineStr">
+      <c r="CN1" s="6" t="inlineStr">
         <is>
           <t>2023-05-22</t>
         </is>
       </c>
-      <c r="CO1" s="7" t="inlineStr">
+      <c r="CO1" s="6" t="inlineStr">
         <is>
           <t>2023-05-23</t>
         </is>
       </c>
-      <c r="CP1" s="7" t="inlineStr">
+      <c r="CP1" s="6" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="CQ1" s="7" t="inlineStr">
+      <c r="CQ1" s="6" t="inlineStr">
         <is>
           <t>2023-05-25</t>
         </is>
       </c>
-      <c r="CR1" s="7" t="inlineStr">
+      <c r="CR1" s="6" t="inlineStr">
         <is>
           <t>2023-05-26</t>
         </is>
       </c>
-      <c r="CS1" s="7" t="inlineStr">
+      <c r="CS1" s="6" t="inlineStr">
         <is>
           <t>2023-05-29</t>
         </is>
       </c>
-      <c r="CT1" s="7" t="inlineStr">
+      <c r="CT1" s="6" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
       </c>
-      <c r="CU1" s="7" t="inlineStr">
+      <c r="CU1" s="6" t="inlineStr">
         <is>
           <t>2023-05-31</t>
         </is>
       </c>
-      <c r="CV1" s="7" t="inlineStr">
+      <c r="CV1" s="6" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="CW1" s="7" t="inlineStr">
+      <c r="CW1" s="6" t="inlineStr">
         <is>
           <t>2023-06-02</t>
         </is>
       </c>
-      <c r="CX1" s="7" t="inlineStr">
+      <c r="CX1" s="6" t="inlineStr">
         <is>
           <t>2023-06-05</t>
         </is>
       </c>
-      <c r="CY1" s="7" t="inlineStr">
+      <c r="CY1" s="6" t="inlineStr">
         <is>
           <t>2023-06-06</t>
         </is>
       </c>
-      <c r="CZ1" s="7" t="inlineStr">
+      <c r="CZ1" s="6" t="inlineStr">
         <is>
           <t>2023-06-07</t>
         </is>
       </c>
-      <c r="DA1" s="7" t="inlineStr">
+      <c r="DA1" s="6" t="inlineStr">
         <is>
           <t>2023-06-08</t>
         </is>
       </c>
-      <c r="DB1" s="7" t="inlineStr">
+      <c r="DB1" s="6" t="inlineStr">
         <is>
           <t>2023-06-09</t>
         </is>
       </c>
-      <c r="DC1" s="7" t="inlineStr">
+      <c r="DC1" s="6" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
-      <c r="DD1" s="7" t="inlineStr">
+      <c r="DD1" s="6" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="DE1" s="7" t="inlineStr">
+      <c r="DE1" s="6" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="DF1" s="7" t="inlineStr">
+      <c r="DF1" s="6" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="DG1" s="7" t="inlineStr">
+      <c r="DG1" s="6" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="DH1" s="7" t="inlineStr">
+      <c r="DH1" s="6" t="inlineStr">
         <is>
           <t>2023-06-19</t>
         </is>
       </c>
-      <c r="DI1" s="7" t="inlineStr">
+      <c r="DI1" s="6" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="DJ1" s="7" t="inlineStr">
+      <c r="DJ1" s="6" t="inlineStr">
         <is>
           <t>2023-06-21</t>
         </is>
       </c>
-      <c r="DK1" s="7" t="inlineStr">
+      <c r="DK1" s="6" t="inlineStr">
         <is>
           <t>2023-06-26</t>
         </is>
       </c>
-      <c r="DL1" s="7" t="inlineStr">
+      <c r="DL1" s="6" t="inlineStr">
         <is>
           <t>2023-06-27</t>
         </is>
       </c>
-      <c r="DM1" s="7" t="inlineStr">
+      <c r="DM1" s="6" t="inlineStr">
         <is>
           <t>2023-06-28</t>
         </is>
       </c>
-      <c r="DN1" s="7" t="inlineStr">
+      <c r="DN1" s="6" t="inlineStr">
         <is>
           <t>2023-06-29</t>
         </is>
       </c>
-      <c r="DO1" s="7" t="inlineStr">
+      <c r="DO1" s="6" t="inlineStr">
         <is>
           <t>2023-06-30</t>
         </is>
       </c>
-      <c r="DP1" s="7" t="inlineStr">
+      <c r="DP1" s="6" t="inlineStr">
         <is>
           <t>2023-07-03</t>
         </is>
       </c>
-      <c r="DQ1" s="7" t="inlineStr">
+      <c r="DQ1" s="6" t="inlineStr">
         <is>
           <t>2023-07-04</t>
         </is>
       </c>
-      <c r="DR1" s="7" t="inlineStr">
+      <c r="DR1" s="6" t="inlineStr">
         <is>
           <t>2023-07-05</t>
         </is>
       </c>
-      <c r="DS1" s="7" t="inlineStr">
+      <c r="DS1" s="6" t="inlineStr">
         <is>
           <t>2023-07-06</t>
         </is>
       </c>
-      <c r="DT1" s="7" t="inlineStr">
+      <c r="DT1" s="6" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="DU1" s="7" t="inlineStr">
+      <c r="DU1" s="6" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
       </c>
-      <c r="DV1" s="7" t="inlineStr">
+      <c r="DV1" s="6" t="inlineStr">
         <is>
           <t>2023-07-11</t>
         </is>
       </c>
-      <c r="DW1" s="7" t="inlineStr">
+      <c r="DW1" s="6" t="inlineStr">
         <is>
           <t>2023-07-12</t>
         </is>
       </c>
-      <c r="DX1" s="7" t="inlineStr">
+      <c r="DX1" s="6" t="inlineStr">
         <is>
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="DY1" s="7" t="inlineStr">
+      <c r="DY1" s="6" t="inlineStr">
         <is>
           <t>2023-07-14</t>
         </is>
       </c>
-      <c r="DZ1" s="7" t="inlineStr">
+      <c r="DZ1" s="6" t="inlineStr">
         <is>
           <t>2023-07-17</t>
         </is>
       </c>
-      <c r="EA1" s="7" t="inlineStr">
+      <c r="EA1" s="6" t="inlineStr">
         <is>
           <t>2023-07-18</t>
         </is>
       </c>
-      <c r="EB1" s="7" t="inlineStr">
+      <c r="EB1" s="6" t="inlineStr">
         <is>
           <t>2023-07-19</t>
         </is>
       </c>
-      <c r="EC1" s="7" t="inlineStr">
+      <c r="EC1" s="6" t="inlineStr">
         <is>
           <t>2023-07-20</t>
         </is>
       </c>
-      <c r="ED1" s="7" t="inlineStr">
+      <c r="ED1" s="6" t="inlineStr">
         <is>
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="EE1" s="7" t="inlineStr">
+      <c r="EE1" s="6" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="EF1" s="7" t="inlineStr">
+      <c r="EF1" s="6" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
       </c>
-      <c r="EG1" s="7" t="inlineStr">
+      <c r="EG1" s="6" t="inlineStr">
         <is>
           <t>2023-07-26</t>
         </is>
       </c>
-      <c r="EH1" s="7" t="inlineStr">
+      <c r="EH1" s="6" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="EI1" s="7" t="inlineStr">
+      <c r="EI1" s="6" t="inlineStr">
         <is>
           <t>2023-07-28</t>
         </is>
       </c>
-      <c r="EJ1" s="7" t="inlineStr">
+      <c r="EJ1" s="6" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
       </c>
-      <c r="EK1" s="7" t="inlineStr">
+      <c r="EK1" s="6" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="EL1" s="7" t="inlineStr">
+      <c r="EL1" s="6" t="inlineStr">
         <is>
           <t>2023-08-02</t>
         </is>
       </c>
-      <c r="EM1" s="7" t="inlineStr">
+      <c r="EM1" s="6" t="inlineStr">
         <is>
           <t>2023-08-03</t>
         </is>
       </c>
-      <c r="EN1" s="7" t="inlineStr">
+      <c r="EN1" s="6" t="inlineStr">
         <is>
           <t>2023-08-04</t>
         </is>
       </c>
-      <c r="EO1" s="7" t="inlineStr">
+      <c r="EO1" s="6" t="inlineStr">
         <is>
           <t>2023-08-07</t>
         </is>
       </c>
-      <c r="EP1" s="7" t="inlineStr">
+      <c r="EP1" s="6" t="inlineStr">
         <is>
           <t>2023-08-08</t>
         </is>
       </c>
-      <c r="EQ1" s="7" t="inlineStr">
+      <c r="EQ1" s="6" t="inlineStr">
         <is>
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="ER1" s="7" t="inlineStr">
+      <c r="ER1" s="6" t="inlineStr">
         <is>
           <t>2023-08-10</t>
         </is>
       </c>
-      <c r="ES1" s="7" t="inlineStr">
+      <c r="ES1" s="6" t="inlineStr">
         <is>
           <t>2023-08-11</t>
         </is>
       </c>
-      <c r="ET1" s="7" t="inlineStr">
+      <c r="ET1" s="6" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="EU1" s="7" t="inlineStr">
+      <c r="EU1" s="6" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="EV1" s="7" t="inlineStr">
+      <c r="EV1" s="6" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="EW1" s="7" t="inlineStr">
+      <c r="EW1" s="6" t="inlineStr">
         <is>
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="EX1" s="7" t="inlineStr">
+      <c r="EX1" s="6" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="EY1" s="7" t="inlineStr">
+      <c r="EY1" s="6" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="EZ1" s="7" t="inlineStr">
+      <c r="EZ1" s="6" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="FA1" s="7" t="inlineStr">
+      <c r="FA1" s="6" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="FB1" s="7" t="inlineStr">
+      <c r="FB1" s="6" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="FC1" s="7" t="inlineStr">
+      <c r="FC1" s="6" t="inlineStr">
         <is>
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="FD1" s="7" t="inlineStr">
+      <c r="FD1" s="6" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="FE1" s="7" t="inlineStr">
+      <c r="FE1" s="6" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="FF1" s="7" t="inlineStr">
+      <c r="FF1" s="6" t="inlineStr">
         <is>
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="FG1" s="7" t="inlineStr">
+      <c r="FG1" s="6" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="FH1" s="7" t="inlineStr">
+      <c r="FH1" s="6" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="FI1" s="7" t="inlineStr">
+      <c r="FI1" s="6" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="FJ1" s="7" t="inlineStr">
+      <c r="FJ1" s="6" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="FK1" s="7" t="inlineStr">
+      <c r="FK1" s="6" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="FL1" s="7" t="inlineStr">
+      <c r="FL1" s="6" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="FM1" s="7" t="inlineStr">
+      <c r="FM1" s="6" t="inlineStr">
         <is>
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="FN1" s="7" t="inlineStr">
+      <c r="FN1" s="6" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="FO1" s="7" t="inlineStr">
+      <c r="FO1" s="6" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="FP1" s="7" t="inlineStr">
+      <c r="FP1" s="6" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="FQ1" s="7" t="inlineStr">
+      <c r="FQ1" s="6" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="FR1" s="7" t="inlineStr">
+      <c r="FR1" s="6" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="FS1" s="7" t="inlineStr">
+      <c r="FS1" s="6" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="FT1" s="7" t="inlineStr">
+      <c r="FT1" s="6" t="inlineStr">
         <is>
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="FU1" s="7" t="inlineStr">
+      <c r="FU1" s="6" t="inlineStr">
         <is>
           <t>2023-09-20</t>
         </is>
       </c>
-      <c r="FV1" s="7" t="inlineStr">
+      <c r="FV1" s="6" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="FW1" s="7" t="inlineStr">
+      <c r="FW1" s="6" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="FX1" s="7" t="inlineStr">
+      <c r="FX1" s="6" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="FY1" s="7" t="inlineStr">
+      <c r="FY1" s="6" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="FZ1" s="7" t="inlineStr">
+      <c r="FZ1" s="6" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
       </c>
-      <c r="GA1" s="7" t="inlineStr">
+      <c r="GA1" s="6" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="GB1" s="7" t="inlineStr">
+      <c r="GB1" s="6" t="inlineStr">
         <is>
           <t>2023-10-09</t>
         </is>
       </c>
-      <c r="GC1" s="7" t="inlineStr">
+      <c r="GC1" s="6" t="inlineStr">
         <is>
           <t>2023-10-10</t>
         </is>
       </c>
-      <c r="GD1" s="7" t="inlineStr">
+      <c r="GD1" s="6" t="inlineStr">
         <is>
           <t>2023-10-11</t>
         </is>
       </c>
-      <c r="GE1" s="7" t="inlineStr">
+      <c r="GE1" s="6" t="inlineStr">
         <is>
           <t>2023-10-12</t>
         </is>
       </c>
-      <c r="GF1" s="7" t="inlineStr">
+      <c r="GF1" s="6" t="inlineStr">
         <is>
           <t>2023-10-13</t>
         </is>
       </c>
-      <c r="GG1" s="7" t="inlineStr">
+      <c r="GG1" s="6" t="inlineStr">
         <is>
           <t>2023-10-16</t>
         </is>
       </c>
-      <c r="GH1" s="7" t="inlineStr">
+      <c r="GH1" s="6" t="inlineStr">
         <is>
           <t>2023-10-17</t>
         </is>
       </c>
-      <c r="GI1" s="7" t="inlineStr">
+      <c r="GI1" s="6" t="inlineStr">
         <is>
           <t>2023-10-18</t>
         </is>
       </c>
-      <c r="GJ1" s="7" t="inlineStr">
+      <c r="GJ1" s="6" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="GK1" s="7" t="inlineStr">
+      <c r="GK1" s="6" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="GL1" s="7" t="inlineStr">
+      <c r="GL1" s="6" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="GM1" s="7" t="inlineStr">
+      <c r="GM1" s="6" t="inlineStr">
         <is>
           <t>2023-10-24</t>
         </is>
       </c>
-      <c r="GN1" s="7" t="inlineStr">
+      <c r="GN1" s="6" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
       </c>
-      <c r="GO1" s="7" t="inlineStr">
+      <c r="GO1" s="6" t="inlineStr">
         <is>
           <t>2023-10-26</t>
         </is>
       </c>
-      <c r="GP1" s="7" t="inlineStr">
+      <c r="GP1" s="6" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
       </c>
-      <c r="GQ1" s="7" t="inlineStr">
+      <c r="GQ1" s="6" t="inlineStr">
         <is>
           <t>2023-10-30</t>
         </is>
       </c>
-      <c r="GR1" s="7" t="inlineStr">
+      <c r="GR1" s="6" t="inlineStr">
         <is>
           <t>2023-10-31</t>
         </is>
       </c>
-      <c r="GS1" s="7" t="inlineStr">
+      <c r="GS1" s="6" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="GT1" s="7" t="inlineStr">
+      <c r="GT1" s="6" t="inlineStr">
         <is>
           <t>2023-11-02</t>
         </is>
       </c>
-      <c r="GU1" s="7" t="inlineStr">
+      <c r="GU1" s="6" t="inlineStr">
         <is>
           <t>2023-11-03</t>
         </is>
       </c>
-      <c r="GV1" s="7" t="inlineStr">
+      <c r="GV1" s="6" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="GW1" s="7" t="inlineStr">
+      <c r="GW1" s="6" t="inlineStr">
         <is>
           <t>2023-11-07</t>
         </is>
       </c>
-      <c r="GX1" s="7" t="inlineStr">
+      <c r="GX1" s="6" t="inlineStr">
         <is>
           <t>2023-11-08</t>
         </is>
       </c>
-      <c r="GY1" s="7" t="inlineStr">
+      <c r="GY1" s="6" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
       </c>
-      <c r="GZ1" s="7" t="inlineStr">
+      <c r="GZ1" s="6" t="inlineStr">
         <is>
           <t>2023-11-10</t>
         </is>
       </c>
-      <c r="HA1" s="7" t="inlineStr">
+      <c r="HA1" s="6" t="inlineStr">
         <is>
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="HB1" s="7" t="inlineStr">
+      <c r="HB1" s="6" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
       </c>
-      <c r="HC1" s="7" t="inlineStr">
+      <c r="HC1" s="6" t="inlineStr">
         <is>
           <t>2023-11-15</t>
         </is>
       </c>
-      <c r="HD1" s="7" t="inlineStr">
+      <c r="HD1" s="6" t="inlineStr">
         <is>
           <t>2023-11-16</t>
         </is>
       </c>
-      <c r="HE1" s="7" t="inlineStr">
+      <c r="HE1" s="6" t="inlineStr">
         <is>
           <t>2023-11-17</t>
         </is>
       </c>
-      <c r="HF1" s="7" t="inlineStr">
+      <c r="HF1" s="6" t="inlineStr">
         <is>
           <t>2023-11-20</t>
         </is>
       </c>
-      <c r="HG1" s="7" t="inlineStr">
+      <c r="HG1" s="6" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="HH1" s="7" t="inlineStr">
+      <c r="HH1" s="6" t="inlineStr">
         <is>
           <t>2023-11-22</t>
         </is>
       </c>
-      <c r="HI1" s="7" t="inlineStr">
+      <c r="HI1" s="6" t="inlineStr">
         <is>
           <t>2023-11-23</t>
         </is>
       </c>
-      <c r="HJ1" s="7" t="inlineStr">
+      <c r="HJ1" s="6" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="HK1" s="7" t="inlineStr">
+      <c r="HK1" s="6" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="HL1" s="7" t="inlineStr">
+      <c r="HL1" s="6" t="inlineStr">
         <is>
           <t>2023-11-28</t>
         </is>
       </c>
-      <c r="HM1" s="7" t="inlineStr">
+      <c r="HM1" s="6" t="inlineStr">
         <is>
           <t>2023-11-29</t>
         </is>
       </c>
-      <c r="HN1" s="7" t="inlineStr">
+      <c r="HN1" s="6" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="HO1" s="7" t="inlineStr">
+      <c r="HO1" s="6" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="HP1" s="7" t="inlineStr">
+      <c r="HP1" s="6" t="inlineStr">
         <is>
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="HQ1" s="7" t="inlineStr">
+      <c r="HQ1" s="6" t="inlineStr">
         <is>
           <t>2023-12-05</t>
         </is>
       </c>
-      <c r="HR1" s="7" t="inlineStr">
+      <c r="HR1" s="6" t="inlineStr">
         <is>
           <t>2023-12-06</t>
         </is>
       </c>
-      <c r="HS1" s="7" t="inlineStr">
+      <c r="HS1" s="6" t="inlineStr">
         <is>
           <t>2023-12-07</t>
         </is>
       </c>
-      <c r="HT1" s="7" t="inlineStr">
+      <c r="HT1" s="6" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="HU1" s="7" t="inlineStr">
+      <c r="HU1" s="6" t="inlineStr">
         <is>
           <t>2023-12-11</t>
         </is>
       </c>
-      <c r="HV1" s="7" t="inlineStr">
+      <c r="HV1" s="6" t="inlineStr">
         <is>
           <t>2023-12-12</t>
         </is>
       </c>
-      <c r="HW1" s="7" t="inlineStr">
+      <c r="HW1" s="6" t="inlineStr">
         <is>
           <t>2023-12-13</t>
         </is>
       </c>
-      <c r="HX1" s="7" t="inlineStr">
+      <c r="HX1" s="6" t="inlineStr">
         <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="HY1" s="7" t="inlineStr">
+      <c r="HY1" s="6" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="HZ1" s="7" t="inlineStr">
+      <c r="HZ1" s="6" t="inlineStr">
         <is>
           <t>2023-12-18</t>
         </is>
       </c>
-      <c r="IA1" s="7" t="inlineStr">
+      <c r="IA1" s="6" t="inlineStr">
         <is>
           <t>2023-12-19</t>
         </is>
       </c>
-      <c r="IB1" s="7" t="inlineStr">
+      <c r="IB1" s="6" t="inlineStr">
         <is>
           <t>2023-12-20</t>
         </is>
       </c>
-      <c r="IC1" s="7" t="inlineStr">
+      <c r="IC1" s="6" t="inlineStr">
         <is>
           <t>2023-12-21</t>
         </is>
       </c>
-      <c r="ID1" s="7" t="inlineStr">
+      <c r="ID1" s="6" t="inlineStr">
         <is>
           <t>2023-12-22</t>
         </is>
       </c>
-      <c r="IE1" s="7" t="inlineStr">
+      <c r="IE1" s="6" t="inlineStr">
         <is>
           <t>2023-12-25</t>
         </is>
       </c>
-      <c r="IF1" s="7" t="inlineStr">
+      <c r="IF1" s="6" t="inlineStr">
         <is>
           <t>2023-12-26</t>
         </is>
       </c>
-      <c r="IG1" s="7" t="inlineStr">
+      <c r="IG1" s="6" t="inlineStr">
         <is>
           <t>2023-12-27</t>
         </is>
       </c>
-      <c r="IH1" s="7" t="inlineStr">
+      <c r="IH1" s="6" t="inlineStr">
         <is>
           <t>2023-12-28</t>
         </is>
       </c>
-      <c r="II1" s="7" t="inlineStr">
+      <c r="II1" s="6" t="inlineStr">
         <is>
           <t>2023-12-29</t>
         </is>
       </c>
-      <c r="IJ1" s="7" t="inlineStr">
+      <c r="IJ1" s="6" t="inlineStr">
         <is>
           <t>2024-01-02</t>
         </is>
       </c>
-      <c r="IK1" s="7" t="inlineStr">
+      <c r="IK1" s="6" t="inlineStr">
         <is>
           <t>2024-01-03</t>
         </is>
       </c>
-      <c r="IL1" s="7" t="inlineStr">
+      <c r="IL1" s="6" t="inlineStr">
         <is>
           <t>2024-01-04</t>
         </is>
       </c>
-      <c r="IM1" s="7" t="inlineStr">
+      <c r="IM1" s="6" t="inlineStr">
         <is>
           <t>2024-01-05</t>
         </is>
       </c>
-      <c r="IN1" s="7" t="inlineStr">
+      <c r="IN1" s="6" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="IO1" s="7" t="inlineStr">
+      <c r="IO1" s="6" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="IP1" s="7" t="inlineStr">
+      <c r="IP1" s="6" t="inlineStr">
         <is>
           <t>2024-01-10</t>
         </is>
       </c>
-      <c r="IQ1" s="7" t="inlineStr">
+      <c r="IQ1" s="6" t="inlineStr">
         <is>
           <t>2024-01-11</t>
         </is>
       </c>
-      <c r="IR1" s="7" t="inlineStr">
+      <c r="IR1" s="6" t="inlineStr">
         <is>
           <t>2024-01-12</t>
         </is>
       </c>
-      <c r="IS1" s="7" t="inlineStr">
+      <c r="IS1" s="6" t="inlineStr">
         <is>
           <t>2024-01-15</t>
         </is>
       </c>
-      <c r="IT1" s="7" t="inlineStr">
+      <c r="IT1" s="6" t="inlineStr">
         <is>
           <t>2024-01-16</t>
         </is>
       </c>
-      <c r="IU1" s="7" t="inlineStr">
+      <c r="IU1" s="6" t="inlineStr">
         <is>
           <t>2024-01-17</t>
         </is>
       </c>
-      <c r="IV1" s="7" t="inlineStr">
+      <c r="IV1" s="6" t="inlineStr">
         <is>
           <t>2024-01-18</t>
         </is>
       </c>
-      <c r="IW1" s="7" t="inlineStr">
+      <c r="IW1" s="6" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="IX1" s="7" t="inlineStr">
+      <c r="IX1" s="6" t="inlineStr">
         <is>
           <t>2024-01-22</t>
         </is>
       </c>
-      <c r="IY1" s="7" t="inlineStr">
+      <c r="IY1" s="6" t="inlineStr">
         <is>
           <t>2024-01-23</t>
         </is>
       </c>
-      <c r="IZ1" s="7" t="inlineStr">
+      <c r="IZ1" s="6" t="inlineStr">
         <is>
           <t>2024-01-24</t>
         </is>
       </c>
-      <c r="JA1" s="7" t="inlineStr">
+      <c r="JA1" s="6" t="inlineStr">
         <is>
           <t>2024-01-25</t>
         </is>
       </c>
-      <c r="JB1" s="7" t="inlineStr">
+      <c r="JB1" s="6" t="inlineStr">
         <is>
           <t>2024-01-26</t>
         </is>
       </c>
-      <c r="JC1" s="7" t="inlineStr">
+      <c r="JC1" s="6" t="inlineStr">
         <is>
           <t>2024-01-29</t>
         </is>
       </c>
-      <c r="JD1" s="7" t="inlineStr">
+      <c r="JD1" s="6" t="inlineStr">
         <is>
           <t>2024-01-30</t>
         </is>
       </c>
-      <c r="JE1" s="7" t="inlineStr">
+      <c r="JE1" s="6" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
       </c>
-      <c r="JF1" s="7" t="inlineStr">
+      <c r="JF1" s="6" t="inlineStr">
         <is>
           <t>2024-02-01</t>
         </is>
       </c>
-      <c r="JG1" s="7" t="inlineStr">
+      <c r="JG1" s="6" t="inlineStr">
         <is>
           <t>2024-02-02</t>
         </is>
       </c>
-      <c r="JH1" s="7" t="inlineStr">
+      <c r="JH1" s="6" t="inlineStr">
         <is>
           <t>2024-02-05</t>
         </is>
       </c>
-      <c r="JI1" s="7" t="inlineStr">
+      <c r="JI1" s="6" t="inlineStr">
         <is>
           <t>2024-02-06</t>
         </is>
       </c>
-      <c r="JJ1" s="7" t="inlineStr">
+      <c r="JJ1" s="6" t="inlineStr">
         <is>
           <t>2024-02-07</t>
         </is>
       </c>
-      <c r="JK1" s="7" t="inlineStr">
+      <c r="JK1" s="6" t="inlineStr">
         <is>
           <t>2024-02-08</t>
         </is>
       </c>
-      <c r="JL1" s="7" t="inlineStr">
+      <c r="JL1" s="6" t="inlineStr">
         <is>
           <t>2024-02-19</t>
         </is>
       </c>
-      <c r="JM1" s="7" t="inlineStr">
+      <c r="JM1" s="6" t="inlineStr">
         <is>
           <t>2024-02-20</t>
         </is>
       </c>
-      <c r="JN1" s="7" t="inlineStr">
+      <c r="JN1" s="6" t="inlineStr">
         <is>
           <t>2024-02-21</t>
         </is>
       </c>
-      <c r="JO1" s="7" t="inlineStr">
+      <c r="JO1" s="6" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
       </c>
-      <c r="JP1" s="7" t="inlineStr">
+      <c r="JP1" s="6" t="inlineStr">
         <is>
           <t>2024-02-23</t>
         </is>
       </c>
-      <c r="JQ1" s="7" t="inlineStr">
+      <c r="JQ1" s="6" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
       </c>
-      <c r="JR1" s="7" t="inlineStr">
+      <c r="JR1" s="6" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
       </c>
-      <c r="JS1" s="7" t="inlineStr">
+      <c r="JS1" s="6" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="JT1" s="7" t="inlineStr">
+      <c r="JT1" s="6" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="JU1" s="7" t="inlineStr">
+      <c r="JU1" s="6" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="JV1" s="7" t="inlineStr">
+      <c r="JV1" s="6" t="inlineStr">
         <is>
           <t>2024-03-04</t>
         </is>
       </c>
-      <c r="JW1" s="7" t="inlineStr">
+      <c r="JW1" s="6" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="JX1" s="7" t="inlineStr">
+      <c r="JX1" s="6" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="JY1" s="7" t="inlineStr">
+      <c r="JY1" s="6" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="JZ1" s="7" t="inlineStr">
+      <c r="JZ1" s="6" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="KA1" s="7" t="inlineStr">
+      <c r="KA1" s="6" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="KB1" s="7" t="inlineStr">
+      <c r="KB1" s="6" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="KC1" s="7" t="inlineStr">
+      <c r="KC1" s="6" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="KD1" s="7" t="inlineStr">
+      <c r="KD1" s="6" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="KE1" s="7" t="inlineStr">
+      <c r="KE1" s="6" t="inlineStr">
         <is>
           <t>2024-03-15</t>
         </is>
       </c>
-      <c r="KF1" s="7" t="inlineStr">
+      <c r="KF1" s="6" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="KG1" s="7" t="inlineStr">
+      <c r="KG1" s="6" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
       </c>
-      <c r="KH1" s="7" t="inlineStr">
+      <c r="KH1" s="6" t="inlineStr">
         <is>
           <t>2024-03-20</t>
         </is>
       </c>
-      <c r="KI1" s="7" t="inlineStr">
+      <c r="KI1" s="6" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="KJ1" s="7" t="inlineStr">
+      <c r="KJ1" s="6" t="inlineStr">
         <is>
           <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="KK1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="KL1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="KM1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="KN1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="KO1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
         </is>
       </c>
     </row>
@@ -3449,12 +3463,12 @@
           <t>圣龙股份</t>
         </is>
       </c>
-      <c r="JR12" s="5" t="inlineStr">
+      <c r="JR12" s="4" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="KI12" s="6" t="inlineStr">
+      <c r="KI12" s="1" t="inlineStr">
         <is>
           <t>艾艾精工</t>
         </is>
@@ -3476,12 +3490,12 @@
           <t>圣龙股份</t>
         </is>
       </c>
-      <c r="JQ13" s="5" t="inlineStr">
+      <c r="JQ13" s="4" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="KH13" s="6" t="inlineStr">
+      <c r="KH13" s="1" t="inlineStr">
         <is>
           <t>艾艾精工</t>
         </is>
@@ -3508,17 +3522,17 @@
           <t>高新发展</t>
         </is>
       </c>
-      <c r="IY14" s="5" t="inlineStr">
+      <c r="IY14" s="4" t="inlineStr">
         <is>
           <t>深中华A</t>
         </is>
       </c>
-      <c r="JP14" s="5" t="inlineStr">
+      <c r="JP14" s="4" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="KG14" s="6" t="inlineStr">
+      <c r="KG14" s="1" t="inlineStr">
         <is>
           <t>艾艾精工</t>
         </is>
@@ -3550,17 +3564,17 @@
           <t>天龙股份</t>
         </is>
       </c>
-      <c r="IX15" s="5" t="inlineStr">
+      <c r="IX15" s="4" t="inlineStr">
         <is>
           <t>深中华A</t>
         </is>
       </c>
-      <c r="JO15" s="5" t="inlineStr">
+      <c r="JO15" s="4" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="KF15" s="6" t="inlineStr">
+      <c r="KF15" s="1" t="inlineStr">
         <is>
           <t>艾艾精工</t>
         </is>
@@ -3602,11 +3616,6 @@
           <t>高新发展</t>
         </is>
       </c>
-      <c r="GU16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="GV16" s="4" t="inlineStr">
         <is>
           <t>天龙股份</t>
@@ -3627,17 +3636,17 @@
           <t>亚世光电</t>
         </is>
       </c>
-      <c r="IW16" s="5" t="inlineStr">
+      <c r="IW16" s="4" t="inlineStr">
         <is>
           <t>深中华A</t>
         </is>
       </c>
-      <c r="JN16" s="5" t="inlineStr">
+      <c r="JN16" s="4" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="KE16" s="6" t="inlineStr">
+      <c r="KE16" s="1" t="inlineStr">
         <is>
           <t>艾艾精工</t>
         </is>
@@ -3664,11 +3673,6 @@
           <t>日播时尚</t>
         </is>
       </c>
-      <c r="FJ17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
       <c r="FK17" s="4" t="inlineStr">
         <is>
           <t>我乐家居</t>
@@ -3719,42 +3723,42 @@
           <t>亚世光电</t>
         </is>
       </c>
-      <c r="IV17" s="5" t="inlineStr">
+      <c r="IV17" s="4" t="inlineStr">
         <is>
           <t>深中华A</t>
         </is>
       </c>
-      <c r="JF17" s="5" t="inlineStr">
+      <c r="JF17" s="4" t="inlineStr">
         <is>
           <t>中视传媒</t>
         </is>
       </c>
-      <c r="JM17" s="5" t="inlineStr">
+      <c r="JM17" s="4" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="JQ17" s="5" t="inlineStr">
+      <c r="JQ17" s="4" t="inlineStr">
         <is>
           <t>蓝科高新</t>
         </is>
       </c>
-      <c r="JR17" s="5" t="inlineStr">
+      <c r="JR17" s="4" t="inlineStr">
         <is>
           <t>睿能科技</t>
         </is>
       </c>
-      <c r="JS17" s="5" t="inlineStr">
+      <c r="JS17" s="4" t="inlineStr">
         <is>
           <t>国脉文化, 华扬联众</t>
         </is>
       </c>
-      <c r="KD17" s="6" t="inlineStr">
+      <c r="KD17" s="1" t="inlineStr">
         <is>
           <t>艾艾精工</t>
         </is>
       </c>
-      <c r="KI17" s="6" t="inlineStr">
+      <c r="KI17" s="1" t="inlineStr">
         <is>
           <t>永悦科技, 大理药业</t>
         </is>
@@ -3886,37 +3890,42 @@
           <t>长白山</t>
         </is>
       </c>
-      <c r="IU18" s="5" t="inlineStr">
+      <c r="IU18" s="4" t="inlineStr">
         <is>
           <t>深中华A</t>
         </is>
       </c>
-      <c r="IZ18" s="5" t="inlineStr">
+      <c r="IZ18" s="4" t="inlineStr">
         <is>
           <t>哈森股份</t>
         </is>
       </c>
-      <c r="JE18" s="5" t="inlineStr">
+      <c r="JE18" s="4" t="inlineStr">
         <is>
           <t>中视传媒</t>
         </is>
       </c>
-      <c r="JP18" s="5" t="inlineStr">
+      <c r="JL18" s="4" t="inlineStr">
+        <is>
+          <t>克来机电</t>
+        </is>
+      </c>
+      <c r="JP18" s="4" t="inlineStr">
         <is>
           <t>蓝科高新</t>
         </is>
       </c>
-      <c r="JQ18" s="5" t="inlineStr">
+      <c r="JQ18" s="4" t="inlineStr">
         <is>
           <t>睿能科技</t>
         </is>
       </c>
-      <c r="JR18" s="5" t="inlineStr">
+      <c r="JR18" s="4" t="inlineStr">
         <is>
           <t>国脉文化, 华扬联众</t>
         </is>
       </c>
-      <c r="JX18" s="5" t="inlineStr">
+      <c r="JX18" s="4" t="inlineStr">
         <is>
           <t>安奈儿</t>
         </is>
@@ -3926,9 +3935,24 @@
           <t>立航科技, 艾艾精工</t>
         </is>
       </c>
-      <c r="KH18" s="6" t="inlineStr">
+      <c r="KH18" s="1" t="inlineStr">
         <is>
           <t>永悦科技, 大理药业</t>
+        </is>
+      </c>
+      <c r="KK18" s="1" t="inlineStr">
+        <is>
+          <t>博信股份</t>
+        </is>
+      </c>
+      <c r="KN18" s="1" t="inlineStr">
+        <is>
+          <t>宁科生物</t>
+        </is>
+      </c>
+      <c r="KO18" s="5" t="inlineStr">
+        <is>
+          <t>华生科技</t>
         </is>
       </c>
     </row>
@@ -4148,52 +4172,52 @@
           <t>深中华A</t>
         </is>
       </c>
-      <c r="IY19" s="5" t="inlineStr">
+      <c r="IY19" s="4" t="inlineStr">
         <is>
           <t>哈森股份</t>
         </is>
       </c>
-      <c r="JD19" s="5" t="inlineStr">
+      <c r="JD19" s="4" t="inlineStr">
         <is>
           <t>中视传媒, 长江投资</t>
         </is>
       </c>
-      <c r="JK19" s="5" t="inlineStr">
+      <c r="JK19" s="4" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="JO19" s="5" t="inlineStr">
+      <c r="JO19" s="4" t="inlineStr">
         <is>
           <t>蓝科高新</t>
         </is>
       </c>
-      <c r="JP19" s="5" t="inlineStr">
+      <c r="JP19" s="4" t="inlineStr">
         <is>
           <t>二六三, 睿能科技</t>
         </is>
       </c>
-      <c r="JQ19" s="5" t="inlineStr">
+      <c r="JQ19" s="4" t="inlineStr">
         <is>
           <t>景峰医药, 精伦电子, 信雅达, 国脉文化, 华扬联众</t>
         </is>
       </c>
-      <c r="JR19" s="5" t="inlineStr">
+      <c r="JR19" s="4" t="inlineStr">
         <is>
           <t>克劳斯</t>
         </is>
       </c>
-      <c r="JU19" s="5" t="inlineStr">
+      <c r="JU19" s="4" t="inlineStr">
         <is>
           <t>东方精工</t>
         </is>
       </c>
-      <c r="JW19" s="5" t="inlineStr">
+      <c r="JW19" s="4" t="inlineStr">
         <is>
           <t>安奈儿</t>
         </is>
       </c>
-      <c r="JX19" s="5" t="inlineStr">
+      <c r="JX19" s="4" t="inlineStr">
         <is>
           <t>天元智能</t>
         </is>
@@ -4203,14 +4227,24 @@
           <t>立航科技, 艾艾精工</t>
         </is>
       </c>
-      <c r="KG19" s="6" t="inlineStr">
+      <c r="KG19" s="1" t="inlineStr">
         <is>
           <t>永悦科技, 大理药业</t>
         </is>
       </c>
-      <c r="KJ19" s="6" t="inlineStr">
+      <c r="KJ19" s="1" t="inlineStr">
         <is>
           <t>博信股份</t>
+        </is>
+      </c>
+      <c r="KM19" s="1" t="inlineStr">
+        <is>
+          <t>宁科生物</t>
+        </is>
+      </c>
+      <c r="KN19" s="1" t="inlineStr">
+        <is>
+          <t>华生科技</t>
         </is>
       </c>
     </row>
@@ -4615,82 +4649,82 @@
           <t>深中华A</t>
         </is>
       </c>
-      <c r="IX20" s="5" t="inlineStr">
+      <c r="IX20" s="4" t="inlineStr">
         <is>
           <t>哈森股份</t>
         </is>
       </c>
-      <c r="IY20" s="5" t="inlineStr">
+      <c r="IY20" s="4" t="inlineStr">
         <is>
           <t>华瓷股份, 同兴环保</t>
         </is>
       </c>
-      <c r="JB20" s="5" t="inlineStr">
+      <c r="JB20" s="4" t="inlineStr">
         <is>
           <t>特发信息</t>
         </is>
       </c>
-      <c r="JC20" s="5" t="inlineStr">
+      <c r="JC20" s="4" t="inlineStr">
         <is>
           <t>中视传媒, 长江投资, 浦东金桥, 中华企业, 上海凤凰, 畅联股份</t>
         </is>
       </c>
-      <c r="JD20" s="5" t="inlineStr">
+      <c r="JD20" s="4" t="inlineStr">
         <is>
           <t>中国海诚</t>
         </is>
       </c>
-      <c r="JI20" s="5" t="inlineStr">
+      <c r="JI20" s="4" t="inlineStr">
         <is>
           <t>中基健康</t>
         </is>
       </c>
-      <c r="JJ20" s="5" t="inlineStr">
+      <c r="JJ20" s="4" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="JN20" s="5" t="inlineStr">
+      <c r="JN20" s="4" t="inlineStr">
         <is>
           <t>蓝科高新</t>
         </is>
       </c>
-      <c r="JO20" s="5" t="inlineStr">
+      <c r="JO20" s="4" t="inlineStr">
         <is>
           <t>二六三, 睿能科技</t>
         </is>
       </c>
-      <c r="JP20" s="5" t="inlineStr">
+      <c r="JP20" s="4" t="inlineStr">
         <is>
           <t>景峰医药, 精伦电子, 信雅达, 国脉文化, 华扬联众</t>
         </is>
       </c>
-      <c r="JQ20" s="5" t="inlineStr">
+      <c r="JQ20" s="4" t="inlineStr">
         <is>
           <t>克劳斯</t>
         </is>
       </c>
-      <c r="JR20" s="5" t="inlineStr">
+      <c r="JR20" s="4" t="inlineStr">
         <is>
           <t>亚世光电, 汉马科技</t>
         </is>
       </c>
-      <c r="JT20" s="5" t="inlineStr">
+      <c r="JT20" s="4" t="inlineStr">
         <is>
           <t>东方精工</t>
         </is>
       </c>
-      <c r="JV20" s="5" t="inlineStr">
+      <c r="JV20" s="4" t="inlineStr">
         <is>
           <t>安奈儿, 四川金顶</t>
         </is>
       </c>
-      <c r="JW20" s="5" t="inlineStr">
+      <c r="JW20" s="4" t="inlineStr">
         <is>
           <t>天元智能</t>
         </is>
       </c>
-      <c r="JX20" s="5" t="inlineStr">
+      <c r="JX20" s="4" t="inlineStr">
         <is>
           <t>福蓉科技</t>
         </is>
@@ -4700,34 +4734,49 @@
           <t>文投控股</t>
         </is>
       </c>
-      <c r="KD20" s="6" t="inlineStr">
+      <c r="KD20" s="1" t="inlineStr">
         <is>
           <t>中电兴发</t>
         </is>
       </c>
-      <c r="KE20" s="6" t="inlineStr">
+      <c r="KE20" s="1" t="inlineStr">
         <is>
           <t>星光股份</t>
         </is>
       </c>
-      <c r="KF20" s="6" t="inlineStr">
+      <c r="KF20" s="1" t="inlineStr">
         <is>
           <t>永悦科技, 大理药业</t>
         </is>
       </c>
-      <c r="KH20" s="6" t="inlineStr">
+      <c r="KH20" s="1" t="inlineStr">
         <is>
           <t>宏达新材</t>
         </is>
       </c>
-      <c r="KI20" s="6" t="inlineStr">
+      <c r="KI20" s="1" t="inlineStr">
         <is>
           <t>博信股份</t>
         </is>
       </c>
-      <c r="KJ20" s="6" t="inlineStr">
+      <c r="KJ20" s="1" t="inlineStr">
         <is>
           <t>动力新科</t>
+        </is>
+      </c>
+      <c r="KL20" s="1" t="inlineStr">
+        <is>
+          <t>宁科生物</t>
+        </is>
+      </c>
+      <c r="KM20" s="1" t="inlineStr">
+        <is>
+          <t>华生科技</t>
+        </is>
+      </c>
+      <c r="KN20" s="1" t="inlineStr">
+        <is>
+          <t>爱丽家居, 亚振家居</t>
         </is>
       </c>
     </row>
@@ -4817,11 +4866,7 @@
           <t>鸿博股份, 金龙羽</t>
         </is>
       </c>
-      <c r="AB21" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="AB21" s="4" t="inlineStr"/>
       <c r="AF21" s="4" t="inlineStr">
         <is>
           <t>坤泰股份, 扬州金泉</t>
@@ -5427,112 +5472,112 @@
           <t>绿康生化</t>
         </is>
       </c>
-      <c r="IW21" s="5" t="inlineStr">
+      <c r="IW21" s="4" t="inlineStr">
         <is>
           <t>哈森股份, 晨光新材</t>
         </is>
       </c>
-      <c r="IX21" s="5" t="inlineStr">
+      <c r="IX21" s="4" t="inlineStr">
         <is>
           <t>华瓷股份, 同兴环保, 华升股份</t>
         </is>
       </c>
-      <c r="JA21" s="5" t="inlineStr">
+      <c r="JA21" s="4" t="inlineStr">
         <is>
           <t>特发信息</t>
         </is>
       </c>
-      <c r="JB21" s="5" t="inlineStr">
+      <c r="JB21" s="4" t="inlineStr">
         <is>
           <t>九鼎投资, 中视传媒, 长江投资, 开开实业, 华建集团, 浦东金桥, 中华企业, 上海凤凰, 上海物贸, 上海易连, 畅联股份</t>
         </is>
       </c>
-      <c r="JC21" s="5" t="inlineStr">
+      <c r="JC21" s="4" t="inlineStr">
         <is>
           <t>华控赛格, 中成股份, 中国海诚</t>
         </is>
       </c>
-      <c r="JG21" s="5" t="inlineStr">
+      <c r="JG21" s="4" t="inlineStr">
         <is>
           <t>中马传动</t>
         </is>
       </c>
-      <c r="JH21" s="5" t="inlineStr">
+      <c r="JH21" s="4" t="inlineStr">
         <is>
           <t>中基健康</t>
         </is>
       </c>
-      <c r="JI21" s="5" t="inlineStr">
+      <c r="JI21" s="4" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="JK21" s="5" t="inlineStr">
+      <c r="JK21" s="4" t="inlineStr">
         <is>
           <t>洪涛股份</t>
         </is>
       </c>
-      <c r="JL21" s="5" t="inlineStr">
+      <c r="JL21" s="4" t="inlineStr">
         <is>
           <t>华天科技</t>
         </is>
       </c>
-      <c r="JM21" s="5" t="inlineStr">
+      <c r="JM21" s="4" t="inlineStr">
         <is>
           <t>蓝科高新</t>
         </is>
       </c>
-      <c r="JN21" s="5" t="inlineStr">
+      <c r="JN21" s="4" t="inlineStr">
         <is>
           <t>二六三, 中坚科技, 浙文影业, 睿能科技</t>
         </is>
       </c>
-      <c r="JO21" s="5" t="inlineStr">
+      <c r="JO21" s="4" t="inlineStr">
         <is>
           <t>景峰医药, 魅视科技, 精伦电子, 信雅达, 国脉文化, 网达软件, 华扬联众</t>
         </is>
       </c>
-      <c r="JP21" s="5" t="inlineStr">
+      <c r="JP21" s="4" t="inlineStr">
         <is>
           <t>克劳斯</t>
         </is>
       </c>
-      <c r="JQ21" s="5" t="inlineStr">
+      <c r="JQ21" s="4" t="inlineStr">
         <is>
           <t>合力泰, 亚世光电, 汉马科技, 合锻智能</t>
         </is>
       </c>
-      <c r="JR21" s="5" t="inlineStr">
+      <c r="JR21" s="4" t="inlineStr">
         <is>
           <t>日海智能, 爱仕达, 美吉姆, 傲农生物</t>
         </is>
       </c>
-      <c r="JS21" s="5" t="inlineStr">
+      <c r="JS21" s="4" t="inlineStr">
         <is>
           <t>东方精工, 博杰股份</t>
         </is>
       </c>
-      <c r="JT21" s="5" t="inlineStr">
+      <c r="JT21" s="4" t="inlineStr">
         <is>
           <t>天永智能</t>
         </is>
       </c>
-      <c r="JU21" s="5" t="inlineStr">
+      <c r="JU21" s="4" t="inlineStr">
         <is>
           <t>汇源通信, 安奈儿, 四川金顶</t>
         </is>
       </c>
-      <c r="JV21" s="5" t="inlineStr">
+      <c r="JV21" s="4" t="inlineStr">
         <is>
           <t>天元智能</t>
         </is>
       </c>
-      <c r="JW21" s="5" t="inlineStr">
+      <c r="JW21" s="4" t="inlineStr">
         <is>
           <t>福蓉科技</t>
         </is>
       </c>
-      <c r="JX21" s="5" t="inlineStr">
+      <c r="JX21" s="4" t="inlineStr">
         <is>
           <t>文投控股</t>
         </is>
@@ -5562,29 +5607,49 @@
           <t>中电兴发, 铭普光磁</t>
         </is>
       </c>
-      <c r="KD21" s="6" t="inlineStr">
+      <c r="KD21" s="1" t="inlineStr">
         <is>
           <t>星光股份</t>
         </is>
       </c>
-      <c r="KE21" s="6" t="inlineStr">
+      <c r="KE21" s="1" t="inlineStr">
         <is>
           <t>永悦科技, 大理药业</t>
         </is>
       </c>
-      <c r="KG21" s="6" t="inlineStr">
+      <c r="KG21" s="1" t="inlineStr">
         <is>
           <t>新大洲A, 宏达新材</t>
         </is>
       </c>
-      <c r="KH21" s="6" t="inlineStr">
+      <c r="KH21" s="1" t="inlineStr">
         <is>
           <t>电广传媒, 博信股份</t>
         </is>
       </c>
-      <c r="KI21" s="6" t="inlineStr">
+      <c r="KI21" s="1" t="inlineStr">
         <is>
           <t>贝瑞基因, 动力新科, 东方时尚</t>
+        </is>
+      </c>
+      <c r="KK21" s="1" t="inlineStr">
+        <is>
+          <t>宁科生物</t>
+        </is>
+      </c>
+      <c r="KL21" s="1" t="inlineStr">
+        <is>
+          <t>青海华鼎, 华生科技</t>
+        </is>
+      </c>
+      <c r="KM21" s="1" t="inlineStr">
+        <is>
+          <t>京投发展, 圣达生物, 爱丽家居, 亚振家居</t>
+        </is>
+      </c>
+      <c r="KO21" s="5" t="inlineStr">
+        <is>
+          <t>联明股份</t>
         </is>
       </c>
     </row>
@@ -6034,11 +6099,7 @@
           <t>大连热电</t>
         </is>
       </c>
-      <c r="DU22" s="4" t="inlineStr">
-        <is>
-          <t>深华发A, 瑞玛精密</t>
-        </is>
-      </c>
+      <c r="DU22" s="4" t="inlineStr"/>
       <c r="DV22" s="4" t="inlineStr">
         <is>
           <t>苏常柴A, 京能热力</t>
@@ -6579,132 +6640,132 @@
           <t>万方发展, 耀皮玻璃, 江苏华辰</t>
         </is>
       </c>
-      <c r="IU22" s="5" t="inlineStr">
+      <c r="IU22" s="4" t="inlineStr">
         <is>
           <t>深华发A, 宏达新材</t>
         </is>
       </c>
-      <c r="IV22" s="5" t="inlineStr">
+      <c r="IV22" s="4" t="inlineStr">
         <is>
           <t>新力金融, 大千生态, 哈森股份, 晨光新材</t>
         </is>
       </c>
-      <c r="IW22" s="5" t="inlineStr">
+      <c r="IW22" s="4" t="inlineStr">
         <is>
           <t>华瓷股份, 同兴环保, 华升股份</t>
         </is>
       </c>
-      <c r="IZ22" s="5" t="inlineStr">
+      <c r="IZ22" s="4" t="inlineStr">
         <is>
           <t>特发信息</t>
         </is>
       </c>
-      <c r="JA22" s="5" t="inlineStr">
+      <c r="JA22" s="4" t="inlineStr">
         <is>
           <t>九鼎投资, 中视传媒, 长江投资, 江苏吴中, 开开实业, 华建集团, 浦东金桥, 中华企业, 上海凤凰, 建元信托, 上海物贸, 上海易连, 畅联股份</t>
         </is>
       </c>
-      <c r="JB22" s="5" t="inlineStr">
+      <c r="JB22" s="4" t="inlineStr">
         <is>
           <t>深华发A, 华控赛格, 中成股份, 中国海诚, 中粮资本, 光大嘉宝, 外高桥, 香溢融通</t>
         </is>
       </c>
-      <c r="JC22" s="5" t="inlineStr">
+      <c r="JC22" s="4" t="inlineStr">
         <is>
           <t>光明地产</t>
         </is>
       </c>
-      <c r="JE22" s="5" t="inlineStr">
+      <c r="JE22" s="4" t="inlineStr">
         <is>
           <t>百通能源</t>
         </is>
       </c>
-      <c r="JF22" s="5" t="inlineStr">
+      <c r="JF22" s="4" t="inlineStr">
         <is>
           <t>中马传动</t>
         </is>
       </c>
-      <c r="JG22" s="5" t="inlineStr">
+      <c r="JG22" s="4" t="inlineStr">
         <is>
           <t>中基健康</t>
         </is>
       </c>
-      <c r="JH22" s="5" t="inlineStr">
+      <c r="JH22" s="4" t="inlineStr">
         <is>
           <t>哈森股份, 克来机电</t>
         </is>
       </c>
-      <c r="JJ22" s="5" t="inlineStr">
+      <c r="JJ22" s="4" t="inlineStr">
         <is>
           <t>洪涛股份, 长江通信, 中重科技</t>
         </is>
       </c>
-      <c r="JK22" s="5" t="inlineStr">
+      <c r="JK22" s="4" t="inlineStr">
         <is>
           <t>风华高科, 中国稀土, 华天科技, 新里程, 川发龙蟒, 齐翔腾达, 光启技术, 三维股份</t>
         </is>
       </c>
-      <c r="JL22" s="5" t="inlineStr">
+      <c r="JL22" s="4" t="inlineStr">
         <is>
           <t>蓝科高新</t>
         </is>
       </c>
-      <c r="JM22" s="5" t="inlineStr">
+      <c r="JM22" s="4" t="inlineStr">
         <is>
           <t>高新发展, 好上好, 禾盛新材, 二六三, 中坚科技, 光大嘉宝, 浙文影业, 赛福天, 电魂网络, 淳中科技, 睿能科技, 松霖科技, 新炬网络</t>
         </is>
       </c>
-      <c r="JN22" s="5" t="inlineStr">
+      <c r="JN22" s="4" t="inlineStr">
         <is>
           <t>荣丰控股, 景峰医药, 魅视科技, 精伦电子, 信雅达, 汇通能源, 国脉文化, 网达软件, 华扬联众</t>
         </is>
       </c>
-      <c r="JO22" s="5" t="inlineStr">
+      <c r="JO22" s="4" t="inlineStr">
         <is>
           <t>克劳斯</t>
         </is>
       </c>
-      <c r="JP22" s="5" t="inlineStr">
+      <c r="JP22" s="4" t="inlineStr">
         <is>
           <t>合力泰, 亚世光电, 汉马科技, 合锻智能</t>
         </is>
       </c>
-      <c r="JQ22" s="5" t="inlineStr">
+      <c r="JQ22" s="4" t="inlineStr">
         <is>
           <t>美利云, 日海智能, 爱仕达, 美吉姆, 卓朗科技, 文投控股, 傲农生物</t>
         </is>
       </c>
-      <c r="JR22" s="5" t="inlineStr">
+      <c r="JR22" s="4" t="inlineStr">
         <is>
           <t>人人乐, 日发精机, 东方精工, 博杰股份, 迪马股份</t>
         </is>
       </c>
-      <c r="JS22" s="5" t="inlineStr">
+      <c r="JS22" s="4" t="inlineStr">
         <is>
           <t>亚联发展, 标准股份, 天永智能</t>
         </is>
       </c>
-      <c r="JT22" s="5" t="inlineStr">
+      <c r="JT22" s="4" t="inlineStr">
         <is>
           <t>汇源通信, 安奈儿, 四川金顶</t>
         </is>
       </c>
-      <c r="JU22" s="5" t="inlineStr">
+      <c r="JU22" s="4" t="inlineStr">
         <is>
           <t>达意隆, 洪涛股份, 天元智能, 康普顿</t>
         </is>
       </c>
-      <c r="JV22" s="5" t="inlineStr">
+      <c r="JV22" s="4" t="inlineStr">
         <is>
           <t>光迅科技, 康盛股份, 高斯贝尔, 福蓉科技</t>
         </is>
       </c>
-      <c r="JW22" s="5" t="inlineStr">
+      <c r="JW22" s="4" t="inlineStr">
         <is>
           <t>卓翼科技, 文投控股</t>
         </is>
       </c>
-      <c r="JX22" s="5" t="inlineStr">
+      <c r="JX22" s="4" t="inlineStr">
         <is>
           <t>川润股份, 润都股份</t>
         </is>
@@ -6734,34 +6795,59 @@
           <t>星光股份, 普天科技, 英联股份, 掌阅科技</t>
         </is>
       </c>
-      <c r="KD22" s="6" t="inlineStr">
+      <c r="KD22" s="1" t="inlineStr">
         <is>
           <t>永悦科技, 大理药业</t>
         </is>
       </c>
-      <c r="KF22" s="6" t="inlineStr">
+      <c r="KF22" s="1" t="inlineStr">
         <is>
           <t>新大洲A, 宏达新材, 合锻智能, 越剑智能</t>
         </is>
       </c>
-      <c r="KG22" s="6" t="inlineStr">
+      <c r="KG22" s="1" t="inlineStr">
         <is>
           <t>电广传媒, 博信股份</t>
         </is>
       </c>
-      <c r="KH22" s="6" t="inlineStr">
+      <c r="KH22" s="1" t="inlineStr">
         <is>
           <t>贝瑞基因, 动力新科, 福蓉科技, 东方时尚, 塞力医疗</t>
         </is>
       </c>
-      <c r="KI22" s="6" t="inlineStr">
+      <c r="KI22" s="1" t="inlineStr">
         <is>
           <t>威帝股份, 傲农生物, 新亚电子</t>
         </is>
       </c>
-      <c r="KJ22" s="6" t="inlineStr">
+      <c r="KJ22" s="1" t="inlineStr">
         <is>
           <t>沃尔核材, 宁科生物, 掌阅科技, 中广天择</t>
+        </is>
+      </c>
+      <c r="KK22" s="1" t="inlineStr">
+        <is>
+          <t>王子新材, 青海华鼎, 翔港科技, 华生科技</t>
+        </is>
+      </c>
+      <c r="KL22" s="1" t="inlineStr">
+        <is>
+          <t>京投发展, 圣达生物, 爱丽家居, 亚振家居, 安德利</t>
+        </is>
+      </c>
+      <c r="KM22" s="1" t="inlineStr">
+        <is>
+          <t>科森科技</t>
+        </is>
+      </c>
+      <c r="KN22" s="1" t="inlineStr">
+        <is>
+          <t>联明股份, 丰山集团</t>
+        </is>
+      </c>
+      <c r="KO22" s="5" t="inlineStr">
+        <is>
+          <t>中信海直, 普路通, 华体科技</t>
         </is>
       </c>
     </row>
@@ -8001,152 +8087,152 @@
           <t>深华发A, 宏达新材, 大连圣亚, 九华旅游</t>
         </is>
       </c>
-      <c r="IU23" s="5" t="inlineStr">
+      <c r="IU23" s="4" t="inlineStr">
         <is>
           <t>华金资本, 先锋电子, 新力金融, 龙头股份, 哈森股份, 宏柏新材, 晨光新材</t>
         </is>
       </c>
-      <c r="IV23" s="5" t="inlineStr">
+      <c r="IV23" s="4" t="inlineStr">
         <is>
           <t>华瓷股份, 罗普斯金, 同兴环保, 华升股份, 华立股份, 元利科技, 华生科技</t>
         </is>
       </c>
-      <c r="IW23" s="5" t="inlineStr">
+      <c r="IW23" s="4" t="inlineStr">
         <is>
           <t>华控赛格, 英力特, 九牧王, 音飞储存, 剑桥科技</t>
         </is>
       </c>
-      <c r="IX23" s="5" t="inlineStr">
+      <c r="IX23" s="4" t="inlineStr">
         <is>
           <t>华鼎股份</t>
         </is>
       </c>
-      <c r="IY23" s="5" t="inlineStr">
+      <c r="IY23" s="4" t="inlineStr">
         <is>
           <t>特发信息, 丰山集团</t>
         </is>
       </c>
-      <c r="IZ23" s="5" t="inlineStr">
+      <c r="IZ23" s="4" t="inlineStr">
         <is>
           <t>九鼎投资, 中视传媒, 长江投资, 江苏吴中, 开开实业, 金证股份, 华建集团, 浦东金桥, 中华企业, 上海凤凰, 建元信托, 上海物贸, 上海易连, 首创证券, 剑桥科技, 畅联股份, 王力安防</t>
         </is>
       </c>
-      <c r="JA23" s="5" t="inlineStr">
+      <c r="JA23" s="4" t="inlineStr">
         <is>
           <t>深华发A, 华控赛格, 中成股份, 拓山重工, 中国海诚, 中粮资本, 开创国际, 华鑫股份, 光大嘉宝, 新黄浦, 外高桥, 陆家嘴, 中航产融, 香溢融通, 南华期货, 合富中国, 上海建科, 中公高科</t>
         </is>
       </c>
-      <c r="JB23" s="5" t="inlineStr">
+      <c r="JB23" s="4" t="inlineStr">
         <is>
           <t>中交地产, 上海贝岭, 国新文化, 光明地产, 中铝国际</t>
         </is>
       </c>
-      <c r="JC23" s="5" t="inlineStr">
+      <c r="JC23" s="4" t="inlineStr">
         <is>
           <t>腾达科技</t>
         </is>
       </c>
-      <c r="JD23" s="5" t="inlineStr">
+      <c r="JD23" s="4" t="inlineStr">
         <is>
           <t>深南电A, 百通能源</t>
         </is>
       </c>
-      <c r="JE23" s="5" t="inlineStr">
+      <c r="JE23" s="4" t="inlineStr">
         <is>
           <t>华建集团, 中广天择, 中马传动</t>
         </is>
       </c>
-      <c r="JF23" s="5" t="inlineStr">
+      <c r="JF23" s="4" t="inlineStr">
         <is>
           <t>中基健康, 乐通股份, 直真科技, 中材节能</t>
         </is>
       </c>
-      <c r="JG23" s="5" t="inlineStr">
+      <c r="JG23" s="4" t="inlineStr">
         <is>
           <t>山西路桥, 中农联合, 哈森股份, 克来机电</t>
         </is>
       </c>
-      <c r="JH23" s="5" t="inlineStr">
+      <c r="JH23" s="4" t="inlineStr">
         <is>
           <t>德新科技</t>
         </is>
       </c>
-      <c r="JI23" s="5" t="inlineStr">
+      <c r="JI23" s="4" t="inlineStr">
         <is>
           <t>洪涛股份, 长江通信, 中重科技</t>
         </is>
       </c>
-      <c r="JJ23" s="5" t="inlineStr">
+      <c r="JJ23" s="4" t="inlineStr">
         <is>
           <t>航天发展, 风华高科, 美锦能源, 普洛药业, 中国稀土, 亚钾国际, 中科三环, 大族激光, 万丰奥威, 华天科技, 新里程, 电科网安, 信立泰, 川发龙蟒, 和而泰, 齐翔腾达, 启明星辰, 光启技术, 锋龙股份, 广晟有色, 亚宝药业, 昊华科技, 盛和资源, 宏发股份, 赛力斯, 三维股份, 川仪股份, 莱克电气, 万泰生物</t>
         </is>
       </c>
-      <c r="JK23" s="5" t="inlineStr">
+      <c r="JK23" s="4" t="inlineStr">
         <is>
           <t>航锦科技, 翔腾新材, 远大智能, 光华科技, 蓝科高新, 永创智能, 哈森股份, 西大门</t>
         </is>
       </c>
-      <c r="JL23" s="5" t="inlineStr">
+      <c r="JL23" s="4" t="inlineStr">
         <is>
           <t>深纺织A, 南华生物, 高新发展, 美利云, 联科科技, 好上好, 亿道信息, 智微智能, 三特索道, 东方智造, 川润股份, 禾盛新材, 辉煌科技, 科远智慧, 二六三, 榕基软件, 捷顺科技, 金安国纪, 荣联科技, 好利科技, 世龙实业, 南兴股份, 中坚科技, 通宇通讯, 世嘉科技, 泰嘉股份, 威星智能, 伟隆股份, 智能自控, 英派斯, 中新赛克, 华阳国际, 五方光电, 锐明技术, 豪美新材, 顺博合金, 开普检测, 中信尼雅, 城市传媒, 大恒科技, 汉马科技, 安泰集团, 卓郎智能, 光大嘉宝, 金瑞矿业, 中路股份, 兰生股份, 浙文影业</t>
         </is>
       </c>
-      <c r="JM23" s="5" t="inlineStr">
+      <c r="JM23" s="4" t="inlineStr">
         <is>
           <t>荣丰控股, 景峰医药, 魅视科技, 鸿博股份, 汉王科技, 万润科技, 龙津药业, 真视通, 竞业达, 金花股份, 科新发展, 精伦电子, 空港股份, 信雅达, 汇通能源, 国脉文化, 昂立教育, 华立股份, 北自科技, 网达软件, 翔港科技, 掌阅科技, 引力传媒, 茶花股份, 苏州科达, 中广天择, 龙韵股份, 华扬联众, 新华网</t>
         </is>
       </c>
-      <c r="JN23" s="5" t="inlineStr">
+      <c r="JN23" s="4" t="inlineStr">
         <is>
           <t>深中华A, 普路通, 克劳斯</t>
         </is>
       </c>
-      <c r="JO23" s="5" t="inlineStr">
+      <c r="JO23" s="4" t="inlineStr">
         <is>
           <t>合力泰, 中科金财, 建艺集团, 亚世光电, 汉马科技, 合锻智能, 合力科技</t>
         </is>
       </c>
-      <c r="JP23" s="5" t="inlineStr">
+      <c r="JP23" s="4" t="inlineStr">
         <is>
           <t>特发信息, 高新发展, 中南股份, 美利云, 日海智能, 爱仕达, 美吉姆, 博信股份, 卓朗科技, 云赛智联, 文投控股, 鹿山新材, 傲农生物, 淳中科技, 麦迪科技</t>
         </is>
       </c>
-      <c r="JQ23" s="5" t="inlineStr">
+      <c r="JQ23" s="4" t="inlineStr">
         <is>
           <t>宝塔实业, 宁波东力, 人人乐, 日发精机, 奥拓电子, 东方精工, 博杰股份, 迪马股份, 北自科技, 瑞斯康达</t>
         </is>
       </c>
-      <c r="JR23" s="5" t="inlineStr">
+      <c r="JR23" s="4" t="inlineStr">
         <is>
           <t>皇庭国际, 珠海中富, 天奇股份, 华东数控, 亚联发展, 南方精工, 华东重机, 东方嘉盛, 标准股份, 渤海汽车, 音飞储存, 康尼机电, 日盈电子, 天永智能</t>
         </is>
       </c>
-      <c r="JS23" s="5" t="inlineStr">
+      <c r="JS23" s="4" t="inlineStr">
         <is>
           <t>汇源通信, 众生药业, 安奈儿, 四川金顶, 西上海</t>
         </is>
       </c>
-      <c r="JT23" s="5" t="inlineStr">
+      <c r="JT23" s="4" t="inlineStr">
         <is>
           <t>达意隆, 洪涛股份, 东易日盛, 九鼎投资, 华资实业, 京城股份, 神驰机电, 天元智能, 康普顿</t>
         </is>
       </c>
-      <c r="JU23" s="5" t="inlineStr">
+      <c r="JU23" s="4" t="inlineStr">
         <is>
           <t>美锦能源, 紫光股份, 威尔泰, 纳思达, 宏达新材, 联络互动, 光迅科技, 爱仕达, 康盛股份, 雄韬股份, 高斯贝尔, 宇晶股份, 全柴动力, 张江高科, 柏诚股份, 华立股份, 可川科技, 福蓉科技, 京华激光</t>
         </is>
       </c>
-      <c r="JV23" s="5" t="inlineStr">
+      <c r="JV23" s="4" t="inlineStr">
         <is>
           <t>卓翼科技, 美格智能, 城市传媒, 文投控股, 上海电影, 宏和科技, 思维列控, 苏州科达</t>
         </is>
       </c>
-      <c r="JW23" s="5" t="inlineStr">
+      <c r="JW23" s="4" t="inlineStr">
         <is>
           <t>高新发展, 川润股份, 道明光学, 智能自控, 润都股份, 汉商集团, 中广天择, 时空科技</t>
         </is>
       </c>
-      <c r="JX23" s="5" t="inlineStr">
+      <c r="JX23" s="4" t="inlineStr">
         <is>
           <t>好上好, 红宝丽, 合力泰, 安彩高科, 大连圣亚, 上海沪工, 立航科技, 艾艾精工</t>
         </is>
@@ -8176,39 +8262,64 @@
           <t>中信海直, 凯撒文化, 榕基软件, 明牌珠宝, 济南高新, 英利汽车, 永悦科技, 大理药业</t>
         </is>
       </c>
-      <c r="KD23" s="6" t="inlineStr">
+      <c r="KD23" s="1" t="inlineStr">
         <is>
           <t>魅视科技, 罗欣药业, 东安动力</t>
         </is>
       </c>
-      <c r="KE23" s="6" t="inlineStr">
+      <c r="KE23" s="1" t="inlineStr">
         <is>
           <t>新大洲A, 北方铜业, 财信发展, 宏达新材, 华宏科技, 三夫户外, 郑中设计, 赛隆药业, 合锻智能, 越剑智能, 富佳股份, 亚振家居, 恒盛能源</t>
         </is>
       </c>
-      <c r="KF23" s="6" t="inlineStr">
+      <c r="KF23" s="1" t="inlineStr">
         <is>
           <t>电广传媒, 万丰奥威, 中光学, 泰尔股份, 声迅股份, 东风汽车, 博信股份, 华嵘控股, 国芳集团, 怡球资源, 恒银科技, 诚邦股份</t>
         </is>
       </c>
-      <c r="KG23" s="6" t="inlineStr">
+      <c r="KG23" s="1" t="inlineStr">
         <is>
           <t>贝瑞基因, 方正电机, 瀛通通讯, 宸展光电, 动力新科, 福蓉科技, 东方时尚, 塞力医疗</t>
         </is>
       </c>
-      <c r="KH23" s="6" t="inlineStr">
+      <c r="KH23" s="1" t="inlineStr">
         <is>
           <t>甘肃能源, 四川九洲, 依依股份, 得润电子, 辉丰股份, 维科技术, 威帝股份, 海鸥股份, 傲农生物, 安邦护卫, 盛景微, 再升科技, 新亚电子</t>
         </is>
       </c>
-      <c r="KI23" s="6" t="inlineStr">
+      <c r="KI23" s="1" t="inlineStr">
         <is>
           <t>德明利, 沃尔核材, 北纬科技, 威创股份, 美吉姆, 实丰文化, 伟隆股份, 宁科生物, 卧龙电驱, 设计总院, 掌阅科技, 中广天择, 咸亨国际</t>
         </is>
       </c>
-      <c r="KJ23" s="6" t="inlineStr">
+      <c r="KJ23" s="1" t="inlineStr">
         <is>
           <t>大为股份, 南方精工, 王子新材, 科新发展, 青海华鼎, 博威合金, 翔港科技, 华生科技</t>
+        </is>
+      </c>
+      <c r="KK23" s="1" t="inlineStr">
+        <is>
+          <t>康达新材, 精达股份, 京投发展, 圣达生物, 爱丽家居, 亚振家居, 安德利</t>
+        </is>
+      </c>
+      <c r="KL23" s="1" t="inlineStr">
+        <is>
+          <t>物产金轮, 创新新材, 建设机械, 凯众股份, 宏和科技, 科森科技</t>
+        </is>
+      </c>
+      <c r="KM23" s="1" t="inlineStr">
+        <is>
+          <t>兴欣新材, 科瑞技术, 联明股份, 安邦护卫, 丰山集团</t>
+        </is>
+      </c>
+      <c r="KN23" s="1" t="inlineStr">
+        <is>
+          <t>中信海直, 顺威股份, 普路通, 华体科技, 新中港</t>
+        </is>
+      </c>
+      <c r="KO23" s="5" t="inlineStr">
+        <is>
+          <t>厦门信达, 宗申动力, 通宇通讯, 豪尔赛, 天禾股份, 亚泰集团, 永吉股份, 三祥新材</t>
         </is>
       </c>
     </row>
@@ -8218,12 +8329,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G296"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14753,8 +14864,118 @@
         <v>0</v>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>7</v>
+      </c>
+      <c r="C297" t="n">
+        <v>40</v>
+      </c>
+      <c r="D297" t="n">
+        <v>27</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1</v>
+      </c>
+      <c r="F297" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>5</v>
+      </c>
+      <c r="C298" t="n">
+        <v>54</v>
+      </c>
+      <c r="D298" t="n">
+        <v>11</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1</v>
+      </c>
+      <c r="F298" t="n">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>6</v>
+      </c>
+      <c r="C299" t="n">
+        <v>42</v>
+      </c>
+      <c r="D299" t="n">
+        <v>37</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1</v>
+      </c>
+      <c r="F299" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>7</v>
+      </c>
+      <c r="C300" t="n">
+        <v>64</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1</v>
+      </c>
+      <c r="F300" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>7</v>
+      </c>
+      <c r="C301" t="n">
+        <v>60</v>
+      </c>
+      <c r="D301" t="n">
+        <v>7</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1</v>
+      </c>
+      <c r="F301" t="n">
+        <v>9.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$301</f>
+              <f>'连板数据分析'!$A$2:$A$302</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$301</f>
+              <f>'连板数据分析'!$B$2:$B$302</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$301</f>
+              <f>'连板数据分析'!$A$2:$A$302</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$301</f>
+              <f>'连板数据分析'!$C$2:$C$302</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$301</f>
+              <f>'连板数据分析'!$A$2:$A$302</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$301</f>
+              <f>'连板数据分析'!$D$2:$D$302</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$301</f>
+              <f>'连板数据分析'!$A$2:$A$302</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$301</f>
+              <f>'连板数据分析'!$F$2:$F$302</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="54000000" cy="2700000"/>
+    <ext cx="54180000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="54000000" cy="2700000"/>
+    <ext cx="54180000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="54000000" cy="2700000"/>
+    <ext cx="54180000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO23"/>
+  <dimension ref="A1:KP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1867,6 +1867,7 @@
     <col width="36" customWidth="1" min="299" max="299"/>
     <col width="33.6" customWidth="1" min="300" max="300"/>
     <col width="56.4" customWidth="1" min="301" max="301"/>
+    <col width="63.59999999999999" customWidth="1" min="302" max="302"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -3371,6 +3372,11 @@
           <t>2024-03-29</t>
         </is>
       </c>
+      <c r="KP1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -3763,6 +3769,11 @@
           <t>永悦科技, 大理药业</t>
         </is>
       </c>
+      <c r="KP17" s="5" t="inlineStr">
+        <is>
+          <t>华生科技</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
@@ -4779,6 +4790,11 @@
           <t>爱丽家居, 亚振家居</t>
         </is>
       </c>
+      <c r="KP20" s="5" t="inlineStr">
+        <is>
+          <t>联明股份</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -5652,6 +5668,11 @@
           <t>联明股份</t>
         </is>
       </c>
+      <c r="KP21" s="5" t="inlineStr">
+        <is>
+          <t>中信海直, 普路通, 华体科技</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -6850,6 +6871,11 @@
           <t>中信海直, 普路通, 华体科技</t>
         </is>
       </c>
+      <c r="KP22" s="5" t="inlineStr">
+        <is>
+          <t>厦门信达, 豪尔赛, 三祥新材</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -8320,6 +8346,11 @@
       <c r="KO23" s="5" t="inlineStr">
         <is>
           <t>厦门信达, 宗申动力, 通宇通讯, 豪尔赛, 天禾股份, 亚泰集团, 永吉股份, 三祥新材</t>
+        </is>
+      </c>
+      <c r="KP23" s="5" t="inlineStr">
+        <is>
+          <t>中晟高科, 世嘉科技, 开创国际, 众源新材, 正平股份, 莱绅通灵, 铁流股份, 盛泰集团, 安德利</t>
         </is>
       </c>
     </row>
@@ -8334,7 +8365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14974,6 +15005,28 @@
         <v>9.98</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>8</v>
+      </c>
+      <c r="C302" t="n">
+        <v>72</v>
+      </c>
+      <c r="D302" t="n">
+        <v>6</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28060" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28060" windowHeight="13260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -49,16 +49,39 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,9 +93,55 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -94,75 +163,6 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -176,10 +176,10 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,13 +208,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,31 +232,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +280,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,25 +358,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,85 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,41 +408,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,13 +443,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +491,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -508,121 +508,121 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -631,19 +631,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -1561,7 +1561,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="KO1" sqref="KO1"/>
+      <selection pane="topRight" activeCell="KP1" sqref="KP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="14"/>
@@ -3961,7 +3961,7 @@
           <t>宁科生物</t>
         </is>
       </c>
-      <c r="KO18" s="5" t="inlineStr">
+      <c r="KO18" s="1" t="inlineStr">
         <is>
           <t>华生科技</t>
         </is>
@@ -5663,7 +5663,7 @@
           <t>京投发展, 圣达生物, 爱丽家居, 亚振家居</t>
         </is>
       </c>
-      <c r="KO21" s="5" t="inlineStr">
+      <c r="KO21" s="1" t="inlineStr">
         <is>
           <t>联明股份</t>
         </is>
@@ -6866,7 +6866,7 @@
           <t>联明股份, 丰山集团</t>
         </is>
       </c>
-      <c r="KO22" s="5" t="inlineStr">
+      <c r="KO22" s="1" t="inlineStr">
         <is>
           <t>中信海直, 普路通, 华体科技</t>
         </is>
@@ -8343,7 +8343,7 @@
           <t>中信海直, 顺威股份, 普路通, 华体科技, 新中港</t>
         </is>
       </c>
-      <c r="KO23" s="5" t="inlineStr">
+      <c r="KO23" s="1" t="inlineStr">
         <is>
           <t>厦门信达, 宗申动力, 通宇通讯, 豪尔赛, 天禾股份, 亚泰集团, 永吉股份, 三祥新材</t>
         </is>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$302</f>
+              <f>'连板数据分析'!$A$2:$A$303</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$302</f>
+              <f>'连板数据分析'!$B$2:$B$303</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$302</f>
+              <f>'连板数据分析'!$A$2:$A$303</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$302</f>
+              <f>'连板数据分析'!$C$2:$C$303</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$302</f>
+              <f>'连板数据分析'!$A$2:$A$303</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$302</f>
+              <f>'连板数据分析'!$D$2:$D$303</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$302</f>
+              <f>'连板数据分析'!$A$2:$A$303</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$302</f>
+              <f>'连板数据分析'!$F$2:$F$303</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="54180000" cy="2700000"/>
+    <ext cx="54360000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="54180000" cy="2700000"/>
+    <ext cx="54360000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="54180000" cy="2700000"/>
+    <ext cx="54360000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,9 +1556,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KP23"/>
+  <dimension ref="A1:KQ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="KP1" sqref="KP1"/>
@@ -1868,6 +1868,7 @@
     <col width="33.6" customWidth="1" min="300" max="300"/>
     <col width="56.4" customWidth="1" min="301" max="301"/>
     <col width="63.59999999999999" customWidth="1" min="302" max="302"/>
+    <col width="64.8" customWidth="1" min="303" max="303"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -3377,6 +3378,11 @@
           <t>2024-04-01</t>
         </is>
       </c>
+      <c r="KQ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -3657,6 +3663,11 @@
           <t>艾艾精工</t>
         </is>
       </c>
+      <c r="KQ16" s="5" t="inlineStr">
+        <is>
+          <t>华生科技</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
@@ -3769,7 +3780,7 @@
           <t>永悦科技, 大理药业</t>
         </is>
       </c>
-      <c r="KP17" s="5" t="inlineStr">
+      <c r="KP17" s="1" t="inlineStr">
         <is>
           <t>华生科技</t>
         </is>
@@ -4258,6 +4269,11 @@
           <t>华生科技</t>
         </is>
       </c>
+      <c r="KQ19" s="5" t="inlineStr">
+        <is>
+          <t>联明股份</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -4790,9 +4806,14 @@
           <t>爱丽家居, 亚振家居</t>
         </is>
       </c>
-      <c r="KP20" s="5" t="inlineStr">
+      <c r="KP20" s="1" t="inlineStr">
         <is>
           <t>联明股份</t>
+        </is>
+      </c>
+      <c r="KQ20" s="5" t="inlineStr">
+        <is>
+          <t>普路通, 华体科技</t>
         </is>
       </c>
     </row>
@@ -5668,9 +5689,14 @@
           <t>联明股份</t>
         </is>
       </c>
-      <c r="KP21" s="5" t="inlineStr">
+      <c r="KP21" s="1" t="inlineStr">
         <is>
           <t>中信海直, 普路通, 华体科技</t>
+        </is>
+      </c>
+      <c r="KQ21" s="5" t="inlineStr">
+        <is>
+          <t>厦门信达, 三祥新材</t>
         </is>
       </c>
     </row>
@@ -6871,9 +6897,14 @@
           <t>中信海直, 普路通, 华体科技</t>
         </is>
       </c>
-      <c r="KP22" s="5" t="inlineStr">
+      <c r="KP22" s="1" t="inlineStr">
         <is>
           <t>厦门信达, 豪尔赛, 三祥新材</t>
+        </is>
+      </c>
+      <c r="KQ22" s="5" t="inlineStr">
+        <is>
+          <t>世嘉科技, 开创国际, 正平股份, 莱绅通灵</t>
         </is>
       </c>
     </row>
@@ -8348,9 +8379,14 @@
           <t>厦门信达, 宗申动力, 通宇通讯, 豪尔赛, 天禾股份, 亚泰集团, 永吉股份, 三祥新材</t>
         </is>
       </c>
-      <c r="KP23" s="5" t="inlineStr">
+      <c r="KP23" s="1" t="inlineStr">
         <is>
           <t>中晟高科, 世嘉科技, 开创国际, 众源新材, 正平股份, 莱绅通灵, 铁流股份, 盛泰集团, 安德利</t>
+        </is>
+      </c>
+      <c r="KQ23" s="5" t="inlineStr">
+        <is>
+          <t>恒立实业, 翔腾新材, 精艺股份, 空港股份, 安阳钢铁, 万丰股份, 亚邦股份, 雅运股份, 冠盛股份</t>
         </is>
       </c>
     </row>
@@ -8365,7 +8401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15002,7 +15038,7 @@
         <v>1</v>
       </c>
       <c r="F301" t="n">
-        <v>9.98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302">
@@ -15024,7 +15060,29 @@
         <v>1</v>
       </c>
       <c r="F302" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>9</v>
+      </c>
+      <c r="C303" t="n">
+        <v>54</v>
+      </c>
+      <c r="D303" t="n">
+        <v>5</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1</v>
+      </c>
+      <c r="F303" t="n">
+        <v>10.02</v>
       </c>
     </row>
   </sheetData>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$303</f>
+              <f>'连板数据分析'!$A$2:$A$304</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$303</f>
+              <f>'连板数据分析'!$B$2:$B$304</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$303</f>
+              <f>'连板数据分析'!$A$2:$A$304</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$303</f>
+              <f>'连板数据分析'!$C$2:$C$304</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$303</f>
+              <f>'连板数据分析'!$A$2:$A$304</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$303</f>
+              <f>'连板数据分析'!$D$2:$D$304</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$303</f>
+              <f>'连板数据分析'!$A$2:$A$304</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$303</f>
+              <f>'连板数据分析'!$F$2:$F$304</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="54360000" cy="2700000"/>
+    <ext cx="54540000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="54360000" cy="2700000"/>
+    <ext cx="54540000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="54360000" cy="2700000"/>
+    <ext cx="54540000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KQ23"/>
+  <dimension ref="A1:KR23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1869,6 +1869,7 @@
     <col width="56.4" customWidth="1" min="301" max="301"/>
     <col width="63.59999999999999" customWidth="1" min="302" max="302"/>
     <col width="64.8" customWidth="1" min="303" max="303"/>
+    <col width="64.8" customWidth="1" min="304" max="304"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -3383,6 +3384,11 @@
           <t>2024-04-02</t>
         </is>
       </c>
+      <c r="KR1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -3977,6 +3983,11 @@
           <t>华生科技</t>
         </is>
       </c>
+      <c r="KR18" s="5" t="inlineStr">
+        <is>
+          <t>联明股份</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
@@ -4816,6 +4827,11 @@
           <t>普路通, 华体科技</t>
         </is>
       </c>
+      <c r="KR20" s="5" t="inlineStr">
+        <is>
+          <t>厦门信达, 三祥新材</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -5699,6 +5715,11 @@
           <t>厦门信达, 三祥新材</t>
         </is>
       </c>
+      <c r="KR21" s="5" t="inlineStr">
+        <is>
+          <t>世嘉科技, 莱绅通灵</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -6907,6 +6928,11 @@
           <t>世嘉科技, 开创国际, 正平股份, 莱绅通灵</t>
         </is>
       </c>
+      <c r="KR22" s="5" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -8387,6 +8413,11 @@
       <c r="KQ23" s="5" t="inlineStr">
         <is>
           <t>恒立实业, 翔腾新材, 精艺股份, 空港股份, 安阳钢铁, 万丰股份, 亚邦股份, 雅运股份, 冠盛股份</t>
+        </is>
+      </c>
+      <c r="KR23" s="5" t="inlineStr">
+        <is>
+          <t>中润资源, 北方铜业, 博菲电气, 美能能源, 准油股份, 华阳新材, 中创物流, 中电电机, 福莱新材</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G303"/>
+  <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15085,6 +15116,28 @@
         <v>10.02</v>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>7</v>
+      </c>
+      <c r="C304" t="n">
+        <v>44</v>
+      </c>
+      <c r="D304" t="n">
+        <v>9</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1</v>
+      </c>
+      <c r="F304" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$304</f>
+              <f>'连板数据分析'!$A$2:$A$309</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$304</f>
+              <f>'连板数据分析'!$B$2:$B$309</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$304</f>
+              <f>'连板数据分析'!$A$2:$A$309</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$304</f>
+              <f>'连板数据分析'!$C$2:$C$309</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$304</f>
+              <f>'连板数据分析'!$A$2:$A$309</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$304</f>
+              <f>'连板数据分析'!$D$2:$D$309</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$304</f>
+              <f>'连板数据分析'!$A$2:$A$309</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$304</f>
+              <f>'连板数据分析'!$F$2:$F$309</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="54540000" cy="2700000"/>
+    <ext cx="55440000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="54540000" cy="2700000"/>
+    <ext cx="55440000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="54540000" cy="2700000"/>
+    <ext cx="55440000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KR23"/>
+  <dimension ref="A1:KW23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1870,6 +1870,11 @@
     <col width="63.59999999999999" customWidth="1" min="302" max="302"/>
     <col width="64.8" customWidth="1" min="303" max="303"/>
     <col width="64.8" customWidth="1" min="304" max="304"/>
+    <col width="28.8" customWidth="1" min="305" max="305"/>
+    <col width="20.4" customWidth="1" min="306" max="306"/>
+    <col width="28.8" customWidth="1" min="307" max="307"/>
+    <col width="28.8" customWidth="1" min="308" max="308"/>
+    <col width="50.4" customWidth="1" min="309" max="309"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -3389,6 +3394,31 @@
           <t>2024-04-03</t>
         </is>
       </c>
+      <c r="KS1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="KT1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="KU1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="KV1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="KW1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -3674,6 +3704,11 @@
           <t>华生科技</t>
         </is>
       </c>
+      <c r="KW16" s="5" t="inlineStr">
+        <is>
+          <t>莱绅通灵</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
@@ -3791,6 +3826,11 @@
           <t>华生科技</t>
         </is>
       </c>
+      <c r="KV17" s="5" t="inlineStr">
+        <is>
+          <t>莱绅通灵</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
@@ -3988,6 +4028,11 @@
           <t>联明股份</t>
         </is>
       </c>
+      <c r="KU18" s="5" t="inlineStr">
+        <is>
+          <t>莱绅通灵</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
@@ -4285,6 +4330,11 @@
           <t>联明股份</t>
         </is>
       </c>
+      <c r="KT19" s="5" t="inlineStr">
+        <is>
+          <t>莱绅通灵</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -4832,6 +4882,16 @@
           <t>厦门信达, 三祥新材</t>
         </is>
       </c>
+      <c r="KS20" s="5" t="inlineStr">
+        <is>
+          <t>世嘉科技, 莱绅通灵</t>
+        </is>
+      </c>
+      <c r="KU20" s="5" t="inlineStr">
+        <is>
+          <t>中电电机</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -5720,6 +5780,16 @@
           <t>世嘉科技, 莱绅通灵</t>
         </is>
       </c>
+      <c r="KT21" s="5" t="inlineStr">
+        <is>
+          <t>中电电机</t>
+        </is>
+      </c>
+      <c r="KV21" s="5" t="inlineStr">
+        <is>
+          <t>百通能源</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -6933,6 +7003,26 @@
           <t>万丰股份</t>
         </is>
       </c>
+      <c r="KS22" s="5" t="inlineStr">
+        <is>
+          <t>中润资源, 准油股份, 中电电机</t>
+        </is>
+      </c>
+      <c r="KU22" s="5" t="inlineStr">
+        <is>
+          <t>百通能源</t>
+        </is>
+      </c>
+      <c r="KV22" s="5" t="inlineStr">
+        <is>
+          <t>博迁新材</t>
+        </is>
+      </c>
+      <c r="KW22" s="5" t="inlineStr">
+        <is>
+          <t>宁波中百, 建设机械</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -8418,6 +8508,31 @@
       <c r="KR23" s="5" t="inlineStr">
         <is>
           <t>中润资源, 北方铜业, 博菲电气, 美能能源, 准油股份, 华阳新材, 中创物流, 中电电机, 福莱新材</t>
+        </is>
+      </c>
+      <c r="KS23" s="5" t="inlineStr">
+        <is>
+          <t>山高环能, 海欣食品, 白银有色, 一鸣食品</t>
+        </is>
+      </c>
+      <c r="KT23" s="5" t="inlineStr">
+        <is>
+          <t>平安电工, 百通能源, 大名城</t>
+        </is>
+      </c>
+      <c r="KU23" s="5" t="inlineStr">
+        <is>
+          <t>利民股份, 三祥新材, 大理药业, 博迁新材</t>
+        </is>
+      </c>
+      <c r="KV23" s="5" t="inlineStr">
+        <is>
+          <t>宁波中百, 建设机械, 天洋新材, 华达科技</t>
+        </is>
+      </c>
+      <c r="KW23" s="5" t="inlineStr">
+        <is>
+          <t>中润资源, 峨眉山A, 永达股份, 百川股份, 厦工股份, 中国西电, 原尚股份</t>
         </is>
       </c>
     </row>
@@ -8432,7 +8547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G304"/>
+  <dimension ref="A1:G309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15138,6 +15253,116 @@
         <v>9.99</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>5</v>
+      </c>
+      <c r="C305" t="n">
+        <v>53</v>
+      </c>
+      <c r="D305" t="n">
+        <v>28</v>
+      </c>
+      <c r="E305" t="n">
+        <v>2</v>
+      </c>
+      <c r="F305" t="n">
+        <v>10.03</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>6</v>
+      </c>
+      <c r="C306" t="n">
+        <v>52</v>
+      </c>
+      <c r="D306" t="n">
+        <v>11</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1</v>
+      </c>
+      <c r="F306" t="n">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>7</v>
+      </c>
+      <c r="C307" t="n">
+        <v>26</v>
+      </c>
+      <c r="D307" t="n">
+        <v>16</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1</v>
+      </c>
+      <c r="F307" t="n">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>8</v>
+      </c>
+      <c r="C308" t="n">
+        <v>43</v>
+      </c>
+      <c r="D308" t="n">
+        <v>11</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1</v>
+      </c>
+      <c r="F308" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>9</v>
+      </c>
+      <c r="C309" t="n">
+        <v>51</v>
+      </c>
+      <c r="D309" t="n">
+        <v>9</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1</v>
+      </c>
+      <c r="F309" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$309</f>
+              <f>'连板数据分析'!$A$2:$A$311</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$309</f>
+              <f>'连板数据分析'!$B$2:$B$311</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$309</f>
+              <f>'连板数据分析'!$A$2:$A$311</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$309</f>
+              <f>'连板数据分析'!$C$2:$C$311</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$309</f>
+              <f>'连板数据分析'!$A$2:$A$311</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$309</f>
+              <f>'连板数据分析'!$D$2:$D$311</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$309</f>
+              <f>'连板数据分析'!$A$2:$A$311</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$309</f>
+              <f>'连板数据分析'!$F$2:$F$311</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="55440000" cy="2700000"/>
+    <ext cx="55800000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="55440000" cy="2700000"/>
+    <ext cx="55800000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="55440000" cy="2700000"/>
+    <ext cx="55800000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KW23"/>
+  <dimension ref="A1:KY23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1875,6 +1875,8 @@
     <col width="28.8" customWidth="1" min="307" max="307"/>
     <col width="28.8" customWidth="1" min="308" max="308"/>
     <col width="50.4" customWidth="1" min="309" max="309"/>
+    <col width="14.4" customWidth="1" min="310" max="310"/>
+    <col width="14.4" customWidth="1" min="311" max="311"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -3419,6 +3421,16 @@
           <t>2024-04-12</t>
         </is>
       </c>
+      <c r="KX1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="KY1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -5790,6 +5802,11 @@
           <t>百通能源</t>
         </is>
       </c>
+      <c r="KX21" s="5" t="inlineStr">
+        <is>
+          <t>建设机械</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -7023,6 +7040,11 @@
           <t>宁波中百, 建设机械</t>
         </is>
       </c>
+      <c r="KY22" s="5" t="inlineStr">
+        <is>
+          <t>同为股份, 春光科技</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -8533,6 +8555,16 @@
       <c r="KW23" s="5" t="inlineStr">
         <is>
           <t>中润资源, 峨眉山A, 永达股份, 百川股份, 厦工股份, 中国西电, 原尚股份</t>
+        </is>
+      </c>
+      <c r="KX23" s="5" t="inlineStr">
+        <is>
+          <t>同为股份, 春光科技</t>
+        </is>
+      </c>
+      <c r="KY23" s="5" t="inlineStr">
+        <is>
+          <t>哈三联, 中公高科</t>
         </is>
       </c>
     </row>
@@ -8547,7 +8579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G309"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15363,6 +15395,50 @@
         <v>9.970000000000001</v>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>4</v>
+      </c>
+      <c r="C310" t="n">
+        <v>22</v>
+      </c>
+      <c r="D310" t="n">
+        <v>241</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1</v>
+      </c>
+      <c r="F310" t="n">
+        <v>10.13</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>3</v>
+      </c>
+      <c r="C311" t="n">
+        <v>14</v>
+      </c>
+      <c r="D311" t="n">
+        <v>280</v>
+      </c>
+      <c r="E311" t="n">
+        <v>2</v>
+      </c>
+      <c r="F311" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28060" windowHeight="13260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28040" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -49,6 +49,13 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -56,23 +63,16 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -87,8 +87,9 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,9 +102,31 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -111,7 +134,21 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -127,43 +164,7 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -177,9 +178,8 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,31 +208,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,13 +232,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +262,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,25 +298,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +310,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,37 +346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,31 +370,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,13 +408,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,17 +432,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,21 +452,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,9 +473,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,118 +508,118 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
@@ -628,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
@@ -640,10 +640,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$311</f>
+              <f>'连板数据分析'!$A$2:$A$314</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$311</f>
+              <f>'连板数据分析'!$B$2:$B$314</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$311</f>
+              <f>'连板数据分析'!$A$2:$A$314</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$311</f>
+              <f>'连板数据分析'!$C$2:$C$314</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$311</f>
+              <f>'连板数据分析'!$A$2:$A$314</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$311</f>
+              <f>'连板数据分析'!$D$2:$D$314</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$311</f>
+              <f>'连板数据分析'!$A$2:$A$314</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$311</f>
+              <f>'连板数据分析'!$F$2:$F$314</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="55800000" cy="2700000"/>
+    <ext cx="56340000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="55800000" cy="2700000"/>
+    <ext cx="56340000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="55800000" cy="2700000"/>
+    <ext cx="56340000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,12 +1556,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KY23"/>
+  <dimension ref="A1:LB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="KP1" sqref="KP1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="14"/>
@@ -1868,15 +1870,18 @@
     <col width="33.6" customWidth="1" min="300" max="300"/>
     <col width="56.4" customWidth="1" min="301" max="301"/>
     <col width="63.59999999999999" customWidth="1" min="302" max="302"/>
-    <col width="64.8" customWidth="1" min="303" max="303"/>
+    <col width="64.8" customWidth="1" min="303" max="304"/>
     <col width="64.8" customWidth="1" min="304" max="304"/>
     <col width="28.8" customWidth="1" min="305" max="305"/>
     <col width="20.4" customWidth="1" min="306" max="306"/>
-    <col width="28.8" customWidth="1" min="307" max="307"/>
+    <col width="28.8" customWidth="1" min="307" max="308"/>
     <col width="28.8" customWidth="1" min="308" max="308"/>
     <col width="50.4" customWidth="1" min="309" max="309"/>
-    <col width="14.4" customWidth="1" min="310" max="310"/>
+    <col width="14.4" customWidth="1" min="310" max="311"/>
     <col width="14.4" customWidth="1" min="311" max="311"/>
+    <col width="20.4" customWidth="1" min="312" max="312"/>
+    <col width="121.2" customWidth="1" min="313" max="313"/>
+    <col width="28.8" customWidth="1" min="314" max="314"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -3431,6 +3436,21 @@
           <t>2024-04-16</t>
         </is>
       </c>
+      <c r="KZ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="LA1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="LB1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -3711,12 +3731,12 @@
           <t>艾艾精工</t>
         </is>
       </c>
-      <c r="KQ16" s="5" t="inlineStr">
+      <c r="KQ16" s="1" t="inlineStr">
         <is>
           <t>华生科技</t>
         </is>
       </c>
-      <c r="KW16" s="5" t="inlineStr">
+      <c r="KW16" s="1" t="inlineStr">
         <is>
           <t>莱绅通灵</t>
         </is>
@@ -3838,7 +3858,7 @@
           <t>华生科技</t>
         </is>
       </c>
-      <c r="KV17" s="5" t="inlineStr">
+      <c r="KV17" s="1" t="inlineStr">
         <is>
           <t>莱绅通灵</t>
         </is>
@@ -4035,12 +4055,12 @@
           <t>华生科技</t>
         </is>
       </c>
-      <c r="KR18" s="5" t="inlineStr">
+      <c r="KR18" s="1" t="inlineStr">
         <is>
           <t>联明股份</t>
         </is>
       </c>
-      <c r="KU18" s="5" t="inlineStr">
+      <c r="KU18" s="1" t="inlineStr">
         <is>
           <t>莱绅通灵</t>
         </is>
@@ -4337,14 +4357,19 @@
           <t>华生科技</t>
         </is>
       </c>
-      <c r="KQ19" s="5" t="inlineStr">
+      <c r="KQ19" s="1" t="inlineStr">
         <is>
           <t>联明股份</t>
         </is>
       </c>
-      <c r="KT19" s="5" t="inlineStr">
+      <c r="KT19" s="1" t="inlineStr">
         <is>
           <t>莱绅通灵</t>
+        </is>
+      </c>
+      <c r="LB19" s="5" t="inlineStr">
+        <is>
+          <t>同为股份, 春光科技</t>
         </is>
       </c>
     </row>
@@ -4884,24 +4909,29 @@
           <t>联明股份</t>
         </is>
       </c>
-      <c r="KQ20" s="5" t="inlineStr">
+      <c r="KQ20" s="1" t="inlineStr">
         <is>
           <t>普路通, 华体科技</t>
         </is>
       </c>
-      <c r="KR20" s="5" t="inlineStr">
+      <c r="KR20" s="1" t="inlineStr">
         <is>
           <t>厦门信达, 三祥新材</t>
         </is>
       </c>
-      <c r="KS20" s="5" t="inlineStr">
+      <c r="KS20" s="1" t="inlineStr">
         <is>
           <t>世嘉科技, 莱绅通灵</t>
         </is>
       </c>
-      <c r="KU20" s="5" t="inlineStr">
+      <c r="KU20" s="1" t="inlineStr">
         <is>
           <t>中电电机</t>
+        </is>
+      </c>
+      <c r="LA20" s="5" t="inlineStr">
+        <is>
+          <t>同为股份, 春光科技</t>
         </is>
       </c>
     </row>
@@ -5782,29 +5812,39 @@
           <t>中信海直, 普路通, 华体科技</t>
         </is>
       </c>
-      <c r="KQ21" s="5" t="inlineStr">
+      <c r="KQ21" s="1" t="inlineStr">
         <is>
           <t>厦门信达, 三祥新材</t>
         </is>
       </c>
-      <c r="KR21" s="5" t="inlineStr">
+      <c r="KR21" s="1" t="inlineStr">
         <is>
           <t>世嘉科技, 莱绅通灵</t>
         </is>
       </c>
-      <c r="KT21" s="5" t="inlineStr">
+      <c r="KT21" s="1" t="inlineStr">
         <is>
           <t>中电电机</t>
         </is>
       </c>
-      <c r="KV21" s="5" t="inlineStr">
+      <c r="KV21" s="1" t="inlineStr">
         <is>
           <t>百通能源</t>
         </is>
       </c>
-      <c r="KX21" s="5" t="inlineStr">
+      <c r="KX21" s="1" t="inlineStr">
         <is>
           <t>建设机械</t>
+        </is>
+      </c>
+      <c r="KZ21" s="5" t="inlineStr">
+        <is>
+          <t>同为股份, 春光科技</t>
+        </is>
+      </c>
+      <c r="LA21" s="5" t="inlineStr">
+        <is>
+          <t>中公高科</t>
         </is>
       </c>
     </row>
@@ -7010,39 +7050,54 @@
           <t>厦门信达, 豪尔赛, 三祥新材</t>
         </is>
       </c>
-      <c r="KQ22" s="5" t="inlineStr">
+      <c r="KQ22" s="1" t="inlineStr">
         <is>
           <t>世嘉科技, 开创国际, 正平股份, 莱绅通灵</t>
         </is>
       </c>
-      <c r="KR22" s="5" t="inlineStr">
+      <c r="KR22" s="1" t="inlineStr">
         <is>
           <t>万丰股份</t>
         </is>
       </c>
-      <c r="KS22" s="5" t="inlineStr">
+      <c r="KS22" s="1" t="inlineStr">
         <is>
           <t>中润资源, 准油股份, 中电电机</t>
         </is>
       </c>
-      <c r="KU22" s="5" t="inlineStr">
+      <c r="KU22" s="1" t="inlineStr">
         <is>
           <t>百通能源</t>
         </is>
       </c>
-      <c r="KV22" s="5" t="inlineStr">
+      <c r="KV22" s="1" t="inlineStr">
         <is>
           <t>博迁新材</t>
         </is>
       </c>
-      <c r="KW22" s="5" t="inlineStr">
+      <c r="KW22" s="1" t="inlineStr">
         <is>
           <t>宁波中百, 建设机械</t>
         </is>
       </c>
-      <c r="KY22" s="5" t="inlineStr">
+      <c r="KY22" s="1" t="inlineStr">
         <is>
           <t>同为股份, 春光科技</t>
+        </is>
+      </c>
+      <c r="KZ22" s="5" t="inlineStr">
+        <is>
+          <t>哈三联, 中公高科</t>
+        </is>
+      </c>
+      <c r="LA22" s="5" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="LB22" s="5" t="inlineStr">
+        <is>
+          <t>中信海直, 万安科技, 中衡设计, 威奥股份</t>
         </is>
       </c>
     </row>
@@ -8522,49 +8577,64 @@
           <t>中晟高科, 世嘉科技, 开创国际, 众源新材, 正平股份, 莱绅通灵, 铁流股份, 盛泰集团, 安德利</t>
         </is>
       </c>
-      <c r="KQ23" s="5" t="inlineStr">
+      <c r="KQ23" s="1" t="inlineStr">
         <is>
           <t>恒立实业, 翔腾新材, 精艺股份, 空港股份, 安阳钢铁, 万丰股份, 亚邦股份, 雅运股份, 冠盛股份</t>
         </is>
       </c>
-      <c r="KR23" s="5" t="inlineStr">
+      <c r="KR23" s="1" t="inlineStr">
         <is>
           <t>中润资源, 北方铜业, 博菲电气, 美能能源, 准油股份, 华阳新材, 中创物流, 中电电机, 福莱新材</t>
         </is>
       </c>
-      <c r="KS23" s="5" t="inlineStr">
+      <c r="KS23" s="1" t="inlineStr">
         <is>
           <t>山高环能, 海欣食品, 白银有色, 一鸣食品</t>
         </is>
       </c>
-      <c r="KT23" s="5" t="inlineStr">
+      <c r="KT23" s="1" t="inlineStr">
         <is>
           <t>平安电工, 百通能源, 大名城</t>
         </is>
       </c>
-      <c r="KU23" s="5" t="inlineStr">
+      <c r="KU23" s="1" t="inlineStr">
         <is>
           <t>利民股份, 三祥新材, 大理药业, 博迁新材</t>
         </is>
       </c>
-      <c r="KV23" s="5" t="inlineStr">
+      <c r="KV23" s="1" t="inlineStr">
         <is>
           <t>宁波中百, 建设机械, 天洋新材, 华达科技</t>
         </is>
       </c>
-      <c r="KW23" s="5" t="inlineStr">
+      <c r="KW23" s="1" t="inlineStr">
         <is>
           <t>中润资源, 峨眉山A, 永达股份, 百川股份, 厦工股份, 中国西电, 原尚股份</t>
         </is>
       </c>
-      <c r="KX23" s="5" t="inlineStr">
+      <c r="KX23" s="1" t="inlineStr">
         <is>
           <t>同为股份, 春光科技</t>
         </is>
       </c>
-      <c r="KY23" s="5" t="inlineStr">
+      <c r="KY23" s="1" t="inlineStr">
         <is>
           <t>哈三联, 中公高科</t>
+        </is>
+      </c>
+      <c r="KZ23" s="5" t="inlineStr">
+        <is>
+          <t>赣能股份, 建研院, 荣泰健康</t>
+        </is>
+      </c>
+      <c r="LA23" s="5" t="inlineStr">
+        <is>
+          <t>中信海直, 钱江摩托, 软控股份, 万安科技, 金龙羽, 福日电子, 北方股份, 丽尚国潮, 中衡设计, 乐惠国际, 科华控股, 金海高科, 设计总院, 东方时尚, 白云电器, 睿能科技, 威奥股份</t>
+        </is>
+      </c>
+      <c r="LB23" s="5" t="inlineStr">
+        <is>
+          <t>凤凰航运</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15439,6 +15509,72 @@
         <v>9.99</v>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>4</v>
+      </c>
+      <c r="C312" t="n">
+        <v>207</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+      <c r="E312" t="n">
+        <v>2</v>
+      </c>
+      <c r="F312" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>5</v>
+      </c>
+      <c r="C313" t="n">
+        <v>54</v>
+      </c>
+      <c r="D313" t="n">
+        <v>3</v>
+      </c>
+      <c r="E313" t="n">
+        <v>2</v>
+      </c>
+      <c r="F313" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>6</v>
+      </c>
+      <c r="C314" t="n">
+        <v>42</v>
+      </c>
+      <c r="D314" t="n">
+        <v>8</v>
+      </c>
+      <c r="E314" t="n">
+        <v>2</v>
+      </c>
+      <c r="F314" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28040" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28040" windowHeight="13260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -49,6 +49,13 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -56,23 +63,15 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -82,14 +81,6 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,6 +101,14 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -119,14 +118,7 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -141,7 +133,30 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -163,22 +178,7 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +208,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,7 +232,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +280,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,13 +352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,133 +370,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,21 +405,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,6 +426,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -452,6 +448,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,32 +499,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -508,142 +508,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$314</f>
+              <f>'连板数据分析'!$A$2:$A$315</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$314</f>
+              <f>'连板数据分析'!$B$2:$B$315</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$314</f>
+              <f>'连板数据分析'!$A$2:$A$315</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$314</f>
+              <f>'连板数据分析'!$C$2:$C$315</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$314</f>
+              <f>'连板数据分析'!$A$2:$A$315</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$314</f>
+              <f>'连板数据分析'!$D$2:$D$315</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$314</f>
+              <f>'连板数据分析'!$A$2:$A$315</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$314</f>
+              <f>'连板数据分析'!$F$2:$F$315</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="56340000" cy="2700000"/>
+    <ext cx="56520000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="56340000" cy="2700000"/>
+    <ext cx="56520000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="56340000" cy="2700000"/>
+    <ext cx="56520000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,14 +1556,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LB23"/>
+  <dimension ref="A1:LC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="14"/>
@@ -1882,6 +1882,7 @@
     <col width="20.4" customWidth="1" min="312" max="312"/>
     <col width="121.2" customWidth="1" min="313" max="313"/>
     <col width="28.8" customWidth="1" min="314" max="314"/>
+    <col width="14.4" customWidth="1" min="315" max="315"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -3451,6 +3452,11 @@
           <t>2024-04-19</t>
         </is>
       </c>
+      <c r="LC1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -4367,7 +4373,7 @@
           <t>莱绅通灵</t>
         </is>
       </c>
-      <c r="LB19" s="5" t="inlineStr">
+      <c r="LB19" s="1" t="inlineStr">
         <is>
           <t>同为股份, 春光科技</t>
         </is>
@@ -4929,7 +4935,7 @@
           <t>中电电机</t>
         </is>
       </c>
-      <c r="LA20" s="5" t="inlineStr">
+      <c r="LA20" s="1" t="inlineStr">
         <is>
           <t>同为股份, 春光科技</t>
         </is>
@@ -5837,14 +5843,19 @@
           <t>建设机械</t>
         </is>
       </c>
-      <c r="KZ21" s="5" t="inlineStr">
+      <c r="KZ21" s="1" t="inlineStr">
         <is>
           <t>同为股份, 春光科技</t>
         </is>
       </c>
-      <c r="LA21" s="5" t="inlineStr">
+      <c r="LA21" s="1" t="inlineStr">
         <is>
           <t>中公高科</t>
+        </is>
+      </c>
+      <c r="LC21" s="5" t="inlineStr">
+        <is>
+          <t>中衡设计, 威奥股份</t>
         </is>
       </c>
     </row>
@@ -7085,17 +7096,17 @@
           <t>同为股份, 春光科技</t>
         </is>
       </c>
-      <c r="KZ22" s="5" t="inlineStr">
+      <c r="KZ22" s="1" t="inlineStr">
         <is>
           <t>哈三联, 中公高科</t>
         </is>
       </c>
-      <c r="LA22" s="5" t="inlineStr">
+      <c r="LA22" s="1" t="inlineStr">
         <is>
           <t>建研院</t>
         </is>
       </c>
-      <c r="LB22" s="5" t="inlineStr">
+      <c r="LB22" s="1" t="inlineStr">
         <is>
           <t>中信海直, 万安科技, 中衡设计, 威奥股份</t>
         </is>
@@ -8622,19 +8633,24 @@
           <t>哈三联, 中公高科</t>
         </is>
       </c>
-      <c r="KZ23" s="5" t="inlineStr">
+      <c r="KZ23" s="1" t="inlineStr">
         <is>
           <t>赣能股份, 建研院, 荣泰健康</t>
         </is>
       </c>
-      <c r="LA23" s="5" t="inlineStr">
+      <c r="LA23" s="1" t="inlineStr">
         <is>
           <t>中信海直, 钱江摩托, 软控股份, 万安科技, 金龙羽, 福日电子, 北方股份, 丽尚国潮, 中衡设计, 乐惠国际, 科华控股, 金海高科, 设计总院, 东方时尚, 白云电器, 睿能科技, 威奥股份</t>
         </is>
       </c>
-      <c r="LB23" s="5" t="inlineStr">
+      <c r="LB23" s="1" t="inlineStr">
         <is>
           <t>凤凰航运</t>
+        </is>
+      </c>
+      <c r="LC23" s="5" t="inlineStr">
+        <is>
+          <t>神开股份, 辉煌科技</t>
         </is>
       </c>
     </row>
@@ -8649,7 +8665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G314"/>
+  <dimension ref="A1:G315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15575,6 +15591,28 @@
         <v>10.01</v>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>4</v>
+      </c>
+      <c r="C315" t="n">
+        <v>45</v>
+      </c>
+      <c r="D315" t="n">
+        <v>23</v>
+      </c>
+      <c r="E315" t="n">
+        <v>2</v>
+      </c>
+      <c r="F315" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28040" windowHeight="13260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28020" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -49,8 +49,32 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -63,40 +87,8 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,21 +118,7 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -170,7 +148,21 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -178,7 +170,15 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,7 +226,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +244,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,25 +268,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,19 +286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,55 +316,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,13 +358,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,22 +417,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,21 +486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -505,145 +494,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$315</f>
+              <f>'连板数据分析'!$A$2:$A$319</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$315</f>
+              <f>'连板数据分析'!$B$2:$B$319</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$315</f>
+              <f>'连板数据分析'!$A$2:$A$319</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$315</f>
+              <f>'连板数据分析'!$C$2:$C$319</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$315</f>
+              <f>'连板数据分析'!$A$2:$A$319</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$315</f>
+              <f>'连板数据分析'!$D$2:$D$319</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$315</f>
+              <f>'连板数据分析'!$A$2:$A$319</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$315</f>
+              <f>'连板数据分析'!$F$2:$F$319</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="56520000" cy="2700000"/>
+    <ext cx="57240000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="56520000" cy="2700000"/>
+    <ext cx="57240000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="56520000" cy="2700000"/>
+    <ext cx="57240000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LC23"/>
+  <dimension ref="A1:LG23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1883,6 +1883,10 @@
     <col width="121.2" customWidth="1" min="313" max="313"/>
     <col width="28.8" customWidth="1" min="314" max="314"/>
     <col width="14.4" customWidth="1" min="315" max="315"/>
+    <col width="50.4" customWidth="1" min="316" max="316"/>
+    <col width="14.4" customWidth="1" min="317" max="317"/>
+    <col width="43.2" customWidth="1" min="318" max="318"/>
+    <col width="21.6" customWidth="1" min="319" max="319"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -3457,6 +3461,26 @@
           <t>2024-04-22</t>
         </is>
       </c>
+      <c r="LD1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="LE1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="LF1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="LG1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -4071,6 +4095,11 @@
           <t>莱绅通灵</t>
         </is>
       </c>
+      <c r="LF18" s="5" t="inlineStr">
+        <is>
+          <t>中衡设计</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
@@ -4378,6 +4407,11 @@
           <t>同为股份, 春光科技</t>
         </is>
       </c>
+      <c r="LE19" s="5" t="inlineStr">
+        <is>
+          <t>中衡设计</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -4940,6 +4974,16 @@
           <t>同为股份, 春光科技</t>
         </is>
       </c>
+      <c r="LD20" s="5" t="inlineStr">
+        <is>
+          <t>中衡设计</t>
+        </is>
+      </c>
+      <c r="LG20" s="5" t="inlineStr">
+        <is>
+          <t>奥维通信</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -5853,9 +5897,14 @@
           <t>中公高科</t>
         </is>
       </c>
-      <c r="LC21" s="5" t="inlineStr">
+      <c r="LC21" s="1" t="inlineStr">
         <is>
           <t>中衡设计, 威奥股份</t>
+        </is>
+      </c>
+      <c r="LF21" s="5" t="inlineStr">
+        <is>
+          <t>亚太实业, 奥维通信</t>
         </is>
       </c>
     </row>
@@ -7111,6 +7160,21 @@
           <t>中信海直, 万安科技, 中衡设计, 威奥股份</t>
         </is>
       </c>
+      <c r="LE22" s="5" t="inlineStr">
+        <is>
+          <t>亚太实业, 奥维通信</t>
+        </is>
+      </c>
+      <c r="LF22" s="5" t="inlineStr">
+        <is>
+          <t>科新发展</t>
+        </is>
+      </c>
+      <c r="LG22" s="5" t="inlineStr">
+        <is>
+          <t>川大智胜, 西藏旅游</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -8648,9 +8712,29 @@
           <t>凤凰航运</t>
         </is>
       </c>
-      <c r="LC23" s="5" t="inlineStr">
+      <c r="LC23" s="1" t="inlineStr">
         <is>
           <t>神开股份, 辉煌科技</t>
+        </is>
+      </c>
+      <c r="LD23" s="5" t="inlineStr">
+        <is>
+          <t>亚太实业, 利仁科技, 奥维通信, 航天长峰, 四创电子, 乐惠国际, 展鹏科技</t>
+        </is>
+      </c>
+      <c r="LE23" s="5" t="inlineStr">
+        <is>
+          <t>万安科技, 科新发展</t>
+        </is>
+      </c>
+      <c r="LF23" s="5" t="inlineStr">
+        <is>
+          <t>万丰奥威, 川大智胜, 威创股份, 博信股份, 西藏旅游, 东方环宇</t>
+        </is>
+      </c>
+      <c r="LG23" s="5" t="inlineStr">
+        <is>
+          <t>南国置业, 鲁北化工, 亚邦股份</t>
         </is>
       </c>
     </row>
@@ -8665,7 +8749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G315"/>
+  <dimension ref="A1:G319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15613,6 +15697,94 @@
         <v>10.02</v>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>5</v>
+      </c>
+      <c r="C316" t="n">
+        <v>38</v>
+      </c>
+      <c r="D316" t="n">
+        <v>17</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1</v>
+      </c>
+      <c r="F316" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>6</v>
+      </c>
+      <c r="C317" t="n">
+        <v>36</v>
+      </c>
+      <c r="D317" t="n">
+        <v>3</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>7</v>
+      </c>
+      <c r="C318" t="n">
+        <v>37</v>
+      </c>
+      <c r="D318" t="n">
+        <v>4</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1</v>
+      </c>
+      <c r="F318" t="n">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>5</v>
+      </c>
+      <c r="C319" t="n">
+        <v>59</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28020" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28060" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -49,6 +49,21 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
@@ -57,7 +72,31 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -71,28 +110,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
@@ -101,9 +118,24 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -118,23 +150,7 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -154,31 +170,15 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +208,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,43 +280,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,61 +298,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,25 +322,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,25 +358,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,54 +405,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,8 +441,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,145 +496,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$319</f>
+              <f>'连板数据分析'!$A$2:$A$321</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$319</f>
+              <f>'连板数据分析'!$B$2:$B$321</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$319</f>
+              <f>'连板数据分析'!$A$2:$A$321</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$319</f>
+              <f>'连板数据分析'!$C$2:$C$321</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$319</f>
+              <f>'连板数据分析'!$A$2:$A$321</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$319</f>
+              <f>'连板数据分析'!$D$2:$D$321</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$319</f>
+              <f>'连板数据分析'!$A$2:$A$321</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$319</f>
+              <f>'连板数据分析'!$F$2:$F$321</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="57240000" cy="2700000"/>
+    <ext cx="57600000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="57240000" cy="2700000"/>
+    <ext cx="57600000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="57240000" cy="2700000"/>
+    <ext cx="57600000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,14 +1556,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LG23"/>
+  <dimension ref="A1:LI23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="IP23" sqref="IP23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="14"/>
@@ -1887,6 +1887,8 @@
     <col width="14.4" customWidth="1" min="317" max="317"/>
     <col width="43.2" customWidth="1" min="318" max="318"/>
     <col width="21.6" customWidth="1" min="319" max="319"/>
+    <col width="76.8" customWidth="1" min="320" max="320"/>
+    <col width="64.8" customWidth="1" min="321" max="321"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -3481,6 +3483,16 @@
           <t>2024-04-26</t>
         </is>
       </c>
+      <c r="LH1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="LI1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -4095,7 +4107,7 @@
           <t>莱绅通灵</t>
         </is>
       </c>
-      <c r="LF18" s="5" t="inlineStr">
+      <c r="LF18" s="1" t="inlineStr">
         <is>
           <t>中衡设计</t>
         </is>
@@ -4407,9 +4419,14 @@
           <t>同为股份, 春光科技</t>
         </is>
       </c>
-      <c r="LE19" s="5" t="inlineStr">
+      <c r="LE19" s="1" t="inlineStr">
         <is>
           <t>中衡设计</t>
+        </is>
+      </c>
+      <c r="LH19" s="5" t="inlineStr">
+        <is>
+          <t>奥维通信</t>
         </is>
       </c>
     </row>
@@ -4974,12 +4991,12 @@
           <t>同为股份, 春光科技</t>
         </is>
       </c>
-      <c r="LD20" s="5" t="inlineStr">
+      <c r="LD20" s="1" t="inlineStr">
         <is>
           <t>中衡设计</t>
         </is>
       </c>
-      <c r="LG20" s="5" t="inlineStr">
+      <c r="LG20" s="1" t="inlineStr">
         <is>
           <t>奥维通信</t>
         </is>
@@ -5902,9 +5919,19 @@
           <t>中衡设计, 威奥股份</t>
         </is>
       </c>
-      <c r="LF21" s="5" t="inlineStr">
+      <c r="LF21" s="1" t="inlineStr">
         <is>
           <t>亚太实业, 奥维通信</t>
+        </is>
+      </c>
+      <c r="LH21" s="5" t="inlineStr">
+        <is>
+          <t>川大智胜</t>
+        </is>
+      </c>
+      <c r="LI21" s="5" t="inlineStr">
+        <is>
+          <t>南国置业</t>
         </is>
       </c>
     </row>
@@ -7160,19 +7187,29 @@
           <t>中信海直, 万安科技, 中衡设计, 威奥股份</t>
         </is>
       </c>
-      <c r="LE22" s="5" t="inlineStr">
+      <c r="LE22" s="1" t="inlineStr">
         <is>
           <t>亚太实业, 奥维通信</t>
         </is>
       </c>
-      <c r="LF22" s="5" t="inlineStr">
+      <c r="LF22" s="1" t="inlineStr">
         <is>
           <t>科新发展</t>
         </is>
       </c>
-      <c r="LG22" s="5" t="inlineStr">
+      <c r="LG22" s="1" t="inlineStr">
         <is>
           <t>川大智胜, 西藏旅游</t>
+        </is>
+      </c>
+      <c r="LH22" s="5" t="inlineStr">
+        <is>
+          <t>南国置业, 鲁北化工</t>
+        </is>
+      </c>
+      <c r="LI22" s="5" t="inlineStr">
+        <is>
+          <t>国盛金控, 格尔软件, 蔚蓝生物</t>
         </is>
       </c>
     </row>
@@ -8717,24 +8754,34 @@
           <t>神开股份, 辉煌科技</t>
         </is>
       </c>
-      <c r="LD23" s="5" t="inlineStr">
+      <c r="LD23" s="1" t="inlineStr">
         <is>
           <t>亚太实业, 利仁科技, 奥维通信, 航天长峰, 四创电子, 乐惠国际, 展鹏科技</t>
         </is>
       </c>
-      <c r="LE23" s="5" t="inlineStr">
+      <c r="LE23" s="1" t="inlineStr">
         <is>
           <t>万安科技, 科新发展</t>
         </is>
       </c>
-      <c r="LF23" s="5" t="inlineStr">
+      <c r="LF23" s="1" t="inlineStr">
         <is>
           <t>万丰奥威, 川大智胜, 威创股份, 博信股份, 西藏旅游, 东方环宇</t>
         </is>
       </c>
-      <c r="LG23" s="5" t="inlineStr">
+      <c r="LG23" s="1" t="inlineStr">
         <is>
           <t>南国置业, 鲁北化工, 亚邦股份</t>
+        </is>
+      </c>
+      <c r="LH23" s="5" t="inlineStr">
+        <is>
+          <t>华金资本, 神州信息, 我爱我家, 鹏都农牧, 国盛金控, 吉大正元, 大名城, 太平洋, 东方材料, 格尔软件, 蔚蓝生物</t>
+        </is>
+      </c>
+      <c r="LI23" s="5" t="inlineStr">
+        <is>
+          <t>天保基建, 荣盛发展, 思美传媒, 路畅科技, 凯中精密, 华远地产, 京能置业, 国联股份, 豪能股份</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G319"/>
+  <dimension ref="A1:G321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15785,6 +15832,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>6</v>
+      </c>
+      <c r="C320" t="n">
+        <v>99</v>
+      </c>
+      <c r="D320" t="n">
+        <v>5</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1</v>
+      </c>
+      <c r="F320" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>4</v>
+      </c>
+      <c r="C321" t="n">
+        <v>49</v>
+      </c>
+      <c r="D321" t="n">
+        <v>18</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1</v>
+      </c>
+      <c r="F321" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28060" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28020" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -41,9 +41,8 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -52,21 +51,6 @@
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,23 +65,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,6 +74,14 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,23 +95,22 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -143,28 +118,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -180,6 +133,53 @@
       <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,49 +208,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,37 +232,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,13 +262,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,31 +286,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,19 +364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,6 +383,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,21 +423,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -452,21 +437,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +458,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -497,159 +476,180 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$321</f>
+              <f>'连板数据分析'!$A$2:$A$346</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$321</f>
+              <f>'连板数据分析'!$B$2:$B$346</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$321</f>
+              <f>'连板数据分析'!$A$2:$A$346</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$321</f>
+              <f>'连板数据分析'!$C$2:$C$346</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$321</f>
+              <f>'连板数据分析'!$A$2:$A$346</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$321</f>
+              <f>'连板数据分析'!$D$2:$D$346</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$321</f>
+              <f>'连板数据分析'!$A$2:$A$346</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$321</f>
+              <f>'连板数据分析'!$F$2:$F$346</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="57600000" cy="2700000"/>
+    <ext cx="62100000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="57600000" cy="2700000"/>
+    <ext cx="62100000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="57600000" cy="2700000"/>
+    <ext cx="62100000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,14 +1556,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LI23"/>
+  <dimension ref="A1:MH23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="IP23" sqref="IP23"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="14"/>
@@ -1889,6 +1887,31 @@
     <col width="21.6" customWidth="1" min="319" max="319"/>
     <col width="76.8" customWidth="1" min="320" max="320"/>
     <col width="64.8" customWidth="1" min="321" max="321"/>
+    <col width="64.8" customWidth="1" min="322" max="322"/>
+    <col width="34.8" customWidth="1" min="323" max="323"/>
+    <col width="28.8" customWidth="1" min="324" max="324"/>
+    <col width="43.2" customWidth="1" min="325" max="325"/>
+    <col width="21.6" customWidth="1" min="326" max="326"/>
+    <col width="50.4" customWidth="1" min="327" max="327"/>
+    <col width="21.6" customWidth="1" min="328" max="328"/>
+    <col width="43.2" customWidth="1" min="329" max="329"/>
+    <col width="26.4" customWidth="1" min="330" max="330"/>
+    <col width="85.2" customWidth="1" min="331" max="331"/>
+    <col width="50.4" customWidth="1" min="332" max="332"/>
+    <col width="20.4" customWidth="1" min="333" max="333"/>
+    <col width="19.2" customWidth="1" min="334" max="334"/>
+    <col width="34.8" customWidth="1" min="335" max="335"/>
+    <col width="21.6" customWidth="1" min="336" max="336"/>
+    <col width="34.8" customWidth="1" min="337" max="337"/>
+    <col width="21.6" customWidth="1" min="338" max="338"/>
+    <col width="14.4" customWidth="1" min="339" max="339"/>
+    <col width="36" customWidth="1" min="340" max="340"/>
+    <col width="28.8" customWidth="1" min="341" max="341"/>
+    <col width="14.4" customWidth="1" min="342" max="342"/>
+    <col width="14.4" customWidth="1" min="343" max="343"/>
+    <col width="21.6" customWidth="1" min="344" max="344"/>
+    <col width="14.4" customWidth="1" min="345" max="345"/>
+    <col width="14.4" customWidth="1" min="346" max="346"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -3493,6 +3516,131 @@
           <t>2024-04-30</t>
         </is>
       </c>
+      <c r="LJ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="LK1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="LL1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="LM1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="LN1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="LO1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="LP1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="LQ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="LR1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="LS1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="LT1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="LU1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="LV1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="LW1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="LX1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="LY1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="LZ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="MA1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="MB1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="MC1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="MD1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="ME1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="MF1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="MG1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="MH1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -4112,6 +4260,11 @@
           <t>中衡设计</t>
         </is>
       </c>
+      <c r="LM18" s="5" t="inlineStr">
+        <is>
+          <t>蔚蓝生物</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
@@ -4424,9 +4577,19 @@
           <t>中衡设计</t>
         </is>
       </c>
-      <c r="LH19" s="5" t="inlineStr">
+      <c r="LH19" s="1" t="inlineStr">
         <is>
           <t>奥维通信</t>
+        </is>
+      </c>
+      <c r="LL19" s="5" t="inlineStr">
+        <is>
+          <t>蔚蓝生物</t>
+        </is>
+      </c>
+      <c r="LS19" s="5" t="inlineStr">
+        <is>
+          <t>南京化纤</t>
         </is>
       </c>
     </row>
@@ -5001,6 +5164,46 @@
           <t>奥维通信</t>
         </is>
       </c>
+      <c r="LJ20" s="5" t="inlineStr">
+        <is>
+          <t>南国置业</t>
+        </is>
+      </c>
+      <c r="LK20" s="5" t="inlineStr">
+        <is>
+          <t>蔚蓝生物</t>
+        </is>
+      </c>
+      <c r="LM20" s="5" t="inlineStr">
+        <is>
+          <t>百川股份</t>
+        </is>
+      </c>
+      <c r="LN20" s="5" t="inlineStr">
+        <is>
+          <t>百合花</t>
+        </is>
+      </c>
+      <c r="LR20" s="5" t="inlineStr">
+        <is>
+          <t>南京化纤</t>
+        </is>
+      </c>
+      <c r="LT20" s="5" t="inlineStr">
+        <is>
+          <t>亚振家居</t>
+        </is>
+      </c>
+      <c r="LX20" s="5" t="inlineStr">
+        <is>
+          <t>正虹科技</t>
+        </is>
+      </c>
+      <c r="MH20" s="5" t="inlineStr">
+        <is>
+          <t>协和电子</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -5924,14 +6127,84 @@
           <t>亚太实业, 奥维通信</t>
         </is>
       </c>
-      <c r="LH21" s="5" t="inlineStr">
+      <c r="LH21" s="1" t="inlineStr">
         <is>
           <t>川大智胜</t>
         </is>
       </c>
-      <c r="LI21" s="5" t="inlineStr">
+      <c r="LI21" s="1" t="inlineStr">
         <is>
           <t>南国置业</t>
+        </is>
+      </c>
+      <c r="LJ21" s="5" t="inlineStr">
+        <is>
+          <t>蔚蓝生物</t>
+        </is>
+      </c>
+      <c r="LL21" s="5" t="inlineStr">
+        <is>
+          <t>百川股份, 兴业股份</t>
+        </is>
+      </c>
+      <c r="LM21" s="5" t="inlineStr">
+        <is>
+          <t>百合花</t>
+        </is>
+      </c>
+      <c r="LN21" s="5" t="inlineStr">
+        <is>
+          <t>济民医疗</t>
+        </is>
+      </c>
+      <c r="LP21" s="5" t="inlineStr">
+        <is>
+          <t>积成电子</t>
+        </is>
+      </c>
+      <c r="LQ21" s="5" t="inlineStr">
+        <is>
+          <t>南京化纤</t>
+        </is>
+      </c>
+      <c r="LS21" s="5" t="inlineStr">
+        <is>
+          <t>亚振家居</t>
+        </is>
+      </c>
+      <c r="LV21" s="5" t="inlineStr">
+        <is>
+          <t>金瑞矿业</t>
+        </is>
+      </c>
+      <c r="LW21" s="5" t="inlineStr">
+        <is>
+          <t>正虹科技</t>
+        </is>
+      </c>
+      <c r="LX21" s="5" t="inlineStr">
+        <is>
+          <t>新华联</t>
+        </is>
+      </c>
+      <c r="MA21" s="5" t="inlineStr">
+        <is>
+          <t>郴电国际</t>
+        </is>
+      </c>
+      <c r="MC21" s="5" t="inlineStr">
+        <is>
+          <t>航天晨光</t>
+        </is>
+      </c>
+      <c r="ME21" s="5" t="inlineStr">
+        <is>
+          <t>申华控股</t>
+        </is>
+      </c>
+      <c r="MG21" s="5" t="inlineStr">
+        <is>
+          <t>协和电子</t>
         </is>
       </c>
     </row>
@@ -7202,14 +7475,109 @@
           <t>川大智胜, 西藏旅游</t>
         </is>
       </c>
-      <c r="LH22" s="5" t="inlineStr">
+      <c r="LH22" s="1" t="inlineStr">
         <is>
           <t>南国置业, 鲁北化工</t>
         </is>
       </c>
-      <c r="LI22" s="5" t="inlineStr">
+      <c r="LI22" s="1" t="inlineStr">
         <is>
           <t>国盛金控, 格尔软件, 蔚蓝生物</t>
+        </is>
+      </c>
+      <c r="LJ22" s="5" t="inlineStr">
+        <is>
+          <t>华远地产</t>
+        </is>
+      </c>
+      <c r="LK22" s="5" t="inlineStr">
+        <is>
+          <t>百川股份, 高争民爆, 艾艾精工, 兴业股份</t>
+        </is>
+      </c>
+      <c r="LL22" s="5" t="inlineStr">
+        <is>
+          <t>百合花</t>
+        </is>
+      </c>
+      <c r="LM22" s="5" t="inlineStr">
+        <is>
+          <t>四创电子, 济民医疗</t>
+        </is>
+      </c>
+      <c r="LO22" s="5" t="inlineStr">
+        <is>
+          <t>积成电子, 南都物业</t>
+        </is>
+      </c>
+      <c r="LP22" s="5" t="inlineStr">
+        <is>
+          <t>明星电力, 西昌电力, 南京化纤</t>
+        </is>
+      </c>
+      <c r="LR22" s="5" t="inlineStr">
+        <is>
+          <t>建艺集团, 亚振家居</t>
+        </is>
+      </c>
+      <c r="LS22" s="5" t="inlineStr">
+        <is>
+          <t>天地源, 三棵树</t>
+        </is>
+      </c>
+      <c r="LT22" s="5" t="inlineStr">
+        <is>
+          <t>我爱我家, 园林股份</t>
+        </is>
+      </c>
+      <c r="LU22" s="5" t="inlineStr">
+        <is>
+          <t>金瑞矿业, 沃格光电</t>
+        </is>
+      </c>
+      <c r="LV22" s="5" t="inlineStr">
+        <is>
+          <t>正虹科技, 汇绿生态</t>
+        </is>
+      </c>
+      <c r="LW22" s="5" t="inlineStr">
+        <is>
+          <t>渝开发, 新华联</t>
+        </is>
+      </c>
+      <c r="LY22" s="5" t="inlineStr">
+        <is>
+          <t>万方发展</t>
+        </is>
+      </c>
+      <c r="LZ22" s="5" t="inlineStr">
+        <is>
+          <t>大连热电, 郴电国际, 博通集成</t>
+        </is>
+      </c>
+      <c r="MA22" s="5" t="inlineStr">
+        <is>
+          <t>华钰矿业</t>
+        </is>
+      </c>
+      <c r="MB22" s="5" t="inlineStr">
+        <is>
+          <t>航天晨光</t>
+        </is>
+      </c>
+      <c r="MD22" s="5" t="inlineStr">
+        <is>
+          <t>申华控股, 贵广网络</t>
+        </is>
+      </c>
+      <c r="MF22" s="5" t="inlineStr">
+        <is>
+          <t>协和电子</t>
+        </is>
+      </c>
+      <c r="MH22" s="5" t="inlineStr">
+        <is>
+          <t>开普检测, 中晶科技</t>
         </is>
       </c>
     </row>
@@ -8774,14 +9142,139 @@
           <t>南国置业, 鲁北化工, 亚邦股份</t>
         </is>
       </c>
-      <c r="LH23" s="5" t="inlineStr">
+      <c r="LH23" s="1" t="inlineStr">
         <is>
           <t>华金资本, 神州信息, 我爱我家, 鹏都农牧, 国盛金控, 吉大正元, 大名城, 太平洋, 东方材料, 格尔软件, 蔚蓝生物</t>
         </is>
       </c>
-      <c r="LI23" s="5" t="inlineStr">
+      <c r="LI23" s="1" t="inlineStr">
         <is>
           <t>天保基建, 荣盛发展, 思美传媒, 路畅科技, 凯中精密, 华远地产, 京能置业, 国联股份, 豪能股份</t>
+        </is>
+      </c>
+      <c r="LJ23" s="5" t="inlineStr">
+        <is>
+          <t>播恩集团, 百川股份, 高争民爆, 西藏天路, 鲁抗医药, 圣达生物, 金海高科, 艾艾精工, 兴业股份</t>
+        </is>
+      </c>
+      <c r="LK23" s="5" t="inlineStr">
+        <is>
+          <t>广济药业, 保利联合, 永和智控, 金牛化工, 百合花</t>
+        </is>
+      </c>
+      <c r="LL23" s="5" t="inlineStr">
+        <is>
+          <t>湖北宜化, 钱江生化, 四创电子, 济民医疗</t>
+        </is>
+      </c>
+      <c r="LM23" s="5" t="inlineStr">
+        <is>
+          <t>南华生物, 四环生物, 中源协和, 南京新百, 汉商集团, 星湖科技</t>
+        </is>
+      </c>
+      <c r="LN23" s="5" t="inlineStr">
+        <is>
+          <t>星光股份, 积成电子, 南都物业</t>
+        </is>
+      </c>
+      <c r="LO23" s="5" t="inlineStr">
+        <is>
+          <t>播恩集团, 泰永长征, 明星电力, 西昌电力, 乐山电力, 南京化纤, 嘉华股份</t>
+        </is>
+      </c>
+      <c r="LP23" s="5" t="inlineStr">
+        <is>
+          <t>中通客车, 声迅股份</t>
+        </is>
+      </c>
+      <c r="LQ23" s="5" t="inlineStr">
+        <is>
+          <t>北化股份, 凯撒文化, 建艺集团, 精伦电子, 万里股份, 亚振家居</t>
+        </is>
+      </c>
+      <c r="LR23" s="5" t="inlineStr">
+        <is>
+          <t>云南城投, 天地源, 国联证券, 三棵树</t>
+        </is>
+      </c>
+      <c r="LS23" s="5" t="inlineStr">
+        <is>
+          <t>我爱我家, 荣盛发展, 中天服务, 合肥城建, 滨江集团, 世联行, 南国置业, 华脉科技, 常青科技, 南都物业, 长源东谷, 园林股份</t>
+        </is>
+      </c>
+      <c r="LT23" s="5" t="inlineStr">
+        <is>
+          <t>炼石航空, 保利联合, 五方光电, 安彩高科, 城投控股, 金瑞矿业, 沃格光电</t>
+        </is>
+      </c>
+      <c r="LU23" s="5" t="inlineStr">
+        <is>
+          <t>正虹科技, 汇绿生态, 长白山</t>
+        </is>
+      </c>
+      <c r="LV23" s="5" t="inlineStr">
+        <is>
+          <t>渝开发, 新华联, 中捷资源</t>
+        </is>
+      </c>
+      <c r="LW23" s="5" t="inlineStr">
+        <is>
+          <t>拓日新能, 哈三联, 天宸股份, 上工申贝, 清源股份</t>
+        </is>
+      </c>
+      <c r="LX23" s="5" t="inlineStr">
+        <is>
+          <t>万方发展, 沃特股份, 意华股份</t>
+        </is>
+      </c>
+      <c r="LY23" s="5" t="inlineStr">
+        <is>
+          <t>广西能源, 大连热电, 郴电国际, 博通集成, 新中港</t>
+        </is>
+      </c>
+      <c r="LZ23" s="5" t="inlineStr">
+        <is>
+          <t>双象股份, 华钰矿业, 神马电力</t>
+        </is>
+      </c>
+      <c r="MA23" s="5" t="inlineStr">
+        <is>
+          <t>利源股份, 航天晨光</t>
+        </is>
+      </c>
+      <c r="MB23" s="5" t="inlineStr">
+        <is>
+          <t>兴欣新材, 神开股份, 海源复材, 福达股份, 通达电气</t>
+        </is>
+      </c>
+      <c r="MC23" s="5" t="inlineStr">
+        <is>
+          <t>雅博股份, 申华控股, 贵绳股份, 贵广网络</t>
+        </is>
+      </c>
+      <c r="MD23" s="5" t="inlineStr">
+        <is>
+          <t>得润电子</t>
+        </is>
+      </c>
+      <c r="ME23" s="5" t="inlineStr">
+        <is>
+          <t>郑中设计, 协和电子</t>
+        </is>
+      </c>
+      <c r="MF23" s="5" t="inlineStr">
+        <is>
+          <t>惠天热电, 华闻集团, 金溢科技</t>
+        </is>
+      </c>
+      <c r="MG23" s="5" t="inlineStr">
+        <is>
+          <t>开普检测, 中晶科技</t>
+        </is>
+      </c>
+      <c r="MH23" s="5" t="inlineStr">
+        <is>
+          <t>赫美集团, 宁波富达</t>
         </is>
       </c>
     </row>
@@ -8796,7 +9289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G321"/>
+  <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15876,6 +16369,556 @@
         <v>10</v>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>5</v>
+      </c>
+      <c r="C322" t="n">
+        <v>75</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1</v>
+      </c>
+      <c r="F322" t="n">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>5</v>
+      </c>
+      <c r="C323" t="n">
+        <v>44</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1</v>
+      </c>
+      <c r="F323" t="n">
+        <v>10.03</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>6</v>
+      </c>
+      <c r="C324" t="n">
+        <v>37</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1</v>
+      </c>
+      <c r="F324" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>7</v>
+      </c>
+      <c r="C325" t="n">
+        <v>40</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1</v>
+      </c>
+      <c r="F325" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>5</v>
+      </c>
+      <c r="C326" t="n">
+        <v>32</v>
+      </c>
+      <c r="D326" t="n">
+        <v>4</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1</v>
+      </c>
+      <c r="F326" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>3</v>
+      </c>
+      <c r="C327" t="n">
+        <v>25</v>
+      </c>
+      <c r="D327" t="n">
+        <v>17</v>
+      </c>
+      <c r="E327" t="n">
+        <v>2</v>
+      </c>
+      <c r="F327" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>4</v>
+      </c>
+      <c r="C328" t="n">
+        <v>43</v>
+      </c>
+      <c r="D328" t="n">
+        <v>7</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1</v>
+      </c>
+      <c r="F328" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>4</v>
+      </c>
+      <c r="C329" t="n">
+        <v>29</v>
+      </c>
+      <c r="D329" t="n">
+        <v>3</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1</v>
+      </c>
+      <c r="F329" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>5</v>
+      </c>
+      <c r="C330" t="n">
+        <v>35</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1</v>
+      </c>
+      <c r="F330" t="n">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>6</v>
+      </c>
+      <c r="C331" t="n">
+        <v>63</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1</v>
+      </c>
+      <c r="F331" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>5</v>
+      </c>
+      <c r="C332" t="n">
+        <v>39</v>
+      </c>
+      <c r="D332" t="n">
+        <v>8</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1</v>
+      </c>
+      <c r="F332" t="n">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>3</v>
+      </c>
+      <c r="C333" t="n">
+        <v>18</v>
+      </c>
+      <c r="D333" t="n">
+        <v>6</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2</v>
+      </c>
+      <c r="F333" t="n">
+        <v>10.04</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>4</v>
+      </c>
+      <c r="C334" t="n">
+        <v>30</v>
+      </c>
+      <c r="D334" t="n">
+        <v>4</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1</v>
+      </c>
+      <c r="F334" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>4</v>
+      </c>
+      <c r="C335" t="n">
+        <v>19</v>
+      </c>
+      <c r="D335" t="n">
+        <v>5</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1</v>
+      </c>
+      <c r="F335" t="n">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>5</v>
+      </c>
+      <c r="C336" t="n">
+        <v>29</v>
+      </c>
+      <c r="D336" t="n">
+        <v>10</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1</v>
+      </c>
+      <c r="F336" t="n">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>3</v>
+      </c>
+      <c r="C337" t="n">
+        <v>31</v>
+      </c>
+      <c r="D337" t="n">
+        <v>14</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>3</v>
+      </c>
+      <c r="C338" t="n">
+        <v>21</v>
+      </c>
+      <c r="D338" t="n">
+        <v>8</v>
+      </c>
+      <c r="E338" t="n">
+        <v>3</v>
+      </c>
+      <c r="F338" t="n">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>4</v>
+      </c>
+      <c r="C339" t="n">
+        <v>26</v>
+      </c>
+      <c r="D339" t="n">
+        <v>9</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1</v>
+      </c>
+      <c r="F339" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>3</v>
+      </c>
+      <c r="C340" t="n">
+        <v>24</v>
+      </c>
+      <c r="D340" t="n">
+        <v>13</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>4</v>
+      </c>
+      <c r="C341" t="n">
+        <v>20</v>
+      </c>
+      <c r="D341" t="n">
+        <v>5</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1</v>
+      </c>
+      <c r="F341" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>3</v>
+      </c>
+      <c r="C342" t="n">
+        <v>12</v>
+      </c>
+      <c r="D342" t="n">
+        <v>29</v>
+      </c>
+      <c r="E342" t="n">
+        <v>2</v>
+      </c>
+      <c r="F342" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>4</v>
+      </c>
+      <c r="C343" t="n">
+        <v>25</v>
+      </c>
+      <c r="D343" t="n">
+        <v>12</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1</v>
+      </c>
+      <c r="F343" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>3</v>
+      </c>
+      <c r="C344" t="n">
+        <v>15</v>
+      </c>
+      <c r="D344" t="n">
+        <v>5</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1</v>
+      </c>
+      <c r="F344" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>4</v>
+      </c>
+      <c r="C345" t="n">
+        <v>16</v>
+      </c>
+      <c r="D345" t="n">
+        <v>62</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1</v>
+      </c>
+      <c r="F345" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>5</v>
+      </c>
+      <c r="C346" t="n">
+        <v>52</v>
+      </c>
+      <c r="D346" t="n">
+        <v>6</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1</v>
+      </c>
+      <c r="F346" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28020" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28000" windowHeight="12860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="连板数据分析" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -41,23 +41,48 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -73,58 +98,37 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -146,40 +150,36 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,7 +208,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,19 +232,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,43 +328,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,37 +364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,55 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,39 +405,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,19 +426,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,151 +470,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -676,54 +676,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1556,15 +1556,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MH23"/>
+  <dimension ref="A1:PE23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
   <cols>
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="61.2" customWidth="1" min="2" max="3"/>
@@ -1886,7 +1888,7 @@
     <col width="43.2" customWidth="1" min="318" max="318"/>
     <col width="21.6" customWidth="1" min="319" max="319"/>
     <col width="76.8" customWidth="1" min="320" max="320"/>
-    <col width="64.8" customWidth="1" min="321" max="321"/>
+    <col width="64.8" customWidth="1" min="321" max="322"/>
     <col width="64.8" customWidth="1" min="322" max="322"/>
     <col width="34.8" customWidth="1" min="323" max="323"/>
     <col width="28.8" customWidth="1" min="324" max="324"/>
@@ -1907,11 +1909,86 @@
     <col width="14.4" customWidth="1" min="339" max="339"/>
     <col width="36" customWidth="1" min="340" max="340"/>
     <col width="28.8" customWidth="1" min="341" max="341"/>
-    <col width="14.4" customWidth="1" min="342" max="342"/>
+    <col width="14.4" customWidth="1" min="342" max="343"/>
     <col width="14.4" customWidth="1" min="343" max="343"/>
     <col width="21.6" customWidth="1" min="344" max="344"/>
-    <col width="14.4" customWidth="1" min="345" max="345"/>
+    <col width="14.4" customWidth="1" min="345" max="346"/>
     <col width="14.4" customWidth="1" min="346" max="346"/>
+    <col width="489.6" customWidth="1" min="347" max="347"/>
+    <col width="196.8" customWidth="1" min="348" max="348"/>
+    <col width="70.8" customWidth="1" min="349" max="349"/>
+    <col width="49.2" customWidth="1" min="350" max="350"/>
+    <col width="69.59999999999999" customWidth="1" min="351" max="351"/>
+    <col width="57.59999999999999" customWidth="1" min="352" max="352"/>
+    <col width="108" customWidth="1" min="353" max="353"/>
+    <col width="33.6" customWidth="1" min="354" max="354"/>
+    <col width="55.2" customWidth="1" min="355" max="355"/>
+    <col width="132" customWidth="1" min="356" max="356"/>
+    <col width="50.4" customWidth="1" min="357" max="357"/>
+    <col width="63.59999999999999" customWidth="1" min="358" max="358"/>
+    <col width="48" customWidth="1" min="359" max="359"/>
+    <col width="42" customWidth="1" min="360" max="360"/>
+    <col width="50.4" customWidth="1" min="361" max="361"/>
+    <col width="100.8" customWidth="1" min="362" max="362"/>
+    <col width="72" customWidth="1" min="363" max="363"/>
+    <col width="43.2" customWidth="1" min="364" max="364"/>
+    <col width="21.6" customWidth="1" min="365" max="365"/>
+    <col width="93.59999999999999" customWidth="1" min="366" max="366"/>
+    <col width="78" customWidth="1" min="367" max="367"/>
+    <col width="50.4" customWidth="1" min="368" max="368"/>
+    <col width="78" customWidth="1" min="369" max="369"/>
+    <col width="78" customWidth="1" min="370" max="370"/>
+    <col width="50.4" customWidth="1" min="371" max="371"/>
+    <col width="49.2" customWidth="1" min="372" max="372"/>
+    <col width="43.2" customWidth="1" min="373" max="373"/>
+    <col width="36" customWidth="1" min="374" max="374"/>
+    <col width="33.6" customWidth="1" min="375" max="375"/>
+    <col width="63.59999999999999" customWidth="1" min="376" max="376"/>
+    <col width="70.8" customWidth="1" min="377" max="377"/>
+    <col width="57.59999999999999" customWidth="1" min="378" max="378"/>
+    <col width="57.59999999999999" customWidth="1" min="379" max="379"/>
+    <col width="28.8" customWidth="1" min="380" max="380"/>
+    <col width="20.4" customWidth="1" min="381" max="381"/>
+    <col width="21.6" customWidth="1" min="382" max="382"/>
+    <col width="28.8" customWidth="1" min="383" max="383"/>
+    <col width="43.2" customWidth="1" min="384" max="384"/>
+    <col width="14.4" customWidth="1" min="385" max="385"/>
+    <col width="14.4" customWidth="1" min="386" max="386"/>
+    <col width="20.4" customWidth="1" min="387" max="387"/>
+    <col width="114" customWidth="1" min="388" max="388"/>
+    <col width="28.8" customWidth="1" min="389" max="389"/>
+    <col width="14.4" customWidth="1" min="390" max="390"/>
+    <col width="50.4" customWidth="1" min="391" max="391"/>
+    <col width="14.4" customWidth="1" min="392" max="392"/>
+    <col width="36" customWidth="1" min="393" max="393"/>
+    <col width="21.6" customWidth="1" min="394" max="394"/>
+    <col width="76.8" customWidth="1" min="395" max="395"/>
+    <col width="64.8" customWidth="1" min="396" max="396"/>
+    <col width="64.8" customWidth="1" min="397" max="397"/>
+    <col width="34.8" customWidth="1" min="398" max="398"/>
+    <col width="28.8" customWidth="1" min="399" max="399"/>
+    <col width="43.2" customWidth="1" min="400" max="400"/>
+    <col width="21.6" customWidth="1" min="401" max="401"/>
+    <col width="50.4" customWidth="1" min="402" max="402"/>
+    <col width="21.6" customWidth="1" min="403" max="403"/>
+    <col width="43.2" customWidth="1" min="404" max="404"/>
+    <col width="26.4" customWidth="1" min="405" max="405"/>
+    <col width="85.2" customWidth="1" min="406" max="406"/>
+    <col width="50.4" customWidth="1" min="407" max="407"/>
+    <col width="20.4" customWidth="1" min="408" max="408"/>
+    <col width="19.2" customWidth="1" min="409" max="409"/>
+    <col width="34.8" customWidth="1" min="410" max="410"/>
+    <col width="21.6" customWidth="1" min="411" max="411"/>
+    <col width="34.8" customWidth="1" min="412" max="412"/>
+    <col width="21.6" customWidth="1" min="413" max="413"/>
+    <col width="14.4" customWidth="1" min="414" max="414"/>
+    <col width="36" customWidth="1" min="415" max="415"/>
+    <col width="28.8" customWidth="1" min="416" max="416"/>
+    <col width="14.4" customWidth="1" min="417" max="417"/>
+    <col width="14.4" customWidth="1" min="418" max="418"/>
+    <col width="21.6" customWidth="1" min="419" max="419"/>
+    <col width="14.4" customWidth="1" min="420" max="420"/>
+    <col width="14.4" customWidth="1" min="421" max="421"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -3641,6 +3718,381 @@
           <t>2024-06-07</t>
         </is>
       </c>
+      <c r="MI1" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="MJ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="MK1" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="ML1" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="MM1" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="MN1" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="MO1" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="MP1" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="MQ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="MR1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="MS1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="MT1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="MU1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="MV1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="MW1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="MX1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="MY1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="MZ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="NA1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="NB1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="NC1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="ND1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="NE1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="NF1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="NG1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="NH1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="NI1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="NJ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="NK1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="NL1" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="NM1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="NN1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="NO1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="NP1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="NQ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="NR1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="NS1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="NT1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="NU1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="NV1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="NW1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="NX1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="NY1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="NZ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="OA1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="OB1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="OC1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="OD1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="OE1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="OF1" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="OG1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="OH1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="OI1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="OJ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="OK1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="OL1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="OM1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="ON1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-15</t>
+        </is>
+      </c>
+      <c r="OO1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="OP1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="OQ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="OR1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="OS1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="OT1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="OU1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="OV1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="OW1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="OX1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="OY1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="OZ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="PA1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="PB1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="PC1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="PD1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="PE1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -3743,6 +4195,16 @@
           <t>艾艾精工</t>
         </is>
       </c>
+      <c r="MO12" s="5" t="inlineStr">
+        <is>
+          <t>克来机电</t>
+        </is>
+      </c>
+      <c r="NF12" s="5" t="inlineStr">
+        <is>
+          <t>艾艾精工</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
@@ -3770,6 +4232,16 @@
           <t>艾艾精工</t>
         </is>
       </c>
+      <c r="MN13" s="5" t="inlineStr">
+        <is>
+          <t>克来机电</t>
+        </is>
+      </c>
+      <c r="NE13" s="5" t="inlineStr">
+        <is>
+          <t>艾艾精工</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
@@ -3807,6 +4279,16 @@
           <t>艾艾精工</t>
         </is>
       </c>
+      <c r="MM14" s="5" t="inlineStr">
+        <is>
+          <t>克来机电</t>
+        </is>
+      </c>
+      <c r="ND14" s="5" t="inlineStr">
+        <is>
+          <t>艾艾精工</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
@@ -3849,6 +4331,16 @@
           <t>艾艾精工</t>
         </is>
       </c>
+      <c r="ML15" s="5" t="inlineStr">
+        <is>
+          <t>克来机电</t>
+        </is>
+      </c>
+      <c r="NC15" s="5" t="inlineStr">
+        <is>
+          <t>艾艾精工</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
@@ -3931,6 +4423,26 @@
           <t>莱绅通灵</t>
         </is>
       </c>
+      <c r="MK16" s="5" t="inlineStr">
+        <is>
+          <t>克来机电</t>
+        </is>
+      </c>
+      <c r="NB16" s="5" t="inlineStr">
+        <is>
+          <t>艾艾精工</t>
+        </is>
+      </c>
+      <c r="NN16" s="5" t="inlineStr">
+        <is>
+          <t>华生科技</t>
+        </is>
+      </c>
+      <c r="NT16" s="5" t="inlineStr">
+        <is>
+          <t>莱绅通灵</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
@@ -4053,6 +4565,41 @@
           <t>莱绅通灵</t>
         </is>
       </c>
+      <c r="MJ17" s="5" t="inlineStr">
+        <is>
+          <t>克来机电</t>
+        </is>
+      </c>
+      <c r="MN17" s="5" t="inlineStr">
+        <is>
+          <t>蓝科高新</t>
+        </is>
+      </c>
+      <c r="MO17" s="5" t="inlineStr">
+        <is>
+          <t>睿能科技</t>
+        </is>
+      </c>
+      <c r="MP17" s="5" t="inlineStr">
+        <is>
+          <t>国脉文化, 华扬联众</t>
+        </is>
+      </c>
+      <c r="NA17" s="5" t="inlineStr">
+        <is>
+          <t>艾艾精工</t>
+        </is>
+      </c>
+      <c r="NM17" s="5" t="inlineStr">
+        <is>
+          <t>华生科技</t>
+        </is>
+      </c>
+      <c r="NS17" s="5" t="inlineStr">
+        <is>
+          <t>莱绅通灵</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
@@ -4260,7 +4807,62 @@
           <t>中衡设计</t>
         </is>
       </c>
-      <c r="LM18" s="5" t="inlineStr">
+      <c r="LM18" s="1" t="inlineStr">
+        <is>
+          <t>蔚蓝生物</t>
+        </is>
+      </c>
+      <c r="MI18" s="5" t="inlineStr">
+        <is>
+          <t>克来机电</t>
+        </is>
+      </c>
+      <c r="MM18" s="5" t="inlineStr">
+        <is>
+          <t>蓝科高新</t>
+        </is>
+      </c>
+      <c r="MN18" s="5" t="inlineStr">
+        <is>
+          <t>睿能科技</t>
+        </is>
+      </c>
+      <c r="MO18" s="5" t="inlineStr">
+        <is>
+          <t>国脉文化, 华扬联众</t>
+        </is>
+      </c>
+      <c r="MU18" s="5" t="inlineStr">
+        <is>
+          <t>安奈儿</t>
+        </is>
+      </c>
+      <c r="MZ18" s="5" t="inlineStr">
+        <is>
+          <t>立航科技, 艾艾精工</t>
+        </is>
+      </c>
+      <c r="NL18" s="5" t="inlineStr">
+        <is>
+          <t>华生科技</t>
+        </is>
+      </c>
+      <c r="NO18" s="5" t="inlineStr">
+        <is>
+          <t>联明股份</t>
+        </is>
+      </c>
+      <c r="NR18" s="5" t="inlineStr">
+        <is>
+          <t>莱绅通灵</t>
+        </is>
+      </c>
+      <c r="OC18" s="5" t="inlineStr">
+        <is>
+          <t>中衡设计</t>
+        </is>
+      </c>
+      <c r="OJ18" s="5" t="inlineStr">
         <is>
           <t>蔚蓝生物</t>
         </is>
@@ -4582,12 +5184,92 @@
           <t>奥维通信</t>
         </is>
       </c>
-      <c r="LL19" s="5" t="inlineStr">
+      <c r="LL19" s="1" t="inlineStr">
         <is>
           <t>蔚蓝生物</t>
         </is>
       </c>
-      <c r="LS19" s="5" t="inlineStr">
+      <c r="LS19" s="1" t="inlineStr">
+        <is>
+          <t>南京化纤</t>
+        </is>
+      </c>
+      <c r="ML19" s="5" t="inlineStr">
+        <is>
+          <t>蓝科高新</t>
+        </is>
+      </c>
+      <c r="MM19" s="5" t="inlineStr">
+        <is>
+          <t>二六三, 睿能科技</t>
+        </is>
+      </c>
+      <c r="MN19" s="5" t="inlineStr">
+        <is>
+          <t>精伦电子, 信雅达, 国脉文化, 华扬联众</t>
+        </is>
+      </c>
+      <c r="MO19" s="5" t="inlineStr">
+        <is>
+          <t>新纺退, 克劳斯</t>
+        </is>
+      </c>
+      <c r="MR19" s="5" t="inlineStr">
+        <is>
+          <t>东方精工</t>
+        </is>
+      </c>
+      <c r="MT19" s="5" t="inlineStr">
+        <is>
+          <t>安奈儿</t>
+        </is>
+      </c>
+      <c r="MU19" s="5" t="inlineStr">
+        <is>
+          <t>天元智能</t>
+        </is>
+      </c>
+      <c r="MY19" s="5" t="inlineStr">
+        <is>
+          <t>立航科技, 艾艾精工</t>
+        </is>
+      </c>
+      <c r="NK19" s="5" t="inlineStr">
+        <is>
+          <t>华生科技</t>
+        </is>
+      </c>
+      <c r="NN19" s="5" t="inlineStr">
+        <is>
+          <t>联明股份</t>
+        </is>
+      </c>
+      <c r="NQ19" s="5" t="inlineStr">
+        <is>
+          <t>莱绅通灵</t>
+        </is>
+      </c>
+      <c r="NY19" s="5" t="inlineStr">
+        <is>
+          <t>同为股份, 春光科技</t>
+        </is>
+      </c>
+      <c r="OB19" s="5" t="inlineStr">
+        <is>
+          <t>中衡设计</t>
+        </is>
+      </c>
+      <c r="OE19" s="5" t="inlineStr">
+        <is>
+          <t>奥维通信</t>
+        </is>
+      </c>
+      <c r="OI19" s="5" t="inlineStr">
+        <is>
+          <t>蔚蓝生物</t>
+        </is>
+      </c>
+      <c r="OP19" s="5" t="inlineStr">
         <is>
           <t>南京化纤</t>
         </is>
@@ -5164,42 +5846,202 @@
           <t>奥维通信</t>
         </is>
       </c>
-      <c r="LJ20" s="5" t="inlineStr">
+      <c r="LJ20" s="1" t="inlineStr">
         <is>
           <t>南国置业</t>
         </is>
       </c>
-      <c r="LK20" s="5" t="inlineStr">
+      <c r="LK20" s="1" t="inlineStr">
         <is>
           <t>蔚蓝生物</t>
         </is>
       </c>
-      <c r="LM20" s="5" t="inlineStr">
+      <c r="LM20" s="1" t="inlineStr">
         <is>
           <t>百川股份</t>
         </is>
       </c>
-      <c r="LN20" s="5" t="inlineStr">
+      <c r="LN20" s="1" t="inlineStr">
         <is>
           <t>百合花</t>
         </is>
       </c>
-      <c r="LR20" s="5" t="inlineStr">
+      <c r="LR20" s="1" t="inlineStr">
         <is>
           <t>南京化纤</t>
         </is>
       </c>
-      <c r="LT20" s="5" t="inlineStr">
+      <c r="LT20" s="1" t="inlineStr">
         <is>
           <t>亚振家居</t>
         </is>
       </c>
-      <c r="LX20" s="5" t="inlineStr">
+      <c r="LX20" s="1" t="inlineStr">
         <is>
           <t>正虹科技</t>
         </is>
       </c>
-      <c r="MH20" s="5" t="inlineStr">
+      <c r="MH20" s="1" t="inlineStr">
+        <is>
+          <t>协和电子</t>
+        </is>
+      </c>
+      <c r="MK20" s="5" t="inlineStr">
+        <is>
+          <t>蓝科高新</t>
+        </is>
+      </c>
+      <c r="ML20" s="5" t="inlineStr">
+        <is>
+          <t>二六三, 睿能科技</t>
+        </is>
+      </c>
+      <c r="MM20" s="5" t="inlineStr">
+        <is>
+          <t>精伦电子, 信雅达, 国脉文化, 华扬联众</t>
+        </is>
+      </c>
+      <c r="MN20" s="5" t="inlineStr">
+        <is>
+          <t>新纺退, 克劳斯</t>
+        </is>
+      </c>
+      <c r="MO20" s="5" t="inlineStr">
+        <is>
+          <t>亚世光电</t>
+        </is>
+      </c>
+      <c r="MQ20" s="5" t="inlineStr">
+        <is>
+          <t>东方精工</t>
+        </is>
+      </c>
+      <c r="MS20" s="5" t="inlineStr">
+        <is>
+          <t>安奈儿, 四川金顶</t>
+        </is>
+      </c>
+      <c r="MT20" s="5" t="inlineStr">
+        <is>
+          <t>天元智能</t>
+        </is>
+      </c>
+      <c r="MU20" s="5" t="inlineStr">
+        <is>
+          <t>福蓉科技</t>
+        </is>
+      </c>
+      <c r="MX20" s="5" t="inlineStr">
+        <is>
+          <t>安彩高科, 立航科技, 艾艾精工</t>
+        </is>
+      </c>
+      <c r="NA20" s="5" t="inlineStr">
+        <is>
+          <t>中电兴发</t>
+        </is>
+      </c>
+      <c r="NB20" s="5" t="inlineStr">
+        <is>
+          <t>星光股份</t>
+        </is>
+      </c>
+      <c r="NE20" s="5" t="inlineStr">
+        <is>
+          <t>宏达新材</t>
+        </is>
+      </c>
+      <c r="NG20" s="5" t="inlineStr">
+        <is>
+          <t>动力新科</t>
+        </is>
+      </c>
+      <c r="NJ20" s="5" t="inlineStr">
+        <is>
+          <t>华生科技</t>
+        </is>
+      </c>
+      <c r="NK20" s="5" t="inlineStr">
+        <is>
+          <t>爱丽家居, 亚振家居</t>
+        </is>
+      </c>
+      <c r="NM20" s="5" t="inlineStr">
+        <is>
+          <t>联明股份</t>
+        </is>
+      </c>
+      <c r="NN20" s="5" t="inlineStr">
+        <is>
+          <t>普路通, 华体科技</t>
+        </is>
+      </c>
+      <c r="NO20" s="5" t="inlineStr">
+        <is>
+          <t>厦门信达, 三祥新材</t>
+        </is>
+      </c>
+      <c r="NP20" s="5" t="inlineStr">
+        <is>
+          <t>世嘉科技, 莱绅通灵</t>
+        </is>
+      </c>
+      <c r="NR20" s="5" t="inlineStr">
+        <is>
+          <t>中电电机</t>
+        </is>
+      </c>
+      <c r="NX20" s="5" t="inlineStr">
+        <is>
+          <t>同为股份, 春光科技</t>
+        </is>
+      </c>
+      <c r="OA20" s="5" t="inlineStr">
+        <is>
+          <t>中衡设计</t>
+        </is>
+      </c>
+      <c r="OD20" s="5" t="inlineStr">
+        <is>
+          <t>奥维通信</t>
+        </is>
+      </c>
+      <c r="OG20" s="5" t="inlineStr">
+        <is>
+          <t>南国置业</t>
+        </is>
+      </c>
+      <c r="OH20" s="5" t="inlineStr">
+        <is>
+          <t>蔚蓝生物</t>
+        </is>
+      </c>
+      <c r="OJ20" s="5" t="inlineStr">
+        <is>
+          <t>百川股份</t>
+        </is>
+      </c>
+      <c r="OK20" s="5" t="inlineStr">
+        <is>
+          <t>百合花</t>
+        </is>
+      </c>
+      <c r="OO20" s="5" t="inlineStr">
+        <is>
+          <t>南京化纤</t>
+        </is>
+      </c>
+      <c r="OQ20" s="5" t="inlineStr">
+        <is>
+          <t>亚振家居</t>
+        </is>
+      </c>
+      <c r="OU20" s="5" t="inlineStr">
+        <is>
+          <t>正虹科技</t>
+        </is>
+      </c>
+      <c r="PE20" s="5" t="inlineStr">
         <is>
           <t>协和电子</t>
         </is>
@@ -6137,72 +6979,322 @@
           <t>南国置业</t>
         </is>
       </c>
-      <c r="LJ21" s="5" t="inlineStr">
+      <c r="LJ21" s="1" t="inlineStr">
         <is>
           <t>蔚蓝生物</t>
         </is>
       </c>
-      <c r="LL21" s="5" t="inlineStr">
+      <c r="LL21" s="1" t="inlineStr">
         <is>
           <t>百川股份, 兴业股份</t>
         </is>
       </c>
-      <c r="LM21" s="5" t="inlineStr">
+      <c r="LM21" s="1" t="inlineStr">
         <is>
           <t>百合花</t>
         </is>
       </c>
-      <c r="LN21" s="5" t="inlineStr">
+      <c r="LN21" s="1" t="inlineStr">
         <is>
           <t>济民医疗</t>
         </is>
       </c>
-      <c r="LP21" s="5" t="inlineStr">
+      <c r="LP21" s="1" t="inlineStr">
         <is>
           <t>积成电子</t>
         </is>
       </c>
-      <c r="LQ21" s="5" t="inlineStr">
+      <c r="LQ21" s="1" t="inlineStr">
         <is>
           <t>南京化纤</t>
         </is>
       </c>
-      <c r="LS21" s="5" t="inlineStr">
+      <c r="LS21" s="1" t="inlineStr">
         <is>
           <t>亚振家居</t>
         </is>
       </c>
-      <c r="LV21" s="5" t="inlineStr">
+      <c r="LV21" s="1" t="inlineStr">
         <is>
           <t>金瑞矿业</t>
         </is>
       </c>
-      <c r="LW21" s="5" t="inlineStr">
+      <c r="LW21" s="1" t="inlineStr">
         <is>
           <t>正虹科技</t>
         </is>
       </c>
-      <c r="LX21" s="5" t="inlineStr">
+      <c r="LX21" s="1" t="inlineStr">
         <is>
           <t>新华联</t>
         </is>
       </c>
-      <c r="MA21" s="5" t="inlineStr">
+      <c r="MA21" s="1" t="inlineStr">
         <is>
           <t>郴电国际</t>
         </is>
       </c>
-      <c r="MC21" s="5" t="inlineStr">
+      <c r="MC21" s="1" t="inlineStr">
         <is>
           <t>航天晨光</t>
         </is>
       </c>
-      <c r="ME21" s="5" t="inlineStr">
+      <c r="ME21" s="1" t="inlineStr">
         <is>
           <t>申华控股</t>
         </is>
       </c>
-      <c r="MG21" s="5" t="inlineStr">
+      <c r="MG21" s="1" t="inlineStr">
+        <is>
+          <t>协和电子</t>
+        </is>
+      </c>
+      <c r="MI21" s="5" t="inlineStr">
+        <is>
+          <t>华天科技</t>
+        </is>
+      </c>
+      <c r="MJ21" s="5" t="inlineStr">
+        <is>
+          <t>蓝科高新</t>
+        </is>
+      </c>
+      <c r="MK21" s="5" t="inlineStr">
+        <is>
+          <t>二六三, 中坚科技, 浙文影业, 睿能科技</t>
+        </is>
+      </c>
+      <c r="ML21" s="5" t="inlineStr">
+        <is>
+          <t>魅视科技, 精伦电子, 信雅达, 国脉文化, 退市园城, 网达软件, 华扬联众</t>
+        </is>
+      </c>
+      <c r="MM21" s="5" t="inlineStr">
+        <is>
+          <t>新纺退, 克劳斯</t>
+        </is>
+      </c>
+      <c r="MN21" s="5" t="inlineStr">
+        <is>
+          <t>亚世光电, 合锻智能</t>
+        </is>
+      </c>
+      <c r="MO21" s="5" t="inlineStr">
+        <is>
+          <t>日海智能, 爱仕达</t>
+        </is>
+      </c>
+      <c r="MP21" s="5" t="inlineStr">
+        <is>
+          <t>东方精工, 博杰股份</t>
+        </is>
+      </c>
+      <c r="MQ21" s="5" t="inlineStr">
+        <is>
+          <t>天永智能</t>
+        </is>
+      </c>
+      <c r="MR21" s="5" t="inlineStr">
+        <is>
+          <t>汇源通信, 安奈儿, 四川金顶</t>
+        </is>
+      </c>
+      <c r="MS21" s="5" t="inlineStr">
+        <is>
+          <t>天元智能</t>
+        </is>
+      </c>
+      <c r="MT21" s="5" t="inlineStr">
+        <is>
+          <t>福蓉科技</t>
+        </is>
+      </c>
+      <c r="MV21" s="5" t="inlineStr">
+        <is>
+          <t>川润股份</t>
+        </is>
+      </c>
+      <c r="MW21" s="5" t="inlineStr">
+        <is>
+          <t>安彩高科, 上海沪工, 立航科技, 艾艾精工</t>
+        </is>
+      </c>
+      <c r="MY21" s="5" t="inlineStr">
+        <is>
+          <t>必得科技</t>
+        </is>
+      </c>
+      <c r="MZ21" s="5" t="inlineStr">
+        <is>
+          <t>中电兴发, 铭普光磁</t>
+        </is>
+      </c>
+      <c r="NA21" s="5" t="inlineStr">
+        <is>
+          <t>星光股份</t>
+        </is>
+      </c>
+      <c r="ND21" s="5" t="inlineStr">
+        <is>
+          <t>新大洲A, 宏达新材</t>
+        </is>
+      </c>
+      <c r="NE21" s="5" t="inlineStr">
+        <is>
+          <t>电广传媒</t>
+        </is>
+      </c>
+      <c r="NF21" s="5" t="inlineStr">
+        <is>
+          <t>贝瑞基因, 动力新科</t>
+        </is>
+      </c>
+      <c r="NI21" s="5" t="inlineStr">
+        <is>
+          <t>青海华鼎, 华生科技</t>
+        </is>
+      </c>
+      <c r="NJ21" s="5" t="inlineStr">
+        <is>
+          <t>京投发展, 圣达生物, 爱丽家居, 亚振家居</t>
+        </is>
+      </c>
+      <c r="NL21" s="5" t="inlineStr">
+        <is>
+          <t>联明股份</t>
+        </is>
+      </c>
+      <c r="NM21" s="5" t="inlineStr">
+        <is>
+          <t>中信海直, 普路通, 华体科技</t>
+        </is>
+      </c>
+      <c r="NN21" s="5" t="inlineStr">
+        <is>
+          <t>厦门信达, 三祥新材</t>
+        </is>
+      </c>
+      <c r="NO21" s="5" t="inlineStr">
+        <is>
+          <t>世嘉科技, 莱绅通灵</t>
+        </is>
+      </c>
+      <c r="NQ21" s="5" t="inlineStr">
+        <is>
+          <t>中电电机</t>
+        </is>
+      </c>
+      <c r="NS21" s="5" t="inlineStr">
+        <is>
+          <t>百通能源</t>
+        </is>
+      </c>
+      <c r="NU21" s="5" t="inlineStr">
+        <is>
+          <t>建设机械</t>
+        </is>
+      </c>
+      <c r="NW21" s="5" t="inlineStr">
+        <is>
+          <t>同为股份, 春光科技</t>
+        </is>
+      </c>
+      <c r="NX21" s="5" t="inlineStr">
+        <is>
+          <t>中公高科</t>
+        </is>
+      </c>
+      <c r="NZ21" s="5" t="inlineStr">
+        <is>
+          <t>中衡设计, 威奥股份</t>
+        </is>
+      </c>
+      <c r="OC21" s="5" t="inlineStr">
+        <is>
+          <t>亚太实业, 奥维通信</t>
+        </is>
+      </c>
+      <c r="OD21" s="5" t="inlineStr">
+        <is>
+          <t>惠天热电</t>
+        </is>
+      </c>
+      <c r="OE21" s="5" t="inlineStr">
+        <is>
+          <t>川大智胜</t>
+        </is>
+      </c>
+      <c r="OF21" s="5" t="inlineStr">
+        <is>
+          <t>南国置业</t>
+        </is>
+      </c>
+      <c r="OG21" s="5" t="inlineStr">
+        <is>
+          <t>蔚蓝生物</t>
+        </is>
+      </c>
+      <c r="OI21" s="5" t="inlineStr">
+        <is>
+          <t>百川股份, 兴业股份</t>
+        </is>
+      </c>
+      <c r="OJ21" s="5" t="inlineStr">
+        <is>
+          <t>百合花</t>
+        </is>
+      </c>
+      <c r="OK21" s="5" t="inlineStr">
+        <is>
+          <t>济民医疗</t>
+        </is>
+      </c>
+      <c r="OM21" s="5" t="inlineStr">
+        <is>
+          <t>积成电子</t>
+        </is>
+      </c>
+      <c r="ON21" s="5" t="inlineStr">
+        <is>
+          <t>南京化纤</t>
+        </is>
+      </c>
+      <c r="OP21" s="5" t="inlineStr">
+        <is>
+          <t>亚振家居</t>
+        </is>
+      </c>
+      <c r="OS21" s="5" t="inlineStr">
+        <is>
+          <t>金瑞矿业</t>
+        </is>
+      </c>
+      <c r="OT21" s="5" t="inlineStr">
+        <is>
+          <t>正虹科技</t>
+        </is>
+      </c>
+      <c r="OU21" s="5" t="inlineStr">
+        <is>
+          <t>新华联</t>
+        </is>
+      </c>
+      <c r="OX21" s="5" t="inlineStr">
+        <is>
+          <t>郴电国际</t>
+        </is>
+      </c>
+      <c r="OZ21" s="5" t="inlineStr">
+        <is>
+          <t>航天晨光</t>
+        </is>
+      </c>
+      <c r="PB21" s="5" t="inlineStr">
+        <is>
+          <t>申华控股</t>
+        </is>
+      </c>
+      <c r="PD21" s="5" t="inlineStr">
         <is>
           <t>协和电子</t>
         </is>
@@ -7485,97 +8577,412 @@
           <t>国盛金控, 格尔软件, 蔚蓝生物</t>
         </is>
       </c>
-      <c r="LJ22" s="5" t="inlineStr">
+      <c r="LJ22" s="1" t="inlineStr">
         <is>
           <t>华远地产</t>
         </is>
       </c>
-      <c r="LK22" s="5" t="inlineStr">
+      <c r="LK22" s="1" t="inlineStr">
         <is>
           <t>百川股份, 高争民爆, 艾艾精工, 兴业股份</t>
         </is>
       </c>
-      <c r="LL22" s="5" t="inlineStr">
+      <c r="LL22" s="1" t="inlineStr">
         <is>
           <t>百合花</t>
         </is>
       </c>
-      <c r="LM22" s="5" t="inlineStr">
+      <c r="LM22" s="1" t="inlineStr">
         <is>
           <t>四创电子, 济民医疗</t>
         </is>
       </c>
-      <c r="LO22" s="5" t="inlineStr">
+      <c r="LO22" s="1" t="inlineStr">
         <is>
           <t>积成电子, 南都物业</t>
         </is>
       </c>
-      <c r="LP22" s="5" t="inlineStr">
+      <c r="LP22" s="1" t="inlineStr">
         <is>
           <t>明星电力, 西昌电力, 南京化纤</t>
         </is>
       </c>
-      <c r="LR22" s="5" t="inlineStr">
+      <c r="LR22" s="1" t="inlineStr">
         <is>
           <t>建艺集团, 亚振家居</t>
         </is>
       </c>
-      <c r="LS22" s="5" t="inlineStr">
+      <c r="LS22" s="1" t="inlineStr">
         <is>
           <t>天地源, 三棵树</t>
         </is>
       </c>
-      <c r="LT22" s="5" t="inlineStr">
+      <c r="LT22" s="1" t="inlineStr">
         <is>
           <t>我爱我家, 园林股份</t>
         </is>
       </c>
-      <c r="LU22" s="5" t="inlineStr">
+      <c r="LU22" s="1" t="inlineStr">
         <is>
           <t>金瑞矿业, 沃格光电</t>
         </is>
       </c>
-      <c r="LV22" s="5" t="inlineStr">
+      <c r="LV22" s="1" t="inlineStr">
         <is>
           <t>正虹科技, 汇绿生态</t>
         </is>
       </c>
-      <c r="LW22" s="5" t="inlineStr">
+      <c r="LW22" s="1" t="inlineStr">
         <is>
           <t>渝开发, 新华联</t>
         </is>
       </c>
-      <c r="LY22" s="5" t="inlineStr">
+      <c r="LY22" s="1" t="inlineStr">
         <is>
           <t>万方发展</t>
         </is>
       </c>
-      <c r="LZ22" s="5" t="inlineStr">
+      <c r="LZ22" s="1" t="inlineStr">
         <is>
           <t>大连热电, 郴电国际, 博通集成</t>
         </is>
       </c>
-      <c r="MA22" s="5" t="inlineStr">
+      <c r="MA22" s="1" t="inlineStr">
         <is>
           <t>华钰矿业</t>
         </is>
       </c>
-      <c r="MB22" s="5" t="inlineStr">
+      <c r="MB22" s="1" t="inlineStr">
         <is>
           <t>航天晨光</t>
         </is>
       </c>
-      <c r="MD22" s="5" t="inlineStr">
+      <c r="MD22" s="1" t="inlineStr">
         <is>
           <t>申华控股, 贵广网络</t>
         </is>
       </c>
-      <c r="MF22" s="5" t="inlineStr">
+      <c r="MF22" s="1" t="inlineStr">
         <is>
           <t>协和电子</t>
         </is>
       </c>
-      <c r="MH22" s="5" t="inlineStr">
+      <c r="MH22" s="1" t="inlineStr">
+        <is>
+          <t>开普检测, 中晶科技</t>
+        </is>
+      </c>
+      <c r="MI22" s="5" t="inlineStr">
+        <is>
+          <t>蓝科高新, 哈森股份</t>
+        </is>
+      </c>
+      <c r="MJ22" s="5" t="inlineStr">
+        <is>
+          <t>高新发展, 好上好, 禾盛新材, 二六三, 中坚科技, 光大嘉宝, 浙文影业, 赛福天, 电魂网络, 淳中科技, 睿能科技, 松霖科技, 新炬网络</t>
+        </is>
+      </c>
+      <c r="MK22" s="5" t="inlineStr">
+        <is>
+          <t>荣丰控股, 魅视科技, 精伦电子, 信雅达, 汇通能源, 国脉文化, 退市同达, 退市园城, 网达软件, 华扬联众</t>
+        </is>
+      </c>
+      <c r="ML22" s="5" t="inlineStr">
+        <is>
+          <t>新纺退, 克劳斯</t>
+        </is>
+      </c>
+      <c r="MM22" s="5" t="inlineStr">
+        <is>
+          <t>亚世光电, 合锻智能</t>
+        </is>
+      </c>
+      <c r="MN22" s="5" t="inlineStr">
+        <is>
+          <t>美利云, 日海智能, 爱仕达, 卓朗科技</t>
+        </is>
+      </c>
+      <c r="MO22" s="5" t="inlineStr">
+        <is>
+          <t>日发精机, 东方精工, 博杰股份</t>
+        </is>
+      </c>
+      <c r="MP22" s="5" t="inlineStr">
+        <is>
+          <t>亚联发展, 标准股份, 天永智能</t>
+        </is>
+      </c>
+      <c r="MQ22" s="5" t="inlineStr">
+        <is>
+          <t>汇源通信, 安奈儿, 四川金顶</t>
+        </is>
+      </c>
+      <c r="MR22" s="5" t="inlineStr">
+        <is>
+          <t>达意隆, 天元智能, 康普顿</t>
+        </is>
+      </c>
+      <c r="MS22" s="5" t="inlineStr">
+        <is>
+          <t>光迅科技, 康盛股份, 高斯贝尔, 福蓉科技</t>
+        </is>
+      </c>
+      <c r="MT22" s="5" t="inlineStr">
+        <is>
+          <t>卓翼科技</t>
+        </is>
+      </c>
+      <c r="MU22" s="5" t="inlineStr">
+        <is>
+          <t>新华联, 川润股份, 润都股份</t>
+        </is>
+      </c>
+      <c r="MV22" s="5" t="inlineStr">
+        <is>
+          <t>好上好, 安彩高科, 大连圣亚, 上海沪工, 立航科技, 艾艾精工</t>
+        </is>
+      </c>
+      <c r="MW22" s="5" t="inlineStr">
+        <is>
+          <t>华阳新材</t>
+        </is>
+      </c>
+      <c r="MX22" s="5" t="inlineStr">
+        <is>
+          <t>神州高铁, 三晖电气, 必得科技</t>
+        </is>
+      </c>
+      <c r="MY22" s="5" t="inlineStr">
+        <is>
+          <t>中电兴发, 日海智能, 高德红外, 新天药业, 铭普光磁</t>
+        </is>
+      </c>
+      <c r="MZ22" s="5" t="inlineStr">
+        <is>
+          <t>星光股份, 普天科技, 英联股份, 掌阅科技</t>
+        </is>
+      </c>
+      <c r="NC22" s="5" t="inlineStr">
+        <is>
+          <t>新大洲A, 宏达新材, 合锻智能, 越剑智能</t>
+        </is>
+      </c>
+      <c r="ND22" s="5" t="inlineStr">
+        <is>
+          <t>电广传媒</t>
+        </is>
+      </c>
+      <c r="NE22" s="5" t="inlineStr">
+        <is>
+          <t>贝瑞基因, 动力新科, 福蓉科技, 塞力医疗</t>
+        </is>
+      </c>
+      <c r="NF22" s="5" t="inlineStr">
+        <is>
+          <t>新亚电子</t>
+        </is>
+      </c>
+      <c r="NG22" s="5" t="inlineStr">
+        <is>
+          <t>沃尔核材, 掌阅科技, 中广天择</t>
+        </is>
+      </c>
+      <c r="NH22" s="5" t="inlineStr">
+        <is>
+          <t>王子新材, 青海华鼎, 翔港科技, 华生科技</t>
+        </is>
+      </c>
+      <c r="NI22" s="5" t="inlineStr">
+        <is>
+          <t>京投发展, 圣达生物, 爱丽家居, 亚振家居, 安德利</t>
+        </is>
+      </c>
+      <c r="NJ22" s="5" t="inlineStr">
+        <is>
+          <t>科森科技</t>
+        </is>
+      </c>
+      <c r="NK22" s="5" t="inlineStr">
+        <is>
+          <t>联明股份, 丰山集团</t>
+        </is>
+      </c>
+      <c r="NL22" s="5" t="inlineStr">
+        <is>
+          <t>中信海直, 普路通, 华体科技</t>
+        </is>
+      </c>
+      <c r="NM22" s="5" t="inlineStr">
+        <is>
+          <t>厦门信达, 豪尔赛, 退市同达, 三祥新材</t>
+        </is>
+      </c>
+      <c r="NN22" s="5" t="inlineStr">
+        <is>
+          <t>世嘉科技, 开创国际, 正平股份, 莱绅通灵</t>
+        </is>
+      </c>
+      <c r="NO22" s="5" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="NP22" s="5" t="inlineStr">
+        <is>
+          <t>准油股份, 中电电机</t>
+        </is>
+      </c>
+      <c r="NR22" s="5" t="inlineStr">
+        <is>
+          <t>百通能源</t>
+        </is>
+      </c>
+      <c r="NS22" s="5" t="inlineStr">
+        <is>
+          <t>博迁新材</t>
+        </is>
+      </c>
+      <c r="NT22" s="5" t="inlineStr">
+        <is>
+          <t>宁波中百, 建设机械</t>
+        </is>
+      </c>
+      <c r="NV22" s="5" t="inlineStr">
+        <is>
+          <t>同为股份, 春光科技</t>
+        </is>
+      </c>
+      <c r="NW22" s="5" t="inlineStr">
+        <is>
+          <t>哈三联, 中公高科</t>
+        </is>
+      </c>
+      <c r="NX22" s="5" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="NY22" s="5" t="inlineStr">
+        <is>
+          <t>中信海直, 万安科技, 中衡设计, 威奥股份</t>
+        </is>
+      </c>
+      <c r="OB22" s="5" t="inlineStr">
+        <is>
+          <t>亚太实业, 奥维通信</t>
+        </is>
+      </c>
+      <c r="OC22" s="5" t="inlineStr">
+        <is>
+          <t>惠天热电</t>
+        </is>
+      </c>
+      <c r="OD22" s="5" t="inlineStr">
+        <is>
+          <t>川大智胜, 西藏旅游</t>
+        </is>
+      </c>
+      <c r="OE22" s="5" t="inlineStr">
+        <is>
+          <t>南国置业, 鲁北化工</t>
+        </is>
+      </c>
+      <c r="OF22" s="5" t="inlineStr">
+        <is>
+          <t>国盛金控, 格尔软件, 蔚蓝生物</t>
+        </is>
+      </c>
+      <c r="OG22" s="5" t="inlineStr">
+        <is>
+          <t>华远地产</t>
+        </is>
+      </c>
+      <c r="OH22" s="5" t="inlineStr">
+        <is>
+          <t>百川股份, 高争民爆, 艾艾精工, 兴业股份</t>
+        </is>
+      </c>
+      <c r="OI22" s="5" t="inlineStr">
+        <is>
+          <t>百合花</t>
+        </is>
+      </c>
+      <c r="OJ22" s="5" t="inlineStr">
+        <is>
+          <t>四创电子, 济民医疗</t>
+        </is>
+      </c>
+      <c r="OL22" s="5" t="inlineStr">
+        <is>
+          <t>积成电子, 南都物业</t>
+        </is>
+      </c>
+      <c r="OM22" s="5" t="inlineStr">
+        <is>
+          <t>明星电力, 西昌电力, 南京化纤</t>
+        </is>
+      </c>
+      <c r="OO22" s="5" t="inlineStr">
+        <is>
+          <t>建艺集团, 亚振家居</t>
+        </is>
+      </c>
+      <c r="OP22" s="5" t="inlineStr">
+        <is>
+          <t>天地源, 三棵树</t>
+        </is>
+      </c>
+      <c r="OQ22" s="5" t="inlineStr">
+        <is>
+          <t>我爱我家, 园林股份</t>
+        </is>
+      </c>
+      <c r="OR22" s="5" t="inlineStr">
+        <is>
+          <t>金瑞矿业, 沃格光电</t>
+        </is>
+      </c>
+      <c r="OS22" s="5" t="inlineStr">
+        <is>
+          <t>正虹科技, 汇绿生态</t>
+        </is>
+      </c>
+      <c r="OT22" s="5" t="inlineStr">
+        <is>
+          <t>渝开发, 新华联</t>
+        </is>
+      </c>
+      <c r="OV22" s="5" t="inlineStr">
+        <is>
+          <t>万方发展</t>
+        </is>
+      </c>
+      <c r="OW22" s="5" t="inlineStr">
+        <is>
+          <t>大连热电, 郴电国际, 博通集成</t>
+        </is>
+      </c>
+      <c r="OX22" s="5" t="inlineStr">
+        <is>
+          <t>华钰矿业</t>
+        </is>
+      </c>
+      <c r="OY22" s="5" t="inlineStr">
+        <is>
+          <t>航天晨光</t>
+        </is>
+      </c>
+      <c r="PA22" s="5" t="inlineStr">
+        <is>
+          <t>申华控股, 贵广网络</t>
+        </is>
+      </c>
+      <c r="PC22" s="5" t="inlineStr">
+        <is>
+          <t>协和电子</t>
+        </is>
+      </c>
+      <c r="PE22" s="5" t="inlineStr">
         <is>
           <t>开普检测, 中晶科技</t>
         </is>
@@ -9152,127 +10559,502 @@
           <t>天保基建, 荣盛发展, 思美传媒, 路畅科技, 凯中精密, 华远地产, 京能置业, 国联股份, 豪能股份</t>
         </is>
       </c>
-      <c r="LJ23" s="5" t="inlineStr">
+      <c r="LJ23" s="1" t="inlineStr">
         <is>
           <t>播恩集团, 百川股份, 高争民爆, 西藏天路, 鲁抗医药, 圣达生物, 金海高科, 艾艾精工, 兴业股份</t>
         </is>
       </c>
-      <c r="LK23" s="5" t="inlineStr">
+      <c r="LK23" s="1" t="inlineStr">
         <is>
           <t>广济药业, 保利联合, 永和智控, 金牛化工, 百合花</t>
         </is>
       </c>
-      <c r="LL23" s="5" t="inlineStr">
+      <c r="LL23" s="1" t="inlineStr">
         <is>
           <t>湖北宜化, 钱江生化, 四创电子, 济民医疗</t>
         </is>
       </c>
-      <c r="LM23" s="5" t="inlineStr">
+      <c r="LM23" s="1" t="inlineStr">
         <is>
           <t>南华生物, 四环生物, 中源协和, 南京新百, 汉商集团, 星湖科技</t>
         </is>
       </c>
-      <c r="LN23" s="5" t="inlineStr">
+      <c r="LN23" s="1" t="inlineStr">
         <is>
           <t>星光股份, 积成电子, 南都物业</t>
         </is>
       </c>
-      <c r="LO23" s="5" t="inlineStr">
+      <c r="LO23" s="1" t="inlineStr">
         <is>
           <t>播恩集团, 泰永长征, 明星电力, 西昌电力, 乐山电力, 南京化纤, 嘉华股份</t>
         </is>
       </c>
-      <c r="LP23" s="5" t="inlineStr">
+      <c r="LP23" s="1" t="inlineStr">
         <is>
           <t>中通客车, 声迅股份</t>
         </is>
       </c>
-      <c r="LQ23" s="5" t="inlineStr">
+      <c r="LQ23" s="1" t="inlineStr">
         <is>
           <t>北化股份, 凯撒文化, 建艺集团, 精伦电子, 万里股份, 亚振家居</t>
         </is>
       </c>
-      <c r="LR23" s="5" t="inlineStr">
+      <c r="LR23" s="1" t="inlineStr">
         <is>
           <t>云南城投, 天地源, 国联证券, 三棵树</t>
         </is>
       </c>
-      <c r="LS23" s="5" t="inlineStr">
+      <c r="LS23" s="1" t="inlineStr">
         <is>
           <t>我爱我家, 荣盛发展, 中天服务, 合肥城建, 滨江集团, 世联行, 南国置业, 华脉科技, 常青科技, 南都物业, 长源东谷, 园林股份</t>
         </is>
       </c>
-      <c r="LT23" s="5" t="inlineStr">
+      <c r="LT23" s="1" t="inlineStr">
         <is>
           <t>炼石航空, 保利联合, 五方光电, 安彩高科, 城投控股, 金瑞矿业, 沃格光电</t>
         </is>
       </c>
-      <c r="LU23" s="5" t="inlineStr">
+      <c r="LU23" s="1" t="inlineStr">
         <is>
           <t>正虹科技, 汇绿生态, 长白山</t>
         </is>
       </c>
-      <c r="LV23" s="5" t="inlineStr">
+      <c r="LV23" s="1" t="inlineStr">
         <is>
           <t>渝开发, 新华联, 中捷资源</t>
         </is>
       </c>
-      <c r="LW23" s="5" t="inlineStr">
+      <c r="LW23" s="1" t="inlineStr">
         <is>
           <t>拓日新能, 哈三联, 天宸股份, 上工申贝, 清源股份</t>
         </is>
       </c>
-      <c r="LX23" s="5" t="inlineStr">
+      <c r="LX23" s="1" t="inlineStr">
         <is>
           <t>万方发展, 沃特股份, 意华股份</t>
         </is>
       </c>
-      <c r="LY23" s="5" t="inlineStr">
+      <c r="LY23" s="1" t="inlineStr">
         <is>
           <t>广西能源, 大连热电, 郴电国际, 博通集成, 新中港</t>
         </is>
       </c>
-      <c r="LZ23" s="5" t="inlineStr">
+      <c r="LZ23" s="1" t="inlineStr">
         <is>
           <t>双象股份, 华钰矿业, 神马电力</t>
         </is>
       </c>
-      <c r="MA23" s="5" t="inlineStr">
+      <c r="MA23" s="1" t="inlineStr">
         <is>
           <t>利源股份, 航天晨光</t>
         </is>
       </c>
-      <c r="MB23" s="5" t="inlineStr">
+      <c r="MB23" s="1" t="inlineStr">
         <is>
           <t>兴欣新材, 神开股份, 海源复材, 福达股份, 通达电气</t>
         </is>
       </c>
-      <c r="MC23" s="5" t="inlineStr">
+      <c r="MC23" s="1" t="inlineStr">
         <is>
           <t>雅博股份, 申华控股, 贵绳股份, 贵广网络</t>
         </is>
       </c>
-      <c r="MD23" s="5" t="inlineStr">
+      <c r="MD23" s="1" t="inlineStr">
         <is>
           <t>得润电子</t>
         </is>
       </c>
-      <c r="ME23" s="5" t="inlineStr">
+      <c r="ME23" s="1" t="inlineStr">
         <is>
           <t>郑中设计, 协和电子</t>
         </is>
       </c>
-      <c r="MF23" s="5" t="inlineStr">
+      <c r="MF23" s="1" t="inlineStr">
         <is>
           <t>惠天热电, 华闻集团, 金溢科技</t>
         </is>
       </c>
-      <c r="MG23" s="5" t="inlineStr">
+      <c r="MG23" s="1" t="inlineStr">
         <is>
           <t>开普检测, 中晶科技</t>
         </is>
       </c>
-      <c r="MH23" s="5" t="inlineStr">
+      <c r="MH23" s="1" t="inlineStr">
+        <is>
+          <t>赫美集团, 宁波富达</t>
+        </is>
+      </c>
+      <c r="MI23" s="5" t="inlineStr">
+        <is>
+          <t>深纺织A, 南华生物, 供销大集, 高新发展, 美利云, 联科科技, 好上好, 亿道信息, 智微智能, 三特索道, 东方智造, 川润股份, 禾盛新材, 辉煌科技, 科远智慧, 二六三, 榕基软件, 捷顺科技, 金安国纪, 荣联科技, 好利科技, 南兴股份, 中坚科技, 通宇通讯, 世嘉科技, 泰嘉股份, 威星智能, 伟隆股份, 智能自控, 英派斯, 中新赛克, 华阳国际, 五方光电, 锐明技术, 豪美新材, 顺博合金, 开普检测, 中信尼雅, 城市传媒, 大恒科技, 安泰集团, 卓郎智能, 光大嘉宝, 金瑞矿业, 中路股份, 兰生股份, 浙文影业, 弘讯科技, 赛福天, 美思德, 大丰实业, 华正新材, 电魂网络, 迪贝电气, 日出东方, 淳中科技, 君禾股份, 利通电子, 天安新材, 嘉澳环保, 春秋电子, 睿能科技, 建业股份, 松霖科技, 联德股份, 明新旭腾, 神通科技, 协和电子, 新炬网络</t>
+        </is>
+      </c>
+      <c r="MJ23" s="5" t="inlineStr">
+        <is>
+          <t>荣丰控股, 魅视科技, 鸿博股份, 汉王科技, 万润科技, 真视通, 竞业达, 金花股份, 精伦电子, 空港股份, 信雅达, 汇通能源, 国脉文化, 退市同达, 昂立教育, 退市园城, 华立股份, 北自科技, 网达软件, 翔港科技, 掌阅科技, 引力传媒, 茶花股份, 苏州科达, 中广天择, 龙韵股份, 华扬联众, 新华网</t>
+        </is>
+      </c>
+      <c r="MK23" s="5" t="inlineStr">
+        <is>
+          <t>深中华A, 新纺退, 普路通, 克劳斯</t>
+        </is>
+      </c>
+      <c r="ML23" s="5" t="inlineStr">
+        <is>
+          <t>中科金财, 建艺集团, 亚世光电, 合锻智能, 合力科技</t>
+        </is>
+      </c>
+      <c r="MM23" s="5" t="inlineStr">
+        <is>
+          <t>高新发展, 中南股份, 美利云, 日海智能, 爱仕达, 卓朗科技, 云赛智联, 鹿山新材, 淳中科技, 麦迪科技</t>
+        </is>
+      </c>
+      <c r="MN23" s="5" t="inlineStr">
+        <is>
+          <t>宝塔实业, 宁波东力, 日发精机, 奥拓电子, 东方精工, 博杰股份, 北自科技, 瑞斯康达</t>
+        </is>
+      </c>
+      <c r="MO23" s="5" t="inlineStr">
+        <is>
+          <t>皇庭国际, 珠海中富, 天奇股份, 华东数控, 亚联发展, 南方精工, 华东重机, 东方嘉盛, 标准股份, 退市商城, 渤海汽车, 音飞储存, 康尼机电, 日盈电子, 天永智能</t>
+        </is>
+      </c>
+      <c r="MP23" s="5" t="inlineStr">
+        <is>
+          <t>汇源通信, 众生药业, 安奈儿, 四川金顶, 西上海</t>
+        </is>
+      </c>
+      <c r="MQ23" s="5" t="inlineStr">
+        <is>
+          <t>达意隆, 东易日盛, 九鼎投资, 华资实业, 京城股份, 神驰机电, 天元智能, 康普顿</t>
+        </is>
+      </c>
+      <c r="MR23" s="5" t="inlineStr">
+        <is>
+          <t>美锦能源, 紫光股份, 威尔泰, 新纺退, 纳思达, 宏达新材, 光迅科技, 爱仕达, 康盛股份, 雄韬股份, 高斯贝尔, 宇晶股份, 全柴动力, 张江高科, 柏诚股份, 华立股份, 可川科技, 福蓉科技, 京华激光</t>
+        </is>
+      </c>
+      <c r="MS23" s="5" t="inlineStr">
+        <is>
+          <t>卓翼科技, 美格智能, 城市传媒, 上海电影, 宏和科技, 思维列控, 苏州科达</t>
+        </is>
+      </c>
+      <c r="MT23" s="5" t="inlineStr">
+        <is>
+          <t>新华联, 高新发展, 川润股份, 道明光学, 智能自控, 润都股份, 汉商集团, 中广天择, 时空科技</t>
+        </is>
+      </c>
+      <c r="MU23" s="5" t="inlineStr">
+        <is>
+          <t>好上好, 红宝丽, 安彩高科, 大连圣亚, 上海沪工, 立航科技, 艾艾精工</t>
+        </is>
+      </c>
+      <c r="MV23" s="5" t="inlineStr">
+        <is>
+          <t>天奇股份, 竞业达, 华阳新材, 金自天正, 海汽集团</t>
+        </is>
+      </c>
+      <c r="MW23" s="5" t="inlineStr">
+        <is>
+          <t>神州高铁, 华菱线缆, 洪兴股份, 长青科技, 三晖电气, 思维列控, 必得科技</t>
+        </is>
+      </c>
+      <c r="MX23" s="5" t="inlineStr">
+        <is>
+          <t>光迅科技, 中电兴发, 日海智能, 高德红外, 盛通股份, 道明光学, 文科股份, 新天药业, 铭普光磁, 中路股份, 耀皮玻璃, 淳中科技, 国晟科技, 德业股份</t>
+        </is>
+      </c>
+      <c r="MY23" s="5" t="inlineStr">
+        <is>
+          <t>中洲控股, 星光股份, 万丰奥威, 普天科技, 天际股份, 英联股份, 时代万恒, 上工申贝, 退市碳元, 掌阅科技</t>
+        </is>
+      </c>
+      <c r="MZ23" s="5" t="inlineStr">
+        <is>
+          <t>中信海直, 凯撒文化, 榕基软件, 明牌珠宝, 济南高新, 英利汽车</t>
+        </is>
+      </c>
+      <c r="NA23" s="5" t="inlineStr">
+        <is>
+          <t>魅视科技, 罗欣药业, 东安动力</t>
+        </is>
+      </c>
+      <c r="NB23" s="5" t="inlineStr">
+        <is>
+          <t>新大洲A, 北方铜业, 财信发展, 宏达新材, 华宏科技, 三夫户外, 郑中设计, 赛隆药业, 合锻智能, 越剑智能, 富佳股份, 亚振家居, 恒盛能源</t>
+        </is>
+      </c>
+      <c r="NC23" s="5" t="inlineStr">
+        <is>
+          <t>电广传媒, 万丰奥威, 中光学, 泰尔股份, 声迅股份, 东风汽车, 华嵘控股, 国芳集团, 怡球资源, 恒银科技, 诚邦股份</t>
+        </is>
+      </c>
+      <c r="ND23" s="5" t="inlineStr">
+        <is>
+          <t>贝瑞基因, 方正电机, 瀛通通讯, 宸展光电, 动力新科, 福蓉科技, 塞力医疗</t>
+        </is>
+      </c>
+      <c r="NE23" s="5" t="inlineStr">
+        <is>
+          <t>甘肃能源, 四川九洲, 依依股份, 得润电子, 辉丰股份, 维科技术, 海鸥股份, 安邦护卫, 盛景微, 再升科技, 新亚电子</t>
+        </is>
+      </c>
+      <c r="NF23" s="5" t="inlineStr">
+        <is>
+          <t>德明利, 沃尔核材, 北纬科技, 威创股份, 实丰文化, 伟隆股份, 卧龙电驱, 设计总院, 掌阅科技, 中广天择, 咸亨国际</t>
+        </is>
+      </c>
+      <c r="NG23" s="5" t="inlineStr">
+        <is>
+          <t>大为股份, 南方精工, 王子新材, 青海华鼎, 博威合金, 翔港科技, 华生科技</t>
+        </is>
+      </c>
+      <c r="NH23" s="5" t="inlineStr">
+        <is>
+          <t>康达新材, 精达股份, 京投发展, 圣达生物, 爱丽家居, 亚振家居, 安德利</t>
+        </is>
+      </c>
+      <c r="NI23" s="5" t="inlineStr">
+        <is>
+          <t>物产金轮, 创新新材, 建设机械, 凯众股份, 宏和科技, 科森科技</t>
+        </is>
+      </c>
+      <c r="NJ23" s="5" t="inlineStr">
+        <is>
+          <t>兴欣新材, 科瑞技术, 联明股份, 安邦护卫, 丰山集团</t>
+        </is>
+      </c>
+      <c r="NK23" s="5" t="inlineStr">
+        <is>
+          <t>中信海直, 顺威股份, 普路通, 华体科技, 新中港</t>
+        </is>
+      </c>
+      <c r="NL23" s="5" t="inlineStr">
+        <is>
+          <t>厦门信达, 宗申动力, 通宇通讯, 豪尔赛, 天禾股份, 退市同达, 亚泰集团, 永吉股份, 三祥新材</t>
+        </is>
+      </c>
+      <c r="NM23" s="5" t="inlineStr">
+        <is>
+          <t>中晟高科, 世嘉科技, 开创国际, 退市园城, 众源新材, 正平股份, 莱绅通灵, 铁流股份, 盛泰集团, 安德利</t>
+        </is>
+      </c>
+      <c r="NN23" s="5" t="inlineStr">
+        <is>
+          <t>翔腾新材, 精艺股份, 空港股份, 安阳钢铁, 万丰股份, 亚邦股份, 雅运股份, 冠盛股份</t>
+        </is>
+      </c>
+      <c r="NO23" s="5" t="inlineStr">
+        <is>
+          <t>北方铜业, 博菲电气, 美能能源, 准油股份, 华阳新材, 中创物流, 中电电机, 福莱新材</t>
+        </is>
+      </c>
+      <c r="NP23" s="5" t="inlineStr">
+        <is>
+          <t>山高环能, 海欣食品, 白银有色, 一鸣食品</t>
+        </is>
+      </c>
+      <c r="NQ23" s="5" t="inlineStr">
+        <is>
+          <t>平安电工, 百通能源, 大名城</t>
+        </is>
+      </c>
+      <c r="NR23" s="5" t="inlineStr">
+        <is>
+          <t>利民股份, 三祥新材, 博迁新材</t>
+        </is>
+      </c>
+      <c r="NS23" s="5" t="inlineStr">
+        <is>
+          <t>宁波中百, 建设机械, 天洋新材, 华达科技</t>
+        </is>
+      </c>
+      <c r="NT23" s="5" t="inlineStr">
+        <is>
+          <t>峨眉山A, 永达股份, 百川股份, 厦工股份, 中国西电, 原尚股份</t>
+        </is>
+      </c>
+      <c r="NU23" s="5" t="inlineStr">
+        <is>
+          <t>同为股份, 春光科技</t>
+        </is>
+      </c>
+      <c r="NV23" s="5" t="inlineStr">
+        <is>
+          <t>哈三联, 中公高科</t>
+        </is>
+      </c>
+      <c r="NW23" s="5" t="inlineStr">
+        <is>
+          <t>赣能股份, 建研院, 荣泰健康</t>
+        </is>
+      </c>
+      <c r="NX23" s="5" t="inlineStr">
+        <is>
+          <t>中信海直, 钱江摩托, 软控股份, 万安科技, 金龙羽, 福日电子, 北方股份, 丽尚国潮, 中衡设计, 乐惠国际, 科华控股, 金海高科, 设计总院, 白云电器, 睿能科技, 威奥股份</t>
+        </is>
+      </c>
+      <c r="NY23" s="5" t="inlineStr">
+        <is>
+          <t>凤凰航运</t>
+        </is>
+      </c>
+      <c r="NZ23" s="5" t="inlineStr">
+        <is>
+          <t>神开股份, 辉煌科技</t>
+        </is>
+      </c>
+      <c r="OA23" s="5" t="inlineStr">
+        <is>
+          <t>亚太实业, 利仁科技, 奥维通信, 航天长峰, 四创电子, 乐惠国际, 展鹏科技</t>
+        </is>
+      </c>
+      <c r="OB23" s="5" t="inlineStr">
+        <is>
+          <t>惠天热电, 万安科技</t>
+        </is>
+      </c>
+      <c r="OC23" s="5" t="inlineStr">
+        <is>
+          <t>万丰奥威, 川大智胜, 威创股份, 西藏旅游, 东方环宇</t>
+        </is>
+      </c>
+      <c r="OD23" s="5" t="inlineStr">
+        <is>
+          <t>南国置业, 鲁北化工, 亚邦股份</t>
+        </is>
+      </c>
+      <c r="OE23" s="5" t="inlineStr">
+        <is>
+          <t>华金资本, 神州信息, 我爱我家, 鹏都农牧, 国盛金控, 吉大正元, 大名城, 太平洋, 东方材料, 格尔软件, 蔚蓝生物</t>
+        </is>
+      </c>
+      <c r="OF23" s="5" t="inlineStr">
+        <is>
+          <t>天保基建, 荣盛发展, 思美传媒, 路畅科技, 凯中精密, 华远地产, 京能置业, 国联股份, 豪能股份</t>
+        </is>
+      </c>
+      <c r="OG23" s="5" t="inlineStr">
+        <is>
+          <t>播恩集团, 百川股份, 高争民爆, 西藏天路, 鲁抗医药, 圣达生物, 金海高科, 艾艾精工, 兴业股份</t>
+        </is>
+      </c>
+      <c r="OH23" s="5" t="inlineStr">
+        <is>
+          <t>广济药业, 保利联合, 永和智控, 金牛化工, 百合花</t>
+        </is>
+      </c>
+      <c r="OI23" s="5" t="inlineStr">
+        <is>
+          <t>湖北宜化, 钱江生化, 四创电子, 济民医疗</t>
+        </is>
+      </c>
+      <c r="OJ23" s="5" t="inlineStr">
+        <is>
+          <t>南华生物, 四环生物, 中源协和, 南京新百, 汉商集团, 星湖科技</t>
+        </is>
+      </c>
+      <c r="OK23" s="5" t="inlineStr">
+        <is>
+          <t>星光股份, 积成电子, 南都物业</t>
+        </is>
+      </c>
+      <c r="OL23" s="5" t="inlineStr">
+        <is>
+          <t>播恩集团, 泰永长征, 明星电力, 西昌电力, 乐山电力, 南京化纤, 嘉华股份</t>
+        </is>
+      </c>
+      <c r="OM23" s="5" t="inlineStr">
+        <is>
+          <t>中通客车, 声迅股份</t>
+        </is>
+      </c>
+      <c r="ON23" s="5" t="inlineStr">
+        <is>
+          <t>北化股份, 凯撒文化, 建艺集团, 精伦电子, 万里股份, 亚振家居</t>
+        </is>
+      </c>
+      <c r="OO23" s="5" t="inlineStr">
+        <is>
+          <t>云南城投, 天地源, 国联证券, 三棵树</t>
+        </is>
+      </c>
+      <c r="OP23" s="5" t="inlineStr">
+        <is>
+          <t>我爱我家, 荣盛发展, 中天服务, 合肥城建, 滨江集团, 世联行, 南国置业, 华脉科技, 常青科技, 南都物业, 长源东谷, 园林股份</t>
+        </is>
+      </c>
+      <c r="OQ23" s="5" t="inlineStr">
+        <is>
+          <t>炼石航空, 保利联合, 五方光电, 安彩高科, 城投控股, 金瑞矿业, 沃格光电</t>
+        </is>
+      </c>
+      <c r="OR23" s="5" t="inlineStr">
+        <is>
+          <t>正虹科技, 汇绿生态, 长白山</t>
+        </is>
+      </c>
+      <c r="OS23" s="5" t="inlineStr">
+        <is>
+          <t>渝开发, 新华联, 中捷资源</t>
+        </is>
+      </c>
+      <c r="OT23" s="5" t="inlineStr">
+        <is>
+          <t>拓日新能, 哈三联, 天宸股份, 上工申贝, 清源股份</t>
+        </is>
+      </c>
+      <c r="OU23" s="5" t="inlineStr">
+        <is>
+          <t>万方发展, 沃特股份, 意华股份</t>
+        </is>
+      </c>
+      <c r="OV23" s="5" t="inlineStr">
+        <is>
+          <t>广西能源, 大连热电, 郴电国际, 博通集成, 新中港</t>
+        </is>
+      </c>
+      <c r="OW23" s="5" t="inlineStr">
+        <is>
+          <t>双象股份, 华钰矿业, 神马电力</t>
+        </is>
+      </c>
+      <c r="OX23" s="5" t="inlineStr">
+        <is>
+          <t>利源股份, 航天晨光</t>
+        </is>
+      </c>
+      <c r="OY23" s="5" t="inlineStr">
+        <is>
+          <t>兴欣新材, 神开股份, 海源复材, 福达股份, 通达电气</t>
+        </is>
+      </c>
+      <c r="OZ23" s="5" t="inlineStr">
+        <is>
+          <t>雅博股份, 申华控股, 贵绳股份, 贵广网络</t>
+        </is>
+      </c>
+      <c r="PA23" s="5" t="inlineStr">
+        <is>
+          <t>得润电子</t>
+        </is>
+      </c>
+      <c r="PB23" s="5" t="inlineStr">
+        <is>
+          <t>郑中设计, 协和电子</t>
+        </is>
+      </c>
+      <c r="PC23" s="5" t="inlineStr">
+        <is>
+          <t>惠天热电, 华闻集团, 金溢科技</t>
+        </is>
+      </c>
+      <c r="PD23" s="5" t="inlineStr">
+        <is>
+          <t>开普检测, 中晶科技</t>
+        </is>
+      </c>
+      <c r="PE23" s="5" t="inlineStr">
         <is>
           <t>赫美集团, 宁波富达</t>
         </is>
@@ -15276,19 +17058,19 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C272" t="n">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E272" t="n">
         <v>1</v>
       </c>
       <c r="F272" t="n">
-        <v>10.01</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="273">
@@ -15301,7 +17083,7 @@
         <v>8</v>
       </c>
       <c r="C273" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
@@ -15323,7 +17105,7 @@
         <v>9</v>
       </c>
       <c r="C274" t="n">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D274" t="n">
         <v>0</v>
@@ -15345,10 +17127,10 @@
         <v>10</v>
       </c>
       <c r="C275" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E275" t="n">
         <v>1</v>
@@ -15367,10 +17149,10 @@
         <v>11</v>
       </c>
       <c r="C276" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E276" t="n">
         <v>1</v>
@@ -15389,7 +17171,7 @@
         <v>12</v>
       </c>
       <c r="C277" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
@@ -15398,7 +17180,7 @@
         <v>1</v>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278">
@@ -15411,7 +17193,7 @@
         <v>13</v>
       </c>
       <c r="C278" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D278" t="n">
         <v>1</v>
@@ -15420,7 +17202,7 @@
         <v>1</v>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="279">
@@ -15433,16 +17215,16 @@
         <v>8</v>
       </c>
       <c r="C279" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D279" t="n">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E279" t="n">
         <v>2</v>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="280">
@@ -15455,10 +17237,10 @@
         <v>5</v>
       </c>
       <c r="C280" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E280" t="n">
         <v>1</v>
@@ -15477,10 +17259,10 @@
         <v>6</v>
       </c>
       <c r="C281" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D281" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E281" t="n">
         <v>1</v>
@@ -15502,7 +17284,7 @@
         <v>64</v>
       </c>
       <c r="D282" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E282" t="n">
         <v>2</v>
@@ -15521,16 +17303,16 @@
         <v>6</v>
       </c>
       <c r="C283" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D283" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E283" t="n">
         <v>1</v>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="284">
@@ -15543,16 +17325,16 @@
         <v>7</v>
       </c>
       <c r="C284" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E284" t="n">
         <v>1</v>
       </c>
       <c r="F284" t="n">
-        <v>0</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="285">
@@ -15562,19 +17344,19 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C285" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D285" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E285" t="n">
         <v>1</v>
       </c>
       <c r="F285" t="n">
-        <v>0.39</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="286">
@@ -15587,7 +17369,7 @@
         <v>4</v>
       </c>
       <c r="C286" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D286" t="n">
         <v>2</v>
@@ -15606,19 +17388,19 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C287" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E287" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="288">
@@ -15631,10 +17413,10 @@
         <v>6</v>
       </c>
       <c r="C288" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E288" t="n">
         <v>2</v>
@@ -15653,10 +17435,10 @@
         <v>7</v>
       </c>
       <c r="C289" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E289" t="n">
         <v>2</v>
@@ -15675,7 +17457,7 @@
         <v>8</v>
       </c>
       <c r="C290" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D290" t="n">
         <v>2</v>
@@ -15697,7 +17479,7 @@
         <v>9</v>
       </c>
       <c r="C291" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D291" t="n">
         <v>1</v>
@@ -15719,10 +17501,10 @@
         <v>10</v>
       </c>
       <c r="C292" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E292" t="n">
         <v>1</v>
@@ -15741,10 +17523,10 @@
         <v>11</v>
       </c>
       <c r="C293" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E293" t="n">
         <v>1</v>
@@ -15763,10 +17545,10 @@
         <v>12</v>
       </c>
       <c r="C294" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E294" t="n">
         <v>1</v>
@@ -15785,10 +17567,10 @@
         <v>13</v>
       </c>
       <c r="C295" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D295" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E295" t="n">
         <v>1</v>
@@ -15804,10 +17586,10 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C296" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D296" t="n">
         <v>10</v>
@@ -15816,7 +17598,7 @@
         <v>1</v>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="297">
@@ -15826,19 +17608,19 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C297" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D297" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E297" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F297" t="n">
-        <v>5.04</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="298">
@@ -15848,19 +17630,19 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C298" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D298" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F298" t="n">
-        <v>9.67</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="299">
@@ -15870,19 +17652,19 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C299" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D299" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E299" t="n">
         <v>1</v>
       </c>
       <c r="F299" t="n">
-        <v>9.890000000000001</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="300">
@@ -15892,19 +17674,19 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C300" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D300" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E300" t="n">
         <v>1</v>
       </c>
       <c r="F300" t="n">
-        <v>9</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="301">
@@ -15917,16 +17699,16 @@
         <v>7</v>
       </c>
       <c r="C301" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D301" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E301" t="n">
         <v>1</v>
       </c>
       <c r="F301" t="n">
-        <v>10</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="302">
@@ -15939,10 +17721,10 @@
         <v>8</v>
       </c>
       <c r="C302" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D302" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E302" t="n">
         <v>1</v>
@@ -15961,10 +17743,10 @@
         <v>9</v>
       </c>
       <c r="C303" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D303" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E303" t="n">
         <v>1</v>
@@ -15983,10 +17765,10 @@
         <v>7</v>
       </c>
       <c r="C304" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D304" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E304" t="n">
         <v>1</v>
@@ -16005,10 +17787,10 @@
         <v>5</v>
       </c>
       <c r="C305" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D305" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E305" t="n">
         <v>2</v>
@@ -16027,10 +17809,10 @@
         <v>6</v>
       </c>
       <c r="C306" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D306" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E306" t="n">
         <v>1</v>
@@ -16049,7 +17831,7 @@
         <v>7</v>
       </c>
       <c r="C307" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D307" t="n">
         <v>16</v>
@@ -16071,10 +17853,10 @@
         <v>8</v>
       </c>
       <c r="C308" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D308" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E308" t="n">
         <v>1</v>
@@ -16093,10 +17875,10 @@
         <v>9</v>
       </c>
       <c r="C309" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D309" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E309" t="n">
         <v>1</v>
@@ -16118,7 +17900,7 @@
         <v>22</v>
       </c>
       <c r="D310" t="n">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E310" t="n">
         <v>1</v>
@@ -16137,10 +17919,10 @@
         <v>3</v>
       </c>
       <c r="C311" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D311" t="n">
-        <v>280</v>
+        <v>641</v>
       </c>
       <c r="E311" t="n">
         <v>2</v>
@@ -16159,10 +17941,10 @@
         <v>4</v>
       </c>
       <c r="C312" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E312" t="n">
         <v>2</v>
@@ -16181,10 +17963,10 @@
         <v>5</v>
       </c>
       <c r="C313" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D313" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E313" t="n">
         <v>2</v>
@@ -16203,10 +17985,10 @@
         <v>6</v>
       </c>
       <c r="C314" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D314" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E314" t="n">
         <v>2</v>
@@ -16225,10 +18007,10 @@
         <v>4</v>
       </c>
       <c r="C315" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D315" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E315" t="n">
         <v>2</v>
@@ -16247,10 +18029,10 @@
         <v>5</v>
       </c>
       <c r="C316" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D316" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E316" t="n">
         <v>1</v>
@@ -16269,10 +18051,10 @@
         <v>6</v>
       </c>
       <c r="C317" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D317" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E317" t="n">
         <v>1</v>
@@ -16291,10 +18073,10 @@
         <v>7</v>
       </c>
       <c r="C318" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D318" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E318" t="n">
         <v>1</v>
@@ -16313,10 +18095,10 @@
         <v>5</v>
       </c>
       <c r="C319" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D319" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E319" t="n">
         <v>1</v>
@@ -16338,7 +18120,7 @@
         <v>99</v>
       </c>
       <c r="D320" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E320" t="n">
         <v>1</v>
@@ -16357,7 +18139,7 @@
         <v>4</v>
       </c>
       <c r="C321" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D321" t="n">
         <v>18</v>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$346</f>
+              <f>'连板数据分析'!$A$2:$A$349</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$346</f>
+              <f>'连板数据分析'!$B$2:$B$349</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$346</f>
+              <f>'连板数据分析'!$A$2:$A$349</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$346</f>
+              <f>'连板数据分析'!$C$2:$C$349</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$346</f>
+              <f>'连板数据分析'!$A$2:$A$349</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$346</f>
+              <f>'连板数据分析'!$D$2:$D$349</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$346</f>
+              <f>'连板数据分析'!$A$2:$A$349</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$346</f>
+              <f>'连板数据分析'!$F$2:$F$349</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="62100000" cy="2700000"/>
+    <ext cx="62640000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="62100000" cy="2700000"/>
+    <ext cx="62640000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="62100000" cy="2700000"/>
+    <ext cx="62640000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,14 +1556,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PE23"/>
+  <dimension ref="A1:PH23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
@@ -1936,7 +1936,7 @@
     <col width="93.59999999999999" customWidth="1" min="366" max="366"/>
     <col width="78" customWidth="1" min="367" max="367"/>
     <col width="50.4" customWidth="1" min="368" max="368"/>
-    <col width="78" customWidth="1" min="369" max="369"/>
+    <col width="78" customWidth="1" min="369" max="370"/>
     <col width="78" customWidth="1" min="370" max="370"/>
     <col width="50.4" customWidth="1" min="371" max="371"/>
     <col width="49.2" customWidth="1" min="372" max="372"/>
@@ -1945,14 +1945,14 @@
     <col width="33.6" customWidth="1" min="375" max="375"/>
     <col width="63.59999999999999" customWidth="1" min="376" max="376"/>
     <col width="70.8" customWidth="1" min="377" max="377"/>
-    <col width="57.59999999999999" customWidth="1" min="378" max="378"/>
+    <col width="57.59999999999999" customWidth="1" min="378" max="379"/>
     <col width="57.59999999999999" customWidth="1" min="379" max="379"/>
     <col width="28.8" customWidth="1" min="380" max="380"/>
     <col width="20.4" customWidth="1" min="381" max="381"/>
     <col width="21.6" customWidth="1" min="382" max="382"/>
     <col width="28.8" customWidth="1" min="383" max="383"/>
     <col width="43.2" customWidth="1" min="384" max="384"/>
-    <col width="14.4" customWidth="1" min="385" max="385"/>
+    <col width="14.4" customWidth="1" min="385" max="386"/>
     <col width="14.4" customWidth="1" min="386" max="386"/>
     <col width="20.4" customWidth="1" min="387" max="387"/>
     <col width="114" customWidth="1" min="388" max="388"/>
@@ -1963,7 +1963,7 @@
     <col width="36" customWidth="1" min="393" max="393"/>
     <col width="21.6" customWidth="1" min="394" max="394"/>
     <col width="76.8" customWidth="1" min="395" max="395"/>
-    <col width="64.8" customWidth="1" min="396" max="396"/>
+    <col width="64.8" customWidth="1" min="396" max="397"/>
     <col width="64.8" customWidth="1" min="397" max="397"/>
     <col width="34.8" customWidth="1" min="398" max="398"/>
     <col width="28.8" customWidth="1" min="399" max="399"/>
@@ -1984,11 +1984,14 @@
     <col width="14.4" customWidth="1" min="414" max="414"/>
     <col width="36" customWidth="1" min="415" max="415"/>
     <col width="28.8" customWidth="1" min="416" max="416"/>
-    <col width="14.4" customWidth="1" min="417" max="417"/>
+    <col width="14.4" customWidth="1" min="417" max="418"/>
     <col width="14.4" customWidth="1" min="418" max="418"/>
     <col width="21.6" customWidth="1" min="419" max="419"/>
-    <col width="14.4" customWidth="1" min="420" max="420"/>
+    <col width="14.4" customWidth="1" min="420" max="421"/>
     <col width="14.4" customWidth="1" min="421" max="421"/>
+    <col width="21.6" customWidth="1" min="422" max="422"/>
+    <col width="27.6" customWidth="1" min="423" max="423"/>
+    <col width="36" customWidth="1" min="424" max="424"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4093,6 +4096,21 @@
           <t>2024-06-07</t>
         </is>
       </c>
+      <c r="PF1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="PG1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="PH1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -4195,12 +4213,12 @@
           <t>艾艾精工</t>
         </is>
       </c>
-      <c r="MO12" s="5" t="inlineStr">
+      <c r="MO12" s="1" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="NF12" s="5" t="inlineStr">
+      <c r="NF12" s="1" t="inlineStr">
         <is>
           <t>艾艾精工</t>
         </is>
@@ -4232,12 +4250,12 @@
           <t>艾艾精工</t>
         </is>
       </c>
-      <c r="MN13" s="5" t="inlineStr">
+      <c r="MN13" s="1" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="NE13" s="5" t="inlineStr">
+      <c r="NE13" s="1" t="inlineStr">
         <is>
           <t>艾艾精工</t>
         </is>
@@ -4279,12 +4297,12 @@
           <t>艾艾精工</t>
         </is>
       </c>
-      <c r="MM14" s="5" t="inlineStr">
+      <c r="MM14" s="1" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="ND14" s="5" t="inlineStr">
+      <c r="ND14" s="1" t="inlineStr">
         <is>
           <t>艾艾精工</t>
         </is>
@@ -4331,12 +4349,12 @@
           <t>艾艾精工</t>
         </is>
       </c>
-      <c r="ML15" s="5" t="inlineStr">
+      <c r="ML15" s="1" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="NC15" s="5" t="inlineStr">
+      <c r="NC15" s="1" t="inlineStr">
         <is>
           <t>艾艾精工</t>
         </is>
@@ -4423,22 +4441,22 @@
           <t>莱绅通灵</t>
         </is>
       </c>
-      <c r="MK16" s="5" t="inlineStr">
+      <c r="MK16" s="1" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="NB16" s="5" t="inlineStr">
+      <c r="NB16" s="1" t="inlineStr">
         <is>
           <t>艾艾精工</t>
         </is>
       </c>
-      <c r="NN16" s="5" t="inlineStr">
+      <c r="NN16" s="1" t="inlineStr">
         <is>
           <t>华生科技</t>
         </is>
       </c>
-      <c r="NT16" s="5" t="inlineStr">
+      <c r="NT16" s="1" t="inlineStr">
         <is>
           <t>莱绅通灵</t>
         </is>
@@ -4565,37 +4583,37 @@
           <t>莱绅通灵</t>
         </is>
       </c>
-      <c r="MJ17" s="5" t="inlineStr">
+      <c r="MJ17" s="1" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="MN17" s="5" t="inlineStr">
+      <c r="MN17" s="1" t="inlineStr">
         <is>
           <t>蓝科高新</t>
         </is>
       </c>
-      <c r="MO17" s="5" t="inlineStr">
+      <c r="MO17" s="1" t="inlineStr">
         <is>
           <t>睿能科技</t>
         </is>
       </c>
-      <c r="MP17" s="5" t="inlineStr">
+      <c r="MP17" s="1" t="inlineStr">
         <is>
           <t>国脉文化, 华扬联众</t>
         </is>
       </c>
-      <c r="NA17" s="5" t="inlineStr">
+      <c r="NA17" s="1" t="inlineStr">
         <is>
           <t>艾艾精工</t>
         </is>
       </c>
-      <c r="NM17" s="5" t="inlineStr">
+      <c r="NM17" s="1" t="inlineStr">
         <is>
           <t>华生科技</t>
         </is>
       </c>
-      <c r="NS17" s="5" t="inlineStr">
+      <c r="NS17" s="1" t="inlineStr">
         <is>
           <t>莱绅通灵</t>
         </is>
@@ -4812,59 +4830,64 @@
           <t>蔚蓝生物</t>
         </is>
       </c>
-      <c r="MI18" s="5" t="inlineStr">
+      <c r="MI18" s="1" t="inlineStr">
         <is>
           <t>克来机电</t>
         </is>
       </c>
-      <c r="MM18" s="5" t="inlineStr">
+      <c r="MM18" s="1" t="inlineStr">
         <is>
           <t>蓝科高新</t>
         </is>
       </c>
-      <c r="MN18" s="5" t="inlineStr">
+      <c r="MN18" s="1" t="inlineStr">
         <is>
           <t>睿能科技</t>
         </is>
       </c>
-      <c r="MO18" s="5" t="inlineStr">
+      <c r="MO18" s="1" t="inlineStr">
         <is>
           <t>国脉文化, 华扬联众</t>
         </is>
       </c>
-      <c r="MU18" s="5" t="inlineStr">
+      <c r="MU18" s="1" t="inlineStr">
         <is>
           <t>安奈儿</t>
         </is>
       </c>
-      <c r="MZ18" s="5" t="inlineStr">
+      <c r="MZ18" s="1" t="inlineStr">
         <is>
           <t>立航科技, 艾艾精工</t>
         </is>
       </c>
-      <c r="NL18" s="5" t="inlineStr">
+      <c r="NL18" s="1" t="inlineStr">
         <is>
           <t>华生科技</t>
         </is>
       </c>
-      <c r="NO18" s="5" t="inlineStr">
+      <c r="NO18" s="1" t="inlineStr">
         <is>
           <t>联明股份</t>
         </is>
       </c>
-      <c r="NR18" s="5" t="inlineStr">
+      <c r="NR18" s="1" t="inlineStr">
         <is>
           <t>莱绅通灵</t>
         </is>
       </c>
-      <c r="OC18" s="5" t="inlineStr">
+      <c r="OC18" s="1" t="inlineStr">
         <is>
           <t>中衡设计</t>
         </is>
       </c>
-      <c r="OJ18" s="5" t="inlineStr">
+      <c r="OJ18" s="1" t="inlineStr">
         <is>
           <t>蔚蓝生物</t>
+        </is>
+      </c>
+      <c r="PG18" s="5" t="inlineStr">
+        <is>
+          <t>协和电子</t>
         </is>
       </c>
     </row>
@@ -5194,84 +5217,89 @@
           <t>南京化纤</t>
         </is>
       </c>
-      <c r="ML19" s="5" t="inlineStr">
+      <c r="ML19" s="1" t="inlineStr">
         <is>
           <t>蓝科高新</t>
         </is>
       </c>
-      <c r="MM19" s="5" t="inlineStr">
+      <c r="MM19" s="1" t="inlineStr">
         <is>
           <t>二六三, 睿能科技</t>
         </is>
       </c>
-      <c r="MN19" s="5" t="inlineStr">
+      <c r="MN19" s="1" t="inlineStr">
         <is>
           <t>精伦电子, 信雅达, 国脉文化, 华扬联众</t>
         </is>
       </c>
-      <c r="MO19" s="5" t="inlineStr">
+      <c r="MO19" s="1" t="inlineStr">
         <is>
           <t>新纺退, 克劳斯</t>
         </is>
       </c>
-      <c r="MR19" s="5" t="inlineStr">
+      <c r="MR19" s="1" t="inlineStr">
         <is>
           <t>东方精工</t>
         </is>
       </c>
-      <c r="MT19" s="5" t="inlineStr">
+      <c r="MT19" s="1" t="inlineStr">
         <is>
           <t>安奈儿</t>
         </is>
       </c>
-      <c r="MU19" s="5" t="inlineStr">
+      <c r="MU19" s="1" t="inlineStr">
         <is>
           <t>天元智能</t>
         </is>
       </c>
-      <c r="MY19" s="5" t="inlineStr">
+      <c r="MY19" s="1" t="inlineStr">
         <is>
           <t>立航科技, 艾艾精工</t>
         </is>
       </c>
-      <c r="NK19" s="5" t="inlineStr">
+      <c r="NK19" s="1" t="inlineStr">
         <is>
           <t>华生科技</t>
         </is>
       </c>
-      <c r="NN19" s="5" t="inlineStr">
+      <c r="NN19" s="1" t="inlineStr">
         <is>
           <t>联明股份</t>
         </is>
       </c>
-      <c r="NQ19" s="5" t="inlineStr">
+      <c r="NQ19" s="1" t="inlineStr">
         <is>
           <t>莱绅通灵</t>
         </is>
       </c>
-      <c r="NY19" s="5" t="inlineStr">
+      <c r="NY19" s="1" t="inlineStr">
         <is>
           <t>同为股份, 春光科技</t>
         </is>
       </c>
-      <c r="OB19" s="5" t="inlineStr">
+      <c r="OB19" s="1" t="inlineStr">
         <is>
           <t>中衡设计</t>
         </is>
       </c>
-      <c r="OE19" s="5" t="inlineStr">
+      <c r="OE19" s="1" t="inlineStr">
         <is>
           <t>奥维通信</t>
         </is>
       </c>
-      <c r="OI19" s="5" t="inlineStr">
+      <c r="OI19" s="1" t="inlineStr">
         <is>
           <t>蔚蓝生物</t>
         </is>
       </c>
-      <c r="OP19" s="5" t="inlineStr">
+      <c r="OP19" s="1" t="inlineStr">
         <is>
           <t>南京化纤</t>
+        </is>
+      </c>
+      <c r="PF19" s="5" t="inlineStr">
+        <is>
+          <t>协和电子</t>
         </is>
       </c>
     </row>
@@ -5886,162 +5914,162 @@
           <t>协和电子</t>
         </is>
       </c>
-      <c r="MK20" s="5" t="inlineStr">
+      <c r="MK20" s="1" t="inlineStr">
         <is>
           <t>蓝科高新</t>
         </is>
       </c>
-      <c r="ML20" s="5" t="inlineStr">
+      <c r="ML20" s="1" t="inlineStr">
         <is>
           <t>二六三, 睿能科技</t>
         </is>
       </c>
-      <c r="MM20" s="5" t="inlineStr">
+      <c r="MM20" s="1" t="inlineStr">
         <is>
           <t>精伦电子, 信雅达, 国脉文化, 华扬联众</t>
         </is>
       </c>
-      <c r="MN20" s="5" t="inlineStr">
+      <c r="MN20" s="1" t="inlineStr">
         <is>
           <t>新纺退, 克劳斯</t>
         </is>
       </c>
-      <c r="MO20" s="5" t="inlineStr">
+      <c r="MO20" s="1" t="inlineStr">
         <is>
           <t>亚世光电</t>
         </is>
       </c>
-      <c r="MQ20" s="5" t="inlineStr">
+      <c r="MQ20" s="1" t="inlineStr">
         <is>
           <t>东方精工</t>
         </is>
       </c>
-      <c r="MS20" s="5" t="inlineStr">
+      <c r="MS20" s="1" t="inlineStr">
         <is>
           <t>安奈儿, 四川金顶</t>
         </is>
       </c>
-      <c r="MT20" s="5" t="inlineStr">
+      <c r="MT20" s="1" t="inlineStr">
         <is>
           <t>天元智能</t>
         </is>
       </c>
-      <c r="MU20" s="5" t="inlineStr">
+      <c r="MU20" s="1" t="inlineStr">
         <is>
           <t>福蓉科技</t>
         </is>
       </c>
-      <c r="MX20" s="5" t="inlineStr">
+      <c r="MX20" s="1" t="inlineStr">
         <is>
           <t>安彩高科, 立航科技, 艾艾精工</t>
         </is>
       </c>
-      <c r="NA20" s="5" t="inlineStr">
+      <c r="NA20" s="1" t="inlineStr">
         <is>
           <t>中电兴发</t>
         </is>
       </c>
-      <c r="NB20" s="5" t="inlineStr">
+      <c r="NB20" s="1" t="inlineStr">
         <is>
           <t>星光股份</t>
         </is>
       </c>
-      <c r="NE20" s="5" t="inlineStr">
+      <c r="NE20" s="1" t="inlineStr">
         <is>
           <t>宏达新材</t>
         </is>
       </c>
-      <c r="NG20" s="5" t="inlineStr">
+      <c r="NG20" s="1" t="inlineStr">
         <is>
           <t>动力新科</t>
         </is>
       </c>
-      <c r="NJ20" s="5" t="inlineStr">
+      <c r="NJ20" s="1" t="inlineStr">
         <is>
           <t>华生科技</t>
         </is>
       </c>
-      <c r="NK20" s="5" t="inlineStr">
+      <c r="NK20" s="1" t="inlineStr">
         <is>
           <t>爱丽家居, 亚振家居</t>
         </is>
       </c>
-      <c r="NM20" s="5" t="inlineStr">
+      <c r="NM20" s="1" t="inlineStr">
         <is>
           <t>联明股份</t>
         </is>
       </c>
-      <c r="NN20" s="5" t="inlineStr">
+      <c r="NN20" s="1" t="inlineStr">
         <is>
           <t>普路通, 华体科技</t>
         </is>
       </c>
-      <c r="NO20" s="5" t="inlineStr">
+      <c r="NO20" s="1" t="inlineStr">
         <is>
           <t>厦门信达, 三祥新材</t>
         </is>
       </c>
-      <c r="NP20" s="5" t="inlineStr">
+      <c r="NP20" s="1" t="inlineStr">
         <is>
           <t>世嘉科技, 莱绅通灵</t>
         </is>
       </c>
-      <c r="NR20" s="5" t="inlineStr">
+      <c r="NR20" s="1" t="inlineStr">
         <is>
           <t>中电电机</t>
         </is>
       </c>
-      <c r="NX20" s="5" t="inlineStr">
+      <c r="NX20" s="1" t="inlineStr">
         <is>
           <t>同为股份, 春光科技</t>
         </is>
       </c>
-      <c r="OA20" s="5" t="inlineStr">
+      <c r="OA20" s="1" t="inlineStr">
         <is>
           <t>中衡设计</t>
         </is>
       </c>
-      <c r="OD20" s="5" t="inlineStr">
+      <c r="OD20" s="1" t="inlineStr">
         <is>
           <t>奥维通信</t>
         </is>
       </c>
-      <c r="OG20" s="5" t="inlineStr">
+      <c r="OG20" s="1" t="inlineStr">
         <is>
           <t>南国置业</t>
         </is>
       </c>
-      <c r="OH20" s="5" t="inlineStr">
+      <c r="OH20" s="1" t="inlineStr">
         <is>
           <t>蔚蓝生物</t>
         </is>
       </c>
-      <c r="OJ20" s="5" t="inlineStr">
+      <c r="OJ20" s="1" t="inlineStr">
         <is>
           <t>百川股份</t>
         </is>
       </c>
-      <c r="OK20" s="5" t="inlineStr">
+      <c r="OK20" s="1" t="inlineStr">
         <is>
           <t>百合花</t>
         </is>
       </c>
-      <c r="OO20" s="5" t="inlineStr">
+      <c r="OO20" s="1" t="inlineStr">
         <is>
           <t>南京化纤</t>
         </is>
       </c>
-      <c r="OQ20" s="5" t="inlineStr">
+      <c r="OQ20" s="1" t="inlineStr">
         <is>
           <t>亚振家居</t>
         </is>
       </c>
-      <c r="OU20" s="5" t="inlineStr">
+      <c r="OU20" s="1" t="inlineStr">
         <is>
           <t>正虹科技</t>
         </is>
       </c>
-      <c r="PE20" s="5" t="inlineStr">
+      <c r="PE20" s="1" t="inlineStr">
         <is>
           <t>协和电子</t>
         </is>
@@ -7049,254 +7077,264 @@
           <t>协和电子</t>
         </is>
       </c>
-      <c r="MI21" s="5" t="inlineStr">
+      <c r="MI21" s="1" t="inlineStr">
         <is>
           <t>华天科技</t>
         </is>
       </c>
-      <c r="MJ21" s="5" t="inlineStr">
+      <c r="MJ21" s="1" t="inlineStr">
         <is>
           <t>蓝科高新</t>
         </is>
       </c>
-      <c r="MK21" s="5" t="inlineStr">
+      <c r="MK21" s="1" t="inlineStr">
         <is>
           <t>二六三, 中坚科技, 浙文影业, 睿能科技</t>
         </is>
       </c>
-      <c r="ML21" s="5" t="inlineStr">
+      <c r="ML21" s="1" t="inlineStr">
         <is>
           <t>魅视科技, 精伦电子, 信雅达, 国脉文化, 退市园城, 网达软件, 华扬联众</t>
         </is>
       </c>
-      <c r="MM21" s="5" t="inlineStr">
+      <c r="MM21" s="1" t="inlineStr">
         <is>
           <t>新纺退, 克劳斯</t>
         </is>
       </c>
-      <c r="MN21" s="5" t="inlineStr">
+      <c r="MN21" s="1" t="inlineStr">
         <is>
           <t>亚世光电, 合锻智能</t>
         </is>
       </c>
-      <c r="MO21" s="5" t="inlineStr">
+      <c r="MO21" s="1" t="inlineStr">
         <is>
           <t>日海智能, 爱仕达</t>
         </is>
       </c>
-      <c r="MP21" s="5" t="inlineStr">
+      <c r="MP21" s="1" t="inlineStr">
         <is>
           <t>东方精工, 博杰股份</t>
         </is>
       </c>
-      <c r="MQ21" s="5" t="inlineStr">
+      <c r="MQ21" s="1" t="inlineStr">
         <is>
           <t>天永智能</t>
         </is>
       </c>
-      <c r="MR21" s="5" t="inlineStr">
+      <c r="MR21" s="1" t="inlineStr">
         <is>
           <t>汇源通信, 安奈儿, 四川金顶</t>
         </is>
       </c>
-      <c r="MS21" s="5" t="inlineStr">
+      <c r="MS21" s="1" t="inlineStr">
         <is>
           <t>天元智能</t>
         </is>
       </c>
-      <c r="MT21" s="5" t="inlineStr">
+      <c r="MT21" s="1" t="inlineStr">
         <is>
           <t>福蓉科技</t>
         </is>
       </c>
-      <c r="MV21" s="5" t="inlineStr">
+      <c r="MV21" s="1" t="inlineStr">
         <is>
           <t>川润股份</t>
         </is>
       </c>
-      <c r="MW21" s="5" t="inlineStr">
+      <c r="MW21" s="1" t="inlineStr">
         <is>
           <t>安彩高科, 上海沪工, 立航科技, 艾艾精工</t>
         </is>
       </c>
-      <c r="MY21" s="5" t="inlineStr">
+      <c r="MY21" s="1" t="inlineStr">
         <is>
           <t>必得科技</t>
         </is>
       </c>
-      <c r="MZ21" s="5" t="inlineStr">
+      <c r="MZ21" s="1" t="inlineStr">
         <is>
           <t>中电兴发, 铭普光磁</t>
         </is>
       </c>
-      <c r="NA21" s="5" t="inlineStr">
+      <c r="NA21" s="1" t="inlineStr">
         <is>
           <t>星光股份</t>
         </is>
       </c>
-      <c r="ND21" s="5" t="inlineStr">
+      <c r="ND21" s="1" t="inlineStr">
         <is>
           <t>新大洲A, 宏达新材</t>
         </is>
       </c>
-      <c r="NE21" s="5" t="inlineStr">
+      <c r="NE21" s="1" t="inlineStr">
         <is>
           <t>电广传媒</t>
         </is>
       </c>
-      <c r="NF21" s="5" t="inlineStr">
+      <c r="NF21" s="1" t="inlineStr">
         <is>
           <t>贝瑞基因, 动力新科</t>
         </is>
       </c>
-      <c r="NI21" s="5" t="inlineStr">
+      <c r="NI21" s="1" t="inlineStr">
         <is>
           <t>青海华鼎, 华生科技</t>
         </is>
       </c>
-      <c r="NJ21" s="5" t="inlineStr">
+      <c r="NJ21" s="1" t="inlineStr">
         <is>
           <t>京投发展, 圣达生物, 爱丽家居, 亚振家居</t>
         </is>
       </c>
-      <c r="NL21" s="5" t="inlineStr">
+      <c r="NL21" s="1" t="inlineStr">
         <is>
           <t>联明股份</t>
         </is>
       </c>
-      <c r="NM21" s="5" t="inlineStr">
+      <c r="NM21" s="1" t="inlineStr">
         <is>
           <t>中信海直, 普路通, 华体科技</t>
         </is>
       </c>
-      <c r="NN21" s="5" t="inlineStr">
+      <c r="NN21" s="1" t="inlineStr">
         <is>
           <t>厦门信达, 三祥新材</t>
         </is>
       </c>
-      <c r="NO21" s="5" t="inlineStr">
+      <c r="NO21" s="1" t="inlineStr">
         <is>
           <t>世嘉科技, 莱绅通灵</t>
         </is>
       </c>
-      <c r="NQ21" s="5" t="inlineStr">
+      <c r="NQ21" s="1" t="inlineStr">
         <is>
           <t>中电电机</t>
         </is>
       </c>
-      <c r="NS21" s="5" t="inlineStr">
+      <c r="NS21" s="1" t="inlineStr">
         <is>
           <t>百通能源</t>
         </is>
       </c>
-      <c r="NU21" s="5" t="inlineStr">
+      <c r="NU21" s="1" t="inlineStr">
         <is>
           <t>建设机械</t>
         </is>
       </c>
-      <c r="NW21" s="5" t="inlineStr">
+      <c r="NW21" s="1" t="inlineStr">
         <is>
           <t>同为股份, 春光科技</t>
         </is>
       </c>
-      <c r="NX21" s="5" t="inlineStr">
+      <c r="NX21" s="1" t="inlineStr">
         <is>
           <t>中公高科</t>
         </is>
       </c>
-      <c r="NZ21" s="5" t="inlineStr">
+      <c r="NZ21" s="1" t="inlineStr">
         <is>
           <t>中衡设计, 威奥股份</t>
         </is>
       </c>
-      <c r="OC21" s="5" t="inlineStr">
+      <c r="OC21" s="1" t="inlineStr">
         <is>
           <t>亚太实业, 奥维通信</t>
         </is>
       </c>
-      <c r="OD21" s="5" t="inlineStr">
+      <c r="OD21" s="1" t="inlineStr">
         <is>
           <t>惠天热电</t>
         </is>
       </c>
-      <c r="OE21" s="5" t="inlineStr">
+      <c r="OE21" s="1" t="inlineStr">
         <is>
           <t>川大智胜</t>
         </is>
       </c>
-      <c r="OF21" s="5" t="inlineStr">
+      <c r="OF21" s="1" t="inlineStr">
         <is>
           <t>南国置业</t>
         </is>
       </c>
-      <c r="OG21" s="5" t="inlineStr">
+      <c r="OG21" s="1" t="inlineStr">
         <is>
           <t>蔚蓝生物</t>
         </is>
       </c>
-      <c r="OI21" s="5" t="inlineStr">
+      <c r="OI21" s="1" t="inlineStr">
         <is>
           <t>百川股份, 兴业股份</t>
         </is>
       </c>
-      <c r="OJ21" s="5" t="inlineStr">
+      <c r="OJ21" s="1" t="inlineStr">
         <is>
           <t>百合花</t>
         </is>
       </c>
-      <c r="OK21" s="5" t="inlineStr">
+      <c r="OK21" s="1" t="inlineStr">
         <is>
           <t>济民医疗</t>
         </is>
       </c>
-      <c r="OM21" s="5" t="inlineStr">
+      <c r="OM21" s="1" t="inlineStr">
         <is>
           <t>积成电子</t>
         </is>
       </c>
-      <c r="ON21" s="5" t="inlineStr">
+      <c r="ON21" s="1" t="inlineStr">
         <is>
           <t>南京化纤</t>
         </is>
       </c>
-      <c r="OP21" s="5" t="inlineStr">
+      <c r="OP21" s="1" t="inlineStr">
         <is>
           <t>亚振家居</t>
         </is>
       </c>
-      <c r="OS21" s="5" t="inlineStr">
+      <c r="OS21" s="1" t="inlineStr">
         <is>
           <t>金瑞矿业</t>
         </is>
       </c>
-      <c r="OT21" s="5" t="inlineStr">
+      <c r="OT21" s="1" t="inlineStr">
         <is>
           <t>正虹科技</t>
         </is>
       </c>
-      <c r="OU21" s="5" t="inlineStr">
+      <c r="OU21" s="1" t="inlineStr">
         <is>
           <t>新华联</t>
         </is>
       </c>
-      <c r="OX21" s="5" t="inlineStr">
+      <c r="OX21" s="1" t="inlineStr">
         <is>
           <t>郴电国际</t>
         </is>
       </c>
-      <c r="OZ21" s="5" t="inlineStr">
+      <c r="OZ21" s="1" t="inlineStr">
         <is>
           <t>航天晨光</t>
         </is>
       </c>
-      <c r="PB21" s="5" t="inlineStr">
+      <c r="PB21" s="1" t="inlineStr">
         <is>
           <t>申华控股</t>
         </is>
       </c>
-      <c r="PD21" s="5" t="inlineStr">
+      <c r="PD21" s="1" t="inlineStr">
         <is>
           <t>协和电子</t>
+        </is>
+      </c>
+      <c r="PF21" s="5" t="inlineStr">
+        <is>
+          <t>中晶科技</t>
+        </is>
+      </c>
+      <c r="PH21" s="5" t="inlineStr">
+        <is>
+          <t>华闻集团, 国风新材</t>
         </is>
       </c>
     </row>
@@ -8672,319 +8710,329 @@
           <t>开普检测, 中晶科技</t>
         </is>
       </c>
-      <c r="MI22" s="5" t="inlineStr">
+      <c r="MI22" s="1" t="inlineStr">
         <is>
           <t>蓝科高新, 哈森股份</t>
         </is>
       </c>
-      <c r="MJ22" s="5" t="inlineStr">
+      <c r="MJ22" s="1" t="inlineStr">
         <is>
           <t>高新发展, 好上好, 禾盛新材, 二六三, 中坚科技, 光大嘉宝, 浙文影业, 赛福天, 电魂网络, 淳中科技, 睿能科技, 松霖科技, 新炬网络</t>
         </is>
       </c>
-      <c r="MK22" s="5" t="inlineStr">
+      <c r="MK22" s="1" t="inlineStr">
         <is>
           <t>荣丰控股, 魅视科技, 精伦电子, 信雅达, 汇通能源, 国脉文化, 退市同达, 退市园城, 网达软件, 华扬联众</t>
         </is>
       </c>
-      <c r="ML22" s="5" t="inlineStr">
+      <c r="ML22" s="1" t="inlineStr">
         <is>
           <t>新纺退, 克劳斯</t>
         </is>
       </c>
-      <c r="MM22" s="5" t="inlineStr">
+      <c r="MM22" s="1" t="inlineStr">
         <is>
           <t>亚世光电, 合锻智能</t>
         </is>
       </c>
-      <c r="MN22" s="5" t="inlineStr">
+      <c r="MN22" s="1" t="inlineStr">
         <is>
           <t>美利云, 日海智能, 爱仕达, 卓朗科技</t>
         </is>
       </c>
-      <c r="MO22" s="5" t="inlineStr">
+      <c r="MO22" s="1" t="inlineStr">
         <is>
           <t>日发精机, 东方精工, 博杰股份</t>
         </is>
       </c>
-      <c r="MP22" s="5" t="inlineStr">
+      <c r="MP22" s="1" t="inlineStr">
         <is>
           <t>亚联发展, 标准股份, 天永智能</t>
         </is>
       </c>
-      <c r="MQ22" s="5" t="inlineStr">
+      <c r="MQ22" s="1" t="inlineStr">
         <is>
           <t>汇源通信, 安奈儿, 四川金顶</t>
         </is>
       </c>
-      <c r="MR22" s="5" t="inlineStr">
+      <c r="MR22" s="1" t="inlineStr">
         <is>
           <t>达意隆, 天元智能, 康普顿</t>
         </is>
       </c>
-      <c r="MS22" s="5" t="inlineStr">
+      <c r="MS22" s="1" t="inlineStr">
         <is>
           <t>光迅科技, 康盛股份, 高斯贝尔, 福蓉科技</t>
         </is>
       </c>
-      <c r="MT22" s="5" t="inlineStr">
+      <c r="MT22" s="1" t="inlineStr">
         <is>
           <t>卓翼科技</t>
         </is>
       </c>
-      <c r="MU22" s="5" t="inlineStr">
+      <c r="MU22" s="1" t="inlineStr">
         <is>
           <t>新华联, 川润股份, 润都股份</t>
         </is>
       </c>
-      <c r="MV22" s="5" t="inlineStr">
+      <c r="MV22" s="1" t="inlineStr">
         <is>
           <t>好上好, 安彩高科, 大连圣亚, 上海沪工, 立航科技, 艾艾精工</t>
         </is>
       </c>
-      <c r="MW22" s="5" t="inlineStr">
+      <c r="MW22" s="1" t="inlineStr">
         <is>
           <t>华阳新材</t>
         </is>
       </c>
-      <c r="MX22" s="5" t="inlineStr">
+      <c r="MX22" s="1" t="inlineStr">
         <is>
           <t>神州高铁, 三晖电气, 必得科技</t>
         </is>
       </c>
-      <c r="MY22" s="5" t="inlineStr">
+      <c r="MY22" s="1" t="inlineStr">
         <is>
           <t>中电兴发, 日海智能, 高德红外, 新天药业, 铭普光磁</t>
         </is>
       </c>
-      <c r="MZ22" s="5" t="inlineStr">
+      <c r="MZ22" s="1" t="inlineStr">
         <is>
           <t>星光股份, 普天科技, 英联股份, 掌阅科技</t>
         </is>
       </c>
-      <c r="NC22" s="5" t="inlineStr">
+      <c r="NC22" s="1" t="inlineStr">
         <is>
           <t>新大洲A, 宏达新材, 合锻智能, 越剑智能</t>
         </is>
       </c>
-      <c r="ND22" s="5" t="inlineStr">
+      <c r="ND22" s="1" t="inlineStr">
         <is>
           <t>电广传媒</t>
         </is>
       </c>
-      <c r="NE22" s="5" t="inlineStr">
+      <c r="NE22" s="1" t="inlineStr">
         <is>
           <t>贝瑞基因, 动力新科, 福蓉科技, 塞力医疗</t>
         </is>
       </c>
-      <c r="NF22" s="5" t="inlineStr">
+      <c r="NF22" s="1" t="inlineStr">
         <is>
           <t>新亚电子</t>
         </is>
       </c>
-      <c r="NG22" s="5" t="inlineStr">
+      <c r="NG22" s="1" t="inlineStr">
         <is>
           <t>沃尔核材, 掌阅科技, 中广天择</t>
         </is>
       </c>
-      <c r="NH22" s="5" t="inlineStr">
+      <c r="NH22" s="1" t="inlineStr">
         <is>
           <t>王子新材, 青海华鼎, 翔港科技, 华生科技</t>
         </is>
       </c>
-      <c r="NI22" s="5" t="inlineStr">
+      <c r="NI22" s="1" t="inlineStr">
         <is>
           <t>京投发展, 圣达生物, 爱丽家居, 亚振家居, 安德利</t>
         </is>
       </c>
-      <c r="NJ22" s="5" t="inlineStr">
+      <c r="NJ22" s="1" t="inlineStr">
         <is>
           <t>科森科技</t>
         </is>
       </c>
-      <c r="NK22" s="5" t="inlineStr">
+      <c r="NK22" s="1" t="inlineStr">
         <is>
           <t>联明股份, 丰山集团</t>
         </is>
       </c>
-      <c r="NL22" s="5" t="inlineStr">
+      <c r="NL22" s="1" t="inlineStr">
         <is>
           <t>中信海直, 普路通, 华体科技</t>
         </is>
       </c>
-      <c r="NM22" s="5" t="inlineStr">
+      <c r="NM22" s="1" t="inlineStr">
         <is>
           <t>厦门信达, 豪尔赛, 退市同达, 三祥新材</t>
         </is>
       </c>
-      <c r="NN22" s="5" t="inlineStr">
+      <c r="NN22" s="1" t="inlineStr">
         <is>
           <t>世嘉科技, 开创国际, 正平股份, 莱绅通灵</t>
         </is>
       </c>
-      <c r="NO22" s="5" t="inlineStr">
+      <c r="NO22" s="1" t="inlineStr">
         <is>
           <t>万丰股份</t>
         </is>
       </c>
-      <c r="NP22" s="5" t="inlineStr">
+      <c r="NP22" s="1" t="inlineStr">
         <is>
           <t>准油股份, 中电电机</t>
         </is>
       </c>
-      <c r="NR22" s="5" t="inlineStr">
+      <c r="NR22" s="1" t="inlineStr">
         <is>
           <t>百通能源</t>
         </is>
       </c>
-      <c r="NS22" s="5" t="inlineStr">
+      <c r="NS22" s="1" t="inlineStr">
         <is>
           <t>博迁新材</t>
         </is>
       </c>
-      <c r="NT22" s="5" t="inlineStr">
+      <c r="NT22" s="1" t="inlineStr">
         <is>
           <t>宁波中百, 建设机械</t>
         </is>
       </c>
-      <c r="NV22" s="5" t="inlineStr">
+      <c r="NV22" s="1" t="inlineStr">
         <is>
           <t>同为股份, 春光科技</t>
         </is>
       </c>
-      <c r="NW22" s="5" t="inlineStr">
+      <c r="NW22" s="1" t="inlineStr">
         <is>
           <t>哈三联, 中公高科</t>
         </is>
       </c>
-      <c r="NX22" s="5" t="inlineStr">
+      <c r="NX22" s="1" t="inlineStr">
         <is>
           <t>建研院</t>
         </is>
       </c>
-      <c r="NY22" s="5" t="inlineStr">
+      <c r="NY22" s="1" t="inlineStr">
         <is>
           <t>中信海直, 万安科技, 中衡设计, 威奥股份</t>
         </is>
       </c>
-      <c r="OB22" s="5" t="inlineStr">
+      <c r="OB22" s="1" t="inlineStr">
         <is>
           <t>亚太实业, 奥维通信</t>
         </is>
       </c>
-      <c r="OC22" s="5" t="inlineStr">
+      <c r="OC22" s="1" t="inlineStr">
         <is>
           <t>惠天热电</t>
         </is>
       </c>
-      <c r="OD22" s="5" t="inlineStr">
+      <c r="OD22" s="1" t="inlineStr">
         <is>
           <t>川大智胜, 西藏旅游</t>
         </is>
       </c>
-      <c r="OE22" s="5" t="inlineStr">
+      <c r="OE22" s="1" t="inlineStr">
         <is>
           <t>南国置业, 鲁北化工</t>
         </is>
       </c>
-      <c r="OF22" s="5" t="inlineStr">
+      <c r="OF22" s="1" t="inlineStr">
         <is>
           <t>国盛金控, 格尔软件, 蔚蓝生物</t>
         </is>
       </c>
-      <c r="OG22" s="5" t="inlineStr">
+      <c r="OG22" s="1" t="inlineStr">
         <is>
           <t>华远地产</t>
         </is>
       </c>
-      <c r="OH22" s="5" t="inlineStr">
+      <c r="OH22" s="1" t="inlineStr">
         <is>
           <t>百川股份, 高争民爆, 艾艾精工, 兴业股份</t>
         </is>
       </c>
-      <c r="OI22" s="5" t="inlineStr">
+      <c r="OI22" s="1" t="inlineStr">
         <is>
           <t>百合花</t>
         </is>
       </c>
-      <c r="OJ22" s="5" t="inlineStr">
+      <c r="OJ22" s="1" t="inlineStr">
         <is>
           <t>四创电子, 济民医疗</t>
         </is>
       </c>
-      <c r="OL22" s="5" t="inlineStr">
+      <c r="OL22" s="1" t="inlineStr">
         <is>
           <t>积成电子, 南都物业</t>
         </is>
       </c>
-      <c r="OM22" s="5" t="inlineStr">
+      <c r="OM22" s="1" t="inlineStr">
         <is>
           <t>明星电力, 西昌电力, 南京化纤</t>
         </is>
       </c>
-      <c r="OO22" s="5" t="inlineStr">
+      <c r="OO22" s="1" t="inlineStr">
         <is>
           <t>建艺集团, 亚振家居</t>
         </is>
       </c>
-      <c r="OP22" s="5" t="inlineStr">
+      <c r="OP22" s="1" t="inlineStr">
         <is>
           <t>天地源, 三棵树</t>
         </is>
       </c>
-      <c r="OQ22" s="5" t="inlineStr">
+      <c r="OQ22" s="1" t="inlineStr">
         <is>
           <t>我爱我家, 园林股份</t>
         </is>
       </c>
-      <c r="OR22" s="5" t="inlineStr">
+      <c r="OR22" s="1" t="inlineStr">
         <is>
           <t>金瑞矿业, 沃格光电</t>
         </is>
       </c>
-      <c r="OS22" s="5" t="inlineStr">
+      <c r="OS22" s="1" t="inlineStr">
         <is>
           <t>正虹科技, 汇绿生态</t>
         </is>
       </c>
-      <c r="OT22" s="5" t="inlineStr">
+      <c r="OT22" s="1" t="inlineStr">
         <is>
           <t>渝开发, 新华联</t>
         </is>
       </c>
-      <c r="OV22" s="5" t="inlineStr">
+      <c r="OV22" s="1" t="inlineStr">
         <is>
           <t>万方发展</t>
         </is>
       </c>
-      <c r="OW22" s="5" t="inlineStr">
+      <c r="OW22" s="1" t="inlineStr">
         <is>
           <t>大连热电, 郴电国际, 博通集成</t>
         </is>
       </c>
-      <c r="OX22" s="5" t="inlineStr">
+      <c r="OX22" s="1" t="inlineStr">
         <is>
           <t>华钰矿业</t>
         </is>
       </c>
-      <c r="OY22" s="5" t="inlineStr">
+      <c r="OY22" s="1" t="inlineStr">
         <is>
           <t>航天晨光</t>
         </is>
       </c>
-      <c r="PA22" s="5" t="inlineStr">
+      <c r="PA22" s="1" t="inlineStr">
         <is>
           <t>申华控股, 贵广网络</t>
         </is>
       </c>
-      <c r="PC22" s="5" t="inlineStr">
+      <c r="PC22" s="1" t="inlineStr">
         <is>
           <t>协和电子</t>
         </is>
       </c>
-      <c r="PE22" s="5" t="inlineStr">
+      <c r="PE22" s="1" t="inlineStr">
         <is>
           <t>开普检测, 中晶科技</t>
+        </is>
+      </c>
+      <c r="PG22" s="5" t="inlineStr">
+        <is>
+          <t>华闻集团, 国风新材</t>
+        </is>
+      </c>
+      <c r="PH22" s="5" t="inlineStr">
+        <is>
+          <t>好上好</t>
         </is>
       </c>
     </row>
@@ -10684,379 +10732,394 @@
           <t>赫美集团, 宁波富达</t>
         </is>
       </c>
-      <c r="MI23" s="5" t="inlineStr">
+      <c r="MI23" s="1" t="inlineStr">
         <is>
           <t>深纺织A, 南华生物, 供销大集, 高新发展, 美利云, 联科科技, 好上好, 亿道信息, 智微智能, 三特索道, 东方智造, 川润股份, 禾盛新材, 辉煌科技, 科远智慧, 二六三, 榕基软件, 捷顺科技, 金安国纪, 荣联科技, 好利科技, 南兴股份, 中坚科技, 通宇通讯, 世嘉科技, 泰嘉股份, 威星智能, 伟隆股份, 智能自控, 英派斯, 中新赛克, 华阳国际, 五方光电, 锐明技术, 豪美新材, 顺博合金, 开普检测, 中信尼雅, 城市传媒, 大恒科技, 安泰集团, 卓郎智能, 光大嘉宝, 金瑞矿业, 中路股份, 兰生股份, 浙文影业, 弘讯科技, 赛福天, 美思德, 大丰实业, 华正新材, 电魂网络, 迪贝电气, 日出东方, 淳中科技, 君禾股份, 利通电子, 天安新材, 嘉澳环保, 春秋电子, 睿能科技, 建业股份, 松霖科技, 联德股份, 明新旭腾, 神通科技, 协和电子, 新炬网络</t>
         </is>
       </c>
-      <c r="MJ23" s="5" t="inlineStr">
+      <c r="MJ23" s="1" t="inlineStr">
         <is>
           <t>荣丰控股, 魅视科技, 鸿博股份, 汉王科技, 万润科技, 真视通, 竞业达, 金花股份, 精伦电子, 空港股份, 信雅达, 汇通能源, 国脉文化, 退市同达, 昂立教育, 退市园城, 华立股份, 北自科技, 网达软件, 翔港科技, 掌阅科技, 引力传媒, 茶花股份, 苏州科达, 中广天择, 龙韵股份, 华扬联众, 新华网</t>
         </is>
       </c>
-      <c r="MK23" s="5" t="inlineStr">
+      <c r="MK23" s="1" t="inlineStr">
         <is>
           <t>深中华A, 新纺退, 普路通, 克劳斯</t>
         </is>
       </c>
-      <c r="ML23" s="5" t="inlineStr">
+      <c r="ML23" s="1" t="inlineStr">
         <is>
           <t>中科金财, 建艺集团, 亚世光电, 合锻智能, 合力科技</t>
         </is>
       </c>
-      <c r="MM23" s="5" t="inlineStr">
+      <c r="MM23" s="1" t="inlineStr">
         <is>
           <t>高新发展, 中南股份, 美利云, 日海智能, 爱仕达, 卓朗科技, 云赛智联, 鹿山新材, 淳中科技, 麦迪科技</t>
         </is>
       </c>
-      <c r="MN23" s="5" t="inlineStr">
+      <c r="MN23" s="1" t="inlineStr">
         <is>
           <t>宝塔实业, 宁波东力, 日发精机, 奥拓电子, 东方精工, 博杰股份, 北自科技, 瑞斯康达</t>
         </is>
       </c>
-      <c r="MO23" s="5" t="inlineStr">
+      <c r="MO23" s="1" t="inlineStr">
         <is>
           <t>皇庭国际, 珠海中富, 天奇股份, 华东数控, 亚联发展, 南方精工, 华东重机, 东方嘉盛, 标准股份, 退市商城, 渤海汽车, 音飞储存, 康尼机电, 日盈电子, 天永智能</t>
         </is>
       </c>
-      <c r="MP23" s="5" t="inlineStr">
+      <c r="MP23" s="1" t="inlineStr">
         <is>
           <t>汇源通信, 众生药业, 安奈儿, 四川金顶, 西上海</t>
         </is>
       </c>
-      <c r="MQ23" s="5" t="inlineStr">
+      <c r="MQ23" s="1" t="inlineStr">
         <is>
           <t>达意隆, 东易日盛, 九鼎投资, 华资实业, 京城股份, 神驰机电, 天元智能, 康普顿</t>
         </is>
       </c>
-      <c r="MR23" s="5" t="inlineStr">
+      <c r="MR23" s="1" t="inlineStr">
         <is>
           <t>美锦能源, 紫光股份, 威尔泰, 新纺退, 纳思达, 宏达新材, 光迅科技, 爱仕达, 康盛股份, 雄韬股份, 高斯贝尔, 宇晶股份, 全柴动力, 张江高科, 柏诚股份, 华立股份, 可川科技, 福蓉科技, 京华激光</t>
         </is>
       </c>
-      <c r="MS23" s="5" t="inlineStr">
+      <c r="MS23" s="1" t="inlineStr">
         <is>
           <t>卓翼科技, 美格智能, 城市传媒, 上海电影, 宏和科技, 思维列控, 苏州科达</t>
         </is>
       </c>
-      <c r="MT23" s="5" t="inlineStr">
+      <c r="MT23" s="1" t="inlineStr">
         <is>
           <t>新华联, 高新发展, 川润股份, 道明光学, 智能自控, 润都股份, 汉商集团, 中广天择, 时空科技</t>
         </is>
       </c>
-      <c r="MU23" s="5" t="inlineStr">
+      <c r="MU23" s="1" t="inlineStr">
         <is>
           <t>好上好, 红宝丽, 安彩高科, 大连圣亚, 上海沪工, 立航科技, 艾艾精工</t>
         </is>
       </c>
-      <c r="MV23" s="5" t="inlineStr">
+      <c r="MV23" s="1" t="inlineStr">
         <is>
           <t>天奇股份, 竞业达, 华阳新材, 金自天正, 海汽集团</t>
         </is>
       </c>
-      <c r="MW23" s="5" t="inlineStr">
+      <c r="MW23" s="1" t="inlineStr">
         <is>
           <t>神州高铁, 华菱线缆, 洪兴股份, 长青科技, 三晖电气, 思维列控, 必得科技</t>
         </is>
       </c>
-      <c r="MX23" s="5" t="inlineStr">
+      <c r="MX23" s="1" t="inlineStr">
         <is>
           <t>光迅科技, 中电兴发, 日海智能, 高德红外, 盛通股份, 道明光学, 文科股份, 新天药业, 铭普光磁, 中路股份, 耀皮玻璃, 淳中科技, 国晟科技, 德业股份</t>
         </is>
       </c>
-      <c r="MY23" s="5" t="inlineStr">
+      <c r="MY23" s="1" t="inlineStr">
         <is>
           <t>中洲控股, 星光股份, 万丰奥威, 普天科技, 天际股份, 英联股份, 时代万恒, 上工申贝, 退市碳元, 掌阅科技</t>
         </is>
       </c>
-      <c r="MZ23" s="5" t="inlineStr">
+      <c r="MZ23" s="1" t="inlineStr">
         <is>
           <t>中信海直, 凯撒文化, 榕基软件, 明牌珠宝, 济南高新, 英利汽车</t>
         </is>
       </c>
-      <c r="NA23" s="5" t="inlineStr">
+      <c r="NA23" s="1" t="inlineStr">
         <is>
           <t>魅视科技, 罗欣药业, 东安动力</t>
         </is>
       </c>
-      <c r="NB23" s="5" t="inlineStr">
+      <c r="NB23" s="1" t="inlineStr">
         <is>
           <t>新大洲A, 北方铜业, 财信发展, 宏达新材, 华宏科技, 三夫户外, 郑中设计, 赛隆药业, 合锻智能, 越剑智能, 富佳股份, 亚振家居, 恒盛能源</t>
         </is>
       </c>
-      <c r="NC23" s="5" t="inlineStr">
+      <c r="NC23" s="1" t="inlineStr">
         <is>
           <t>电广传媒, 万丰奥威, 中光学, 泰尔股份, 声迅股份, 东风汽车, 华嵘控股, 国芳集团, 怡球资源, 恒银科技, 诚邦股份</t>
         </is>
       </c>
-      <c r="ND23" s="5" t="inlineStr">
+      <c r="ND23" s="1" t="inlineStr">
         <is>
           <t>贝瑞基因, 方正电机, 瀛通通讯, 宸展光电, 动力新科, 福蓉科技, 塞力医疗</t>
         </is>
       </c>
-      <c r="NE23" s="5" t="inlineStr">
+      <c r="NE23" s="1" t="inlineStr">
         <is>
           <t>甘肃能源, 四川九洲, 依依股份, 得润电子, 辉丰股份, 维科技术, 海鸥股份, 安邦护卫, 盛景微, 再升科技, 新亚电子</t>
         </is>
       </c>
-      <c r="NF23" s="5" t="inlineStr">
+      <c r="NF23" s="1" t="inlineStr">
         <is>
           <t>德明利, 沃尔核材, 北纬科技, 威创股份, 实丰文化, 伟隆股份, 卧龙电驱, 设计总院, 掌阅科技, 中广天择, 咸亨国际</t>
         </is>
       </c>
-      <c r="NG23" s="5" t="inlineStr">
+      <c r="NG23" s="1" t="inlineStr">
         <is>
           <t>大为股份, 南方精工, 王子新材, 青海华鼎, 博威合金, 翔港科技, 华生科技</t>
         </is>
       </c>
-      <c r="NH23" s="5" t="inlineStr">
+      <c r="NH23" s="1" t="inlineStr">
         <is>
           <t>康达新材, 精达股份, 京投发展, 圣达生物, 爱丽家居, 亚振家居, 安德利</t>
         </is>
       </c>
-      <c r="NI23" s="5" t="inlineStr">
+      <c r="NI23" s="1" t="inlineStr">
         <is>
           <t>物产金轮, 创新新材, 建设机械, 凯众股份, 宏和科技, 科森科技</t>
         </is>
       </c>
-      <c r="NJ23" s="5" t="inlineStr">
+      <c r="NJ23" s="1" t="inlineStr">
         <is>
           <t>兴欣新材, 科瑞技术, 联明股份, 安邦护卫, 丰山集团</t>
         </is>
       </c>
-      <c r="NK23" s="5" t="inlineStr">
+      <c r="NK23" s="1" t="inlineStr">
         <is>
           <t>中信海直, 顺威股份, 普路通, 华体科技, 新中港</t>
         </is>
       </c>
-      <c r="NL23" s="5" t="inlineStr">
+      <c r="NL23" s="1" t="inlineStr">
         <is>
           <t>厦门信达, 宗申动力, 通宇通讯, 豪尔赛, 天禾股份, 退市同达, 亚泰集团, 永吉股份, 三祥新材</t>
         </is>
       </c>
-      <c r="NM23" s="5" t="inlineStr">
+      <c r="NM23" s="1" t="inlineStr">
         <is>
           <t>中晟高科, 世嘉科技, 开创国际, 退市园城, 众源新材, 正平股份, 莱绅通灵, 铁流股份, 盛泰集团, 安德利</t>
         </is>
       </c>
-      <c r="NN23" s="5" t="inlineStr">
+      <c r="NN23" s="1" t="inlineStr">
         <is>
           <t>翔腾新材, 精艺股份, 空港股份, 安阳钢铁, 万丰股份, 亚邦股份, 雅运股份, 冠盛股份</t>
         </is>
       </c>
-      <c r="NO23" s="5" t="inlineStr">
+      <c r="NO23" s="1" t="inlineStr">
         <is>
           <t>北方铜业, 博菲电气, 美能能源, 准油股份, 华阳新材, 中创物流, 中电电机, 福莱新材</t>
         </is>
       </c>
-      <c r="NP23" s="5" t="inlineStr">
+      <c r="NP23" s="1" t="inlineStr">
         <is>
           <t>山高环能, 海欣食品, 白银有色, 一鸣食品</t>
         </is>
       </c>
-      <c r="NQ23" s="5" t="inlineStr">
+      <c r="NQ23" s="1" t="inlineStr">
         <is>
           <t>平安电工, 百通能源, 大名城</t>
         </is>
       </c>
-      <c r="NR23" s="5" t="inlineStr">
+      <c r="NR23" s="1" t="inlineStr">
         <is>
           <t>利民股份, 三祥新材, 博迁新材</t>
         </is>
       </c>
-      <c r="NS23" s="5" t="inlineStr">
+      <c r="NS23" s="1" t="inlineStr">
         <is>
           <t>宁波中百, 建设机械, 天洋新材, 华达科技</t>
         </is>
       </c>
-      <c r="NT23" s="5" t="inlineStr">
+      <c r="NT23" s="1" t="inlineStr">
         <is>
           <t>峨眉山A, 永达股份, 百川股份, 厦工股份, 中国西电, 原尚股份</t>
         </is>
       </c>
-      <c r="NU23" s="5" t="inlineStr">
+      <c r="NU23" s="1" t="inlineStr">
         <is>
           <t>同为股份, 春光科技</t>
         </is>
       </c>
-      <c r="NV23" s="5" t="inlineStr">
+      <c r="NV23" s="1" t="inlineStr">
         <is>
           <t>哈三联, 中公高科</t>
         </is>
       </c>
-      <c r="NW23" s="5" t="inlineStr">
+      <c r="NW23" s="1" t="inlineStr">
         <is>
           <t>赣能股份, 建研院, 荣泰健康</t>
         </is>
       </c>
-      <c r="NX23" s="5" t="inlineStr">
+      <c r="NX23" s="1" t="inlineStr">
         <is>
           <t>中信海直, 钱江摩托, 软控股份, 万安科技, 金龙羽, 福日电子, 北方股份, 丽尚国潮, 中衡设计, 乐惠国际, 科华控股, 金海高科, 设计总院, 白云电器, 睿能科技, 威奥股份</t>
         </is>
       </c>
-      <c r="NY23" s="5" t="inlineStr">
+      <c r="NY23" s="1" t="inlineStr">
         <is>
           <t>凤凰航运</t>
         </is>
       </c>
-      <c r="NZ23" s="5" t="inlineStr">
+      <c r="NZ23" s="1" t="inlineStr">
         <is>
           <t>神开股份, 辉煌科技</t>
         </is>
       </c>
-      <c r="OA23" s="5" t="inlineStr">
+      <c r="OA23" s="1" t="inlineStr">
         <is>
           <t>亚太实业, 利仁科技, 奥维通信, 航天长峰, 四创电子, 乐惠国际, 展鹏科技</t>
         </is>
       </c>
-      <c r="OB23" s="5" t="inlineStr">
+      <c r="OB23" s="1" t="inlineStr">
         <is>
           <t>惠天热电, 万安科技</t>
         </is>
       </c>
-      <c r="OC23" s="5" t="inlineStr">
+      <c r="OC23" s="1" t="inlineStr">
         <is>
           <t>万丰奥威, 川大智胜, 威创股份, 西藏旅游, 东方环宇</t>
         </is>
       </c>
-      <c r="OD23" s="5" t="inlineStr">
+      <c r="OD23" s="1" t="inlineStr">
         <is>
           <t>南国置业, 鲁北化工, 亚邦股份</t>
         </is>
       </c>
-      <c r="OE23" s="5" t="inlineStr">
+      <c r="OE23" s="1" t="inlineStr">
         <is>
           <t>华金资本, 神州信息, 我爱我家, 鹏都农牧, 国盛金控, 吉大正元, 大名城, 太平洋, 东方材料, 格尔软件, 蔚蓝生物</t>
         </is>
       </c>
-      <c r="OF23" s="5" t="inlineStr">
+      <c r="OF23" s="1" t="inlineStr">
         <is>
           <t>天保基建, 荣盛发展, 思美传媒, 路畅科技, 凯中精密, 华远地产, 京能置业, 国联股份, 豪能股份</t>
         </is>
       </c>
-      <c r="OG23" s="5" t="inlineStr">
+      <c r="OG23" s="1" t="inlineStr">
         <is>
           <t>播恩集团, 百川股份, 高争民爆, 西藏天路, 鲁抗医药, 圣达生物, 金海高科, 艾艾精工, 兴业股份</t>
         </is>
       </c>
-      <c r="OH23" s="5" t="inlineStr">
+      <c r="OH23" s="1" t="inlineStr">
         <is>
           <t>广济药业, 保利联合, 永和智控, 金牛化工, 百合花</t>
         </is>
       </c>
-      <c r="OI23" s="5" t="inlineStr">
+      <c r="OI23" s="1" t="inlineStr">
         <is>
           <t>湖北宜化, 钱江生化, 四创电子, 济民医疗</t>
         </is>
       </c>
-      <c r="OJ23" s="5" t="inlineStr">
+      <c r="OJ23" s="1" t="inlineStr">
         <is>
           <t>南华生物, 四环生物, 中源协和, 南京新百, 汉商集团, 星湖科技</t>
         </is>
       </c>
-      <c r="OK23" s="5" t="inlineStr">
+      <c r="OK23" s="1" t="inlineStr">
         <is>
           <t>星光股份, 积成电子, 南都物业</t>
         </is>
       </c>
-      <c r="OL23" s="5" t="inlineStr">
+      <c r="OL23" s="1" t="inlineStr">
         <is>
           <t>播恩集团, 泰永长征, 明星电力, 西昌电力, 乐山电力, 南京化纤, 嘉华股份</t>
         </is>
       </c>
-      <c r="OM23" s="5" t="inlineStr">
+      <c r="OM23" s="1" t="inlineStr">
         <is>
           <t>中通客车, 声迅股份</t>
         </is>
       </c>
-      <c r="ON23" s="5" t="inlineStr">
+      <c r="ON23" s="1" t="inlineStr">
         <is>
           <t>北化股份, 凯撒文化, 建艺集团, 精伦电子, 万里股份, 亚振家居</t>
         </is>
       </c>
-      <c r="OO23" s="5" t="inlineStr">
+      <c r="OO23" s="1" t="inlineStr">
         <is>
           <t>云南城投, 天地源, 国联证券, 三棵树</t>
         </is>
       </c>
-      <c r="OP23" s="5" t="inlineStr">
+      <c r="OP23" s="1" t="inlineStr">
         <is>
           <t>我爱我家, 荣盛发展, 中天服务, 合肥城建, 滨江集团, 世联行, 南国置业, 华脉科技, 常青科技, 南都物业, 长源东谷, 园林股份</t>
         </is>
       </c>
-      <c r="OQ23" s="5" t="inlineStr">
+      <c r="OQ23" s="1" t="inlineStr">
         <is>
           <t>炼石航空, 保利联合, 五方光电, 安彩高科, 城投控股, 金瑞矿业, 沃格光电</t>
         </is>
       </c>
-      <c r="OR23" s="5" t="inlineStr">
+      <c r="OR23" s="1" t="inlineStr">
         <is>
           <t>正虹科技, 汇绿生态, 长白山</t>
         </is>
       </c>
-      <c r="OS23" s="5" t="inlineStr">
+      <c r="OS23" s="1" t="inlineStr">
         <is>
           <t>渝开发, 新华联, 中捷资源</t>
         </is>
       </c>
-      <c r="OT23" s="5" t="inlineStr">
+      <c r="OT23" s="1" t="inlineStr">
         <is>
           <t>拓日新能, 哈三联, 天宸股份, 上工申贝, 清源股份</t>
         </is>
       </c>
-      <c r="OU23" s="5" t="inlineStr">
+      <c r="OU23" s="1" t="inlineStr">
         <is>
           <t>万方发展, 沃特股份, 意华股份</t>
         </is>
       </c>
-      <c r="OV23" s="5" t="inlineStr">
+      <c r="OV23" s="1" t="inlineStr">
         <is>
           <t>广西能源, 大连热电, 郴电国际, 博通集成, 新中港</t>
         </is>
       </c>
-      <c r="OW23" s="5" t="inlineStr">
+      <c r="OW23" s="1" t="inlineStr">
         <is>
           <t>双象股份, 华钰矿业, 神马电力</t>
         </is>
       </c>
-      <c r="OX23" s="5" t="inlineStr">
+      <c r="OX23" s="1" t="inlineStr">
         <is>
           <t>利源股份, 航天晨光</t>
         </is>
       </c>
-      <c r="OY23" s="5" t="inlineStr">
+      <c r="OY23" s="1" t="inlineStr">
         <is>
           <t>兴欣新材, 神开股份, 海源复材, 福达股份, 通达电气</t>
         </is>
       </c>
-      <c r="OZ23" s="5" t="inlineStr">
+      <c r="OZ23" s="1" t="inlineStr">
         <is>
           <t>雅博股份, 申华控股, 贵绳股份, 贵广网络</t>
         </is>
       </c>
-      <c r="PA23" s="5" t="inlineStr">
+      <c r="PA23" s="1" t="inlineStr">
         <is>
           <t>得润电子</t>
         </is>
       </c>
-      <c r="PB23" s="5" t="inlineStr">
+      <c r="PB23" s="1" t="inlineStr">
         <is>
           <t>郑中设计, 协和电子</t>
         </is>
       </c>
-      <c r="PC23" s="5" t="inlineStr">
+      <c r="PC23" s="1" t="inlineStr">
         <is>
           <t>惠天热电, 华闻集团, 金溢科技</t>
         </is>
       </c>
-      <c r="PD23" s="5" t="inlineStr">
+      <c r="PD23" s="1" t="inlineStr">
         <is>
           <t>开普检测, 中晶科技</t>
         </is>
       </c>
-      <c r="PE23" s="5" t="inlineStr">
+      <c r="PE23" s="1" t="inlineStr">
         <is>
           <t>赫美集团, 宁波富达</t>
+        </is>
+      </c>
+      <c r="PF23" s="5" t="inlineStr">
+        <is>
+          <t>华闻集团, 国风新材, 万丰股份</t>
+        </is>
+      </c>
+      <c r="PG23" s="5" t="inlineStr">
+        <is>
+          <t>好上好, 东方嘉盛, 汉商集团, 骏亚科技</t>
+        </is>
+      </c>
+      <c r="PH23" s="5" t="inlineStr">
+        <is>
+          <t>恒天海龙, 东晶电子, 瀛通通讯, 惠威科技, 柏诚股份</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G346"/>
+  <dimension ref="A1:G349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18701,6 +18764,72 @@
         <v>9.99</v>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>6</v>
+      </c>
+      <c r="C347" t="n">
+        <v>20</v>
+      </c>
+      <c r="D347" t="n">
+        <v>7</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1</v>
+      </c>
+      <c r="F347" t="n">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>7</v>
+      </c>
+      <c r="C348" t="n">
+        <v>42</v>
+      </c>
+      <c r="D348" t="n">
+        <v>5</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1</v>
+      </c>
+      <c r="F348" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>4</v>
+      </c>
+      <c r="C349" t="n">
+        <v>29</v>
+      </c>
+      <c r="D349" t="n">
+        <v>3</v>
+      </c>
+      <c r="E349" t="n">
+        <v>2</v>
+      </c>
+      <c r="F349" t="n">
+        <v>10.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$349</f>
+              <f>'连板数据分析'!$A$2:$A$350</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$349</f>
+              <f>'连板数据分析'!$B$2:$B$350</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$349</f>
+              <f>'连板数据分析'!$A$2:$A$350</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$349</f>
+              <f>'连板数据分析'!$C$2:$C$350</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$349</f>
+              <f>'连板数据分析'!$A$2:$A$350</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$349</f>
+              <f>'连板数据分析'!$D$2:$D$350</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$349</f>
+              <f>'连板数据分析'!$A$2:$A$350</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$349</f>
+              <f>'连板数据分析'!$F$2:$F$350</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="62640000" cy="2700000"/>
+    <ext cx="62820000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="62640000" cy="2700000"/>
+    <ext cx="62820000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="62640000" cy="2700000"/>
+    <ext cx="62820000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PH23"/>
+  <dimension ref="A1:PI23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1992,6 +1992,7 @@
     <col width="21.6" customWidth="1" min="422" max="422"/>
     <col width="27.6" customWidth="1" min="423" max="423"/>
     <col width="36" customWidth="1" min="424" max="424"/>
+    <col width="50.4" customWidth="1" min="425" max="425"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4111,6 +4112,11 @@
           <t>2024-06-13</t>
         </is>
       </c>
+      <c r="PI1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -6074,6 +6080,11 @@
           <t>协和电子</t>
         </is>
       </c>
+      <c r="PI20" s="5" t="inlineStr">
+        <is>
+          <t>华闻集团</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -9035,6 +9046,11 @@
           <t>好上好</t>
         </is>
       </c>
+      <c r="PI22" s="5" t="inlineStr">
+        <is>
+          <t>东晶电子</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11120,6 +11136,11 @@
       <c r="PH23" s="5" t="inlineStr">
         <is>
           <t>恒天海龙, 东晶电子, 瀛通通讯, 惠威科技, 柏诚股份</t>
+        </is>
+      </c>
+      <c r="PI23" s="5" t="inlineStr">
+        <is>
+          <t>北京科锐, 先锋电子, 安通控股, 长城电工, 亚振家居, 晨丰科技, 松炀资源</t>
         </is>
       </c>
     </row>
@@ -11134,7 +11155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G349"/>
+  <dimension ref="A1:G350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18830,6 +18851,28 @@
         <v>10.1</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>5</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>3</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1</v>
+      </c>
+      <c r="F350" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$350</f>
+              <f>'连板数据分析'!$A$2:$A$351</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$350</f>
+              <f>'连板数据分析'!$B$2:$B$351</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$350</f>
+              <f>'连板数据分析'!$A$2:$A$351</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$350</f>
+              <f>'连板数据分析'!$C$2:$C$351</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$350</f>
+              <f>'连板数据分析'!$A$2:$A$351</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$350</f>
+              <f>'连板数据分析'!$D$2:$D$351</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$350</f>
+              <f>'连板数据分析'!$A$2:$A$351</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$350</f>
+              <f>'连板数据分析'!$F$2:$F$351</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="62820000" cy="2700000"/>
+    <ext cx="63000000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="62820000" cy="2700000"/>
+    <ext cx="63000000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="62820000" cy="2700000"/>
+    <ext cx="63000000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,14 +1556,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PI23"/>
+  <dimension ref="A1:PJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
@@ -1993,6 +1993,7 @@
     <col width="27.6" customWidth="1" min="423" max="423"/>
     <col width="36" customWidth="1" min="424" max="424"/>
     <col width="50.4" customWidth="1" min="425" max="425"/>
+    <col width="14.4" customWidth="1" min="426" max="426"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4117,6 +4118,11 @@
           <t>2024-06-14</t>
         </is>
       </c>
+      <c r="PJ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -4891,7 +4897,7 @@
           <t>蔚蓝生物</t>
         </is>
       </c>
-      <c r="PG18" s="5" t="inlineStr">
+      <c r="PG18" s="1" t="inlineStr">
         <is>
           <t>协和电子</t>
         </is>
@@ -5303,7 +5309,7 @@
           <t>南京化纤</t>
         </is>
       </c>
-      <c r="PF19" s="5" t="inlineStr">
+      <c r="PF19" s="1" t="inlineStr">
         <is>
           <t>协和电子</t>
         </is>
@@ -6080,7 +6086,7 @@
           <t>协和电子</t>
         </is>
       </c>
-      <c r="PI20" s="5" t="inlineStr">
+      <c r="PI20" s="1" t="inlineStr">
         <is>
           <t>华闻集团</t>
         </is>
@@ -7338,14 +7344,19 @@
           <t>协和电子</t>
         </is>
       </c>
-      <c r="PF21" s="5" t="inlineStr">
+      <c r="PF21" s="1" t="inlineStr">
         <is>
           <t>中晶科技</t>
         </is>
       </c>
-      <c r="PH21" s="5" t="inlineStr">
+      <c r="PH21" s="1" t="inlineStr">
         <is>
           <t>华闻集团, 国风新材</t>
+        </is>
+      </c>
+      <c r="PJ21" s="5" t="inlineStr">
+        <is>
+          <t>东晶电子</t>
         </is>
       </c>
     </row>
@@ -9036,19 +9047,24 @@
           <t>开普检测, 中晶科技</t>
         </is>
       </c>
-      <c r="PG22" s="5" t="inlineStr">
+      <c r="PG22" s="1" t="inlineStr">
         <is>
           <t>华闻集团, 国风新材</t>
         </is>
       </c>
-      <c r="PH22" s="5" t="inlineStr">
+      <c r="PH22" s="1" t="inlineStr">
         <is>
           <t>好上好</t>
         </is>
       </c>
-      <c r="PI22" s="5" t="inlineStr">
+      <c r="PI22" s="1" t="inlineStr">
         <is>
           <t>东晶电子</t>
+        </is>
+      </c>
+      <c r="PJ22" s="5" t="inlineStr">
+        <is>
+          <t>长城电工, 晨丰科技</t>
         </is>
       </c>
     </row>
@@ -11123,24 +11139,29 @@
           <t>赫美集团, 宁波富达</t>
         </is>
       </c>
-      <c r="PF23" s="5" t="inlineStr">
+      <c r="PF23" s="1" t="inlineStr">
         <is>
           <t>华闻集团, 国风新材, 万丰股份</t>
         </is>
       </c>
-      <c r="PG23" s="5" t="inlineStr">
+      <c r="PG23" s="1" t="inlineStr">
         <is>
           <t>好上好, 东方嘉盛, 汉商集团, 骏亚科技</t>
         </is>
       </c>
-      <c r="PH23" s="5" t="inlineStr">
+      <c r="PH23" s="1" t="inlineStr">
         <is>
           <t>恒天海龙, 东晶电子, 瀛通通讯, 惠威科技, 柏诚股份</t>
         </is>
       </c>
-      <c r="PI23" s="5" t="inlineStr">
+      <c r="PI23" s="1" t="inlineStr">
         <is>
           <t>北京科锐, 先锋电子, 安通控股, 长城电工, 亚振家居, 晨丰科技, 松炀资源</t>
+        </is>
+      </c>
+      <c r="PJ23" s="5" t="inlineStr">
+        <is>
+          <t>中期退, 长江通信</t>
         </is>
       </c>
     </row>
@@ -11155,7 +11176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G350"/>
+  <dimension ref="A1:G351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18873,6 +18894,28 @@
         <v>9.699999999999999</v>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>4</v>
+      </c>
+      <c r="C351" t="n">
+        <v>23</v>
+      </c>
+      <c r="D351" t="n">
+        <v>4</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1</v>
+      </c>
+      <c r="F351" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$351</f>
+              <f>'连板数据分析'!$A$2:$A$352</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$351</f>
+              <f>'连板数据分析'!$B$2:$B$352</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$351</f>
+              <f>'连板数据分析'!$A$2:$A$352</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$351</f>
+              <f>'连板数据分析'!$C$2:$C$352</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$351</f>
+              <f>'连板数据分析'!$A$2:$A$352</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$351</f>
+              <f>'连板数据分析'!$D$2:$D$352</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$351</f>
+              <f>'连板数据分析'!$A$2:$A$352</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$351</f>
+              <f>'连板数据分析'!$F$2:$F$352</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63000000" cy="2700000"/>
+    <ext cx="63180000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63000000" cy="2700000"/>
+    <ext cx="63180000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63000000" cy="2700000"/>
+    <ext cx="63180000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PJ23"/>
+  <dimension ref="A1:PK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1994,6 +1994,7 @@
     <col width="36" customWidth="1" min="424" max="424"/>
     <col width="50.4" customWidth="1" min="425" max="425"/>
     <col width="14.4" customWidth="1" min="426" max="426"/>
+    <col width="27.6" customWidth="1" min="427" max="427"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4123,6 +4124,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="PK1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -6091,6 +6097,11 @@
           <t>华闻集团</t>
         </is>
       </c>
+      <c r="PK20" s="5" t="inlineStr">
+        <is>
+          <t>东晶电子</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -9067,6 +9078,11 @@
           <t>长城电工, 晨丰科技</t>
         </is>
       </c>
+      <c r="PK22" s="5" t="inlineStr">
+        <is>
+          <t>长江通信</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11162,6 +11178,11 @@
       <c r="PJ23" s="5" t="inlineStr">
         <is>
           <t>中期退, 长江通信</t>
+        </is>
+      </c>
+      <c r="PK23" s="5" t="inlineStr">
+        <is>
+          <t>太安退, 索菱股份, 金溢科技, 松发股份</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G351"/>
+  <dimension ref="A1:G352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18916,6 +18937,28 @@
         <v>8.25</v>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>5</v>
+      </c>
+      <c r="C352" t="n">
+        <v>34</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1</v>
+      </c>
+      <c r="F352" t="n">
+        <v>9.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$352</f>
+              <f>'连板数据分析'!$A$2:$A$353</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$352</f>
+              <f>'连板数据分析'!$B$2:$B$353</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$352</f>
+              <f>'连板数据分析'!$A$2:$A$353</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$352</f>
+              <f>'连板数据分析'!$C$2:$C$353</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$352</f>
+              <f>'连板数据分析'!$A$2:$A$353</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$352</f>
+              <f>'连板数据分析'!$D$2:$D$353</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$352</f>
+              <f>'连板数据分析'!$A$2:$A$353</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$352</f>
+              <f>'连板数据分析'!$F$2:$F$353</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63180000" cy="2700000"/>
+    <ext cx="63360000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63180000" cy="2700000"/>
+    <ext cx="63360000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63180000" cy="2700000"/>
+    <ext cx="63360000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,14 +1556,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PK23"/>
+  <dimension ref="A1:PL23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
@@ -1995,6 +1995,7 @@
     <col width="50.4" customWidth="1" min="425" max="425"/>
     <col width="14.4" customWidth="1" min="426" max="426"/>
     <col width="27.6" customWidth="1" min="427" max="427"/>
+    <col width="21.6" customWidth="1" min="428" max="428"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4129,6 +4130,11 @@
           <t>2024-06-18</t>
         </is>
       </c>
+      <c r="PL1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -5320,6 +5326,11 @@
           <t>协和电子</t>
         </is>
       </c>
+      <c r="PL19" s="5" t="inlineStr">
+        <is>
+          <t>东晶电子</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -6097,7 +6108,7 @@
           <t>华闻集团</t>
         </is>
       </c>
-      <c r="PK20" s="5" t="inlineStr">
+      <c r="PK20" s="1" t="inlineStr">
         <is>
           <t>东晶电子</t>
         </is>
@@ -7365,9 +7376,14 @@
           <t>华闻集团, 国风新材</t>
         </is>
       </c>
-      <c r="PJ21" s="5" t="inlineStr">
+      <c r="PJ21" s="1" t="inlineStr">
         <is>
           <t>东晶电子</t>
+        </is>
+      </c>
+      <c r="PL21" s="5" t="inlineStr">
+        <is>
+          <t>长江通信</t>
         </is>
       </c>
     </row>
@@ -9073,14 +9089,19 @@
           <t>东晶电子</t>
         </is>
       </c>
-      <c r="PJ22" s="5" t="inlineStr">
+      <c r="PJ22" s="1" t="inlineStr">
         <is>
           <t>长城电工, 晨丰科技</t>
         </is>
       </c>
-      <c r="PK22" s="5" t="inlineStr">
+      <c r="PK22" s="1" t="inlineStr">
         <is>
           <t>长江通信</t>
+        </is>
+      </c>
+      <c r="PL22" s="5" t="inlineStr">
+        <is>
+          <t>索菱股份, 金溢科技</t>
         </is>
       </c>
     </row>
@@ -11175,14 +11196,19 @@
           <t>北京科锐, 先锋电子, 安通控股, 长城电工, 亚振家居, 晨丰科技, 松炀资源</t>
         </is>
       </c>
-      <c r="PJ23" s="5" t="inlineStr">
+      <c r="PJ23" s="1" t="inlineStr">
         <is>
           <t>中期退, 长江通信</t>
         </is>
       </c>
-      <c r="PK23" s="5" t="inlineStr">
+      <c r="PK23" s="1" t="inlineStr">
         <is>
           <t>太安退, 索菱股份, 金溢科技, 松发股份</t>
+        </is>
+      </c>
+      <c r="PL23" s="5" t="inlineStr">
+        <is>
+          <t>恒天海龙, 华嵘控股, 华扬联众</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G352"/>
+  <dimension ref="A1:G353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18959,6 +18985,28 @@
         <v>9.67</v>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>6</v>
+      </c>
+      <c r="C353" t="n">
+        <v>26</v>
+      </c>
+      <c r="D353" t="n">
+        <v>2</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1</v>
+      </c>
+      <c r="F353" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$353</f>
+              <f>'连板数据分析'!$A$2:$A$354</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$353</f>
+              <f>'连板数据分析'!$B$2:$B$354</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$353</f>
+              <f>'连板数据分析'!$A$2:$A$354</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$353</f>
+              <f>'连板数据分析'!$C$2:$C$354</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$353</f>
+              <f>'连板数据分析'!$A$2:$A$354</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$353</f>
+              <f>'连板数据分析'!$D$2:$D$354</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$353</f>
+              <f>'连板数据分析'!$A$2:$A$354</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$353</f>
+              <f>'连板数据分析'!$F$2:$F$354</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63360000" cy="2700000"/>
+    <ext cx="63540000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63360000" cy="2700000"/>
+    <ext cx="63540000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63360000" cy="2700000"/>
+    <ext cx="63540000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,14 +1556,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PL23"/>
+  <dimension ref="A1:PM23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
@@ -1996,6 +1996,7 @@
     <col width="14.4" customWidth="1" min="426" max="426"/>
     <col width="27.6" customWidth="1" min="427" max="427"/>
     <col width="21.6" customWidth="1" min="428" max="428"/>
+    <col width="20.4" customWidth="1" min="429" max="429"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4135,6 +4136,11 @@
           <t>2024-06-19</t>
         </is>
       </c>
+      <c r="PM1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -4914,6 +4920,11 @@
           <t>协和电子</t>
         </is>
       </c>
+      <c r="PM18" s="5" t="inlineStr">
+        <is>
+          <t>东晶电子</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
@@ -5326,7 +5337,7 @@
           <t>协和电子</t>
         </is>
       </c>
-      <c r="PL19" s="5" t="inlineStr">
+      <c r="PL19" s="1" t="inlineStr">
         <is>
           <t>东晶电子</t>
         </is>
@@ -7381,9 +7392,14 @@
           <t>东晶电子</t>
         </is>
       </c>
-      <c r="PL21" s="5" t="inlineStr">
+      <c r="PL21" s="1" t="inlineStr">
         <is>
           <t>长江通信</t>
+        </is>
+      </c>
+      <c r="PM21" s="5" t="inlineStr">
+        <is>
+          <t>索菱股份</t>
         </is>
       </c>
     </row>
@@ -9099,7 +9115,7 @@
           <t>长江通信</t>
         </is>
       </c>
-      <c r="PL22" s="5" t="inlineStr">
+      <c r="PL22" s="1" t="inlineStr">
         <is>
           <t>索菱股份, 金溢科技</t>
         </is>
@@ -11206,9 +11222,14 @@
           <t>太安退, 索菱股份, 金溢科技, 松发股份</t>
         </is>
       </c>
-      <c r="PL23" s="5" t="inlineStr">
+      <c r="PL23" s="1" t="inlineStr">
         <is>
           <t>恒天海龙, 华嵘控股, 华扬联众</t>
+        </is>
+      </c>
+      <c r="PM23" s="5" t="inlineStr">
+        <is>
+          <t>延华智能, 南京化纤, 会稽山</t>
         </is>
       </c>
     </row>
@@ -11223,7 +11244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G353"/>
+  <dimension ref="A1:G354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19007,6 +19028,28 @@
         <v>2.63</v>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>7</v>
+      </c>
+      <c r="C354" t="n">
+        <v>18</v>
+      </c>
+      <c r="D354" t="n">
+        <v>6</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1</v>
+      </c>
+      <c r="F354" t="n">
+        <v>6.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$354</f>
+              <f>'连板数据分析'!$A$2:$A$355</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$354</f>
+              <f>'连板数据分析'!$B$2:$B$355</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$354</f>
+              <f>'连板数据分析'!$A$2:$A$355</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$354</f>
+              <f>'连板数据分析'!$C$2:$C$355</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$354</f>
+              <f>'连板数据分析'!$A$2:$A$355</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$354</f>
+              <f>'连板数据分析'!$D$2:$D$355</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$354</f>
+              <f>'连板数据分析'!$A$2:$A$355</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$354</f>
+              <f>'连板数据分析'!$F$2:$F$355</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63540000" cy="2700000"/>
+    <ext cx="63720000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63540000" cy="2700000"/>
+    <ext cx="63720000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63540000" cy="2700000"/>
+    <ext cx="63720000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PM23"/>
+  <dimension ref="A1:PN23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1997,6 +1997,7 @@
     <col width="27.6" customWidth="1" min="427" max="427"/>
     <col width="21.6" customWidth="1" min="428" max="428"/>
     <col width="20.4" customWidth="1" min="429" max="429"/>
+    <col width="34.8" customWidth="1" min="430" max="430"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4141,6 +4142,11 @@
           <t>2024-06-20</t>
         </is>
       </c>
+      <c r="PN1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -4920,7 +4926,7 @@
           <t>协和电子</t>
         </is>
       </c>
-      <c r="PM18" s="5" t="inlineStr">
+      <c r="PM18" s="1" t="inlineStr">
         <is>
           <t>东晶电子</t>
         </is>
@@ -6124,6 +6130,11 @@
           <t>东晶电子</t>
         </is>
       </c>
+      <c r="PN20" s="5" t="inlineStr">
+        <is>
+          <t>索菱股份</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -7397,7 +7408,7 @@
           <t>长江通信</t>
         </is>
       </c>
-      <c r="PM21" s="5" t="inlineStr">
+      <c r="PM21" s="1" t="inlineStr">
         <is>
           <t>索菱股份</t>
         </is>
@@ -9120,6 +9131,11 @@
           <t>索菱股份, 金溢科技</t>
         </is>
       </c>
+      <c r="PN22" s="5" t="inlineStr">
+        <is>
+          <t>南京化纤</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11227,9 +11243,14 @@
           <t>恒天海龙, 华嵘控股, 华扬联众</t>
         </is>
       </c>
-      <c r="PM23" s="5" t="inlineStr">
+      <c r="PM23" s="1" t="inlineStr">
         <is>
           <t>延华智能, 南京化纤, 会稽山</t>
+        </is>
+      </c>
+      <c r="PN23" s="5" t="inlineStr">
+        <is>
+          <t>美丽生态, 南华生物, 力合科创, 中信尼雅, 金麒麟</t>
         </is>
       </c>
     </row>
@@ -11244,7 +11265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G354"/>
+  <dimension ref="A1:G355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19050,6 +19071,28 @@
         <v>6.09</v>
       </c>
     </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>5</v>
+      </c>
+      <c r="C355" t="n">
+        <v>24</v>
+      </c>
+      <c r="D355" t="n">
+        <v>10</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1</v>
+      </c>
+      <c r="F355" t="n">
+        <v>10.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$355</f>
+              <f>'连板数据分析'!$A$2:$A$356</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$355</f>
+              <f>'连板数据分析'!$B$2:$B$356</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$355</f>
+              <f>'连板数据分析'!$A$2:$A$356</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$355</f>
+              <f>'连板数据分析'!$C$2:$C$356</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$355</f>
+              <f>'连板数据分析'!$A$2:$A$356</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$355</f>
+              <f>'连板数据分析'!$D$2:$D$356</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$355</f>
+              <f>'连板数据分析'!$A$2:$A$356</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$355</f>
+              <f>'连板数据分析'!$F$2:$F$356</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63720000" cy="2700000"/>
+    <ext cx="63900000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63720000" cy="2700000"/>
+    <ext cx="63900000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63720000" cy="2700000"/>
+    <ext cx="63900000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,14 +1556,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PN23"/>
+  <dimension ref="A1:PO23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
@@ -1998,6 +1998,7 @@
     <col width="21.6" customWidth="1" min="428" max="428"/>
     <col width="20.4" customWidth="1" min="429" max="429"/>
     <col width="34.8" customWidth="1" min="430" max="430"/>
+    <col width="21.6" customWidth="1" min="431" max="431"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4147,6 +4148,11 @@
           <t>2024-06-21</t>
         </is>
       </c>
+      <c r="PO1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -6130,7 +6136,7 @@
           <t>东晶电子</t>
         </is>
       </c>
-      <c r="PN20" s="5" t="inlineStr">
+      <c r="PN20" s="1" t="inlineStr">
         <is>
           <t>索菱股份</t>
         </is>
@@ -9131,9 +9137,14 @@
           <t>索菱股份, 金溢科技</t>
         </is>
       </c>
-      <c r="PN22" s="5" t="inlineStr">
+      <c r="PN22" s="1" t="inlineStr">
         <is>
           <t>南京化纤</t>
+        </is>
+      </c>
+      <c r="PO22" s="5" t="inlineStr">
+        <is>
+          <t>美丽生态, 金麒麟</t>
         </is>
       </c>
     </row>
@@ -11248,9 +11259,14 @@
           <t>延华智能, 南京化纤, 会稽山</t>
         </is>
       </c>
-      <c r="PN23" s="5" t="inlineStr">
+      <c r="PN23" s="1" t="inlineStr">
         <is>
           <t>美丽生态, 南华生物, 力合科创, 中信尼雅, 金麒麟</t>
+        </is>
+      </c>
+      <c r="PO23" s="5" t="inlineStr">
+        <is>
+          <t>华锋股份, 景旺电子, 莱绅通灵</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G355"/>
+  <dimension ref="A1:G356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19093,6 +19109,28 @@
         <v>10.05</v>
       </c>
     </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>3</v>
+      </c>
+      <c r="C356" t="n">
+        <v>17</v>
+      </c>
+      <c r="D356" t="n">
+        <v>21</v>
+      </c>
+      <c r="E356" t="n">
+        <v>2</v>
+      </c>
+      <c r="F356" t="n">
+        <v>10.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$356</f>
+              <f>'连板数据分析'!$A$2:$A$357</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$356</f>
+              <f>'连板数据分析'!$B$2:$B$357</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$356</f>
+              <f>'连板数据分析'!$A$2:$A$357</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$356</f>
+              <f>'连板数据分析'!$C$2:$C$357</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$356</f>
+              <f>'连板数据分析'!$A$2:$A$357</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$356</f>
+              <f>'连板数据分析'!$D$2:$D$357</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$356</f>
+              <f>'连板数据分析'!$A$2:$A$357</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$356</f>
+              <f>'连板数据分析'!$F$2:$F$357</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63900000" cy="2700000"/>
+    <ext cx="64080000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63900000" cy="2700000"/>
+    <ext cx="64080000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="63900000" cy="2700000"/>
+    <ext cx="64080000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PO23"/>
+  <dimension ref="A1:PP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1999,6 +1999,7 @@
     <col width="20.4" customWidth="1" min="429" max="429"/>
     <col width="34.8" customWidth="1" min="430" max="430"/>
     <col width="21.6" customWidth="1" min="431" max="431"/>
+    <col width="14.4" customWidth="1" min="432" max="432"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4153,6 +4154,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="PP1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -7419,6 +7425,11 @@
           <t>索菱股份</t>
         </is>
       </c>
+      <c r="PP21" s="5" t="inlineStr">
+        <is>
+          <t>金麒麟</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -11267,6 +11278,11 @@
       <c r="PO23" s="5" t="inlineStr">
         <is>
           <t>华锋股份, 景旺电子, 莱绅通灵</t>
+        </is>
+      </c>
+      <c r="PP23" s="5" t="inlineStr">
+        <is>
+          <t>宏英智能, 时空科技</t>
         </is>
       </c>
     </row>
@@ -11281,7 +11297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G356"/>
+  <dimension ref="A1:G357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19131,6 +19147,28 @@
         <v>10.23</v>
       </c>
     </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>4</v>
+      </c>
+      <c r="C357" t="n">
+        <v>46</v>
+      </c>
+      <c r="D357" t="n">
+        <v>12</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1</v>
+      </c>
+      <c r="F357" t="n">
+        <v>10.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$357</f>
+              <f>'连板数据分析'!$A$2:$A$358</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$357</f>
+              <f>'连板数据分析'!$B$2:$B$358</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$357</f>
+              <f>'连板数据分析'!$A$2:$A$358</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$357</f>
+              <f>'连板数据分析'!$C$2:$C$358</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$357</f>
+              <f>'连板数据分析'!$A$2:$A$358</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$357</f>
+              <f>'连板数据分析'!$D$2:$D$358</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$357</f>
+              <f>'连板数据分析'!$A$2:$A$358</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$357</f>
+              <f>'连板数据分析'!$F$2:$F$358</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64080000" cy="2700000"/>
+    <ext cx="64260000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64080000" cy="2700000"/>
+    <ext cx="64260000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64080000" cy="2700000"/>
+    <ext cx="64260000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PP23"/>
+  <dimension ref="A1:PQ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2000,6 +2000,7 @@
     <col width="34.8" customWidth="1" min="430" max="430"/>
     <col width="21.6" customWidth="1" min="431" max="431"/>
     <col width="14.4" customWidth="1" min="432" max="432"/>
+    <col width="36" customWidth="1" min="433" max="433"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4159,6 +4160,11 @@
           <t>2024-06-25</t>
         </is>
       </c>
+      <c r="PQ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -6147,6 +6153,11 @@
           <t>索菱股份</t>
         </is>
       </c>
+      <c r="PQ20" s="5" t="inlineStr">
+        <is>
+          <t>金麒麟</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -9158,6 +9169,11 @@
           <t>美丽生态, 金麒麟</t>
         </is>
       </c>
+      <c r="PQ22" s="5" t="inlineStr">
+        <is>
+          <t>时空科技</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11283,6 +11299,11 @@
       <c r="PP23" s="5" t="inlineStr">
         <is>
           <t>宏英智能, 时空科技</t>
+        </is>
+      </c>
+      <c r="PQ23" s="5" t="inlineStr">
+        <is>
+          <t>华东数控, 凯中精密, 声迅股份, 税友股份, 骏亚科技</t>
         </is>
       </c>
     </row>
@@ -11297,7 +11318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G357"/>
+  <dimension ref="A1:G358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19169,6 +19190,28 @@
         <v>10.03</v>
       </c>
     </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>5</v>
+      </c>
+      <c r="C358" t="n">
+        <v>36</v>
+      </c>
+      <c r="D358" t="n">
+        <v>2</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1</v>
+      </c>
+      <c r="F358" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$358</f>
+              <f>'连板数据分析'!$A$2:$A$360</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$358</f>
+              <f>'连板数据分析'!$B$2:$B$360</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$358</f>
+              <f>'连板数据分析'!$A$2:$A$360</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$358</f>
+              <f>'连板数据分析'!$C$2:$C$360</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$358</f>
+              <f>'连板数据分析'!$A$2:$A$360</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$358</f>
+              <f>'连板数据分析'!$D$2:$D$360</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$358</f>
+              <f>'连板数据分析'!$A$2:$A$360</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$358</f>
+              <f>'连板数据分析'!$F$2:$F$360</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64260000" cy="2700000"/>
+    <ext cx="64620000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64260000" cy="2700000"/>
+    <ext cx="64620000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64260000" cy="2700000"/>
+    <ext cx="64620000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PQ23"/>
+  <dimension ref="A1:PS23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2001,6 +2001,8 @@
     <col width="21.6" customWidth="1" min="431" max="431"/>
     <col width="14.4" customWidth="1" min="432" max="432"/>
     <col width="36" customWidth="1" min="433" max="433"/>
+    <col width="28.8" customWidth="1" min="434" max="434"/>
+    <col width="28.8" customWidth="1" min="435" max="435"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4165,6 +4167,16 @@
           <t>2024-06-26</t>
         </is>
       </c>
+      <c r="PR1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="PS1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -7441,6 +7453,16 @@
           <t>金麒麟</t>
         </is>
       </c>
+      <c r="PR21" s="5" t="inlineStr">
+        <is>
+          <t>时空科技</t>
+        </is>
+      </c>
+      <c r="PS21" s="5" t="inlineStr">
+        <is>
+          <t>时空科技</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -9174,6 +9196,16 @@
           <t>时空科技</t>
         </is>
       </c>
+      <c r="PR22" s="5" t="inlineStr">
+        <is>
+          <t>凯中精密, 税友股份</t>
+        </is>
+      </c>
+      <c r="PS22" s="5" t="inlineStr">
+        <is>
+          <t>凯中精密, 税友股份</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11304,6 +11336,16 @@
       <c r="PQ23" s="5" t="inlineStr">
         <is>
           <t>华东数控, 凯中精密, 声迅股份, 税友股份, 骏亚科技</t>
+        </is>
+      </c>
+      <c r="PR23" s="5" t="inlineStr">
+        <is>
+          <t>三晖电气, 瀛通通讯, 华扬联众, 城地香江</t>
+        </is>
+      </c>
+      <c r="PS23" s="5" t="inlineStr">
+        <is>
+          <t>三晖电气, 瀛通通讯, 华扬联众, 城地香江</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G358"/>
+  <dimension ref="A1:G360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19212,6 +19254,50 @@
         <v>10.02</v>
       </c>
     </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>4</v>
+      </c>
+      <c r="C359" t="n">
+        <v>20</v>
+      </c>
+      <c r="D359" t="n">
+        <v>6</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>4</v>
+      </c>
+      <c r="C360" t="n">
+        <v>20</v>
+      </c>
+      <c r="D360" t="n">
+        <v>6</v>
+      </c>
+      <c r="E360" t="n">
+        <v>1</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$360</f>
+              <f>'连板数据分析'!$A$2:$A$361</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$360</f>
+              <f>'连板数据分析'!$B$2:$B$361</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$360</f>
+              <f>'连板数据分析'!$A$2:$A$361</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$360</f>
+              <f>'连板数据分析'!$C$2:$C$361</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$360</f>
+              <f>'连板数据分析'!$A$2:$A$361</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$360</f>
+              <f>'连板数据分析'!$D$2:$D$361</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$360</f>
+              <f>'连板数据分析'!$A$2:$A$361</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$360</f>
+              <f>'连板数据分析'!$F$2:$F$361</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64620000" cy="2700000"/>
+    <ext cx="64800000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64620000" cy="2700000"/>
+    <ext cx="64800000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64620000" cy="2700000"/>
+    <ext cx="64800000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PS23"/>
+  <dimension ref="A1:PV23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2003,6 +2003,9 @@
     <col width="36" customWidth="1" min="433" max="433"/>
     <col width="28.8" customWidth="1" min="434" max="434"/>
     <col width="28.8" customWidth="1" min="435" max="435"/>
+    <col width="14.4" customWidth="1" min="436" max="436"/>
+    <col width="14.4" customWidth="1" min="437" max="437"/>
+    <col width="14.4" customWidth="1" min="438" max="438"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4177,6 +4180,21 @@
           <t>2024-06-28</t>
         </is>
       </c>
+      <c r="PT1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="PU1" s="6" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="PV1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -7463,6 +7481,16 @@
           <t>时空科技</t>
         </is>
       </c>
+      <c r="PT21" s="5" t="inlineStr">
+        <is>
+          <t>三晖电气, 瀛通通讯</t>
+        </is>
+      </c>
+      <c r="PV21" s="5" t="inlineStr">
+        <is>
+          <t>三晖电气, 瀛通通讯</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -9206,6 +9234,11 @@
           <t>凯中精密, 税友股份</t>
         </is>
       </c>
+      <c r="PU22" s="5" t="inlineStr">
+        <is>
+          <t>三晖电气, 瀛通通讯</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11346,6 +11379,11 @@
       <c r="PS23" s="5" t="inlineStr">
         <is>
           <t>三晖电气, 瀛通通讯, 华扬联众, 城地香江</t>
+        </is>
+      </c>
+      <c r="PU23" s="5" t="inlineStr">
+        <is>
+          <t>国华网安, 德力股份</t>
         </is>
       </c>
     </row>
@@ -11360,7 +11398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G360"/>
+  <dimension ref="A1:G361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19283,19 +19321,41 @@
         </is>
       </c>
       <c r="B360" t="n">
+        <v>3</v>
+      </c>
+      <c r="C360" t="n">
+        <v>26</v>
+      </c>
+      <c r="D360" t="n">
+        <v>8</v>
+      </c>
+      <c r="E360" t="n">
+        <v>2</v>
+      </c>
+      <c r="F360" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
         <v>4</v>
       </c>
-      <c r="C360" t="n">
-        <v>20</v>
-      </c>
-      <c r="D360" t="n">
+      <c r="C361" t="n">
+        <v>11</v>
+      </c>
+      <c r="D361" t="n">
         <v>6</v>
       </c>
-      <c r="E360" t="n">
-        <v>1</v>
-      </c>
-      <c r="F360" t="n">
-        <v>0</v>
+      <c r="E361" t="n">
+        <v>2</v>
+      </c>
+      <c r="F361" t="n">
+        <v>10.01</v>
       </c>
     </row>
   </sheetData>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$361</f>
+              <f>'连板数据分析'!$A$2:$A$362</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$361</f>
+              <f>'连板数据分析'!$B$2:$B$362</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$361</f>
+              <f>'连板数据分析'!$A$2:$A$362</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$361</f>
+              <f>'连板数据分析'!$C$2:$C$362</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$361</f>
+              <f>'连板数据分析'!$A$2:$A$362</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$361</f>
+              <f>'连板数据分析'!$D$2:$D$362</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$361</f>
+              <f>'连板数据分析'!$A$2:$A$362</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$361</f>
+              <f>'连板数据分析'!$F$2:$F$362</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64800000" cy="2700000"/>
+    <ext cx="64980000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64800000" cy="2700000"/>
+    <ext cx="64980000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64800000" cy="2700000"/>
+    <ext cx="64980000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PV23"/>
+  <dimension ref="A1:PW23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2006,6 +2006,7 @@
     <col width="14.4" customWidth="1" min="436" max="436"/>
     <col width="14.4" customWidth="1" min="437" max="437"/>
     <col width="14.4" customWidth="1" min="438" max="438"/>
+    <col width="50.4" customWidth="1" min="439" max="439"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4195,6 +4196,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="PW1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -6188,6 +6194,11 @@
           <t>金麒麟</t>
         </is>
       </c>
+      <c r="PW20" s="5" t="inlineStr">
+        <is>
+          <t>三晖电气</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -9239,6 +9250,11 @@
           <t>三晖电气, 瀛通通讯</t>
         </is>
       </c>
+      <c r="PW22" s="5" t="inlineStr">
+        <is>
+          <t>康欣新材</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11384,6 +11400,11 @@
       <c r="PU23" s="5" t="inlineStr">
         <is>
           <t>国华网安, 德力股份</t>
+        </is>
+      </c>
+      <c r="PW23" s="5" t="inlineStr">
+        <is>
+          <t>棕榈股份, 辉隆股份, 广汇汽车, 亚泰集团, 吉视传媒, 税友股份, 洛凯股份</t>
         </is>
       </c>
     </row>
@@ -11398,7 +11419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G361"/>
+  <dimension ref="A1:G362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19358,6 +19379,28 @@
         <v>10.01</v>
       </c>
     </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>5</v>
+      </c>
+      <c r="C362" t="n">
+        <v>41</v>
+      </c>
+      <c r="D362" t="n">
+        <v>2</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1</v>
+      </c>
+      <c r="F362" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$362</f>
+              <f>'连板数据分析'!$A$2:$A$363</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$362</f>
+              <f>'连板数据分析'!$B$2:$B$363</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$362</f>
+              <f>'连板数据分析'!$A$2:$A$363</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$362</f>
+              <f>'连板数据分析'!$C$2:$C$363</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$362</f>
+              <f>'连板数据分析'!$A$2:$A$363</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$362</f>
+              <f>'连板数据分析'!$D$2:$D$363</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$362</f>
+              <f>'连板数据分析'!$A$2:$A$363</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$362</f>
+              <f>'连板数据分析'!$F$2:$F$363</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64980000" cy="2700000"/>
+    <ext cx="65160000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64980000" cy="2700000"/>
+    <ext cx="65160000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="64980000" cy="2700000"/>
+    <ext cx="65160000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PW23"/>
+  <dimension ref="A1:PX23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2007,6 +2007,7 @@
     <col width="14.4" customWidth="1" min="437" max="437"/>
     <col width="14.4" customWidth="1" min="438" max="438"/>
     <col width="50.4" customWidth="1" min="439" max="439"/>
+    <col width="76.8" customWidth="1" min="440" max="440"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4201,6 +4202,11 @@
           <t>2024-07-02</t>
         </is>
       </c>
+      <c r="PX1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -7502,6 +7508,11 @@
           <t>三晖电气, 瀛通通讯</t>
         </is>
       </c>
+      <c r="PX21" s="5" t="inlineStr">
+        <is>
+          <t>康欣新材</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -9255,6 +9266,11 @@
           <t>康欣新材</t>
         </is>
       </c>
+      <c r="PX22" s="5" t="inlineStr">
+        <is>
+          <t>亚泰集团</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11405,6 +11421,11 @@
       <c r="PW23" s="5" t="inlineStr">
         <is>
           <t>棕榈股份, 辉隆股份, 广汇汽车, 亚泰集团, 吉视传媒, 税友股份, 洛凯股份</t>
+        </is>
+      </c>
+      <c r="PX23" s="5" t="inlineStr">
+        <is>
+          <t>全新好, 海印股份, 久其软件, 林州重机, 东易日盛, 岭南股份, 赤天化, 东方集团, 圣达生物, 宏和科技, 茶花股份</t>
         </is>
       </c>
     </row>
@@ -11419,7 +11440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G362"/>
+  <dimension ref="A1:G363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19401,6 +19422,28 @@
         <v>10.02</v>
       </c>
     </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>4</v>
+      </c>
+      <c r="C363" t="n">
+        <v>29</v>
+      </c>
+      <c r="D363" t="n">
+        <v>4</v>
+      </c>
+      <c r="E363" t="n">
+        <v>1</v>
+      </c>
+      <c r="F363" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$363</f>
+              <f>'连板数据分析'!$A$2:$A$365</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$363</f>
+              <f>'连板数据分析'!$B$2:$B$365</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$363</f>
+              <f>'连板数据分析'!$A$2:$A$365</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$363</f>
+              <f>'连板数据分析'!$C$2:$C$365</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$363</f>
+              <f>'连板数据分析'!$A$2:$A$365</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$363</f>
+              <f>'连板数据分析'!$D$2:$D$365</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$363</f>
+              <f>'连板数据分析'!$A$2:$A$365</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$363</f>
+              <f>'连板数据分析'!$F$2:$F$365</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="65160000" cy="2700000"/>
+    <ext cx="65520000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="65160000" cy="2700000"/>
+    <ext cx="65520000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="65160000" cy="2700000"/>
+    <ext cx="65520000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PX23"/>
+  <dimension ref="A1:PZ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2008,6 +2008,8 @@
     <col width="14.4" customWidth="1" min="438" max="438"/>
     <col width="50.4" customWidth="1" min="439" max="439"/>
     <col width="76.8" customWidth="1" min="440" max="440"/>
+    <col width="14.4" customWidth="1" min="441" max="441"/>
+    <col width="20.4" customWidth="1" min="442" max="442"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4207,6 +4209,16 @@
           <t>2024-07-03</t>
         </is>
       </c>
+      <c r="PY1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="PZ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -7513,6 +7525,11 @@
           <t>康欣新材</t>
         </is>
       </c>
+      <c r="PZ21" s="5" t="inlineStr">
+        <is>
+          <t>东易日盛, 东方集团</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -9271,6 +9288,11 @@
           <t>亚泰集团</t>
         </is>
       </c>
+      <c r="PY22" s="5" t="inlineStr">
+        <is>
+          <t>东易日盛, 东方集团</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11426,6 +11448,16 @@
       <c r="PX23" s="5" t="inlineStr">
         <is>
           <t>全新好, 海印股份, 久其软件, 林州重机, 东易日盛, 岭南股份, 赤天化, 东方集团, 圣达生物, 宏和科技, 茶花股份</t>
+        </is>
+      </c>
+      <c r="PY23" s="5" t="inlineStr">
+        <is>
+          <t>大连友谊</t>
+        </is>
+      </c>
+      <c r="PZ23" s="5" t="inlineStr">
+        <is>
+          <t>远大智能, 湘邮科技, 新亚强</t>
         </is>
       </c>
     </row>
@@ -11440,7 +11472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G363"/>
+  <dimension ref="A1:G365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19444,6 +19476,50 @@
         <v>10.11</v>
       </c>
     </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>3</v>
+      </c>
+      <c r="C364" t="n">
+        <v>13</v>
+      </c>
+      <c r="D364" t="n">
+        <v>5</v>
+      </c>
+      <c r="E364" t="n">
+        <v>2</v>
+      </c>
+      <c r="F364" t="n">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>4</v>
+      </c>
+      <c r="C365" t="n">
+        <v>25</v>
+      </c>
+      <c r="D365" t="n">
+        <v>2</v>
+      </c>
+      <c r="E365" t="n">
+        <v>2</v>
+      </c>
+      <c r="F365" t="n">
+        <v>10.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$365</f>
+              <f>'连板数据分析'!$A$2:$A$366</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$365</f>
+              <f>'连板数据分析'!$B$2:$B$366</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$365</f>
+              <f>'连板数据分析'!$A$2:$A$366</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$365</f>
+              <f>'连板数据分析'!$C$2:$C$366</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$365</f>
+              <f>'连板数据分析'!$A$2:$A$366</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$365</f>
+              <f>'连板数据分析'!$D$2:$D$366</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$365</f>
+              <f>'连板数据分析'!$A$2:$A$366</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$365</f>
+              <f>'连板数据分析'!$F$2:$F$366</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="65520000" cy="2700000"/>
+    <ext cx="65700000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="65520000" cy="2700000"/>
+    <ext cx="65700000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="65520000" cy="2700000"/>
+    <ext cx="65700000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PZ23"/>
+  <dimension ref="A1:QA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2010,6 +2010,7 @@
     <col width="76.8" customWidth="1" min="440" max="440"/>
     <col width="14.4" customWidth="1" min="441" max="441"/>
     <col width="20.4" customWidth="1" min="442" max="442"/>
+    <col width="21.6" customWidth="1" min="443" max="443"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4219,6 +4220,11 @@
           <t>2024-07-05</t>
         </is>
       </c>
+      <c r="QA1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -9293,6 +9299,11 @@
           <t>东易日盛, 东方集团</t>
         </is>
       </c>
+      <c r="QA22" s="5" t="inlineStr">
+        <is>
+          <t>新亚强</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11458,6 +11469,11 @@
       <c r="PZ23" s="5" t="inlineStr">
         <is>
           <t>远大智能, 湘邮科技, 新亚强</t>
+        </is>
+      </c>
+      <c r="QA23" s="5" t="inlineStr">
+        <is>
+          <t>青岛金王, 光华科技, 罗欣药业</t>
         </is>
       </c>
     </row>
@@ -11472,7 +11488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G365"/>
+  <dimension ref="A1:G366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19520,6 +19536,28 @@
         <v>10.17</v>
       </c>
     </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>3</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0</v>
+      </c>
+      <c r="D366" t="n">
+        <v>5</v>
+      </c>
+      <c r="E366" t="n">
+        <v>1</v>
+      </c>
+      <c r="F366" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$366</f>
+              <f>'连板数据分析'!$A$2:$A$368</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$366</f>
+              <f>'连板数据分析'!$B$2:$B$368</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$366</f>
+              <f>'连板数据分析'!$A$2:$A$368</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$366</f>
+              <f>'连板数据分析'!$C$2:$C$368</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$366</f>
+              <f>'连板数据分析'!$A$2:$A$368</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$366</f>
+              <f>'连板数据分析'!$D$2:$D$368</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$366</f>
+              <f>'连板数据分析'!$A$2:$A$368</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$366</f>
+              <f>'连板数据分析'!$F$2:$F$368</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="65700000" cy="2700000"/>
+    <ext cx="66060000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="65700000" cy="2700000"/>
+    <ext cx="66060000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="65700000" cy="2700000"/>
+    <ext cx="66060000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QA23"/>
+  <dimension ref="A1:QC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2011,6 +2011,8 @@
     <col width="14.4" customWidth="1" min="441" max="441"/>
     <col width="20.4" customWidth="1" min="442" max="442"/>
     <col width="21.6" customWidth="1" min="443" max="443"/>
+    <col width="21.6" customWidth="1" min="444" max="444"/>
+    <col width="21.6" customWidth="1" min="445" max="445"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4225,6 +4227,16 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="QB1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="QC1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -7536,6 +7548,16 @@
           <t>东易日盛, 东方集团</t>
         </is>
       </c>
+      <c r="QB21" s="5" t="inlineStr">
+        <is>
+          <t>新亚强</t>
+        </is>
+      </c>
+      <c r="QC21" s="5" t="inlineStr">
+        <is>
+          <t>新亚强</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -11474,6 +11496,16 @@
       <c r="QA23" s="5" t="inlineStr">
         <is>
           <t>青岛金王, 光华科技, 罗欣药业</t>
+        </is>
+      </c>
+      <c r="QB23" s="5" t="inlineStr">
+        <is>
+          <t>凯中精密, 朝阳科技, 格力地产</t>
+        </is>
+      </c>
+      <c r="QC23" s="5" t="inlineStr">
+        <is>
+          <t>凯中精密, 朝阳科技, 格力地产</t>
         </is>
       </c>
     </row>
@@ -11488,7 +11520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:G368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19558,6 +19590,50 @@
         <v>6.86</v>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>4</v>
+      </c>
+      <c r="C367" t="n">
+        <v>37</v>
+      </c>
+      <c r="D367" t="n">
+        <v>7</v>
+      </c>
+      <c r="E367" t="n">
+        <v>1</v>
+      </c>
+      <c r="F367" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>4</v>
+      </c>
+      <c r="C368" t="n">
+        <v>37</v>
+      </c>
+      <c r="D368" t="n">
+        <v>7</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1</v>
+      </c>
+      <c r="F368" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$368</f>
+              <f>'连板数据分析'!$A$2:$A$370</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$368</f>
+              <f>'连板数据分析'!$B$2:$B$370</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$368</f>
+              <f>'连板数据分析'!$A$2:$A$370</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$368</f>
+              <f>'连板数据分析'!$C$2:$C$370</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$368</f>
+              <f>'连板数据分析'!$A$2:$A$370</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$368</f>
+              <f>'连板数据分析'!$D$2:$D$370</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$368</f>
+              <f>'连板数据分析'!$A$2:$A$370</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$368</f>
+              <f>'连板数据分析'!$F$2:$F$370</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="66060000" cy="2700000"/>
+    <ext cx="66420000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="66060000" cy="2700000"/>
+    <ext cx="66420000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="66060000" cy="2700000"/>
+    <ext cx="66420000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,14 +1556,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QC23"/>
+  <dimension ref="A1:QD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="QF7" sqref="QF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
@@ -2001,18 +1999,19 @@
     <col width="21.6" customWidth="1" min="431" max="431"/>
     <col width="14.4" customWidth="1" min="432" max="432"/>
     <col width="36" customWidth="1" min="433" max="433"/>
-    <col width="28.8" customWidth="1" min="434" max="434"/>
+    <col width="28.8" customWidth="1" min="434" max="435"/>
     <col width="28.8" customWidth="1" min="435" max="435"/>
-    <col width="14.4" customWidth="1" min="436" max="436"/>
+    <col width="14.4" customWidth="1" min="436" max="438"/>
     <col width="14.4" customWidth="1" min="437" max="437"/>
     <col width="14.4" customWidth="1" min="438" max="438"/>
     <col width="50.4" customWidth="1" min="439" max="439"/>
     <col width="76.8" customWidth="1" min="440" max="440"/>
     <col width="14.4" customWidth="1" min="441" max="441"/>
     <col width="20.4" customWidth="1" min="442" max="442"/>
-    <col width="21.6" customWidth="1" min="443" max="443"/>
+    <col width="21.6" customWidth="1" min="443" max="444"/>
     <col width="21.6" customWidth="1" min="444" max="444"/>
-    <col width="21.6" customWidth="1" min="445" max="445"/>
+    <col width="42" customWidth="1" min="445" max="445"/>
+    <col width="42" customWidth="1" min="446" max="446"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4234,7 +4233,12 @@
       </c>
       <c r="QC1" s="6" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="QD1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
         </is>
       </c>
     </row>
@@ -6225,12 +6229,12 @@
           <t>索菱股份</t>
         </is>
       </c>
-      <c r="PQ20" s="5" t="inlineStr">
+      <c r="PQ20" s="1" t="inlineStr">
         <is>
           <t>金麒麟</t>
         </is>
       </c>
-      <c r="PW20" s="5" t="inlineStr">
+      <c r="PW20" s="1" t="inlineStr">
         <is>
           <t>三晖电气</t>
         </is>
@@ -7513,49 +7517,54 @@
           <t>索菱股份</t>
         </is>
       </c>
-      <c r="PP21" s="5" t="inlineStr">
+      <c r="PP21" s="1" t="inlineStr">
         <is>
           <t>金麒麟</t>
         </is>
       </c>
-      <c r="PR21" s="5" t="inlineStr">
+      <c r="PR21" s="1" t="inlineStr">
         <is>
           <t>时空科技</t>
         </is>
       </c>
-      <c r="PS21" s="5" t="inlineStr">
+      <c r="PS21" s="1" t="inlineStr">
         <is>
           <t>时空科技</t>
         </is>
       </c>
-      <c r="PT21" s="5" t="inlineStr">
+      <c r="PT21" s="1" t="inlineStr">
         <is>
           <t>三晖电气, 瀛通通讯</t>
         </is>
       </c>
-      <c r="PV21" s="5" t="inlineStr">
+      <c r="PV21" s="1" t="inlineStr">
         <is>
           <t>三晖电气, 瀛通通讯</t>
         </is>
       </c>
-      <c r="PX21" s="5" t="inlineStr">
+      <c r="PX21" s="1" t="inlineStr">
         <is>
           <t>康欣新材</t>
         </is>
       </c>
-      <c r="PZ21" s="5" t="inlineStr">
+      <c r="PZ21" s="1" t="inlineStr">
         <is>
           <t>东易日盛, 东方集团</t>
         </is>
       </c>
-      <c r="QB21" s="5" t="inlineStr">
+      <c r="QB21" s="1" t="inlineStr">
         <is>
           <t>新亚强</t>
         </is>
       </c>
       <c r="QC21" s="5" t="inlineStr">
         <is>
-          <t>新亚强</t>
+          <t>朝阳科技</t>
+        </is>
+      </c>
+      <c r="QD21" s="5" t="inlineStr">
+        <is>
+          <t>朝阳科技</t>
         </is>
       </c>
     </row>
@@ -9281,49 +9290,59 @@
           <t>南京化纤</t>
         </is>
       </c>
-      <c r="PO22" s="5" t="inlineStr">
+      <c r="PO22" s="1" t="inlineStr">
         <is>
           <t>美丽生态, 金麒麟</t>
         </is>
       </c>
-      <c r="PQ22" s="5" t="inlineStr">
+      <c r="PQ22" s="1" t="inlineStr">
         <is>
           <t>时空科技</t>
         </is>
       </c>
-      <c r="PR22" s="5" t="inlineStr">
+      <c r="PR22" s="1" t="inlineStr">
         <is>
           <t>凯中精密, 税友股份</t>
         </is>
       </c>
-      <c r="PS22" s="5" t="inlineStr">
+      <c r="PS22" s="1" t="inlineStr">
         <is>
           <t>凯中精密, 税友股份</t>
         </is>
       </c>
-      <c r="PU22" s="5" t="inlineStr">
+      <c r="PU22" s="1" t="inlineStr">
         <is>
           <t>三晖电气, 瀛通通讯</t>
         </is>
       </c>
-      <c r="PW22" s="5" t="inlineStr">
+      <c r="PW22" s="1" t="inlineStr">
         <is>
           <t>康欣新材</t>
         </is>
       </c>
-      <c r="PX22" s="5" t="inlineStr">
+      <c r="PX22" s="1" t="inlineStr">
         <is>
           <t>亚泰集团</t>
         </is>
       </c>
-      <c r="PY22" s="5" t="inlineStr">
+      <c r="PY22" s="1" t="inlineStr">
         <is>
           <t>东易日盛, 东方集团</t>
         </is>
       </c>
-      <c r="QA22" s="5" t="inlineStr">
+      <c r="QA22" s="1" t="inlineStr">
         <is>
           <t>新亚强</t>
+        </is>
+      </c>
+      <c r="QC22" s="5" t="inlineStr">
+        <is>
+          <t>星网宇达, 锦江在线</t>
+        </is>
+      </c>
+      <c r="QD22" s="5" t="inlineStr">
+        <is>
+          <t>星网宇达, 锦江在线</t>
         </is>
       </c>
     </row>
@@ -11443,69 +11462,74 @@
           <t>美丽生态, 南华生物, 力合科创, 中信尼雅, 金麒麟</t>
         </is>
       </c>
-      <c r="PO23" s="5" t="inlineStr">
+      <c r="PO23" s="1" t="inlineStr">
         <is>
           <t>华锋股份, 景旺电子, 莱绅通灵</t>
         </is>
       </c>
-      <c r="PP23" s="5" t="inlineStr">
+      <c r="PP23" s="1" t="inlineStr">
         <is>
           <t>宏英智能, 时空科技</t>
         </is>
       </c>
-      <c r="PQ23" s="5" t="inlineStr">
+      <c r="PQ23" s="1" t="inlineStr">
         <is>
           <t>华东数控, 凯中精密, 声迅股份, 税友股份, 骏亚科技</t>
         </is>
       </c>
-      <c r="PR23" s="5" t="inlineStr">
+      <c r="PR23" s="1" t="inlineStr">
         <is>
           <t>三晖电气, 瀛通通讯, 华扬联众, 城地香江</t>
         </is>
       </c>
-      <c r="PS23" s="5" t="inlineStr">
+      <c r="PS23" s="1" t="inlineStr">
         <is>
           <t>三晖电气, 瀛通通讯, 华扬联众, 城地香江</t>
         </is>
       </c>
-      <c r="PU23" s="5" t="inlineStr">
+      <c r="PU23" s="1" t="inlineStr">
         <is>
           <t>国华网安, 德力股份</t>
         </is>
       </c>
-      <c r="PW23" s="5" t="inlineStr">
+      <c r="PW23" s="1" t="inlineStr">
         <is>
           <t>棕榈股份, 辉隆股份, 广汇汽车, 亚泰集团, 吉视传媒, 税友股份, 洛凯股份</t>
         </is>
       </c>
-      <c r="PX23" s="5" t="inlineStr">
+      <c r="PX23" s="1" t="inlineStr">
         <is>
           <t>全新好, 海印股份, 久其软件, 林州重机, 东易日盛, 岭南股份, 赤天化, 东方集团, 圣达生物, 宏和科技, 茶花股份</t>
         </is>
       </c>
-      <c r="PY23" s="5" t="inlineStr">
+      <c r="PY23" s="1" t="inlineStr">
         <is>
           <t>大连友谊</t>
         </is>
       </c>
-      <c r="PZ23" s="5" t="inlineStr">
+      <c r="PZ23" s="1" t="inlineStr">
         <is>
           <t>远大智能, 湘邮科技, 新亚强</t>
         </is>
       </c>
-      <c r="QA23" s="5" t="inlineStr">
+      <c r="QA23" s="1" t="inlineStr">
         <is>
           <t>青岛金王, 光华科技, 罗欣药业</t>
         </is>
       </c>
-      <c r="QB23" s="5" t="inlineStr">
+      <c r="QB23" s="1" t="inlineStr">
         <is>
           <t>凯中精密, 朝阳科技, 格力地产</t>
         </is>
       </c>
       <c r="QC23" s="5" t="inlineStr">
         <is>
-          <t>凯中精密, 朝阳科技, 格力地产</t>
+          <t>智慧农业, 若羽臣, 大众交通, 盛屯矿业, 鹿山新材, 骏亚科技</t>
+        </is>
+      </c>
+      <c r="QD23" s="5" t="inlineStr">
+        <is>
+          <t>智慧农业, 若羽臣, 大众交通, 盛屯矿业, 鹿山新材, 骏亚科技</t>
         </is>
       </c>
     </row>
@@ -11520,7 +11544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G368"/>
+  <dimension ref="A1:G370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19634,6 +19658,50 @@
         <v>10.01</v>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>4</v>
+      </c>
+      <c r="C369" t="n">
+        <v>71</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0</v>
+      </c>
+      <c r="E369" t="n">
+        <v>1</v>
+      </c>
+      <c r="F369" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>4</v>
+      </c>
+      <c r="C370" t="n">
+        <v>71</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0</v>
+      </c>
+      <c r="E370" t="n">
+        <v>1</v>
+      </c>
+      <c r="F370" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$370</f>
+              <f>'连板数据分析'!$A$2:$A$375</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$370</f>
+              <f>'连板数据分析'!$B$2:$B$375</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$370</f>
+              <f>'连板数据分析'!$A$2:$A$375</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$370</f>
+              <f>'连板数据分析'!$C$2:$C$375</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$370</f>
+              <f>'连板数据分析'!$A$2:$A$375</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$370</f>
+              <f>'连板数据分析'!$D$2:$D$375</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$370</f>
+              <f>'连板数据分析'!$A$2:$A$375</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$370</f>
+              <f>'连板数据分析'!$F$2:$F$375</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="66420000" cy="2700000"/>
+    <ext cx="67320000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="66420000" cy="2700000"/>
+    <ext cx="67320000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="66420000" cy="2700000"/>
+    <ext cx="67320000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QD23"/>
+  <dimension ref="A1:QI23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2012,6 +2012,11 @@
     <col width="21.6" customWidth="1" min="444" max="444"/>
     <col width="42" customWidth="1" min="445" max="445"/>
     <col width="42" customWidth="1" min="446" max="446"/>
+    <col width="21.6" customWidth="1" min="447" max="447"/>
+    <col width="14.4" customWidth="1" min="448" max="448"/>
+    <col width="43.2" customWidth="1" min="449" max="449"/>
+    <col width="21.6" customWidth="1" min="450" max="450"/>
+    <col width="50.4" customWidth="1" min="451" max="451"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4241,6 +4246,31 @@
           <t>2024-07-12</t>
         </is>
       </c>
+      <c r="QE1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="QF1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="QG1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="QH1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="QI1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -5442,6 +5472,11 @@
           <t>东晶电子</t>
         </is>
       </c>
+      <c r="QF19" s="5" t="inlineStr">
+        <is>
+          <t>锦江在线</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -6239,6 +6274,11 @@
           <t>三晖电气</t>
         </is>
       </c>
+      <c r="QE20" s="5" t="inlineStr">
+        <is>
+          <t>星网宇达, 锦江在线</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -9345,6 +9385,21 @@
           <t>星网宇达, 锦江在线</t>
         </is>
       </c>
+      <c r="QF22" s="5" t="inlineStr">
+        <is>
+          <t>申达股份</t>
+        </is>
+      </c>
+      <c r="QH22" s="5" t="inlineStr">
+        <is>
+          <t>交运股份, 宏辉果蔬</t>
+        </is>
+      </c>
+      <c r="QI22" s="5" t="inlineStr">
+        <is>
+          <t>惠程科技</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11530,6 +11585,31 @@
       <c r="QD23" s="5" t="inlineStr">
         <is>
           <t>智慧农业, 若羽臣, 大众交通, 盛屯矿业, 鹿山新材, 骏亚科技</t>
+        </is>
+      </c>
+      <c r="QE23" s="5" t="inlineStr">
+        <is>
+          <t>珠江钢琴, 申达股份, 雅运股份</t>
+        </is>
+      </c>
+      <c r="QF23" s="5" t="inlineStr">
+        <is>
+          <t>哈森股份</t>
+        </is>
+      </c>
+      <c r="QG23" s="5" t="inlineStr">
+        <is>
+          <t>南京公用, 安凯客车, 交运股份, 宏辉果蔬, 莱绅通灵, 时空科技</t>
+        </is>
+      </c>
+      <c r="QH23" s="5" t="inlineStr">
+        <is>
+          <t>惠程科技, 天宸股份, 复旦复华</t>
+        </is>
+      </c>
+      <c r="QI23" s="5" t="inlineStr">
+        <is>
+          <t>凯美特气, 上海贝岭, 青海华鼎, 动力新科, 京华激光, 今创集团, 至正股份</t>
         </is>
       </c>
     </row>
@@ -11544,7 +11624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G370"/>
+  <dimension ref="A1:G375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19702,6 +19782,116 @@
         <v>10.02</v>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>5</v>
+      </c>
+      <c r="C371" t="n">
+        <v>25</v>
+      </c>
+      <c r="D371" t="n">
+        <v>5</v>
+      </c>
+      <c r="E371" t="n">
+        <v>2</v>
+      </c>
+      <c r="F371" t="n">
+        <v>10.03</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>6</v>
+      </c>
+      <c r="C372" t="n">
+        <v>25</v>
+      </c>
+      <c r="D372" t="n">
+        <v>2</v>
+      </c>
+      <c r="E372" t="n">
+        <v>1</v>
+      </c>
+      <c r="F372" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>2</v>
+      </c>
+      <c r="C373" t="n">
+        <v>21</v>
+      </c>
+      <c r="D373" t="n">
+        <v>5</v>
+      </c>
+      <c r="E373" t="n">
+        <v>6</v>
+      </c>
+      <c r="F373" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>3</v>
+      </c>
+      <c r="C374" t="n">
+        <v>33</v>
+      </c>
+      <c r="D374" t="n">
+        <v>2</v>
+      </c>
+      <c r="E374" t="n">
+        <v>2</v>
+      </c>
+      <c r="F374" t="n">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>3</v>
+      </c>
+      <c r="C375" t="n">
+        <v>30</v>
+      </c>
+      <c r="D375" t="n">
+        <v>2</v>
+      </c>
+      <c r="E375" t="n">
+        <v>1</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$375</f>
+              <f>'连板数据分析'!$A$2:$A$380</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$375</f>
+              <f>'连板数据分析'!$B$2:$B$380</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$375</f>
+              <f>'连板数据分析'!$A$2:$A$380</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$375</f>
+              <f>'连板数据分析'!$C$2:$C$380</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$375</f>
+              <f>'连板数据分析'!$A$2:$A$380</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$375</f>
+              <f>'连板数据分析'!$D$2:$D$380</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$375</f>
+              <f>'连板数据分析'!$A$2:$A$380</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$375</f>
+              <f>'连板数据分析'!$F$2:$F$380</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="67320000" cy="2700000"/>
+    <ext cx="68220000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="67320000" cy="2700000"/>
+    <ext cx="68220000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="67320000" cy="2700000"/>
+    <ext cx="68220000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,12 +1556,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QI23"/>
+  <dimension ref="A1:QN23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="QF7" sqref="QF7"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
@@ -2010,13 +2012,18 @@
     <col width="20.4" customWidth="1" min="442" max="442"/>
     <col width="21.6" customWidth="1" min="443" max="444"/>
     <col width="21.6" customWidth="1" min="444" max="444"/>
-    <col width="42" customWidth="1" min="445" max="445"/>
+    <col width="42" customWidth="1" min="445" max="446"/>
     <col width="42" customWidth="1" min="446" max="446"/>
     <col width="21.6" customWidth="1" min="447" max="447"/>
     <col width="14.4" customWidth="1" min="448" max="448"/>
     <col width="43.2" customWidth="1" min="449" max="449"/>
     <col width="21.6" customWidth="1" min="450" max="450"/>
     <col width="50.4" customWidth="1" min="451" max="451"/>
+    <col width="28.8" customWidth="1" min="452" max="452"/>
+    <col width="50.4" customWidth="1" min="453" max="453"/>
+    <col width="57.59999999999999" customWidth="1" min="454" max="454"/>
+    <col width="21.6" customWidth="1" min="455" max="455"/>
+    <col width="64.8" customWidth="1" min="456" max="456"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4271,6 +4278,31 @@
           <t>2024-07-19</t>
         </is>
       </c>
+      <c r="QJ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="QK1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="QL1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="QM1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="QN1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -5472,7 +5504,7 @@
           <t>东晶电子</t>
         </is>
       </c>
-      <c r="QF19" s="5" t="inlineStr">
+      <c r="QF19" s="1" t="inlineStr">
         <is>
           <t>锦江在线</t>
         </is>
@@ -6274,9 +6306,14 @@
           <t>三晖电气</t>
         </is>
       </c>
-      <c r="QE20" s="5" t="inlineStr">
+      <c r="QE20" s="1" t="inlineStr">
         <is>
           <t>星网宇达, 锦江在线</t>
+        </is>
+      </c>
+      <c r="QN20" s="5" t="inlineStr">
+        <is>
+          <t>腾达科技, 国中水务</t>
         </is>
       </c>
     </row>
@@ -7597,14 +7634,24 @@
           <t>新亚强</t>
         </is>
       </c>
-      <c r="QC21" s="5" t="inlineStr">
+      <c r="QC21" s="1" t="inlineStr">
         <is>
           <t>朝阳科技</t>
         </is>
       </c>
-      <c r="QD21" s="5" t="inlineStr">
+      <c r="QD21" s="1" t="inlineStr">
         <is>
           <t>朝阳科技</t>
+        </is>
+      </c>
+      <c r="QJ21" s="5" t="inlineStr">
+        <is>
+          <t>惠程科技</t>
+        </is>
+      </c>
+      <c r="QM21" s="5" t="inlineStr">
+        <is>
+          <t>腾达科技, 国中水务</t>
         </is>
       </c>
     </row>
@@ -9375,29 +9422,49 @@
           <t>新亚强</t>
         </is>
       </c>
-      <c r="QC22" s="5" t="inlineStr">
+      <c r="QC22" s="1" t="inlineStr">
         <is>
           <t>星网宇达, 锦江在线</t>
         </is>
       </c>
-      <c r="QD22" s="5" t="inlineStr">
+      <c r="QD22" s="1" t="inlineStr">
         <is>
           <t>星网宇达, 锦江在线</t>
         </is>
       </c>
-      <c r="QF22" s="5" t="inlineStr">
+      <c r="QF22" s="1" t="inlineStr">
         <is>
           <t>申达股份</t>
         </is>
       </c>
-      <c r="QH22" s="5" t="inlineStr">
+      <c r="QH22" s="1" t="inlineStr">
         <is>
           <t>交运股份, 宏辉果蔬</t>
         </is>
       </c>
-      <c r="QI22" s="5" t="inlineStr">
+      <c r="QI22" s="1" t="inlineStr">
         <is>
           <t>惠程科技</t>
+        </is>
+      </c>
+      <c r="QJ22" s="5" t="inlineStr">
+        <is>
+          <t>京华激光</t>
+        </is>
+      </c>
+      <c r="QK22" s="5" t="inlineStr">
+        <is>
+          <t>宇通重工</t>
+        </is>
+      </c>
+      <c r="QL22" s="5" t="inlineStr">
+        <is>
+          <t>腾达科技, 国中水务, 哈森股份</t>
+        </is>
+      </c>
+      <c r="QM22" s="5" t="inlineStr">
+        <is>
+          <t>中旗新材, 复旦复华, 申通地铁</t>
         </is>
       </c>
     </row>
@@ -11577,39 +11644,64 @@
           <t>凯中精密, 朝阳科技, 格力地产</t>
         </is>
       </c>
-      <c r="QC23" s="5" t="inlineStr">
+      <c r="QC23" s="1" t="inlineStr">
         <is>
           <t>智慧农业, 若羽臣, 大众交通, 盛屯矿业, 鹿山新材, 骏亚科技</t>
         </is>
       </c>
-      <c r="QD23" s="5" t="inlineStr">
+      <c r="QD23" s="1" t="inlineStr">
         <is>
           <t>智慧农业, 若羽臣, 大众交通, 盛屯矿业, 鹿山新材, 骏亚科技</t>
         </is>
       </c>
-      <c r="QE23" s="5" t="inlineStr">
+      <c r="QE23" s="1" t="inlineStr">
         <is>
           <t>珠江钢琴, 申达股份, 雅运股份</t>
         </is>
       </c>
-      <c r="QF23" s="5" t="inlineStr">
+      <c r="QF23" s="1" t="inlineStr">
         <is>
           <t>哈森股份</t>
         </is>
       </c>
-      <c r="QG23" s="5" t="inlineStr">
+      <c r="QG23" s="1" t="inlineStr">
         <is>
           <t>南京公用, 安凯客车, 交运股份, 宏辉果蔬, 莱绅通灵, 时空科技</t>
         </is>
       </c>
-      <c r="QH23" s="5" t="inlineStr">
+      <c r="QH23" s="1" t="inlineStr">
         <is>
           <t>惠程科技, 天宸股份, 复旦复华</t>
         </is>
       </c>
-      <c r="QI23" s="5" t="inlineStr">
+      <c r="QI23" s="1" t="inlineStr">
         <is>
           <t>凯美特气, 上海贝岭, 青海华鼎, 动力新科, 京华激光, 今创集团, 至正股份</t>
+        </is>
+      </c>
+      <c r="QJ23" s="5" t="inlineStr">
+        <is>
+          <t>天顺股份, 东方中科, 宇通重工, 格尔软件</t>
+        </is>
+      </c>
+      <c r="QK23" s="5" t="inlineStr">
+        <is>
+          <t>锦龙股份, 腾达科技, 东方精工, 国中水务, 大众交通, 金龙汽车, 吉鑫科技</t>
+        </is>
+      </c>
+      <c r="QL23" s="5" t="inlineStr">
+        <is>
+          <t>中旗新材, 启明信息, 北方股份, 开开实业, 复旦复华, 申通地铁, 勘设股份, 塞力医疗</t>
+        </is>
+      </c>
+      <c r="QM23" s="5" t="inlineStr">
+        <is>
+          <t>乐凯胶片</t>
+        </is>
+      </c>
+      <c r="QN23" s="5" t="inlineStr">
+        <is>
+          <t>锦龙股份, 润贝航科, 富临运业, 林海股份, 大众公用, 交运股份, 金龙汽车, 动力新科, 中电电机</t>
         </is>
       </c>
     </row>
@@ -11624,7 +11716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G375"/>
+  <dimension ref="A1:G380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19892,6 +19984,116 @@
         <v>0.41</v>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>4</v>
+      </c>
+      <c r="C376" t="n">
+        <v>35</v>
+      </c>
+      <c r="D376" t="n">
+        <v>3</v>
+      </c>
+      <c r="E376" t="n">
+        <v>1</v>
+      </c>
+      <c r="F376" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>3</v>
+      </c>
+      <c r="C377" t="n">
+        <v>32</v>
+      </c>
+      <c r="D377" t="n">
+        <v>4</v>
+      </c>
+      <c r="E377" t="n">
+        <v>1</v>
+      </c>
+      <c r="F377" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>3</v>
+      </c>
+      <c r="C378" t="n">
+        <v>23</v>
+      </c>
+      <c r="D378" t="n">
+        <v>15</v>
+      </c>
+      <c r="E378" t="n">
+        <v>3</v>
+      </c>
+      <c r="F378" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>4</v>
+      </c>
+      <c r="C379" t="n">
+        <v>34</v>
+      </c>
+      <c r="D379" t="n">
+        <v>3</v>
+      </c>
+      <c r="E379" t="n">
+        <v>2</v>
+      </c>
+      <c r="F379" t="n">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>5</v>
+      </c>
+      <c r="C380" t="n">
+        <v>49</v>
+      </c>
+      <c r="D380" t="n">
+        <v>4</v>
+      </c>
+      <c r="E380" t="n">
+        <v>2</v>
+      </c>
+      <c r="F380" t="n">
+        <v>8.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$380</f>
+              <f>'连板数据分析'!$A$2:$A$382</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$380</f>
+              <f>'连板数据分析'!$B$2:$B$382</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$380</f>
+              <f>'连板数据分析'!$A$2:$A$382</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$380</f>
+              <f>'连板数据分析'!$C$2:$C$382</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$380</f>
+              <f>'连板数据分析'!$A$2:$A$382</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$380</f>
+              <f>'连板数据分析'!$D$2:$D$382</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$380</f>
+              <f>'连板数据分析'!$A$2:$A$382</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$380</f>
+              <f>'连板数据分析'!$F$2:$F$382</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="68220000" cy="2700000"/>
+    <ext cx="68580000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="68220000" cy="2700000"/>
+    <ext cx="68580000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="68220000" cy="2700000"/>
+    <ext cx="68580000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QN23"/>
+  <dimension ref="A1:QP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2024,6 +2024,8 @@
     <col width="57.59999999999999" customWidth="1" min="454" max="454"/>
     <col width="21.6" customWidth="1" min="455" max="455"/>
     <col width="64.8" customWidth="1" min="456" max="456"/>
+    <col width="57.59999999999999" customWidth="1" min="457" max="457"/>
+    <col width="57.59999999999999" customWidth="1" min="458" max="458"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4303,6 +4305,16 @@
           <t>2024-07-26</t>
         </is>
       </c>
+      <c r="QO1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="QP1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -5509,6 +5521,16 @@
           <t>锦江在线</t>
         </is>
       </c>
+      <c r="QO19" s="5" t="inlineStr">
+        <is>
+          <t>腾达科技, 国中水务</t>
+        </is>
+      </c>
+      <c r="QP19" s="5" t="inlineStr">
+        <is>
+          <t>腾达科技, 国中水务</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -9467,6 +9489,16 @@
           <t>中旗新材, 复旦复华, 申通地铁</t>
         </is>
       </c>
+      <c r="QO22" s="5" t="inlineStr">
+        <is>
+          <t>润贝航科, 林海股份, 大众公用, 交运股份, 金龙汽车, 动力新科, 中电电机</t>
+        </is>
+      </c>
+      <c r="QP22" s="5" t="inlineStr">
+        <is>
+          <t>润贝航科, 林海股份, 大众公用, 交运股份, 金龙汽车, 动力新科, 中电电机</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11702,6 +11734,16 @@
       <c r="QN23" s="5" t="inlineStr">
         <is>
           <t>锦龙股份, 润贝航科, 富临运业, 林海股份, 大众公用, 交运股份, 金龙汽车, 动力新科, 中电电机</t>
+        </is>
+      </c>
+      <c r="QO23" s="5" t="inlineStr">
+        <is>
+          <t>宝塔实业, 潍柴重机, 中通客车, 启明信息, 神开股份, 华东重机, 洪都航空, 航天晨光</t>
+        </is>
+      </c>
+      <c r="QP23" s="5" t="inlineStr">
+        <is>
+          <t>宝塔实业, 潍柴重机, 中通客车, 启明信息, 神开股份, 华东重机, 洪都航空, 航天晨光</t>
         </is>
       </c>
     </row>
@@ -11716,7 +11758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G380"/>
+  <dimension ref="A1:G382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11772,10 +11814,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>9.99</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="3">
@@ -11794,7 +11836,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
         <v>10.06</v>
@@ -11816,10 +11858,10 @@
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="5">
@@ -11882,10 +11924,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="8">
@@ -11904,10 +11946,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>10.02</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="9">
@@ -11926,10 +11968,10 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>6.33</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="10">
@@ -11948,10 +11990,10 @@
         <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>6.29</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="11">
@@ -11970,10 +12012,10 @@
         <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>0.49</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="12">
@@ -11992,10 +12034,10 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="13">
@@ -12014,10 +12056,10 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>10.03</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="14">
@@ -12036,10 +12078,10 @@
         <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.36</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="15">
@@ -12058,10 +12100,10 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>5.61</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="16">
@@ -12080,10 +12122,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>7.98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -12102,10 +12144,10 @@
         <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>9.98</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="18">
@@ -12124,10 +12166,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>10.02</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="19">
@@ -12146,7 +12188,7 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
         <v>10.04</v>
@@ -12168,10 +12210,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>10.01</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="21">
@@ -12190,10 +12232,10 @@
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>10.02</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="22">
@@ -12212,10 +12254,10 @@
         <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>10.01</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="23">
@@ -12234,10 +12276,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="24">
@@ -12256,10 +12298,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>7.89</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="25">
@@ -12300,10 +12342,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>6.04</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="27">
@@ -12344,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>10.03</v>
@@ -12366,7 +12408,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>8.23</v>
@@ -12388,10 +12430,10 @@
         <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>9.99</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="31">
@@ -12410,7 +12452,7 @@
         <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>10.01</v>
@@ -12432,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>10.01</v>
@@ -12454,10 +12496,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="34">
@@ -12476,7 +12518,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>10.01</v>
@@ -12498,10 +12540,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="36">
@@ -12542,10 +12584,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>9.99</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="38">
@@ -12564,10 +12606,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>6.55</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="39">
@@ -12586,10 +12628,10 @@
         <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
-        <v>3.18</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="40">
@@ -12608,7 +12650,7 @@
         <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>9.98</v>
@@ -12630,10 +12672,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>9.99</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="42">
@@ -12652,10 +12694,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="43">
@@ -12674,7 +12716,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
         <v>10.04</v>
@@ -12696,10 +12738,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>10.01</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="45">
@@ -12718,7 +12760,7 @@
         <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>10.03</v>
@@ -12740,7 +12782,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>10.03</v>
@@ -12762,7 +12804,7 @@
         <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
         <v>10</v>
@@ -12784,10 +12826,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="49">
@@ -12806,10 +12848,10 @@
         <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="50">
@@ -12828,7 +12870,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>10</v>
@@ -12850,10 +12892,10 @@
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="52">
@@ -12872,7 +12914,7 @@
         <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
         <v>10.02</v>
@@ -12894,7 +12936,7 @@
         <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>10</v>
@@ -12916,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
         <v>10.03</v>
@@ -12960,10 +13002,10 @@
         <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
-        <v>5.22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -13004,10 +13046,10 @@
         <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
-        <v>10.02</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="59">
@@ -13026,7 +13068,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>9.99</v>
@@ -13048,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>9.970000000000001</v>
@@ -13070,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>10.04</v>
@@ -13092,7 +13134,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
         <v>10.01</v>
@@ -13114,10 +13156,10 @@
         <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>10.03</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="64">
@@ -13136,10 +13178,10 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="65">
@@ -13180,10 +13222,10 @@
         <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>3.68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -13202,10 +13244,10 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -13224,10 +13266,10 @@
         <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
-        <v>5.3</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="69">
@@ -13246,10 +13288,10 @@
         <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>9.98</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="70">
@@ -13334,10 +13376,10 @@
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>1.73</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="74">
@@ -13378,10 +13420,10 @@
         <v>12</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>3.17</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="76">
@@ -13422,10 +13464,10 @@
         <v>23</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>5.57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -13488,10 +13530,10 @@
         <v>13</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F80" t="n">
-        <v>9.960000000000001</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="81">
@@ -13510,7 +13552,7 @@
         <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
         <v>10.01</v>
@@ -13532,10 +13574,10 @@
         <v>6</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F82" t="n">
-        <v>3.64</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="83">
@@ -13554,7 +13596,7 @@
         <v>14</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
         <v>10.02</v>
@@ -13576,7 +13618,7 @@
         <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>3.34</v>
@@ -13598,10 +13640,10 @@
         <v>11</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>7.25</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="86">
@@ -13642,10 +13684,10 @@
         <v>4</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>10.01</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="88">
@@ -13664,10 +13706,10 @@
         <v>25</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>0.71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -13686,10 +13728,10 @@
         <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>0.59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -13708,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
         <v>9.99</v>
@@ -13730,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>10.03</v>
@@ -13752,10 +13794,10 @@
         <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
-        <v>9.98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
@@ -13774,10 +13816,10 @@
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>9.74</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="94">
@@ -13796,10 +13838,10 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>8.91</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="95">
@@ -13818,7 +13860,7 @@
         <v>6</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F95" t="n">
         <v>9.99</v>
@@ -13840,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
         <v>10.01</v>
@@ -13862,10 +13904,10 @@
         <v>6</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F97" t="n">
-        <v>6.82</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="98">
@@ -13884,10 +13926,10 @@
         <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>7.01</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="99">
@@ -13906,10 +13948,10 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>5.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
@@ -13928,10 +13970,10 @@
         <v>6</v>
       </c>
       <c r="E100" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F100" t="n">
-        <v>10.01</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="101">
@@ -13950,7 +13992,7 @@
         <v>6</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F101" t="n">
         <v>10.01</v>
@@ -13972,7 +14014,7 @@
         <v>3</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F102" t="n">
         <v>9.99</v>
@@ -13994,7 +14036,7 @@
         <v>11</v>
       </c>
       <c r="E103" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F103" t="n">
         <v>9.99</v>
@@ -14016,10 +14058,10 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>4.86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -14038,10 +14080,10 @@
         <v>11</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F105" t="n">
-        <v>1.64</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="106">
@@ -14060,10 +14102,10 @@
         <v>2</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F106" t="n">
-        <v>4.02</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="107">
@@ -14082,10 +14124,10 @@
         <v>3</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F107" t="n">
-        <v>5.35</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="108">
@@ -14104,10 +14146,10 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="109">
@@ -14126,7 +14168,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F109" t="n">
         <v>10.26</v>
@@ -14148,10 +14190,10 @@
         <v>4</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="111">
@@ -14170,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F111" t="n">
         <v>10.01</v>
@@ -14192,7 +14234,7 @@
         <v>4</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F112" t="n">
         <v>10.04</v>
@@ -14214,10 +14256,10 @@
         <v>2</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F113" t="n">
-        <v>7.27</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="114">
@@ -14258,10 +14300,10 @@
         <v>26</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F115" t="n">
-        <v>10.01</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="116">
@@ -14280,10 +14322,10 @@
         <v>3</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F116" t="n">
-        <v>5.02</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="117">
@@ -14302,10 +14344,10 @@
         <v>8</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="118">
@@ -14324,10 +14366,10 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F118" t="n">
-        <v>10.02</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="119">
@@ -14346,10 +14388,10 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F119" t="n">
-        <v>10.01</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="120">
@@ -14368,10 +14410,10 @@
         <v>9</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F120" t="n">
-        <v>10.04</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="121">
@@ -14390,7 +14432,7 @@
         <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F121" t="n">
         <v>10.04</v>
@@ -14412,10 +14454,10 @@
         <v>4</v>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="123">
@@ -14434,10 +14476,10 @@
         <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
@@ -14456,7 +14498,7 @@
         <v>6</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F124" t="n">
         <v>10.05</v>
@@ -14478,7 +14520,7 @@
         <v>3</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F125" t="n">
         <v>10.06</v>
@@ -14500,7 +14542,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F126" t="n">
         <v>9.99</v>
@@ -14522,10 +14564,10 @@
         <v>5</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>9.970000000000001</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="128">
@@ -14544,7 +14586,7 @@
         <v>4</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F128" t="n">
         <v>10</v>
@@ -14566,10 +14608,10 @@
         <v>10</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F129" t="n">
-        <v>4.91</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="130">
@@ -14588,7 +14630,7 @@
         <v>10</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F130" t="n">
         <v>10</v>
@@ -14610,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F131" t="n">
         <v>8.279999999999999</v>
@@ -14654,10 +14696,10 @@
         <v>3</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>10</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="134">
@@ -14676,10 +14718,10 @@
         <v>10</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F134" t="n">
-        <v>10.05</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="135">
@@ -14720,7 +14762,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F136" t="n">
         <v>9.970000000000001</v>
@@ -14742,7 +14784,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F137" t="n">
         <v>10.27</v>
@@ -14764,7 +14806,7 @@
         <v>3</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F138" t="n">
         <v>10.07</v>
@@ -14786,10 +14828,10 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F139" t="n">
-        <v>4.58</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="140">
@@ -14808,7 +14850,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F140" t="n">
         <v>10.09</v>
@@ -14830,7 +14872,7 @@
         <v>3</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F141" t="n">
         <v>9.970000000000001</v>
@@ -14874,7 +14916,7 @@
         <v>5</v>
       </c>
       <c r="E143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F143" t="n">
         <v>9.970000000000001</v>
@@ -14896,10 +14938,10 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F144" t="n">
-        <v>8.369999999999999</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="145">
@@ -14918,10 +14960,10 @@
         <v>5</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F145" t="n">
-        <v>4.12</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="146">
@@ -14940,7 +14982,7 @@
         <v>6</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F146" t="n">
         <v>5.07</v>
@@ -14962,10 +15004,10 @@
         <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="148">
@@ -14984,10 +15026,10 @@
         <v>2</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="149">
@@ -15006,10 +15048,10 @@
         <v>3</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F149" t="n">
-        <v>6.36</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="150">
@@ -15050,10 +15092,10 @@
         <v>2</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="152">
@@ -15072,10 +15114,10 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F152" t="n">
-        <v>5.19</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="153">
@@ -15094,10 +15136,10 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F153" t="n">
-        <v>0.26</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="154">
@@ -15116,7 +15158,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F154" t="n">
         <v>10.01</v>
@@ -15138,10 +15180,10 @@
         <v>4</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="156">
@@ -15160,10 +15202,10 @@
         <v>3</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F156" t="n">
-        <v>9.98</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="157">
@@ -15182,10 +15224,10 @@
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F157" t="n">
-        <v>5.98</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="158">
@@ -15204,10 +15246,10 @@
         <v>11</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="159">
@@ -15226,7 +15268,7 @@
         <v>35</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F159" t="n">
         <v>10.04</v>
@@ -15248,10 +15290,10 @@
         <v>3</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F160" t="n">
-        <v>9.99</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="161">
@@ -15270,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F161" t="n">
         <v>9.92</v>
@@ -15292,10 +15334,10 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>9.01</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="163">
@@ -15314,10 +15356,10 @@
         <v>8</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F163" t="n">
-        <v>7.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
@@ -15336,7 +15378,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F164" t="n">
         <v>9.98</v>
@@ -15358,10 +15400,10 @@
         <v>2</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F165" t="n">
-        <v>9.98</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="166">
@@ -15380,10 +15422,10 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F166" t="n">
-        <v>9.98</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="167">
@@ -15402,10 +15444,10 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F167" t="n">
-        <v>5.05</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="168">
@@ -15424,10 +15466,10 @@
         <v>4</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F168" t="n">
-        <v>9.09</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="169">
@@ -15446,10 +15488,10 @@
         <v>4</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F169" t="n">
-        <v>4.14</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="170">
@@ -15468,10 +15510,10 @@
         <v>2</v>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F170" t="n">
-        <v>10</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="171">
@@ -15490,10 +15532,10 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F171" t="n">
-        <v>3.5</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="172">
@@ -15512,10 +15554,10 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="173">
@@ -15534,10 +15576,10 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F173" t="n">
-        <v>0.06</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="174">
@@ -15556,10 +15598,10 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F174" t="n">
-        <v>0.73</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="175">
@@ -15578,7 +15620,7 @@
         <v>8</v>
       </c>
       <c r="E175" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F175" t="n">
         <v>10.01</v>
@@ -15600,10 +15642,10 @@
         <v>9</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F176" t="n">
-        <v>7.51</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="177">
@@ -15622,10 +15664,10 @@
         <v>10</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F177" t="n">
-        <v>1.46</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="178">
@@ -15644,10 +15686,10 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F178" t="n">
-        <v>5.09</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="179">
@@ -15666,10 +15708,10 @@
         <v>3</v>
       </c>
       <c r="E179" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F179" t="n">
-        <v>5.63</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="180">
@@ -15688,7 +15730,7 @@
         <v>5</v>
       </c>
       <c r="E180" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F180" t="n">
         <v>10.02</v>
@@ -15710,7 +15752,7 @@
         <v>5</v>
       </c>
       <c r="E181" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F181" t="n">
         <v>10.08</v>
@@ -15732,10 +15774,10 @@
         <v>6</v>
       </c>
       <c r="E182" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F182" t="n">
-        <v>10.04</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="183">
@@ -15754,7 +15796,7 @@
         <v>3</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F183" t="n">
         <v>10.08</v>
@@ -15776,10 +15818,10 @@
         <v>10</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F184" t="n">
-        <v>1.74</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="185">
@@ -15798,10 +15840,10 @@
         <v>10</v>
       </c>
       <c r="E185" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F185" t="n">
-        <v>9.99</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="186">
@@ -15820,7 +15862,7 @@
         <v>3</v>
       </c>
       <c r="E186" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F186" t="n">
         <v>10</v>
@@ -15842,10 +15884,10 @@
         <v>3</v>
       </c>
       <c r="E187" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F187" t="n">
-        <v>9.99</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="188">
@@ -15864,10 +15906,10 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F188" t="n">
-        <v>4.7</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="189">
@@ -15886,10 +15928,10 @@
         <v>7</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F189" t="n">
-        <v>9.98</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="190">
@@ -15908,10 +15950,10 @@
         <v>6</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="191">
@@ -15930,10 +15972,10 @@
         <v>6</v>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="192">
@@ -15952,10 +15994,10 @@
         <v>18</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F192" t="n">
-        <v>8.539999999999999</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="193">
@@ -15974,10 +16016,10 @@
         <v>13</v>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="194">
@@ -15996,10 +16038,10 @@
         <v>12</v>
       </c>
       <c r="E194" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F194" t="n">
-        <v>7</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="195">
@@ -16018,10 +16060,10 @@
         <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F195" t="n">
-        <v>7.43</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="196">
@@ -16040,10 +16082,10 @@
         <v>2</v>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>4.28</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="197">
@@ -16062,10 +16104,10 @@
         <v>5</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F197" t="n">
-        <v>10.01</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="198">
@@ -16084,10 +16126,10 @@
         <v>2</v>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F198" t="n">
-        <v>9.99</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="199">
@@ -16106,10 +16148,10 @@
         <v>6</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F199" t="n">
-        <v>9.99</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="200">
@@ -16128,10 +16170,10 @@
         <v>11</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F200" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="201">
@@ -16150,10 +16192,10 @@
         <v>5</v>
       </c>
       <c r="E201" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F201" t="n">
-        <v>10</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="202">
@@ -16172,7 +16214,7 @@
         <v>2</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F202" t="n">
         <v>10.01</v>
@@ -16194,10 +16236,10 @@
         <v>2</v>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F203" t="n">
-        <v>10.02</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="204">
@@ -16216,10 +16258,10 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F204" t="n">
-        <v>9.99</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="205">
@@ -16238,10 +16280,10 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>9.99</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="206">
@@ -16260,10 +16302,10 @@
         <v>3</v>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F206" t="n">
-        <v>10.01</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="207">
@@ -16282,10 +16324,10 @@
         <v>18</v>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F207" t="n">
-        <v>10.01</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="208">
@@ -16304,7 +16346,7 @@
         <v>13</v>
       </c>
       <c r="E208" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F208" t="n">
         <v>10.04</v>
@@ -16326,10 +16368,10 @@
         <v>3</v>
       </c>
       <c r="E209" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F209" t="n">
-        <v>9.960000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210">
@@ -16348,10 +16390,10 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F210" t="n">
-        <v>9.99</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="211">
@@ -16370,10 +16412,10 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F211" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="212">
@@ -16392,7 +16434,7 @@
         <v>4</v>
       </c>
       <c r="E212" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F212" t="n">
         <v>10</v>
@@ -16414,10 +16456,10 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F213" t="n">
-        <v>10.02</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="214">
@@ -16436,10 +16478,10 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F214" t="n">
-        <v>9.98</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="215">
@@ -16458,7 +16500,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F215" t="n">
         <v>10.02</v>
@@ -16480,10 +16522,10 @@
         <v>8</v>
       </c>
       <c r="E216" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F216" t="n">
-        <v>4.73</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="217">
@@ -16502,7 +16544,7 @@
         <v>15</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F217" t="n">
         <v>9.99</v>
@@ -16524,10 +16566,10 @@
         <v>12</v>
       </c>
       <c r="E218" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F218" t="n">
-        <v>3.58</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="219">
@@ -16546,10 +16588,10 @@
         <v>18</v>
       </c>
       <c r="E219" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="220">
@@ -16568,7 +16610,7 @@
         <v>11</v>
       </c>
       <c r="E220" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F220" t="n">
         <v>10.02</v>
@@ -16590,10 +16632,10 @@
         <v>8</v>
       </c>
       <c r="E221" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F221" t="n">
-        <v>9.98</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="222">
@@ -16612,10 +16654,10 @@
         <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="223">
@@ -16634,10 +16676,10 @@
         <v>2</v>
       </c>
       <c r="E223" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F223" t="n">
-        <v>1.23</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="224">
@@ -16656,10 +16698,10 @@
         <v>2</v>
       </c>
       <c r="E224" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F224" t="n">
-        <v>1.97</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="225">
@@ -16678,10 +16720,10 @@
         <v>2</v>
       </c>
       <c r="E225" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F225" t="n">
-        <v>7</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="226">
@@ -16700,7 +16742,7 @@
         <v>6</v>
       </c>
       <c r="E226" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F226" t="n">
         <v>10.01</v>
@@ -16722,10 +16764,10 @@
         <v>13</v>
       </c>
       <c r="E227" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F227" t="n">
-        <v>10.03</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="228">
@@ -16744,7 +16786,7 @@
         <v>13</v>
       </c>
       <c r="E228" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F228" t="n">
         <v>10.07</v>
@@ -16766,10 +16808,10 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F229" t="n">
-        <v>7.54</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="230">
@@ -16788,10 +16830,10 @@
         <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F230" t="n">
-        <v>10</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="231">
@@ -16810,10 +16852,10 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F231" t="n">
-        <v>9.300000000000001</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="232">
@@ -16832,10 +16874,10 @@
         <v>9</v>
       </c>
       <c r="E232" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F232" t="n">
-        <v>10.02</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="233">
@@ -16854,10 +16896,10 @@
         <v>3</v>
       </c>
       <c r="E233" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F233" t="n">
-        <v>9.970000000000001</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="234">
@@ -16876,10 +16918,10 @@
         <v>12</v>
       </c>
       <c r="E234" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F234" t="n">
-        <v>10</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="235">
@@ -16898,10 +16940,10 @@
         <v>13</v>
       </c>
       <c r="E235" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F235" t="n">
-        <v>7</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="236">
@@ -16920,7 +16962,7 @@
         <v>9</v>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F236" t="n">
         <v>10.02</v>
@@ -16942,10 +16984,10 @@
         <v>4</v>
       </c>
       <c r="E237" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F237" t="n">
-        <v>2.43</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="238">
@@ -16964,10 +17006,10 @@
         <v>50</v>
       </c>
       <c r="E238" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F238" t="n">
-        <v>9.130000000000001</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="239">
@@ -16986,10 +17028,10 @@
         <v>22</v>
       </c>
       <c r="E239" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F239" t="n">
-        <v>2.62</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="240">
@@ -17008,10 +17050,10 @@
         <v>9</v>
       </c>
       <c r="E240" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F240" t="n">
-        <v>9.44</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="241">
@@ -17030,10 +17072,10 @@
         <v>16</v>
       </c>
       <c r="E241" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F241" t="n">
-        <v>5.36</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="242">
@@ -17052,10 +17094,10 @@
         <v>8</v>
       </c>
       <c r="E242" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F242" t="n">
-        <v>4.28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
@@ -17074,10 +17116,10 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="244">
@@ -17096,10 +17138,10 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F244" t="n">
-        <v>4.7</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="245">
@@ -17118,10 +17160,10 @@
         <v>8</v>
       </c>
       <c r="E245" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F245" t="n">
-        <v>5.17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246">
@@ -17140,10 +17182,10 @@
         <v>8</v>
       </c>
       <c r="E246" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="247">
@@ -17162,10 +17204,10 @@
         <v>8</v>
       </c>
       <c r="E247" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F247" t="n">
-        <v>7.17</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="248">
@@ -17184,10 +17226,10 @@
         <v>11</v>
       </c>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F248" t="n">
-        <v>4.01</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="249">
@@ -17206,10 +17248,10 @@
         <v>6</v>
       </c>
       <c r="E249" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F249" t="n">
-        <v>9.99</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="250">
@@ -17228,10 +17270,10 @@
         <v>11</v>
       </c>
       <c r="E250" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F250" t="n">
-        <v>9.99</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="251">
@@ -17250,10 +17292,10 @@
         <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F251" t="n">
-        <v>9.970000000000001</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="252">
@@ -17272,7 +17314,7 @@
         <v>4</v>
       </c>
       <c r="E252" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F252" t="n">
         <v>10.08</v>
@@ -17294,10 +17336,10 @@
         <v>4</v>
       </c>
       <c r="E253" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F253" t="n">
-        <v>1.83</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="254">
@@ -17316,10 +17358,10 @@
         <v>3</v>
       </c>
       <c r="E254" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F254" t="n">
-        <v>9.99</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="255">
@@ -17338,10 +17380,10 @@
         <v>8</v>
       </c>
       <c r="E255" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F255" t="n">
-        <v>8.449999999999999</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="256">
@@ -17360,10 +17402,10 @@
         <v>8</v>
       </c>
       <c r="E256" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F256" t="n">
-        <v>5.05</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="257">
@@ -17382,10 +17424,10 @@
         <v>23</v>
       </c>
       <c r="E257" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="258">
@@ -17404,10 +17446,10 @@
         <v>71</v>
       </c>
       <c r="E258" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F258" t="n">
-        <v>4.08</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="259">
@@ -17426,10 +17468,10 @@
         <v>26</v>
       </c>
       <c r="E259" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F259" t="n">
-        <v>6.29</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="260">
@@ -17448,10 +17490,10 @@
         <v>3</v>
       </c>
       <c r="E260" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="261">
@@ -17470,10 +17512,10 @@
         <v>3</v>
       </c>
       <c r="E261" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F261" t="n">
-        <v>10.02</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="262">
@@ -17492,10 +17534,10 @@
         <v>7</v>
       </c>
       <c r="E262" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F262" t="n">
-        <v>9.960000000000001</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="263">
@@ -17514,7 +17556,7 @@
         <v>52</v>
       </c>
       <c r="E263" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F263" t="n">
         <v>10.06</v>
@@ -17536,7 +17578,7 @@
         <v>63</v>
       </c>
       <c r="E264" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F264" t="n">
         <v>10.05</v>
@@ -17558,7 +17600,7 @@
         <v>124</v>
       </c>
       <c r="E265" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F265" t="n">
         <v>5.73</v>
@@ -17580,10 +17622,10 @@
         <v>45</v>
       </c>
       <c r="E266" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F266" t="n">
-        <v>9.99</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="267">
@@ -17602,10 +17644,10 @@
         <v>47</v>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F267" t="n">
-        <v>9.32</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="268">
@@ -17624,10 +17666,10 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F268" t="n">
-        <v>9.98</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="269">
@@ -17646,10 +17688,10 @@
         <v>86</v>
       </c>
       <c r="E269" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F269" t="n">
-        <v>5.62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
@@ -17668,10 +17710,10 @@
         <v>241</v>
       </c>
       <c r="E270" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F270" t="n">
-        <v>10</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="271">
@@ -17690,10 +17732,10 @@
         <v>2</v>
       </c>
       <c r="E271" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F271" t="n">
-        <v>4.49</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="272">
@@ -17712,10 +17754,10 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="F272" t="n">
-        <v>10.02</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="273">
@@ -17734,10 +17776,10 @@
         <v>0</v>
       </c>
       <c r="E273" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F273" t="n">
-        <v>10.02</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="274">
@@ -17756,10 +17798,10 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>10.01</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="275">
@@ -17778,10 +17820,10 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F275" t="n">
-        <v>9.99</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="276">
@@ -17800,10 +17842,10 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F276" t="n">
-        <v>9.99</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="277">
@@ -17822,10 +17864,10 @@
         <v>0</v>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F277" t="n">
-        <v>10</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="278">
@@ -17844,10 +17886,10 @@
         <v>1</v>
       </c>
       <c r="E278" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F278" t="n">
-        <v>5.93</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="279">
@@ -17866,10 +17908,10 @@
         <v>261</v>
       </c>
       <c r="E279" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F279" t="n">
-        <v>9.98</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="280">
@@ -17888,10 +17930,10 @@
         <v>3</v>
       </c>
       <c r="E280" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F280" t="n">
-        <v>8.17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281">
@@ -17910,10 +17952,10 @@
         <v>4</v>
       </c>
       <c r="E281" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F281" t="n">
-        <v>10.04</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="282">
@@ -17932,10 +17974,10 @@
         <v>6</v>
       </c>
       <c r="E282" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F282" t="n">
-        <v>10.02</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="283">
@@ -17954,10 +17996,10 @@
         <v>5</v>
       </c>
       <c r="E283" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F283" t="n">
-        <v>10.02</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="284">
@@ -17976,10 +18018,10 @@
         <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F284" t="n">
-        <v>9.99</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="285">
@@ -17998,10 +18040,10 @@
         <v>4</v>
       </c>
       <c r="E285" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F285" t="n">
-        <v>9.99</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="286">
@@ -18020,10 +18062,10 @@
         <v>2</v>
       </c>
       <c r="E286" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F286" t="n">
-        <v>10.02</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="287">
@@ -18042,10 +18084,10 @@
         <v>0</v>
       </c>
       <c r="E287" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F287" t="n">
-        <v>9.99</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="288">
@@ -18064,10 +18106,10 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>9.98</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="289">
@@ -18086,10 +18128,10 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F289" t="n">
-        <v>6.03</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="290">
@@ -18108,10 +18150,10 @@
         <v>2</v>
       </c>
       <c r="E290" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F290" t="n">
-        <v>10</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="291">
@@ -18130,10 +18172,10 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F291" t="n">
-        <v>9.98</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="292">
@@ -18152,10 +18194,10 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F292" t="n">
-        <v>10.01</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="293">
@@ -18174,10 +18216,10 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F293" t="n">
-        <v>4.04</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="294">
@@ -18196,10 +18238,10 @@
         <v>2</v>
       </c>
       <c r="E294" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F294" t="n">
-        <v>5.9</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="295">
@@ -18218,10 +18260,10 @@
         <v>5</v>
       </c>
       <c r="E295" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F295" t="n">
-        <v>6.2</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="296">
@@ -18240,10 +18282,10 @@
         <v>10</v>
       </c>
       <c r="E296" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F296" t="n">
-        <v>9.94</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="297">
@@ -18262,7 +18304,7 @@
         <v>25</v>
       </c>
       <c r="E297" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F297" t="n">
         <v>10.01</v>
@@ -18284,7 +18326,7 @@
         <v>10</v>
       </c>
       <c r="E298" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F298" t="n">
         <v>10.08</v>
@@ -18306,10 +18348,10 @@
         <v>40</v>
       </c>
       <c r="E299" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F299" t="n">
-        <v>9.17</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="300">
@@ -18328,10 +18370,10 @@
         <v>4</v>
       </c>
       <c r="E300" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F300" t="n">
-        <v>9.98</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="301">
@@ -18350,10 +18392,10 @@
         <v>8</v>
       </c>
       <c r="E301" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F301" t="n">
-        <v>9.98</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="302">
@@ -18372,10 +18414,10 @@
         <v>5</v>
       </c>
       <c r="E302" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F302" t="n">
-        <v>10</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="303">
@@ -18394,10 +18436,10 @@
         <v>3</v>
       </c>
       <c r="E303" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F303" t="n">
-        <v>10.02</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="304">
@@ -18416,10 +18458,10 @@
         <v>10</v>
       </c>
       <c r="E304" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F304" t="n">
-        <v>9.99</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="305">
@@ -18438,7 +18480,7 @@
         <v>30</v>
       </c>
       <c r="E305" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F305" t="n">
         <v>10.03</v>
@@ -18460,10 +18502,10 @@
         <v>12</v>
       </c>
       <c r="E306" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F306" t="n">
-        <v>9.25</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="307">
@@ -18482,10 +18524,10 @@
         <v>16</v>
       </c>
       <c r="E307" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F307" t="n">
-        <v>9.619999999999999</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="308">
@@ -18504,10 +18546,10 @@
         <v>10</v>
       </c>
       <c r="E308" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F308" t="n">
-        <v>9.970000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
@@ -18526,10 +18568,10 @@
         <v>11</v>
       </c>
       <c r="E309" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F309" t="n">
-        <v>9.970000000000001</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="310">
@@ -18548,7 +18590,7 @@
         <v>230</v>
       </c>
       <c r="E310" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F310" t="n">
         <v>10.13</v>
@@ -18570,7 +18612,7 @@
         <v>641</v>
       </c>
       <c r="E311" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F311" t="n">
         <v>9.99</v>
@@ -18592,10 +18634,10 @@
         <v>5</v>
       </c>
       <c r="E312" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F312" t="n">
-        <v>10.02</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="313">
@@ -18614,10 +18656,10 @@
         <v>5</v>
       </c>
       <c r="E313" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F313" t="n">
-        <v>10.01</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="314">
@@ -18636,10 +18678,10 @@
         <v>11</v>
       </c>
       <c r="E314" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F314" t="n">
-        <v>10.01</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="315">
@@ -18658,7 +18700,7 @@
         <v>25</v>
       </c>
       <c r="E315" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F315" t="n">
         <v>10.02</v>
@@ -18680,10 +18722,10 @@
         <v>21</v>
       </c>
       <c r="E316" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F316" t="n">
-        <v>4.39</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="317">
@@ -18702,10 +18744,10 @@
         <v>9</v>
       </c>
       <c r="E317" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="318">
@@ -18724,10 +18766,10 @@
         <v>11</v>
       </c>
       <c r="E318" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F318" t="n">
-        <v>9.98</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="319">
@@ -18746,10 +18788,10 @@
         <v>6</v>
       </c>
       <c r="E319" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F319" t="n">
-        <v>0</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="320">
@@ -18768,10 +18810,10 @@
         <v>7</v>
       </c>
       <c r="E320" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F320" t="n">
-        <v>5.56</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="321">
@@ -18790,10 +18832,10 @@
         <v>18</v>
       </c>
       <c r="E321" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F321" t="n">
-        <v>10</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="322">
@@ -18812,10 +18854,10 @@
         <v>3</v>
       </c>
       <c r="E322" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F322" t="n">
-        <v>10.1</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="323">
@@ -18834,7 +18876,7 @@
         <v>0</v>
       </c>
       <c r="E323" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F323" t="n">
         <v>10.03</v>
@@ -18856,10 +18898,10 @@
         <v>2</v>
       </c>
       <c r="E324" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F324" t="n">
-        <v>10.01</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="325">
@@ -18878,10 +18920,10 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F325" t="n">
-        <v>8.880000000000001</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="326">
@@ -18900,10 +18942,10 @@
         <v>4</v>
       </c>
       <c r="E326" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F326" t="n">
-        <v>4.26</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="327">
@@ -18922,7 +18964,7 @@
         <v>17</v>
       </c>
       <c r="E327" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F327" t="n">
         <v>10.01</v>
@@ -18944,7 +18986,7 @@
         <v>7</v>
       </c>
       <c r="E328" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F328" t="n">
         <v>9.99</v>
@@ -18966,10 +19008,10 @@
         <v>3</v>
       </c>
       <c r="E329" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F329" t="n">
-        <v>1.41</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="330">
@@ -18988,7 +19030,7 @@
         <v>1</v>
       </c>
       <c r="E330" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F330" t="n">
         <v>10.06</v>
@@ -19010,10 +19052,10 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F331" t="n">
-        <v>7.4</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="332">
@@ -19032,7 +19074,7 @@
         <v>8</v>
       </c>
       <c r="E332" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F332" t="n">
         <v>10.06</v>
@@ -19054,7 +19096,7 @@
         <v>6</v>
       </c>
       <c r="E333" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F333" t="n">
         <v>10.04</v>
@@ -19076,7 +19118,7 @@
         <v>4</v>
       </c>
       <c r="E334" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F334" t="n">
         <v>10.01</v>
@@ -19098,10 +19140,10 @@
         <v>5</v>
       </c>
       <c r="E335" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F335" t="n">
-        <v>6.45</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="336">
@@ -19120,10 +19162,10 @@
         <v>10</v>
       </c>
       <c r="E336" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F336" t="n">
-        <v>9.24</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="337">
@@ -19142,10 +19184,10 @@
         <v>14</v>
       </c>
       <c r="E337" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="338">
@@ -19164,7 +19206,7 @@
         <v>8</v>
       </c>
       <c r="E338" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F338" t="n">
         <v>10.06</v>
@@ -19186,10 +19228,10 @@
         <v>9</v>
       </c>
       <c r="E339" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F339" t="n">
-        <v>9.960000000000001</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="340">
@@ -19208,10 +19250,10 @@
         <v>13</v>
       </c>
       <c r="E340" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="341">
@@ -19230,10 +19272,10 @@
         <v>5</v>
       </c>
       <c r="E341" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F341" t="n">
-        <v>4.37</v>
+        <v>9.91</v>
       </c>
     </row>
     <row r="342">
@@ -19252,7 +19294,7 @@
         <v>29</v>
       </c>
       <c r="E342" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F342" t="n">
         <v>5.71</v>
@@ -19274,10 +19316,10 @@
         <v>12</v>
       </c>
       <c r="E343" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F343" t="n">
-        <v>7.14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344">
@@ -19296,10 +19338,10 @@
         <v>5</v>
       </c>
       <c r="E344" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F344" t="n">
-        <v>10.01</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="345">
@@ -19318,7 +19360,7 @@
         <v>62</v>
       </c>
       <c r="E345" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F345" t="n">
         <v>10.01</v>
@@ -19340,7 +19382,7 @@
         <v>6</v>
       </c>
       <c r="E346" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F346" t="n">
         <v>9.99</v>
@@ -19362,10 +19404,10 @@
         <v>7</v>
       </c>
       <c r="E347" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F347" t="n">
-        <v>7.03</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="348">
@@ -19384,10 +19426,10 @@
         <v>5</v>
       </c>
       <c r="E348" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F348" t="n">
-        <v>9.99</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="349">
@@ -19406,7 +19448,7 @@
         <v>3</v>
       </c>
       <c r="E349" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F349" t="n">
         <v>10.1</v>
@@ -19428,10 +19470,10 @@
         <v>3</v>
       </c>
       <c r="E350" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F350" t="n">
-        <v>9.699999999999999</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="351">
@@ -19450,10 +19492,10 @@
         <v>4</v>
       </c>
       <c r="E351" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F351" t="n">
-        <v>8.25</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="352">
@@ -19472,10 +19514,10 @@
         <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F352" t="n">
-        <v>9.67</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="353">
@@ -19494,10 +19536,10 @@
         <v>2</v>
       </c>
       <c r="E353" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F353" t="n">
-        <v>2.63</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="354">
@@ -19516,10 +19558,10 @@
         <v>6</v>
       </c>
       <c r="E354" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F354" t="n">
-        <v>6.09</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="355">
@@ -19538,7 +19580,7 @@
         <v>10</v>
       </c>
       <c r="E355" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F355" t="n">
         <v>10.05</v>
@@ -19560,7 +19602,7 @@
         <v>21</v>
       </c>
       <c r="E356" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F356" t="n">
         <v>10.23</v>
@@ -19582,7 +19624,7 @@
         <v>12</v>
       </c>
       <c r="E357" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F357" t="n">
         <v>10.03</v>
@@ -19604,7 +19646,7 @@
         <v>2</v>
       </c>
       <c r="E358" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F358" t="n">
         <v>10.02</v>
@@ -19626,10 +19668,10 @@
         <v>6</v>
       </c>
       <c r="E359" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F359" t="n">
-        <v>0</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="360">
@@ -19648,7 +19690,7 @@
         <v>8</v>
       </c>
       <c r="E360" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F360" t="n">
         <v>9.970000000000001</v>
@@ -19692,7 +19734,7 @@
         <v>2</v>
       </c>
       <c r="E362" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F362" t="n">
         <v>10.02</v>
@@ -19714,7 +19756,7 @@
         <v>4</v>
       </c>
       <c r="E363" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F363" t="n">
         <v>10.11</v>
@@ -19736,7 +19778,7 @@
         <v>5</v>
       </c>
       <c r="E364" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F364" t="n">
         <v>10.08</v>
@@ -19758,7 +19800,7 @@
         <v>2</v>
       </c>
       <c r="E365" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F365" t="n">
         <v>10.17</v>
@@ -19780,10 +19822,10 @@
         <v>5</v>
       </c>
       <c r="E366" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F366" t="n">
-        <v>6.86</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="367">
@@ -19802,10 +19844,10 @@
         <v>7</v>
       </c>
       <c r="E367" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F367" t="n">
-        <v>10.01</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="368">
@@ -19824,10 +19866,10 @@
         <v>7</v>
       </c>
       <c r="E368" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F368" t="n">
-        <v>10.01</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="369">
@@ -19846,10 +19888,10 @@
         <v>0</v>
       </c>
       <c r="E369" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F369" t="n">
-        <v>10.02</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="370">
@@ -19868,10 +19910,10 @@
         <v>0</v>
       </c>
       <c r="E370" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F370" t="n">
-        <v>10.02</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371">
@@ -19890,10 +19932,10 @@
         <v>5</v>
       </c>
       <c r="E371" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F371" t="n">
-        <v>10.03</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="372">
@@ -19912,7 +19954,7 @@
         <v>2</v>
       </c>
       <c r="E372" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F372" t="n">
         <v>9.99</v>
@@ -19956,7 +19998,7 @@
         <v>2</v>
       </c>
       <c r="E374" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F374" t="n">
         <v>10.08</v>
@@ -19978,10 +20020,10 @@
         <v>2</v>
       </c>
       <c r="E375" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F375" t="n">
-        <v>0.41</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="376">
@@ -20000,10 +20042,10 @@
         <v>3</v>
       </c>
       <c r="E376" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F376" t="n">
-        <v>6.3</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="377">
@@ -20022,10 +20064,10 @@
         <v>4</v>
       </c>
       <c r="E377" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F377" t="n">
-        <v>3.94</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="378">
@@ -20044,7 +20086,7 @@
         <v>15</v>
       </c>
       <c r="E378" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F378" t="n">
         <v>10.11</v>
@@ -20066,7 +20108,7 @@
         <v>3</v>
       </c>
       <c r="E379" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F379" t="n">
         <v>10.15</v>
@@ -20088,10 +20130,54 @@
         <v>4</v>
       </c>
       <c r="E380" t="n">
+        <v>10</v>
+      </c>
+      <c r="F380" t="n">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>6</v>
+      </c>
+      <c r="C381" t="n">
+        <v>51</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0</v>
+      </c>
+      <c r="E381" t="n">
         <v>2</v>
       </c>
-      <c r="F380" t="n">
-        <v>8.33</v>
+      <c r="F381" t="n">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>6</v>
+      </c>
+      <c r="C382" t="n">
+        <v>51</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0</v>
+      </c>
+      <c r="E382" t="n">
+        <v>2</v>
+      </c>
+      <c r="F382" t="n">
+        <v>9.98</v>
       </c>
     </row>
   </sheetData>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QP23"/>
+  <dimension ref="A1:QQ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2026,6 +2026,7 @@
     <col width="64.8" customWidth="1" min="456" max="456"/>
     <col width="57.59999999999999" customWidth="1" min="457" max="457"/>
     <col width="57.59999999999999" customWidth="1" min="458" max="458"/>
+    <col width="72" customWidth="1" min="459" max="459"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4315,6 +4316,11 @@
           <t>2024-07-30</t>
         </is>
       </c>
+      <c r="QQ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -5099,6 +5105,11 @@
           <t>东晶电子</t>
         </is>
       </c>
+      <c r="QQ18" s="5" t="inlineStr">
+        <is>
+          <t>腾达科技, 国中水务</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
@@ -7676,6 +7687,11 @@
           <t>腾达科技, 国中水务</t>
         </is>
       </c>
+      <c r="QQ21" s="5" t="inlineStr">
+        <is>
+          <t>大众公用, 交运股份, 金龙汽车, 中电电机</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -9499,6 +9515,11 @@
           <t>润贝航科, 林海股份, 大众公用, 交运股份, 金龙汽车, 动力新科, 中电电机</t>
         </is>
       </c>
+      <c r="QQ22" s="5" t="inlineStr">
+        <is>
+          <t>潍柴重机, 启明信息, 航天晨光</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11744,6 +11765,11 @@
       <c r="QP23" s="5" t="inlineStr">
         <is>
           <t>宝塔实业, 潍柴重机, 中通客车, 启明信息, 神开股份, 华东重机, 洪都航空, 航天晨光</t>
+        </is>
+      </c>
+      <c r="QQ23" s="5" t="inlineStr">
+        <is>
+          <t>中信海直, 南京公用, 山子高科, 金溢科技, 北巴传媒, 空港股份, 交大昂立, 大众交通, 锦江在线, 塞力医疗</t>
         </is>
       </c>
     </row>
@@ -20165,10 +20191,10 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C382" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D382" t="n">
         <v>0</v>
@@ -20177,7 +20203,7 @@
         <v>2</v>
       </c>
       <c r="F382" t="n">
-        <v>9.98</v>
+        <v>10.15</v>
       </c>
     </row>
   </sheetData>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$382</f>
+              <f>'连板数据分析'!$A$2:$A$383</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$382</f>
+              <f>'连板数据分析'!$B$2:$B$383</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$382</f>
+              <f>'连板数据分析'!$A$2:$A$383</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$382</f>
+              <f>'连板数据分析'!$C$2:$C$383</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$382</f>
+              <f>'连板数据分析'!$A$2:$A$383</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$382</f>
+              <f>'连板数据分析'!$D$2:$D$383</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$382</f>
+              <f>'连板数据分析'!$A$2:$A$383</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$382</f>
+              <f>'连板数据分析'!$F$2:$F$383</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="68580000" cy="2700000"/>
+    <ext cx="68760000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="68580000" cy="2700000"/>
+    <ext cx="68760000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="68580000" cy="2700000"/>
+    <ext cx="68760000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QQ23"/>
+  <dimension ref="A1:QR23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2027,6 +2027,7 @@
     <col width="57.59999999999999" customWidth="1" min="457" max="457"/>
     <col width="57.59999999999999" customWidth="1" min="458" max="458"/>
     <col width="72" customWidth="1" min="459" max="459"/>
+    <col width="49.2" customWidth="1" min="460" max="460"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4321,6 +4322,11 @@
           <t>2024-07-30</t>
         </is>
       </c>
+      <c r="QR1" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -4828,6 +4834,11 @@
           <t>莱绅通灵</t>
         </is>
       </c>
+      <c r="QR17" s="5" t="inlineStr">
+        <is>
+          <t>腾达科技</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
@@ -6349,6 +6360,11 @@
           <t>腾达科技, 国中水务</t>
         </is>
       </c>
+      <c r="QR20" s="5" t="inlineStr">
+        <is>
+          <t>中电电机</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -7692,6 +7708,11 @@
           <t>大众公用, 交运股份, 金龙汽车, 中电电机</t>
         </is>
       </c>
+      <c r="QR21" s="5" t="inlineStr">
+        <is>
+          <t>潍柴重机, 航天晨光</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -9520,6 +9541,11 @@
           <t>潍柴重机, 启明信息, 航天晨光</t>
         </is>
       </c>
+      <c r="QR22" s="5" t="inlineStr">
+        <is>
+          <t>山子高科, 北巴传媒</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11770,6 +11796,11 @@
       <c r="QQ23" s="5" t="inlineStr">
         <is>
           <t>中信海直, 南京公用, 山子高科, 金溢科技, 北巴传媒, 空港股份, 交大昂立, 大众交通, 锦江在线, 塞力医疗</t>
+        </is>
+      </c>
+      <c r="QR23" s="5" t="inlineStr">
+        <is>
+          <t>江铃汽车, 河化股份, 方正电机, 中晶科技, 新黄浦, 亚通股份, 百花医药</t>
         </is>
       </c>
     </row>
@@ -11784,7 +11815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G382"/>
+  <dimension ref="A1:G383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20206,6 +20237,28 @@
         <v>10.15</v>
       </c>
     </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>8</v>
+      </c>
+      <c r="C383" t="n">
+        <v>77</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1</v>
+      </c>
+      <c r="E383" t="n">
+        <v>1</v>
+      </c>
+      <c r="F383" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$383</f>
+              <f>'连板数据分析'!$A$2:$A$384</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$383</f>
+              <f>'连板数据分析'!$B$2:$B$384</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$383</f>
+              <f>'连板数据分析'!$A$2:$A$384</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$383</f>
+              <f>'连板数据分析'!$C$2:$C$384</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$383</f>
+              <f>'连板数据分析'!$A$2:$A$384</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$383</f>
+              <f>'连板数据分析'!$D$2:$D$384</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$383</f>
+              <f>'连板数据分析'!$A$2:$A$384</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$383</f>
+              <f>'连板数据分析'!$F$2:$F$384</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="68760000" cy="2700000"/>
+    <ext cx="68940000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="68760000" cy="2700000"/>
+    <ext cx="68940000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="68760000" cy="2700000"/>
+    <ext cx="68940000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QR23"/>
+  <dimension ref="A1:QS23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2028,6 +2028,7 @@
     <col width="57.59999999999999" customWidth="1" min="458" max="458"/>
     <col width="72" customWidth="1" min="459" max="459"/>
     <col width="49.2" customWidth="1" min="460" max="460"/>
+    <col width="64.8" customWidth="1" min="461" max="461"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4327,6 +4328,11 @@
           <t>2024-07-31</t>
         </is>
       </c>
+      <c r="QS1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -4677,6 +4683,11 @@
           <t>莱绅通灵</t>
         </is>
       </c>
+      <c r="QS16" s="5" t="inlineStr">
+        <is>
+          <t>腾达科技</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
@@ -5553,6 +5564,11 @@
           <t>腾达科技, 国中水务</t>
         </is>
       </c>
+      <c r="QS19" s="5" t="inlineStr">
+        <is>
+          <t>中电电机</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -6365,6 +6381,11 @@
           <t>中电电机</t>
         </is>
       </c>
+      <c r="QS20" s="5" t="inlineStr">
+        <is>
+          <t>潍柴重机, 航天晨光</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -7713,6 +7734,11 @@
           <t>潍柴重机, 航天晨光</t>
         </is>
       </c>
+      <c r="QS21" s="5" t="inlineStr">
+        <is>
+          <t>山子高科, 北巴传媒</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -9546,6 +9572,11 @@
           <t>山子高科, 北巴传媒</t>
         </is>
       </c>
+      <c r="QS22" s="5" t="inlineStr">
+        <is>
+          <t>河化股份, 方正电机, 亚通股份</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11801,6 +11832,11 @@
       <c r="QR23" s="5" t="inlineStr">
         <is>
           <t>江铃汽车, 河化股份, 方正电机, 中晶科技, 新黄浦, 亚通股份, 百花医药</t>
+        </is>
+      </c>
+      <c r="QS23" s="5" t="inlineStr">
+        <is>
+          <t>深康佳A, 锦龙股份, 众泰汽车, 宗申动力, 海南瑞泽, 华东重机, 上工申贝, 航天长峰, 大业股份</t>
         </is>
       </c>
     </row>
@@ -11815,7 +11851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G383"/>
+  <dimension ref="A1:G384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20259,6 +20295,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>9</v>
+      </c>
+      <c r="C384" t="n">
+        <v>53</v>
+      </c>
+      <c r="D384" t="n">
+        <v>2</v>
+      </c>
+      <c r="E384" t="n">
+        <v>1</v>
+      </c>
+      <c r="F384" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$384</f>
+              <f>'连板数据分析'!$A$2:$A$385</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$384</f>
+              <f>'连板数据分析'!$B$2:$B$385</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$384</f>
+              <f>'连板数据分析'!$A$2:$A$385</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$384</f>
+              <f>'连板数据分析'!$C$2:$C$385</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$384</f>
+              <f>'连板数据分析'!$A$2:$A$385</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$384</f>
+              <f>'连板数据分析'!$D$2:$D$385</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$384</f>
+              <f>'连板数据分析'!$A$2:$A$385</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$384</f>
+              <f>'连板数据分析'!$F$2:$F$385</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="68940000" cy="2700000"/>
+    <ext cx="69120000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="68940000" cy="2700000"/>
+    <ext cx="69120000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="68940000" cy="2700000"/>
+    <ext cx="69120000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QS23"/>
+  <dimension ref="A1:QT23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2029,6 +2029,7 @@
     <col width="72" customWidth="1" min="459" max="459"/>
     <col width="49.2" customWidth="1" min="460" max="460"/>
     <col width="64.8" customWidth="1" min="461" max="461"/>
+    <col width="36" customWidth="1" min="462" max="462"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4333,6 +4334,11 @@
           <t>2024-08-01</t>
         </is>
       </c>
+      <c r="QT1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -4581,6 +4587,11 @@
           <t>艾艾精工</t>
         </is>
       </c>
+      <c r="QT15" s="5" t="inlineStr">
+        <is>
+          <t>腾达科技</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
@@ -5569,6 +5580,11 @@
           <t>中电电机</t>
         </is>
       </c>
+      <c r="QT19" s="5" t="inlineStr">
+        <is>
+          <t>航天晨光</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -6386,6 +6402,11 @@
           <t>潍柴重机, 航天晨光</t>
         </is>
       </c>
+      <c r="QT20" s="5" t="inlineStr">
+        <is>
+          <t>山子高科, 北巴传媒</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -7739,6 +7760,11 @@
           <t>山子高科, 北巴传媒</t>
         </is>
       </c>
+      <c r="QT21" s="5" t="inlineStr">
+        <is>
+          <t>河化股份</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -9577,6 +9603,11 @@
           <t>河化股份, 方正电机, 亚通股份</t>
         </is>
       </c>
+      <c r="QT22" s="5" t="inlineStr">
+        <is>
+          <t>深康佳A, 众泰汽车, 大业股份</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11837,6 +11868,11 @@
       <c r="QS23" s="5" t="inlineStr">
         <is>
           <t>深康佳A, 锦龙股份, 众泰汽车, 宗申动力, 海南瑞泽, 华东重机, 上工申贝, 航天长峰, 大业股份</t>
+        </is>
+      </c>
+      <c r="QT23" s="5" t="inlineStr">
+        <is>
+          <t>四环生物, 中公教育, 星网宇达, 江西长运, 通达电气</t>
         </is>
       </c>
     </row>
@@ -11851,7 +11887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G384"/>
+  <dimension ref="A1:G385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20317,6 +20353,28 @@
         <v>10.01</v>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>10</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0</v>
+      </c>
+      <c r="D385" t="n">
+        <v>5</v>
+      </c>
+      <c r="E385" t="n">
+        <v>1</v>
+      </c>
+      <c r="F385" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$385</f>
+              <f>'连板数据分析'!$A$2:$A$386</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$385</f>
+              <f>'连板数据分析'!$B$2:$B$386</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$385</f>
+              <f>'连板数据分析'!$A$2:$A$386</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$385</f>
+              <f>'连板数据分析'!$C$2:$C$386</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$385</f>
+              <f>'连板数据分析'!$A$2:$A$386</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$385</f>
+              <f>'连板数据分析'!$D$2:$D$386</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$385</f>
+              <f>'连板数据分析'!$A$2:$A$386</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$385</f>
+              <f>'连板数据分析'!$F$2:$F$386</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69120000" cy="2700000"/>
+    <ext cx="69300000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69120000" cy="2700000"/>
+    <ext cx="69300000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69120000" cy="2700000"/>
+    <ext cx="69300000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QT23"/>
+  <dimension ref="A1:QU23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2030,6 +2030,7 @@
     <col width="49.2" customWidth="1" min="460" max="460"/>
     <col width="64.8" customWidth="1" min="461" max="461"/>
     <col width="36" customWidth="1" min="462" max="462"/>
+    <col width="42" customWidth="1" min="463" max="463"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4339,6 +4340,11 @@
           <t>2024-08-02</t>
         </is>
       </c>
+      <c r="QU1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -4535,6 +4541,11 @@
           <t>艾艾精工</t>
         </is>
       </c>
+      <c r="QU14" s="5" t="inlineStr">
+        <is>
+          <t>腾达科技</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
@@ -6407,6 +6418,11 @@
           <t>山子高科, 北巴传媒</t>
         </is>
       </c>
+      <c r="QU20" s="5" t="inlineStr">
+        <is>
+          <t>河化股份</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -7765,6 +7781,11 @@
           <t>河化股份</t>
         </is>
       </c>
+      <c r="QU21" s="5" t="inlineStr">
+        <is>
+          <t>众泰汽车, 大业股份</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -9608,6 +9629,11 @@
           <t>深康佳A, 众泰汽车, 大业股份</t>
         </is>
       </c>
+      <c r="QU22" s="5" t="inlineStr">
+        <is>
+          <t>中公教育, 江西长运, 通达电气</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11873,6 +11899,11 @@
       <c r="QT23" s="5" t="inlineStr">
         <is>
           <t>四环生物, 中公教育, 星网宇达, 江西长运, 通达电气</t>
+        </is>
+      </c>
+      <c r="QU23" s="5" t="inlineStr">
+        <is>
+          <t>永达股份, 新里程, 中央商场, 百花医药, 鲁抗医药, 安邦护卫</t>
         </is>
       </c>
     </row>
@@ -11887,7 +11918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G385"/>
+  <dimension ref="A1:G386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20375,6 +20406,28 @@
         <v>4.1</v>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>11</v>
+      </c>
+      <c r="C386" t="n">
+        <v>41</v>
+      </c>
+      <c r="D386" t="n">
+        <v>24</v>
+      </c>
+      <c r="E386" t="n">
+        <v>1</v>
+      </c>
+      <c r="F386" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$386</f>
+              <f>'连板数据分析'!$A$2:$A$387</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$386</f>
+              <f>'连板数据分析'!$B$2:$B$387</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$386</f>
+              <f>'连板数据分析'!$A$2:$A$387</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$386</f>
+              <f>'连板数据分析'!$C$2:$C$387</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$386</f>
+              <f>'连板数据分析'!$A$2:$A$387</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$386</f>
+              <f>'连板数据分析'!$D$2:$D$387</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$386</f>
+              <f>'连板数据分析'!$A$2:$A$387</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$386</f>
+              <f>'连板数据分析'!$F$2:$F$387</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69300000" cy="2700000"/>
+    <ext cx="69480000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69300000" cy="2700000"/>
+    <ext cx="69480000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69300000" cy="2700000"/>
+    <ext cx="69480000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QU23"/>
+  <dimension ref="A1:QV23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2031,6 +2031,7 @@
     <col width="64.8" customWidth="1" min="461" max="461"/>
     <col width="36" customWidth="1" min="462" max="462"/>
     <col width="42" customWidth="1" min="463" max="463"/>
+    <col width="70.8" customWidth="1" min="464" max="464"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4345,6 +4346,11 @@
           <t>2024-08-05</t>
         </is>
       </c>
+      <c r="QV1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -5596,6 +5602,11 @@
           <t>航天晨光</t>
         </is>
       </c>
+      <c r="QV19" s="5" t="inlineStr">
+        <is>
+          <t>河化股份</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -7786,6 +7797,11 @@
           <t>众泰汽车, 大业股份</t>
         </is>
       </c>
+      <c r="QV21" s="5" t="inlineStr">
+        <is>
+          <t>中公教育, 通达电气</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -9634,6 +9650,11 @@
           <t>中公教育, 江西长运, 通达电气</t>
         </is>
       </c>
+      <c r="QV22" s="5" t="inlineStr">
+        <is>
+          <t>永达股份, 中央商场</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11904,6 +11925,11 @@
       <c r="QU23" s="5" t="inlineStr">
         <is>
           <t>永达股份, 新里程, 中央商场, 百花医药, 鲁抗医药, 安邦护卫</t>
+        </is>
+      </c>
+      <c r="QV23" s="5" t="inlineStr">
+        <is>
+          <t>大连友谊, 凯瑞德, 皇氏集团, 凯文教育, 名臣健康, 祥源文旅, 昂立教育, 岩石股份, 友好集团, 行动教育</t>
         </is>
       </c>
     </row>
@@ -11918,7 +11944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G386"/>
+  <dimension ref="A1:G387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20428,6 +20454,28 @@
         <v>10.01</v>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>6</v>
+      </c>
+      <c r="C387" t="n">
+        <v>52</v>
+      </c>
+      <c r="D387" t="n">
+        <v>18</v>
+      </c>
+      <c r="E387" t="n">
+        <v>1</v>
+      </c>
+      <c r="F387" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$387</f>
+              <f>'连板数据分析'!$A$2:$A$388</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$387</f>
+              <f>'连板数据分析'!$B$2:$B$388</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$387</f>
+              <f>'连板数据分析'!$A$2:$A$388</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$387</f>
+              <f>'连板数据分析'!$C$2:$C$388</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$387</f>
+              <f>'连板数据分析'!$A$2:$A$388</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$387</f>
+              <f>'连板数据分析'!$D$2:$D$388</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$387</f>
+              <f>'连板数据分析'!$A$2:$A$388</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$387</f>
+              <f>'连板数据分析'!$F$2:$F$388</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69480000" cy="2700000"/>
+    <ext cx="69660000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69480000" cy="2700000"/>
+    <ext cx="69660000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69480000" cy="2700000"/>
+    <ext cx="69660000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QV23"/>
+  <dimension ref="A1:QW23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2032,6 +2032,7 @@
     <col width="36" customWidth="1" min="462" max="462"/>
     <col width="42" customWidth="1" min="463" max="463"/>
     <col width="70.8" customWidth="1" min="464" max="464"/>
+    <col width="57.59999999999999" customWidth="1" min="465" max="465"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4351,6 +4352,11 @@
           <t>2024-08-06</t>
         </is>
       </c>
+      <c r="QW1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -6434,6 +6440,11 @@
           <t>河化股份</t>
         </is>
       </c>
+      <c r="QW20" s="5" t="inlineStr">
+        <is>
+          <t>中公教育</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -7802,6 +7813,11 @@
           <t>中公教育, 通达电气</t>
         </is>
       </c>
+      <c r="QW21" s="5" t="inlineStr">
+        <is>
+          <t>中央商场</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -9655,6 +9671,11 @@
           <t>永达股份, 中央商场</t>
         </is>
       </c>
+      <c r="QW22" s="5" t="inlineStr">
+        <is>
+          <t>凯瑞德, 昂立教育</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11930,6 +11951,11 @@
       <c r="QV23" s="5" t="inlineStr">
         <is>
           <t>大连友谊, 凯瑞德, 皇氏集团, 凯文教育, 名臣健康, 祥源文旅, 昂立教育, 岩石股份, 友好集团, 行动教育</t>
+        </is>
+      </c>
+      <c r="QW23" s="5" t="inlineStr">
+        <is>
+          <t>东北制药, 中基健康, 海源复材, 利君股份, 长城电工, 北方股份, 航天动力, 庚星股份</t>
         </is>
       </c>
     </row>
@@ -11944,7 +11970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G387"/>
+  <dimension ref="A1:G388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20476,6 +20502,28 @@
         <v>9.93</v>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>5</v>
+      </c>
+      <c r="C388" t="n">
+        <v>44</v>
+      </c>
+      <c r="D388" t="n">
+        <v>13</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1</v>
+      </c>
+      <c r="F388" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$388</f>
+              <f>'连板数据分析'!$A$2:$A$389</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$388</f>
+              <f>'连板数据分析'!$B$2:$B$389</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$388</f>
+              <f>'连板数据分析'!$A$2:$A$389</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$388</f>
+              <f>'连板数据分析'!$C$2:$C$389</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$388</f>
+              <f>'连板数据分析'!$A$2:$A$389</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$388</f>
+              <f>'连板数据分析'!$D$2:$D$389</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$388</f>
+              <f>'连板数据分析'!$A$2:$A$389</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$388</f>
+              <f>'连板数据分析'!$F$2:$F$389</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69660000" cy="2700000"/>
+    <ext cx="69840000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69660000" cy="2700000"/>
+    <ext cx="69840000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69660000" cy="2700000"/>
+    <ext cx="69840000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QW23"/>
+  <dimension ref="A1:QX23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2033,6 +2033,7 @@
     <col width="42" customWidth="1" min="463" max="463"/>
     <col width="70.8" customWidth="1" min="464" max="464"/>
     <col width="57.59999999999999" customWidth="1" min="465" max="465"/>
+    <col width="21.6" customWidth="1" min="466" max="466"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4357,6 +4358,11 @@
           <t>2024-08-07</t>
         </is>
       </c>
+      <c r="QX1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -6445,6 +6451,11 @@
           <t>中公教育</t>
         </is>
       </c>
+      <c r="QX20" s="5" t="inlineStr">
+        <is>
+          <t>中央商场</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -7818,6 +7829,11 @@
           <t>中央商场</t>
         </is>
       </c>
+      <c r="QX21" s="5" t="inlineStr">
+        <is>
+          <t>凯瑞德</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -9676,6 +9692,11 @@
           <t>凯瑞德, 昂立教育</t>
         </is>
       </c>
+      <c r="QX22" s="5" t="inlineStr">
+        <is>
+          <t>东北制药, 长城电工</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -11956,6 +11977,11 @@
       <c r="QW23" s="5" t="inlineStr">
         <is>
           <t>东北制药, 中基健康, 海源复材, 利君股份, 长城电工, 北方股份, 航天动力, 庚星股份</t>
+        </is>
+      </c>
+      <c r="QX23" s="5" t="inlineStr">
+        <is>
+          <t>汇源通信, 东方集团, 永辉超市</t>
         </is>
       </c>
     </row>
@@ -11970,7 +11996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G388"/>
+  <dimension ref="A1:G389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20524,6 +20550,28 @@
         <v>4.94</v>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>5</v>
+      </c>
+      <c r="C389" t="n">
+        <v>37</v>
+      </c>
+      <c r="D389" t="n">
+        <v>15</v>
+      </c>
+      <c r="E389" t="n">
+        <v>1</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$389</f>
+              <f>'连板数据分析'!$A$2:$A$390</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$389</f>
+              <f>'连板数据分析'!$B$2:$B$390</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$389</f>
+              <f>'连板数据分析'!$A$2:$A$390</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$389</f>
+              <f>'连板数据分析'!$C$2:$C$390</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$389</f>
+              <f>'连板数据分析'!$A$2:$A$390</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$389</f>
+              <f>'连板数据分析'!$D$2:$D$390</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$389</f>
+              <f>'连板数据分析'!$A$2:$A$390</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$389</f>
+              <f>'连板数据分析'!$F$2:$F$390</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69840000" cy="2700000"/>
+    <ext cx="70020000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69840000" cy="2700000"/>
+    <ext cx="70020000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="69840000" cy="2700000"/>
+    <ext cx="70020000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QX23"/>
+  <dimension ref="A1:QY23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2034,6 +2034,7 @@
     <col width="70.8" customWidth="1" min="464" max="464"/>
     <col width="57.59999999999999" customWidth="1" min="465" max="465"/>
     <col width="21.6" customWidth="1" min="466" max="466"/>
+    <col width="34.8" customWidth="1" min="467" max="467"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4363,6 +4364,11 @@
           <t>2024-08-08</t>
         </is>
       </c>
+      <c r="QY1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -7834,6 +7840,11 @@
           <t>凯瑞德</t>
         </is>
       </c>
+      <c r="QY21" s="5" t="inlineStr">
+        <is>
+          <t>东北制药</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -11982,6 +11993,11 @@
       <c r="QX23" s="5" t="inlineStr">
         <is>
           <t>汇源通信, 东方集团, 永辉超市</t>
+        </is>
+      </c>
+      <c r="QY23" s="5" t="inlineStr">
+        <is>
+          <t>深物业A, 华塑控股, 世联行, 岩石股份, 亚振家居</t>
         </is>
       </c>
     </row>
@@ -11996,7 +12012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G389"/>
+  <dimension ref="A1:G390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20572,6 +20588,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>4</v>
+      </c>
+      <c r="C390" t="n">
+        <v>26</v>
+      </c>
+      <c r="D390" t="n">
+        <v>9</v>
+      </c>
+      <c r="E390" t="n">
+        <v>1</v>
+      </c>
+      <c r="F390" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28000" windowHeight="12860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27980" windowHeight="12860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$390</f>
+              <f>'连板数据分析'!$A$2:$A$392</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$390</f>
+              <f>'连板数据分析'!$B$2:$B$392</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$390</f>
+              <f>'连板数据分析'!$A$2:$A$392</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$390</f>
+              <f>'连板数据分析'!$C$2:$C$392</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$390</f>
+              <f>'连板数据分析'!$A$2:$A$392</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$390</f>
+              <f>'连板数据分析'!$D$2:$D$392</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$390</f>
+              <f>'连板数据分析'!$A$2:$A$392</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$390</f>
+              <f>'连板数据分析'!$F$2:$F$392</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="70020000" cy="2700000"/>
+    <ext cx="70380000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="70020000" cy="2700000"/>
+    <ext cx="70380000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="70020000" cy="2700000"/>
+    <ext cx="70380000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,14 +1556,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QY23"/>
+  <dimension ref="A1:RA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="PX23" sqref="PX23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
@@ -2024,7 +2024,7 @@
     <col width="57.59999999999999" customWidth="1" min="454" max="454"/>
     <col width="21.6" customWidth="1" min="455" max="455"/>
     <col width="64.8" customWidth="1" min="456" max="456"/>
-    <col width="57.59999999999999" customWidth="1" min="457" max="457"/>
+    <col width="57.59999999999999" customWidth="1" min="457" max="458"/>
     <col width="57.59999999999999" customWidth="1" min="458" max="458"/>
     <col width="72" customWidth="1" min="459" max="459"/>
     <col width="49.2" customWidth="1" min="460" max="460"/>
@@ -2035,6 +2035,8 @@
     <col width="57.59999999999999" customWidth="1" min="465" max="465"/>
     <col width="21.6" customWidth="1" min="466" max="466"/>
     <col width="34.8" customWidth="1" min="467" max="467"/>
+    <col width="21.6" customWidth="1" min="468" max="468"/>
+    <col width="14.4" customWidth="1" min="469" max="469"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4369,6 +4371,16 @@
           <t>2024-08-09</t>
         </is>
       </c>
+      <c r="QZ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="RA1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -4565,7 +4577,7 @@
           <t>艾艾精工</t>
         </is>
       </c>
-      <c r="QU14" s="5" t="inlineStr">
+      <c r="QU14" s="1" t="inlineStr">
         <is>
           <t>腾达科技</t>
         </is>
@@ -4622,7 +4634,7 @@
           <t>艾艾精工</t>
         </is>
       </c>
-      <c r="QT15" s="5" t="inlineStr">
+      <c r="QT15" s="1" t="inlineStr">
         <is>
           <t>腾达科技</t>
         </is>
@@ -4729,7 +4741,7 @@
           <t>莱绅通灵</t>
         </is>
       </c>
-      <c r="QS16" s="5" t="inlineStr">
+      <c r="QS16" s="1" t="inlineStr">
         <is>
           <t>腾达科技</t>
         </is>
@@ -4891,7 +4903,7 @@
           <t>莱绅通灵</t>
         </is>
       </c>
-      <c r="QR17" s="5" t="inlineStr">
+      <c r="QR17" s="1" t="inlineStr">
         <is>
           <t>腾达科技</t>
         </is>
@@ -5173,7 +5185,7 @@
           <t>东晶电子</t>
         </is>
       </c>
-      <c r="QQ18" s="5" t="inlineStr">
+      <c r="QQ18" s="1" t="inlineStr">
         <is>
           <t>腾达科技, 国中水务</t>
         </is>
@@ -5600,27 +5612,27 @@
           <t>锦江在线</t>
         </is>
       </c>
-      <c r="QO19" s="5" t="inlineStr">
+      <c r="QO19" s="1" t="inlineStr">
         <is>
           <t>腾达科技, 国中水务</t>
         </is>
       </c>
-      <c r="QP19" s="5" t="inlineStr">
+      <c r="QP19" s="1" t="inlineStr">
         <is>
           <t>腾达科技, 国中水务</t>
         </is>
       </c>
-      <c r="QS19" s="5" t="inlineStr">
+      <c r="QS19" s="1" t="inlineStr">
         <is>
           <t>中电电机</t>
         </is>
       </c>
-      <c r="QT19" s="5" t="inlineStr">
+      <c r="QT19" s="1" t="inlineStr">
         <is>
           <t>航天晨光</t>
         </is>
       </c>
-      <c r="QV19" s="5" t="inlineStr">
+      <c r="QV19" s="1" t="inlineStr">
         <is>
           <t>河化股份</t>
         </is>
@@ -6427,37 +6439,37 @@
           <t>星网宇达, 锦江在线</t>
         </is>
       </c>
-      <c r="QN20" s="5" t="inlineStr">
+      <c r="QN20" s="1" t="inlineStr">
         <is>
           <t>腾达科技, 国中水务</t>
         </is>
       </c>
-      <c r="QR20" s="5" t="inlineStr">
+      <c r="QR20" s="1" t="inlineStr">
         <is>
           <t>中电电机</t>
         </is>
       </c>
-      <c r="QS20" s="5" t="inlineStr">
+      <c r="QS20" s="1" t="inlineStr">
         <is>
           <t>潍柴重机, 航天晨光</t>
         </is>
       </c>
-      <c r="QT20" s="5" t="inlineStr">
+      <c r="QT20" s="1" t="inlineStr">
         <is>
           <t>山子高科, 北巴传媒</t>
         </is>
       </c>
-      <c r="QU20" s="5" t="inlineStr">
+      <c r="QU20" s="1" t="inlineStr">
         <is>
           <t>河化股份</t>
         </is>
       </c>
-      <c r="QW20" s="5" t="inlineStr">
+      <c r="QW20" s="1" t="inlineStr">
         <is>
           <t>中公教育</t>
         </is>
       </c>
-      <c r="QX20" s="5" t="inlineStr">
+      <c r="QX20" s="1" t="inlineStr">
         <is>
           <t>中央商场</t>
         </is>
@@ -7790,59 +7802,64 @@
           <t>朝阳科技</t>
         </is>
       </c>
-      <c r="QJ21" s="5" t="inlineStr">
+      <c r="QJ21" s="1" t="inlineStr">
         <is>
           <t>惠程科技</t>
         </is>
       </c>
-      <c r="QM21" s="5" t="inlineStr">
+      <c r="QM21" s="1" t="inlineStr">
         <is>
           <t>腾达科技, 国中水务</t>
         </is>
       </c>
-      <c r="QQ21" s="5" t="inlineStr">
+      <c r="QQ21" s="1" t="inlineStr">
         <is>
           <t>大众公用, 交运股份, 金龙汽车, 中电电机</t>
         </is>
       </c>
-      <c r="QR21" s="5" t="inlineStr">
+      <c r="QR21" s="1" t="inlineStr">
         <is>
           <t>潍柴重机, 航天晨光</t>
         </is>
       </c>
-      <c r="QS21" s="5" t="inlineStr">
+      <c r="QS21" s="1" t="inlineStr">
         <is>
           <t>山子高科, 北巴传媒</t>
         </is>
       </c>
-      <c r="QT21" s="5" t="inlineStr">
+      <c r="QT21" s="1" t="inlineStr">
         <is>
           <t>河化股份</t>
         </is>
       </c>
-      <c r="QU21" s="5" t="inlineStr">
+      <c r="QU21" s="1" t="inlineStr">
         <is>
           <t>众泰汽车, 大业股份</t>
         </is>
       </c>
-      <c r="QV21" s="5" t="inlineStr">
+      <c r="QV21" s="1" t="inlineStr">
         <is>
           <t>中公教育, 通达电气</t>
         </is>
       </c>
-      <c r="QW21" s="5" t="inlineStr">
+      <c r="QW21" s="1" t="inlineStr">
         <is>
           <t>中央商场</t>
         </is>
       </c>
-      <c r="QX21" s="5" t="inlineStr">
+      <c r="QX21" s="1" t="inlineStr">
         <is>
           <t>凯瑞德</t>
         </is>
       </c>
-      <c r="QY21" s="5" t="inlineStr">
+      <c r="QY21" s="1" t="inlineStr">
         <is>
           <t>东北制药</t>
+        </is>
+      </c>
+      <c r="RA21" s="5" t="inlineStr">
+        <is>
+          <t>华塑控股</t>
         </is>
       </c>
     </row>
@@ -9638,74 +9655,84 @@
           <t>惠程科技</t>
         </is>
       </c>
-      <c r="QJ22" s="5" t="inlineStr">
+      <c r="QJ22" s="1" t="inlineStr">
         <is>
           <t>京华激光</t>
         </is>
       </c>
-      <c r="QK22" s="5" t="inlineStr">
+      <c r="QK22" s="1" t="inlineStr">
         <is>
           <t>宇通重工</t>
         </is>
       </c>
-      <c r="QL22" s="5" t="inlineStr">
+      <c r="QL22" s="1" t="inlineStr">
         <is>
           <t>腾达科技, 国中水务, 哈森股份</t>
         </is>
       </c>
-      <c r="QM22" s="5" t="inlineStr">
+      <c r="QM22" s="1" t="inlineStr">
         <is>
           <t>中旗新材, 复旦复华, 申通地铁</t>
         </is>
       </c>
-      <c r="QO22" s="5" t="inlineStr">
+      <c r="QO22" s="1" t="inlineStr">
         <is>
           <t>润贝航科, 林海股份, 大众公用, 交运股份, 金龙汽车, 动力新科, 中电电机</t>
         </is>
       </c>
-      <c r="QP22" s="5" t="inlineStr">
+      <c r="QP22" s="1" t="inlineStr">
         <is>
           <t>润贝航科, 林海股份, 大众公用, 交运股份, 金龙汽车, 动力新科, 中电电机</t>
         </is>
       </c>
-      <c r="QQ22" s="5" t="inlineStr">
+      <c r="QQ22" s="1" t="inlineStr">
         <is>
           <t>潍柴重机, 启明信息, 航天晨光</t>
         </is>
       </c>
-      <c r="QR22" s="5" t="inlineStr">
+      <c r="QR22" s="1" t="inlineStr">
         <is>
           <t>山子高科, 北巴传媒</t>
         </is>
       </c>
-      <c r="QS22" s="5" t="inlineStr">
+      <c r="QS22" s="1" t="inlineStr">
         <is>
           <t>河化股份, 方正电机, 亚通股份</t>
         </is>
       </c>
-      <c r="QT22" s="5" t="inlineStr">
+      <c r="QT22" s="1" t="inlineStr">
         <is>
           <t>深康佳A, 众泰汽车, 大业股份</t>
         </is>
       </c>
-      <c r="QU22" s="5" t="inlineStr">
+      <c r="QU22" s="1" t="inlineStr">
         <is>
           <t>中公教育, 江西长运, 通达电气</t>
         </is>
       </c>
-      <c r="QV22" s="5" t="inlineStr">
+      <c r="QV22" s="1" t="inlineStr">
         <is>
           <t>永达股份, 中央商场</t>
         </is>
       </c>
-      <c r="QW22" s="5" t="inlineStr">
+      <c r="QW22" s="1" t="inlineStr">
         <is>
           <t>凯瑞德, 昂立教育</t>
         </is>
       </c>
-      <c r="QX22" s="5" t="inlineStr">
+      <c r="QX22" s="1" t="inlineStr">
         <is>
           <t>东北制药, 长城电工</t>
+        </is>
+      </c>
+      <c r="QZ22" s="5" t="inlineStr">
+        <is>
+          <t>华塑控股</t>
+        </is>
+      </c>
+      <c r="RA22" s="5" t="inlineStr">
+        <is>
+          <t>勘设股份</t>
         </is>
       </c>
     </row>
@@ -11920,84 +11947,94 @@
           <t>凯美特气, 上海贝岭, 青海华鼎, 动力新科, 京华激光, 今创集团, 至正股份</t>
         </is>
       </c>
-      <c r="QJ23" s="5" t="inlineStr">
+      <c r="QJ23" s="1" t="inlineStr">
         <is>
           <t>天顺股份, 东方中科, 宇通重工, 格尔软件</t>
         </is>
       </c>
-      <c r="QK23" s="5" t="inlineStr">
+      <c r="QK23" s="1" t="inlineStr">
         <is>
           <t>锦龙股份, 腾达科技, 东方精工, 国中水务, 大众交通, 金龙汽车, 吉鑫科技</t>
         </is>
       </c>
-      <c r="QL23" s="5" t="inlineStr">
+      <c r="QL23" s="1" t="inlineStr">
         <is>
           <t>中旗新材, 启明信息, 北方股份, 开开实业, 复旦复华, 申通地铁, 勘设股份, 塞力医疗</t>
         </is>
       </c>
-      <c r="QM23" s="5" t="inlineStr">
+      <c r="QM23" s="1" t="inlineStr">
         <is>
           <t>乐凯胶片</t>
         </is>
       </c>
-      <c r="QN23" s="5" t="inlineStr">
+      <c r="QN23" s="1" t="inlineStr">
         <is>
           <t>锦龙股份, 润贝航科, 富临运业, 林海股份, 大众公用, 交运股份, 金龙汽车, 动力新科, 中电电机</t>
         </is>
       </c>
-      <c r="QO23" s="5" t="inlineStr">
+      <c r="QO23" s="1" t="inlineStr">
         <is>
           <t>宝塔实业, 潍柴重机, 中通客车, 启明信息, 神开股份, 华东重机, 洪都航空, 航天晨光</t>
         </is>
       </c>
-      <c r="QP23" s="5" t="inlineStr">
+      <c r="QP23" s="1" t="inlineStr">
         <is>
           <t>宝塔实业, 潍柴重机, 中通客车, 启明信息, 神开股份, 华东重机, 洪都航空, 航天晨光</t>
         </is>
       </c>
-      <c r="QQ23" s="5" t="inlineStr">
+      <c r="QQ23" s="1" t="inlineStr">
         <is>
           <t>中信海直, 南京公用, 山子高科, 金溢科技, 北巴传媒, 空港股份, 交大昂立, 大众交通, 锦江在线, 塞力医疗</t>
         </is>
       </c>
-      <c r="QR23" s="5" t="inlineStr">
+      <c r="QR23" s="1" t="inlineStr">
         <is>
           <t>江铃汽车, 河化股份, 方正电机, 中晶科技, 新黄浦, 亚通股份, 百花医药</t>
         </is>
       </c>
-      <c r="QS23" s="5" t="inlineStr">
+      <c r="QS23" s="1" t="inlineStr">
         <is>
           <t>深康佳A, 锦龙股份, 众泰汽车, 宗申动力, 海南瑞泽, 华东重机, 上工申贝, 航天长峰, 大业股份</t>
         </is>
       </c>
-      <c r="QT23" s="5" t="inlineStr">
+      <c r="QT23" s="1" t="inlineStr">
         <is>
           <t>四环生物, 中公教育, 星网宇达, 江西长运, 通达电气</t>
         </is>
       </c>
-      <c r="QU23" s="5" t="inlineStr">
+      <c r="QU23" s="1" t="inlineStr">
         <is>
           <t>永达股份, 新里程, 中央商场, 百花医药, 鲁抗医药, 安邦护卫</t>
         </is>
       </c>
-      <c r="QV23" s="5" t="inlineStr">
+      <c r="QV23" s="1" t="inlineStr">
         <is>
           <t>大连友谊, 凯瑞德, 皇氏集团, 凯文教育, 名臣健康, 祥源文旅, 昂立教育, 岩石股份, 友好集团, 行动教育</t>
         </is>
       </c>
-      <c r="QW23" s="5" t="inlineStr">
+      <c r="QW23" s="1" t="inlineStr">
         <is>
           <t>东北制药, 中基健康, 海源复材, 利君股份, 长城电工, 北方股份, 航天动力, 庚星股份</t>
         </is>
       </c>
-      <c r="QX23" s="5" t="inlineStr">
+      <c r="QX23" s="1" t="inlineStr">
         <is>
           <t>汇源通信, 东方集团, 永辉超市</t>
         </is>
       </c>
-      <c r="QY23" s="5" t="inlineStr">
+      <c r="QY23" s="1" t="inlineStr">
         <is>
           <t>深物业A, 华塑控股, 世联行, 岩石股份, 亚振家居</t>
+        </is>
+      </c>
+      <c r="QZ23" s="5" t="inlineStr">
+        <is>
+          <t>宿迁联盛, 盛剑科技, 勘设股份</t>
+        </is>
+      </c>
+      <c r="RA23" s="5" t="inlineStr">
+        <is>
+          <t>准油股份, 宇通重工</t>
         </is>
       </c>
     </row>
@@ -12012,7 +12049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G390"/>
+  <dimension ref="A1:G392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20610,6 +20647,50 @@
         <v>10.09</v>
       </c>
     </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>3</v>
+      </c>
+      <c r="C391" t="n">
+        <v>25</v>
+      </c>
+      <c r="D391" t="n">
+        <v>15</v>
+      </c>
+      <c r="E391" t="n">
+        <v>1</v>
+      </c>
+      <c r="F391" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>4</v>
+      </c>
+      <c r="C392" t="n">
+        <v>30</v>
+      </c>
+      <c r="D392" t="n">
+        <v>3</v>
+      </c>
+      <c r="E392" t="n">
+        <v>1</v>
+      </c>
+      <c r="F392" t="n">
+        <v>8.390000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$392</f>
+              <f>'连板数据分析'!$A$2:$A$394</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$392</f>
+              <f>'连板数据分析'!$B$2:$B$394</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$392</f>
+              <f>'连板数据分析'!$A$2:$A$394</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$392</f>
+              <f>'连板数据分析'!$C$2:$C$394</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$392</f>
+              <f>'连板数据分析'!$A$2:$A$394</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$392</f>
+              <f>'连板数据分析'!$D$2:$D$394</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$392</f>
+              <f>'连板数据分析'!$A$2:$A$394</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$392</f>
+              <f>'连板数据分析'!$F$2:$F$394</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="70380000" cy="2700000"/>
+    <ext cx="70740000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="70380000" cy="2700000"/>
+    <ext cx="70740000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="70380000" cy="2700000"/>
+    <ext cx="70740000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RA23"/>
+  <dimension ref="A1:RC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2037,6 +2037,8 @@
     <col width="34.8" customWidth="1" min="467" max="467"/>
     <col width="21.6" customWidth="1" min="468" max="468"/>
     <col width="14.4" customWidth="1" min="469" max="469"/>
+    <col width="57.59999999999999" customWidth="1" min="470" max="470"/>
+    <col width="57.59999999999999" customWidth="1" min="471" max="471"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4381,6 +4383,16 @@
           <t>2024-08-13</t>
         </is>
       </c>
+      <c r="RB1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="RC1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -7862,6 +7874,16 @@
           <t>华塑控股</t>
         </is>
       </c>
+      <c r="RB21" s="5" t="inlineStr">
+        <is>
+          <t>勘设股份</t>
+        </is>
+      </c>
+      <c r="RC21" s="5" t="inlineStr">
+        <is>
+          <t>勘设股份</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -12035,6 +12057,16 @@
       <c r="RA23" s="5" t="inlineStr">
         <is>
           <t>准油股份, 宇通重工</t>
+        </is>
+      </c>
+      <c r="RB23" s="5" t="inlineStr">
+        <is>
+          <t>亿道信息, 保利联合, 康盛股份, 高争民爆, 星网宇达, 亚世光电, 西藏天路, 金龙汽车</t>
+        </is>
+      </c>
+      <c r="RC23" s="5" t="inlineStr">
+        <is>
+          <t>亿道信息, 保利联合, 康盛股份, 高争民爆, 星网宇达, 亚世光电, 西藏天路, 金龙汽车</t>
         </is>
       </c>
     </row>
@@ -12049,7 +12081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G392"/>
+  <dimension ref="A1:G394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20691,6 +20723,50 @@
         <v>8.390000000000001</v>
       </c>
     </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>4</v>
+      </c>
+      <c r="C393" t="n">
+        <v>27</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1</v>
+      </c>
+      <c r="E393" t="n">
+        <v>1</v>
+      </c>
+      <c r="F393" t="n">
+        <v>10.04</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>4</v>
+      </c>
+      <c r="C394" t="n">
+        <v>27</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1</v>
+      </c>
+      <c r="E394" t="n">
+        <v>1</v>
+      </c>
+      <c r="F394" t="n">
+        <v>10.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -1561,9 +1561,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="PX23" sqref="PX23"/>
+      <selection pane="topRight" activeCell="RC9" sqref="RC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
@@ -2038,7 +2036,7 @@
     <col width="21.6" customWidth="1" min="468" max="468"/>
     <col width="14.4" customWidth="1" min="469" max="469"/>
     <col width="57.59999999999999" customWidth="1" min="470" max="470"/>
-    <col width="57.59999999999999" customWidth="1" min="471" max="471"/>
+    <col width="36" customWidth="1" min="471" max="471"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -7869,17 +7867,12 @@
           <t>东北制药</t>
         </is>
       </c>
-      <c r="RA21" s="5" t="inlineStr">
+      <c r="RA21" s="1" t="inlineStr">
         <is>
           <t>华塑控股</t>
         </is>
       </c>
-      <c r="RB21" s="5" t="inlineStr">
-        <is>
-          <t>勘设股份</t>
-        </is>
-      </c>
-      <c r="RC21" s="5" t="inlineStr">
+      <c r="RB21" s="1" t="inlineStr">
         <is>
           <t>勘设股份</t>
         </is>
@@ -9747,14 +9740,19 @@
           <t>东北制药, 长城电工</t>
         </is>
       </c>
-      <c r="QZ22" s="5" t="inlineStr">
+      <c r="QZ22" s="1" t="inlineStr">
         <is>
           <t>华塑控股</t>
         </is>
       </c>
-      <c r="RA22" s="5" t="inlineStr">
+      <c r="RA22" s="1" t="inlineStr">
         <is>
           <t>勘设股份</t>
+        </is>
+      </c>
+      <c r="RC22" s="5" t="inlineStr">
+        <is>
+          <t>亚世光电, 西藏天路, 金龙汽车</t>
         </is>
       </c>
     </row>
@@ -12049,24 +12047,24 @@
           <t>深物业A, 华塑控股, 世联行, 岩石股份, 亚振家居</t>
         </is>
       </c>
-      <c r="QZ23" s="5" t="inlineStr">
+      <c r="QZ23" s="1" t="inlineStr">
         <is>
           <t>宿迁联盛, 盛剑科技, 勘设股份</t>
         </is>
       </c>
-      <c r="RA23" s="5" t="inlineStr">
+      <c r="RA23" s="1" t="inlineStr">
         <is>
           <t>准油股份, 宇通重工</t>
         </is>
       </c>
-      <c r="RB23" s="5" t="inlineStr">
+      <c r="RB23" s="1" t="inlineStr">
         <is>
           <t>亿道信息, 保利联合, 康盛股份, 高争民爆, 星网宇达, 亚世光电, 西藏天路, 金龙汽车</t>
         </is>
       </c>
       <c r="RC23" s="5" t="inlineStr">
         <is>
-          <t>亿道信息, 保利联合, 康盛股份, 高争民爆, 星网宇达, 亚世光电, 西藏天路, 金龙汽车</t>
+          <t>卓翼科技, 凯撒文化, 瀛通通讯, 名臣健康, 安正时尚</t>
         </is>
       </c>
     </row>
@@ -20752,19 +20750,19 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C394" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F394" t="n">
-        <v>10.04</v>
+        <v>2.56</v>
       </c>
     </row>
   </sheetData>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$394</f>
+              <f>'连板数据分析'!$A$2:$A$395</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$394</f>
+              <f>'连板数据分析'!$B$2:$B$395</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$394</f>
+              <f>'连板数据分析'!$A$2:$A$395</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$394</f>
+              <f>'连板数据分析'!$C$2:$C$395</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$394</f>
+              <f>'连板数据分析'!$A$2:$A$395</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$394</f>
+              <f>'连板数据分析'!$D$2:$D$395</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$394</f>
+              <f>'连板数据分析'!$A$2:$A$395</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$394</f>
+              <f>'连板数据分析'!$F$2:$F$395</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="70740000" cy="2700000"/>
+    <ext cx="70920000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="70740000" cy="2700000"/>
+    <ext cx="70920000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="70740000" cy="2700000"/>
+    <ext cx="70920000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RC23"/>
+  <dimension ref="A1:RD23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2037,6 +2037,7 @@
     <col width="14.4" customWidth="1" min="469" max="469"/>
     <col width="57.59999999999999" customWidth="1" min="470" max="470"/>
     <col width="36" customWidth="1" min="471" max="471"/>
+    <col width="28.8" customWidth="1" min="472" max="472"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4391,6 +4392,11 @@
           <t>2024-08-15</t>
         </is>
       </c>
+      <c r="RD1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -7877,6 +7883,11 @@
           <t>勘设股份</t>
         </is>
       </c>
+      <c r="RD21" s="5" t="inlineStr">
+        <is>
+          <t>亚世光电</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -9755,6 +9766,11 @@
           <t>亚世光电, 西藏天路, 金龙汽车</t>
         </is>
       </c>
+      <c r="RD22" s="5" t="inlineStr">
+        <is>
+          <t>卓翼科技</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -12065,6 +12081,11 @@
       <c r="RC23" s="5" t="inlineStr">
         <is>
           <t>卓翼科技, 凯撒文化, 瀛通通讯, 名臣健康, 安正时尚</t>
+        </is>
+      </c>
+      <c r="RD23" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强, 创维数字, 亚太药业, 津投城开</t>
         </is>
       </c>
     </row>
@@ -12079,7 +12100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G394"/>
+  <dimension ref="A1:G395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20765,6 +20786,28 @@
         <v>2.56</v>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>4</v>
+      </c>
+      <c r="C395" t="n">
+        <v>24</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+      <c r="E395" t="n">
+        <v>1</v>
+      </c>
+      <c r="F395" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$395</f>
+              <f>'连板数据分析'!$A$2:$A$397</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$395</f>
+              <f>'连板数据分析'!$B$2:$B$397</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$395</f>
+              <f>'连板数据分析'!$A$2:$A$397</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$395</f>
+              <f>'连板数据分析'!$C$2:$C$397</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$395</f>
+              <f>'连板数据分析'!$A$2:$A$397</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$395</f>
+              <f>'连板数据分析'!$D$2:$D$397</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$395</f>
+              <f>'连板数据分析'!$A$2:$A$397</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$395</f>
+              <f>'连板数据分析'!$F$2:$F$397</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="70920000" cy="2700000"/>
+    <ext cx="71280000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="70920000" cy="2700000"/>
+    <ext cx="71280000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="70920000" cy="2700000"/>
+    <ext cx="71280000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RD23"/>
+  <dimension ref="A1:RF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2038,6 +2038,8 @@
     <col width="57.59999999999999" customWidth="1" min="470" max="470"/>
     <col width="36" customWidth="1" min="471" max="471"/>
     <col width="28.8" customWidth="1" min="472" max="472"/>
+    <col width="21.6" customWidth="1" min="473" max="473"/>
+    <col width="21.6" customWidth="1" min="474" max="474"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4397,6 +4399,16 @@
           <t>2024-08-16</t>
         </is>
       </c>
+      <c r="RE1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="RF1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -9771,6 +9783,16 @@
           <t>卓翼科技</t>
         </is>
       </c>
+      <c r="RE22" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强, 创维数字, 亚太药业</t>
+        </is>
+      </c>
+      <c r="RF22" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强, 创维数字, 亚太药业</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -12086,6 +12108,16 @@
       <c r="RD23" s="5" t="inlineStr">
         <is>
           <t>深圳华强, 创维数字, 亚太药业, 津投城开</t>
+        </is>
+      </c>
+      <c r="RE23" s="5" t="inlineStr">
+        <is>
+          <t>好上好, 新亚制程, 合富中国</t>
+        </is>
+      </c>
+      <c r="RF23" s="5" t="inlineStr">
+        <is>
+          <t>好上好, 新亚制程, 合富中国</t>
         </is>
       </c>
     </row>
@@ -12100,7 +12132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G395"/>
+  <dimension ref="A1:G397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20808,6 +20840,50 @@
         <v>10</v>
       </c>
     </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>3</v>
+      </c>
+      <c r="C396" t="n">
+        <v>32</v>
+      </c>
+      <c r="D396" t="n">
+        <v>6</v>
+      </c>
+      <c r="E396" t="n">
+        <v>3</v>
+      </c>
+      <c r="F396" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>3</v>
+      </c>
+      <c r="C397" t="n">
+        <v>32</v>
+      </c>
+      <c r="D397" t="n">
+        <v>6</v>
+      </c>
+      <c r="E397" t="n">
+        <v>3</v>
+      </c>
+      <c r="F397" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$397</f>
+              <f>'连板数据分析'!$A$2:$A$398</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$397</f>
+              <f>'连板数据分析'!$B$2:$B$398</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$397</f>
+              <f>'连板数据分析'!$A$2:$A$398</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$397</f>
+              <f>'连板数据分析'!$C$2:$C$398</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$397</f>
+              <f>'连板数据分析'!$A$2:$A$398</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$397</f>
+              <f>'连板数据分析'!$D$2:$D$398</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$397</f>
+              <f>'连板数据分析'!$A$2:$A$398</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$397</f>
+              <f>'连板数据分析'!$F$2:$F$398</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="71280000" cy="2700000"/>
+    <ext cx="71460000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="71280000" cy="2700000"/>
+    <ext cx="71460000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="71280000" cy="2700000"/>
+    <ext cx="71460000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,12 +1556,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RF23"/>
+  <dimension ref="A1:RG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="RC9" sqref="RC9"/>
+      <selection pane="topRight" activeCell="RI7" sqref="RI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.8359375" defaultRowHeight="16.8"/>
@@ -2040,6 +2040,7 @@
     <col width="28.8" customWidth="1" min="472" max="472"/>
     <col width="21.6" customWidth="1" min="473" max="473"/>
     <col width="21.6" customWidth="1" min="474" max="474"/>
+    <col width="21.6" customWidth="1" min="475" max="475"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4409,6 +4410,11 @@
           <t>2024-08-20</t>
         </is>
       </c>
+      <c r="RG1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -7895,9 +7901,19 @@
           <t>勘设股份</t>
         </is>
       </c>
-      <c r="RD21" s="5" t="inlineStr">
+      <c r="RD21" s="1" t="inlineStr">
         <is>
           <t>亚世光电</t>
+        </is>
+      </c>
+      <c r="RF21" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="RG21" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9789,17 @@
           <t>勘设股份</t>
         </is>
       </c>
-      <c r="RC22" s="5" t="inlineStr">
+      <c r="RC22" s="1" t="inlineStr">
         <is>
           <t>亚世光电, 西藏天路, 金龙汽车</t>
         </is>
       </c>
-      <c r="RD22" s="5" t="inlineStr">
+      <c r="RD22" s="1" t="inlineStr">
         <is>
           <t>卓翼科技</t>
         </is>
       </c>
-      <c r="RE22" s="5" t="inlineStr">
-        <is>
-          <t>深圳华强, 创维数字, 亚太药业</t>
-        </is>
-      </c>
-      <c r="RF22" s="5" t="inlineStr">
+      <c r="RE22" s="1" t="inlineStr">
         <is>
           <t>深圳华强, 创维数字, 亚太药业</t>
         </is>
@@ -12100,24 +12111,29 @@
           <t>亿道信息, 保利联合, 康盛股份, 高争民爆, 星网宇达, 亚世光电, 西藏天路, 金龙汽车</t>
         </is>
       </c>
-      <c r="RC23" s="5" t="inlineStr">
+      <c r="RC23" s="1" t="inlineStr">
         <is>
           <t>卓翼科技, 凯撒文化, 瀛通通讯, 名臣健康, 安正时尚</t>
         </is>
       </c>
-      <c r="RD23" s="5" t="inlineStr">
+      <c r="RD23" s="1" t="inlineStr">
         <is>
           <t>深圳华强, 创维数字, 亚太药业, 津投城开</t>
         </is>
       </c>
-      <c r="RE23" s="5" t="inlineStr">
+      <c r="RE23" s="1" t="inlineStr">
         <is>
           <t>好上好, 新亚制程, 合富中国</t>
         </is>
       </c>
       <c r="RF23" s="5" t="inlineStr">
         <is>
-          <t>好上好, 新亚制程, 合富中国</t>
+          <t>腾达科技, 仁东控股, 岭南股份</t>
+        </is>
+      </c>
+      <c r="RG23" s="5" t="inlineStr">
+        <is>
+          <t>腾达科技, 仁东控股, 岭南股份</t>
         </is>
       </c>
     </row>
@@ -12132,7 +12148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G397"/>
+  <dimension ref="A1:G398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20869,19 +20885,41 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C397" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D397" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E397" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F397" t="n">
-        <v>9.960000000000001</v>
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>4</v>
+      </c>
+      <c r="C398" t="n">
+        <v>19</v>
+      </c>
+      <c r="D398" t="n">
+        <v>8</v>
+      </c>
+      <c r="E398" t="n">
+        <v>1</v>
+      </c>
+      <c r="F398" t="n">
+        <v>10.01</v>
       </c>
     </row>
   </sheetData>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$398</f>
+              <f>'连板数据分析'!$A$2:$A$399</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$398</f>
+              <f>'连板数据分析'!$B$2:$B$399</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$398</f>
+              <f>'连板数据分析'!$A$2:$A$399</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$398</f>
+              <f>'连板数据分析'!$C$2:$C$399</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$398</f>
+              <f>'连板数据分析'!$A$2:$A$399</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$398</f>
+              <f>'连板数据分析'!$D$2:$D$399</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$398</f>
+              <f>'连板数据分析'!$A$2:$A$399</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$398</f>
+              <f>'连板数据分析'!$F$2:$F$399</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="71460000" cy="2700000"/>
+    <ext cx="71640000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="71460000" cy="2700000"/>
+    <ext cx="71640000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="71460000" cy="2700000"/>
+    <ext cx="71640000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RG23"/>
+  <dimension ref="A1:RI23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2041,6 +2041,8 @@
     <col width="21.6" customWidth="1" min="473" max="473"/>
     <col width="21.6" customWidth="1" min="474" max="474"/>
     <col width="21.6" customWidth="1" min="475" max="475"/>
+    <col width="55.2" customWidth="1" min="476" max="476"/>
+    <col width="55.2" customWidth="1" min="477" max="477"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4415,6 +4417,16 @@
           <t>2024-08-21</t>
         </is>
       </c>
+      <c r="RH1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="RI1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -6508,6 +6520,16 @@
           <t>中央商场</t>
         </is>
       </c>
+      <c r="RH20" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="RI20" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -12134,6 +12156,16 @@
       <c r="RG23" s="5" t="inlineStr">
         <is>
           <t>腾达科技, 仁东控股, 岭南股份</t>
+        </is>
+      </c>
+      <c r="RH23" s="5" t="inlineStr">
+        <is>
+          <t>襄阳轴承, 东晶电子, 爱仕达, 威领股份, 国中水务, 国旅联合, 浙版传媒, 亿嘉和</t>
+        </is>
+      </c>
+      <c r="RI23" s="5" t="inlineStr">
+        <is>
+          <t>襄阳轴承, 东晶电子, 爱仕达, 威领股份, 国中水务, 国旅联合, 浙版传媒, 亿嘉和</t>
         </is>
       </c>
     </row>
@@ -12148,7 +12180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G398"/>
+  <dimension ref="A1:G399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20907,19 +20939,41 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C398" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D398" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E398" t="n">
         <v>1</v>
       </c>
       <c r="F398" t="n">
-        <v>10.01</v>
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>5</v>
+      </c>
+      <c r="C399" t="n">
+        <v>32</v>
+      </c>
+      <c r="D399" t="n">
+        <v>2</v>
+      </c>
+      <c r="E399" t="n">
+        <v>1</v>
+      </c>
+      <c r="F399" t="n">
+        <v>9.800000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RI23"/>
+  <dimension ref="A1:RJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2043,6 +2043,7 @@
     <col width="21.6" customWidth="1" min="475" max="475"/>
     <col width="55.2" customWidth="1" min="476" max="476"/>
     <col width="55.2" customWidth="1" min="477" max="477"/>
+    <col width="14.4" customWidth="1" min="478" max="478"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4427,6 +4428,11 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="RJ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -5683,6 +5689,11 @@
           <t>河化股份</t>
         </is>
       </c>
+      <c r="RJ19" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -9826,6 +9837,11 @@
           <t>深圳华强, 创维数字, 亚太药业</t>
         </is>
       </c>
+      <c r="RJ22" s="5" t="inlineStr">
+        <is>
+          <t>爱仕达</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -12166,6 +12182,11 @@
       <c r="RI23" s="5" t="inlineStr">
         <is>
           <t>襄阳轴承, 东晶电子, 爱仕达, 威领股份, 国中水务, 国旅联合, 浙版传媒, 亿嘉和</t>
+        </is>
+      </c>
+      <c r="RJ23" s="5" t="inlineStr">
+        <is>
+          <t>锦江在线</t>
         </is>
       </c>
     </row>
@@ -20961,19 +20982,19 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C399" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D399" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E399" t="n">
         <v>1</v>
       </c>
       <c r="F399" t="n">
-        <v>9.800000000000001</v>
+        <v>9.98</v>
       </c>
     </row>
   </sheetData>

--- a/2024/2024年A股主板连板数据.xlsx
+++ b/2024/2024年A股主板连板数据.xlsx
@@ -844,12 +844,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$399</f>
+              <f>'连板数据分析'!$A$2:$A$433</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$B$2:$B$399</f>
+              <f>'连板数据分析'!$B$2:$B$433</f>
             </numRef>
           </val>
         </ser>
@@ -966,12 +966,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$399</f>
+              <f>'连板数据分析'!$A$2:$A$433</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$C$2:$C$399</f>
+              <f>'连板数据分析'!$C$2:$C$433</f>
             </numRef>
           </val>
         </ser>
@@ -1001,12 +1001,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$399</f>
+              <f>'连板数据分析'!$A$2:$A$433</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$D$2:$D$399</f>
+              <f>'连板数据分析'!$D$2:$D$433</f>
             </numRef>
           </val>
         </ser>
@@ -1123,12 +1123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'连板数据分析'!$A$2:$A$399</f>
+              <f>'连板数据分析'!$A$2:$A$433</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'连板数据分析'!$F$2:$F$399</f>
+              <f>'连板数据分析'!$F$2:$F$433</f>
             </numRef>
           </val>
         </ser>
@@ -1206,7 +1206,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="71640000" cy="2700000"/>
+    <ext cx="77760000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1228,7 +1228,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="71640000" cy="2700000"/>
+    <ext cx="77760000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -1250,7 +1250,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="71640000" cy="2700000"/>
+    <ext cx="77760000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RJ23"/>
+  <dimension ref="A1:SR23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2044,6 +2044,40 @@
     <col width="55.2" customWidth="1" min="476" max="476"/>
     <col width="55.2" customWidth="1" min="477" max="477"/>
     <col width="14.4" customWidth="1" min="478" max="478"/>
+    <col width="14.4" customWidth="1" min="479" max="479"/>
+    <col width="36" customWidth="1" min="480" max="480"/>
+    <col width="33.6" customWidth="1" min="481" max="481"/>
+    <col width="14.4" customWidth="1" min="482" max="482"/>
+    <col width="49.2" customWidth="1" min="483" max="483"/>
+    <col width="50.4" customWidth="1" min="484" max="484"/>
+    <col width="21.6" customWidth="1" min="485" max="485"/>
+    <col width="36" customWidth="1" min="486" max="486"/>
+    <col width="55.2" customWidth="1" min="487" max="487"/>
+    <col width="34.8" customWidth="1" min="488" max="488"/>
+    <col width="40.8" customWidth="1" min="489" max="489"/>
+    <col width="43.2" customWidth="1" min="490" max="490"/>
+    <col width="36" customWidth="1" min="491" max="491"/>
+    <col width="33.6" customWidth="1" min="492" max="492"/>
+    <col width="28.8" customWidth="1" min="493" max="493"/>
+    <col width="27.6" customWidth="1" min="494" max="494"/>
+    <col width="34.8" customWidth="1" min="495" max="495"/>
+    <col width="27.6" customWidth="1" min="496" max="496"/>
+    <col width="56.4" customWidth="1" min="497" max="497"/>
+    <col width="43.2" customWidth="1" min="498" max="498"/>
+    <col width="43.2" customWidth="1" min="499" max="499"/>
+    <col width="114" customWidth="1" min="500" max="500"/>
+    <col width="63.59999999999999" customWidth="1" min="501" max="501"/>
+    <col width="265.2" customWidth="1" min="502" max="502"/>
+    <col width="266.4" customWidth="1" min="503" max="503"/>
+    <col width="544.8" customWidth="1" min="504" max="504"/>
+    <col width="81.59999999999999" customWidth="1" min="505" max="505"/>
+    <col width="28.8" customWidth="1" min="506" max="506"/>
+    <col width="43.2" customWidth="1" min="507" max="507"/>
+    <col width="50.4" customWidth="1" min="508" max="508"/>
+    <col width="84" customWidth="1" min="509" max="509"/>
+    <col width="57.59999999999999" customWidth="1" min="510" max="510"/>
+    <col width="50.4" customWidth="1" min="511" max="511"/>
+    <col width="55.2" customWidth="1" min="512" max="512"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -4433,6 +4467,176 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="RK1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="RL1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+      <c r="RM1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="RN1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="RO1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="RP1" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="RQ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="RR1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="RS1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="RT1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="RU1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="RV1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="RW1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="RX1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="RY1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="RZ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="SA1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="SB1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="SC1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="SD1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="SE1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="SF1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="SG1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="SH1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="SI1" s="6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="SJ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="SK1" s="6" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="SL1" s="6" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="SM1" s="6" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="SN1" s="6" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="SO1" s="6" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="SP1" s="6" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="SQ1" s="6" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="SR1" s="6" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -4508,6 +4712,11 @@
           <t>圣龙股份</t>
         </is>
       </c>
+      <c r="SK11" s="5" t="inlineStr">
+        <is>
+          <t>双成药业</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
@@ -4545,6 +4754,11 @@
           <t>艾艾精工</t>
         </is>
       </c>
+      <c r="SJ12" s="5" t="inlineStr">
+        <is>
+          <t>双成药业</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
@@ -4582,6 +4796,11 @@
           <t>艾艾精工</t>
         </is>
       </c>
+      <c r="SI13" s="5" t="inlineStr">
+        <is>
+          <t>双成药业</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
@@ -4634,6 +4853,11 @@
           <t>腾达科技</t>
         </is>
       </c>
+      <c r="SH14" s="5" t="inlineStr">
+        <is>
+          <t>双成药业</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
@@ -4691,6 +4915,21 @@
           <t>腾达科技</t>
         </is>
       </c>
+      <c r="RN15" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="RU15" s="5" t="inlineStr">
+        <is>
+          <t>科森科技</t>
+        </is>
+      </c>
+      <c r="SG15" s="5" t="inlineStr">
+        <is>
+          <t>双成药业</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
@@ -4798,6 +5037,21 @@
           <t>腾达科技</t>
         </is>
       </c>
+      <c r="RM16" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="RT16" s="5" t="inlineStr">
+        <is>
+          <t>科森科技</t>
+        </is>
+      </c>
+      <c r="SF16" s="5" t="inlineStr">
+        <is>
+          <t>双成药业</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
@@ -4960,6 +5214,31 @@
           <t>腾达科技</t>
         </is>
       </c>
+      <c r="RL17" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="RS17" s="5" t="inlineStr">
+        <is>
+          <t>科森科技</t>
+        </is>
+      </c>
+      <c r="SE17" s="5" t="inlineStr">
+        <is>
+          <t>双成药业</t>
+        </is>
+      </c>
+      <c r="SK17" s="5" t="inlineStr">
+        <is>
+          <t>恒银科技</t>
+        </is>
+      </c>
+      <c r="SL17" s="5" t="inlineStr">
+        <is>
+          <t>中粮资本</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
@@ -5242,6 +5521,26 @@
           <t>腾达科技, 国中水务</t>
         </is>
       </c>
+      <c r="RK18" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="RR18" s="5" t="inlineStr">
+        <is>
+          <t>科森科技</t>
+        </is>
+      </c>
+      <c r="SD18" s="5" t="inlineStr">
+        <is>
+          <t>双成药业</t>
+        </is>
+      </c>
+      <c r="SK18" s="5" t="inlineStr">
+        <is>
+          <t>中粮资本, 天风证券</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
@@ -5694,6 +5993,51 @@
           <t>深圳华强</t>
         </is>
       </c>
+      <c r="RQ19" s="5" t="inlineStr">
+        <is>
+          <t>科森科技</t>
+        </is>
+      </c>
+      <c r="RU19" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="RZ19" s="5" t="inlineStr">
+        <is>
+          <t>海南海药</t>
+        </is>
+      </c>
+      <c r="SC19" s="5" t="inlineStr">
+        <is>
+          <t>双成药业</t>
+        </is>
+      </c>
+      <c r="SE19" s="5" t="inlineStr">
+        <is>
+          <t>大唐电信</t>
+        </is>
+      </c>
+      <c r="SG19" s="5" t="inlineStr">
+        <is>
+          <t>海能达</t>
+        </is>
+      </c>
+      <c r="SI19" s="5" t="inlineStr">
+        <is>
+          <t>中南股份, 亚泰集团, 恒银科技</t>
+        </is>
+      </c>
+      <c r="SJ19" s="5" t="inlineStr">
+        <is>
+          <t>阳光股份, 国海证券, 中粮资本</t>
+        </is>
+      </c>
+      <c r="SR19" s="5" t="inlineStr">
+        <is>
+          <t>光大嘉宝, 华立股份</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -6541,6 +6885,81 @@
           <t>深圳华强</t>
         </is>
       </c>
+      <c r="RO20" s="5" t="inlineStr">
+        <is>
+          <t>西部建设</t>
+        </is>
+      </c>
+      <c r="RP20" s="5" t="inlineStr">
+        <is>
+          <t>科森科技</t>
+        </is>
+      </c>
+      <c r="RT20" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="RU20" s="5" t="inlineStr">
+        <is>
+          <t>伟时电子</t>
+        </is>
+      </c>
+      <c r="RV20" s="5" t="inlineStr">
+        <is>
+          <t>日发精机, 老百姓</t>
+        </is>
+      </c>
+      <c r="RY20" s="5" t="inlineStr">
+        <is>
+          <t>海南海药</t>
+        </is>
+      </c>
+      <c r="RZ20" s="5" t="inlineStr">
+        <is>
+          <t>华映科技</t>
+        </is>
+      </c>
+      <c r="SB20" s="5" t="inlineStr">
+        <is>
+          <t>双成药业</t>
+        </is>
+      </c>
+      <c r="SD20" s="5" t="inlineStr">
+        <is>
+          <t>大唐电信</t>
+        </is>
+      </c>
+      <c r="SF20" s="5" t="inlineStr">
+        <is>
+          <t>海能达</t>
+        </is>
+      </c>
+      <c r="SH20" s="5" t="inlineStr">
+        <is>
+          <t>中南股份, 亚泰集团, 恒银科技</t>
+        </is>
+      </c>
+      <c r="SI20" s="5" t="inlineStr">
+        <is>
+          <t>阳光股份, 国海证券, 中粮资本, 五矿资本, 天风证券, 永辉超市</t>
+        </is>
+      </c>
+      <c r="SJ20" s="5" t="inlineStr">
+        <is>
+          <t>金融街, 合肥城建</t>
+        </is>
+      </c>
+      <c r="SQ20" s="5" t="inlineStr">
+        <is>
+          <t>光大嘉宝, 华立股份</t>
+        </is>
+      </c>
+      <c r="SR20" s="5" t="inlineStr">
+        <is>
+          <t>成都路桥, 双成药业, 四川金顶, 重庆建工</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -7949,6 +8368,126 @@
           <t>深圳华强</t>
         </is>
       </c>
+      <c r="RN21" s="5" t="inlineStr">
+        <is>
+          <t>西部建设</t>
+        </is>
+      </c>
+      <c r="RO21" s="5" t="inlineStr">
+        <is>
+          <t>科森科技</t>
+        </is>
+      </c>
+      <c r="RQ21" s="5" t="inlineStr">
+        <is>
+          <t>宝馨科技</t>
+        </is>
+      </c>
+      <c r="RS21" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="RT21" s="5" t="inlineStr">
+        <is>
+          <t>新亚制程, 伟时电子</t>
+        </is>
+      </c>
+      <c r="RU21" s="5" t="inlineStr">
+        <is>
+          <t>日发精机, 老百姓</t>
+        </is>
+      </c>
+      <c r="RV21" s="5" t="inlineStr">
+        <is>
+          <t>天茂集团</t>
+        </is>
+      </c>
+      <c r="RW21" s="5" t="inlineStr">
+        <is>
+          <t>跨境通</t>
+        </is>
+      </c>
+      <c r="RX21" s="5" t="inlineStr">
+        <is>
+          <t>海南海药</t>
+        </is>
+      </c>
+      <c r="RY21" s="5" t="inlineStr">
+        <is>
+          <t>华映科技</t>
+        </is>
+      </c>
+      <c r="SA21" s="5" t="inlineStr">
+        <is>
+          <t>双成药业</t>
+        </is>
+      </c>
+      <c r="SC21" s="5" t="inlineStr">
+        <is>
+          <t>大唐电信, 电子城</t>
+        </is>
+      </c>
+      <c r="SD21" s="5" t="inlineStr">
+        <is>
+          <t>国华网安, 海立股份</t>
+        </is>
+      </c>
+      <c r="SE21" s="5" t="inlineStr">
+        <is>
+          <t>海能达, 卓朗科技, 广东榕泰</t>
+        </is>
+      </c>
+      <c r="SF21" s="5" t="inlineStr">
+        <is>
+          <t>宝塔实业</t>
+        </is>
+      </c>
+      <c r="SG21" s="5" t="inlineStr">
+        <is>
+          <t>中南股份, 亚泰集团, 恒银科技</t>
+        </is>
+      </c>
+      <c r="SH21" s="5" t="inlineStr">
+        <is>
+          <t>阳光股份, 国海证券, 中粮资本, 五矿资本, 天风证券, 永辉超市</t>
+        </is>
+      </c>
+      <c r="SI21" s="5" t="inlineStr">
+        <is>
+          <t>金融街, 合肥城建, 美凯龙</t>
+        </is>
+      </c>
+      <c r="SJ21" s="5" t="inlineStr">
+        <is>
+          <t>华侨城A, 长江证券, 酒鬼酒, 广联达</t>
+        </is>
+      </c>
+      <c r="SK21" s="5" t="inlineStr">
+        <is>
+          <t>恒生电子</t>
+        </is>
+      </c>
+      <c r="SN21" s="5" t="inlineStr">
+        <is>
+          <t>宏达新材</t>
+        </is>
+      </c>
+      <c r="SP21" s="5" t="inlineStr">
+        <is>
+          <t>光大嘉宝, 华立股份</t>
+        </is>
+      </c>
+      <c r="SQ21" s="5" t="inlineStr">
+        <is>
+          <t>成都路桥, 双成药业, 四川金顶, 重庆建工</t>
+        </is>
+      </c>
+      <c r="SR21" s="5" t="inlineStr">
+        <is>
+          <t>文一科技, 城地香江</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
@@ -9842,6 +10381,151 @@
           <t>爱仕达</t>
         </is>
       </c>
+      <c r="RL22" s="5" t="inlineStr">
+        <is>
+          <t>共进股份</t>
+        </is>
+      </c>
+      <c r="RM22" s="5" t="inlineStr">
+        <is>
+          <t>西部建设</t>
+        </is>
+      </c>
+      <c r="RN22" s="5" t="inlineStr">
+        <is>
+          <t>国检集团, 科森科技</t>
+        </is>
+      </c>
+      <c r="RP22" s="5" t="inlineStr">
+        <is>
+          <t>宝馨科技, 奋达科技, 莫高股份, 广西广电</t>
+        </is>
+      </c>
+      <c r="RR22" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强, 国风新材</t>
+        </is>
+      </c>
+      <c r="RS22" s="5" t="inlineStr">
+        <is>
+          <t>新亚制程, 保变电气, 伟时电子</t>
+        </is>
+      </c>
+      <c r="RT22" s="5" t="inlineStr">
+        <is>
+          <t>日发精机, 东峰集团, 老百姓</t>
+        </is>
+      </c>
+      <c r="RU22" s="5" t="inlineStr">
+        <is>
+          <t>天茂集团</t>
+        </is>
+      </c>
+      <c r="RV22" s="5" t="inlineStr">
+        <is>
+          <t>跨境通, 翠微股份</t>
+        </is>
+      </c>
+      <c r="RW22" s="5" t="inlineStr">
+        <is>
+          <t>海南海药, 联创电子, 上海九百</t>
+        </is>
+      </c>
+      <c r="RX22" s="5" t="inlineStr">
+        <is>
+          <t>华映科技</t>
+        </is>
+      </c>
+      <c r="RY22" s="5" t="inlineStr">
+        <is>
+          <t>和科达</t>
+        </is>
+      </c>
+      <c r="RZ22" s="5" t="inlineStr">
+        <is>
+          <t>双成药业, 保变电气</t>
+        </is>
+      </c>
+      <c r="SB22" s="5" t="inlineStr">
+        <is>
+          <t>大唐电信, 电子城, 大连热电</t>
+        </is>
+      </c>
+      <c r="SC22" s="5" t="inlineStr">
+        <is>
+          <t>国华网安, 海立股份</t>
+        </is>
+      </c>
+      <c r="SD22" s="5" t="inlineStr">
+        <is>
+          <t>海能达, 卓朗科技, 保变电气, 广东榕泰, 岩石股份</t>
+        </is>
+      </c>
+      <c r="SE22" s="5" t="inlineStr">
+        <is>
+          <t>宝塔实业, 启明信息</t>
+        </is>
+      </c>
+      <c r="SF22" s="5" t="inlineStr">
+        <is>
+          <t>中南股份, 亚泰集团, 恒银科技</t>
+        </is>
+      </c>
+      <c r="SG22" s="5" t="inlineStr">
+        <is>
+          <t>阳光股份, 国海证券, 中粮资本, 跨境通, 五矿资本, 爱建集团, 中航产融, 天风证券, 永辉超市</t>
+        </is>
+      </c>
+      <c r="SH22" s="5" t="inlineStr">
+        <is>
+          <t>金融街, 合肥城建, 美凯龙</t>
+        </is>
+      </c>
+      <c r="SI22" s="5" t="inlineStr">
+        <is>
+          <t>万科A, 华侨城A, 我爱我家, 泸州老窖, 古井贡酒, 长江证券, 酒鬼酒, 五粮液, 华联股份, 皇台酒业, 荣盛发展, 东方雨虹, 世联行, 广联达, 坚朗五金, 保利发展, 金种子酒, 衢州发展, 云南城投, 美克家居, 华夏幸福, 金地集团, 绿地控股, 光大嘉宝, 城投控股, 信达地产, 岩石股份, 舍得酒业, 水井坊, 山西汾酒, 新城控股, 中银证券, 迎驾贡酒, 天味食品, 安井食品, 三棵树</t>
+        </is>
+      </c>
+      <c r="SJ22" s="5" t="inlineStr">
+        <is>
+          <t>深桑达A, 长春高新, 锦龙股份, 浪潮信息, 众泰汽车, 延华智能, 太极股份, 天齐锂业, 山西证券, 国盛金控, 西部证券, 第一创业, 绿康生化</t>
+        </is>
+      </c>
+      <c r="SK22" s="5" t="inlineStr">
+        <is>
+          <t>常山北明, 梦网科技, 拓维信息, 海能达, 仁东控股, 和科达, 芯瑞达, 卓朗科技, 士兰微, 大众交通, 锦江在线, 众鑫股份</t>
+        </is>
+      </c>
+      <c r="SM22" s="5" t="inlineStr">
+        <is>
+          <t>宏达新材</t>
+        </is>
+      </c>
+      <c r="SN22" s="5" t="inlineStr">
+        <is>
+          <t>海通证券</t>
+        </is>
+      </c>
+      <c r="SO22" s="5" t="inlineStr">
+        <is>
+          <t>青岛金王, 光大嘉宝, 华立股份</t>
+        </is>
+      </c>
+      <c r="SP22" s="5" t="inlineStr">
+        <is>
+          <t>高新发展, 青龙管业, 成都路桥, 双成药业, 福日电子, 信达地产, 四川金顶, 重庆建工</t>
+        </is>
+      </c>
+      <c r="SQ22" s="5" t="inlineStr">
+        <is>
+          <t>文一科技, 城地香江</t>
+        </is>
+      </c>
+      <c r="SR22" s="5" t="inlineStr">
+        <is>
+          <t>国风新材, 东晶电子, 川润股份, 四川长虹</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
@@ -12187,6 +12871,176 @@
       <c r="RJ23" s="5" t="inlineStr">
         <is>
           <t>锦江在线</t>
+        </is>
+      </c>
+      <c r="RK23" s="5" t="inlineStr">
+        <is>
+          <t>山西高速, 共进股份</t>
+        </is>
+      </c>
+      <c r="RL23" s="5" t="inlineStr">
+        <is>
+          <t>华控赛格, 翔腾新材, 西部建设, 传艺科技, 新疆交建</t>
+        </is>
+      </c>
+      <c r="RM23" s="5" t="inlineStr">
+        <is>
+          <t>甘咨询, 国检集团, 上海建科, 建研院, 科森科技</t>
+        </is>
+      </c>
+      <c r="RN23" s="5" t="inlineStr">
+        <is>
+          <t>合金投资</t>
+        </is>
+      </c>
+      <c r="RO23" s="5" t="inlineStr">
+        <is>
+          <t>锡装股份, 宝馨科技, 奋达科技, 莫高股份, 广西广电, 沐邦高科, 亿嘉和</t>
+        </is>
+      </c>
+      <c r="RP23" s="5" t="inlineStr">
+        <is>
+          <t>深纺织A, 通化金马, 胜利精密, 领益智造, 日久光电, 华升股份, 凯盛科技</t>
+        </is>
+      </c>
+      <c r="RQ23" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强, 天茂集团, 国风新材</t>
+        </is>
+      </c>
+      <c r="RR23" s="5" t="inlineStr">
+        <is>
+          <t>卓翼科技, 新亚制程, 保变电气, 鼎龙科技, 伟时电子</t>
+        </is>
+      </c>
+      <c r="RS23" s="5" t="inlineStr">
+        <is>
+          <t>深华发A, 深赛格, 日发精机, 中船科技, 维科技术, 湖南天雁, 东峰集团, 老百姓</t>
+        </is>
+      </c>
+      <c r="RT23" s="5" t="inlineStr">
+        <is>
+          <t>天茂集团, 中天精装, 人民同泰, 赛伍技术, 健之佳</t>
+        </is>
+      </c>
+      <c r="RU23" s="5" t="inlineStr">
+        <is>
+          <t>好上好, 恒宝股份, 跨境通, 大众交通, 锦江在线, 翠微股份</t>
+        </is>
+      </c>
+      <c r="RV23" s="5" t="inlineStr">
+        <is>
+          <t>海南海药, 联创电子, 长春一东, 上海九百, 万里股份, 天风证券</t>
+        </is>
+      </c>
+      <c r="RW23" s="5" t="inlineStr">
+        <is>
+          <t>深华发A, 华映科技, 皓宸医疗, 赛隆药业, 国中水务</t>
+        </is>
+      </c>
+      <c r="RX23" s="5" t="inlineStr">
+        <is>
+          <t>奥特迅, 和科达, 德新科技, 网达软件, 鼎信通讯</t>
+        </is>
+      </c>
+      <c r="RY23" s="5" t="inlineStr">
+        <is>
+          <t>海源复材, 双成药业, 保变电气, 华扬联众</t>
+        </is>
+      </c>
+      <c r="RZ23" s="5" t="inlineStr">
+        <is>
+          <t>南天信息, 岭南股份, 空港股份, 新宏泰</t>
+        </is>
+      </c>
+      <c r="SA23" s="5" t="inlineStr">
+        <is>
+          <t>中交地产, 弘业期货, 大唐电信, 电子城, 大连热电</t>
+        </is>
+      </c>
+      <c r="SB23" s="5" t="inlineStr">
+        <is>
+          <t>国华网安, 凯美特气, 亿利达, 海立股份</t>
+        </is>
+      </c>
+      <c r="SC23" s="5" t="inlineStr">
+        <is>
+          <t>南天信息, 华软科技, 海能达, 卓朗科技, 鹏欣资源, 保变电气, 广东榕泰, 岩石股份</t>
+        </is>
+      </c>
+      <c r="SD23" s="5" t="inlineStr">
+        <is>
+          <t>常山北明, 启明信息, 波导股份, 福日电子, 东方通信, 诚邦股份</t>
+        </is>
+      </c>
+      <c r="SE23" s="5" t="inlineStr">
+        <is>
+          <t>中南股份, 雅博股份, 时代万恒, 亚泰集团, 恒银科技, 中电电机</t>
+        </is>
+      </c>
+      <c r="SF23" s="5" t="inlineStr">
+        <is>
+          <t>海德股份, 阳光股份, 天茂集团, 国海证券, 浙商中拓, 世荣兆业, 中粮资本, 跨境通, 瑞达期货, 新力金融, 五矿资本, 爱建集团, 中航产融, 天风证券, 永辉超市, 南华期货</t>
+        </is>
+      </c>
+      <c r="SG23" s="5" t="inlineStr">
+        <is>
+          <t>金融街, 张家界, 合肥城建, 岭南股份, 友好集团, 美凯龙</t>
+        </is>
+      </c>
+      <c r="SH23" s="5" t="inlineStr">
+        <is>
+          <t>万科A, 深深房A, 华侨城A, 我爱我家, 泸州老窖, 古井贡酒, 长江证券, 酒鬼酒, 五粮液, 顺鑫农业, 华联股份, 福星股份, 荣盛发展, 东方雨虹, 世联行, 伟星新材, 广联达, 坚朗五金, 保利发展, 金种子酒, 衢州发展, 云南城投, 美克家居, 首开股份, 金地集团, 绿地控股, 光大嘉宝, 城投控股, 信达地产, 岩石股份, 舍得酒业, 水井坊, 山西汾酒, 新城控股, 中银证券, 天味食品, 安井食品, 三棵树</t>
+        </is>
+      </c>
+      <c r="SI23" s="5" t="inlineStr">
+        <is>
+          <t>深桑达A, 长春高新, 锦龙股份, 西藏矿业, 众泰汽车, 延华智能, 融捷股份, 拓日新能, 太极股份, 杭氧股份, 启明星辰, 晶澳科技, 天齐锂业, 山西证券, 贝因美, 国盛金控, 西部证券, 第一创业, 绿康生化, 华林证券, 新乳业, 锐明技术, 中信证券, 金证股份, 恒生电子, 财达证券, 中信建投, 大智慧, 福莱特, 京运通, 昭衍新药, 润本股份, 药明康德, 顶点软件, 华友钴业, 咸亨国际, 联德股份, 安德利</t>
+        </is>
+      </c>
+      <c r="SJ23" s="5" t="inlineStr">
+        <is>
+          <t>国华网安, 深圳能源, 神州数码, 深圳华强, 常山北明, 申万宏源, 国新健康, 国际医学, 华映科技, 创元科技, 海德股份, 中油资本, 吉林敖东, 天茂集团, 高新发展, 泰达股份, 智度股份, 中山公用, 东北证券, 国元证券, 振华科技, 广发证券, 华茂股份, 南天信息, 越秀资本, 弘业期货, 铖昌科技, 速达股份, 中电港, 德明利, 智微智能, 广合科技, 大族激光, 联创电子, 紫光国微, 东华软件, 国轩高科, 梦网科技, 广电运通, 石基信息, 东方锆业, 华天科技, 天融信, 新里程, 鸿博股份, 科大讯飞, 拓维信息, 电科网安, 永太科技, 新亚制程, 航天彩虹, 北京利尔, 雅克科技, 赣锋锂业, 达华智能, 普天科技, 未名医药, 海能达, 瑞康医药, 中公教育, 露笑科技, 皓宸医疗, 光启技术, 跨境通, 万润股份, 仁东控股, 博彦科技, 中科金财, 天赐材料, 好利科技, 国信证券, 久远银海, 恩捷股份, 和科达, 星帅尔, 金溢科技, 大博医疗</t>
+        </is>
+      </c>
+      <c r="SK23" s="5" t="inlineStr">
+        <is>
+          <t>青龙管业, 华东重机, 安奈儿, 海立股份</t>
+        </is>
+      </c>
+      <c r="SL23" s="5" t="inlineStr">
+        <is>
+          <t>宏达新材, 泰尔股份, 深圳新星, 至正股份</t>
+        </is>
+      </c>
+      <c r="SM23" s="5" t="inlineStr">
+        <is>
+          <t>兆新股份, 友邦吊顶, 惠威科技, 海通证券, 国芳集团, 国泰君安</t>
+        </is>
+      </c>
+      <c r="SN23" s="5" t="inlineStr">
+        <is>
+          <t>国华网安, 宝塔实业, 中油资本, 青岛金王, 卓朗科技, 光大嘉宝, 华立股份</t>
+        </is>
+      </c>
+      <c r="SO23" s="5" t="inlineStr">
+        <is>
+          <t>高新发展, 启迪环境, 青龙管业, 成都路桥, 跨境通, 双成药业, 福日电子, 信达地产, 四川金顶, 重庆建工, 长城军工, 新宏泰</t>
+        </is>
+      </c>
+      <c r="SP23" s="5" t="inlineStr">
+        <is>
+          <t>海能达, 华西能源, 豪尔赛, 文一科技, 华体科技, 城地香江, 德才股份</t>
+        </is>
+      </c>
+      <c r="SQ23" s="5" t="inlineStr">
+        <is>
+          <t>深圳华强, 国风新材, 东晶电子, 川润股份, 浙大网新, 四川长虹, 四川成渝</t>
+        </is>
+      </c>
+      <c r="SR23" s="5" t="inlineStr">
+        <is>
+          <t>国华网安, 天津普林, 欧菲光, 国发股份, 综艺股份, 金海通, 松发股份, 纵横通信</t>
         </is>
       </c>
     </row>
@@ -12201,7 +13055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G399"/>
+  <dimension ref="A1:G433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20997,6 +21851,754 @@
         <v>9.98</v>
       </c>
     </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>7</v>
+      </c>
+      <c r="C400" t="n">
+        <v>34</v>
+      </c>
+      <c r="D400" t="n">
+        <v>7</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1</v>
+      </c>
+      <c r="F400" t="n">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>8</v>
+      </c>
+      <c r="C401" t="n">
+        <v>36</v>
+      </c>
+      <c r="D401" t="n">
+        <v>9</v>
+      </c>
+      <c r="E401" t="n">
+        <v>1</v>
+      </c>
+      <c r="F401" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>9</v>
+      </c>
+      <c r="C402" t="n">
+        <v>23</v>
+      </c>
+      <c r="D402" t="n">
+        <v>6</v>
+      </c>
+      <c r="E402" t="n">
+        <v>1</v>
+      </c>
+      <c r="F402" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>10</v>
+      </c>
+      <c r="C403" t="n">
+        <v>33</v>
+      </c>
+      <c r="D403" t="n">
+        <v>3</v>
+      </c>
+      <c r="E403" t="n">
+        <v>1</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>5</v>
+      </c>
+      <c r="C404" t="n">
+        <v>41</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1</v>
+      </c>
+      <c r="E404" t="n">
+        <v>1</v>
+      </c>
+      <c r="F404" t="n">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>5</v>
+      </c>
+      <c r="C405" t="n">
+        <v>50</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
+      <c r="E405" t="n">
+        <v>1</v>
+      </c>
+      <c r="F405" t="n">
+        <v>10.05</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>6</v>
+      </c>
+      <c r="C406" t="n">
+        <v>29</v>
+      </c>
+      <c r="D406" t="n">
+        <v>6</v>
+      </c>
+      <c r="E406" t="n">
+        <v>1</v>
+      </c>
+      <c r="F406" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>7</v>
+      </c>
+      <c r="C407" t="n">
+        <v>37</v>
+      </c>
+      <c r="D407" t="n">
+        <v>3</v>
+      </c>
+      <c r="E407" t="n">
+        <v>1</v>
+      </c>
+      <c r="F407" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>8</v>
+      </c>
+      <c r="C408" t="n">
+        <v>33</v>
+      </c>
+      <c r="D408" t="n">
+        <v>1</v>
+      </c>
+      <c r="E408" t="n">
+        <v>1</v>
+      </c>
+      <c r="F408" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>9</v>
+      </c>
+      <c r="C409" t="n">
+        <v>41</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0</v>
+      </c>
+      <c r="E409" t="n">
+        <v>1</v>
+      </c>
+      <c r="F409" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>10</v>
+      </c>
+      <c r="C410" t="n">
+        <v>29</v>
+      </c>
+      <c r="D410" t="n">
+        <v>2</v>
+      </c>
+      <c r="E410" t="n">
+        <v>1</v>
+      </c>
+      <c r="F410" t="n">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>5</v>
+      </c>
+      <c r="C411" t="n">
+        <v>45</v>
+      </c>
+      <c r="D411" t="n">
+        <v>10</v>
+      </c>
+      <c r="E411" t="n">
+        <v>2</v>
+      </c>
+      <c r="F411" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>4</v>
+      </c>
+      <c r="C412" t="n">
+        <v>36</v>
+      </c>
+      <c r="D412" t="n">
+        <v>16</v>
+      </c>
+      <c r="E412" t="n">
+        <v>1</v>
+      </c>
+      <c r="F412" t="n">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>4</v>
+      </c>
+      <c r="C413" t="n">
+        <v>27</v>
+      </c>
+      <c r="D413" t="n">
+        <v>14</v>
+      </c>
+      <c r="E413" t="n">
+        <v>1</v>
+      </c>
+      <c r="F413" t="n">
+        <v>10.05</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>5</v>
+      </c>
+      <c r="C414" t="n">
+        <v>32</v>
+      </c>
+      <c r="D414" t="n">
+        <v>5</v>
+      </c>
+      <c r="E414" t="n">
+        <v>1</v>
+      </c>
+      <c r="F414" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>6</v>
+      </c>
+      <c r="C415" t="n">
+        <v>37</v>
+      </c>
+      <c r="D415" t="n">
+        <v>8</v>
+      </c>
+      <c r="E415" t="n">
+        <v>1</v>
+      </c>
+      <c r="F415" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>4</v>
+      </c>
+      <c r="C416" t="n">
+        <v>25</v>
+      </c>
+      <c r="D416" t="n">
+        <v>9</v>
+      </c>
+      <c r="E416" t="n">
+        <v>1</v>
+      </c>
+      <c r="F416" t="n">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>5</v>
+      </c>
+      <c r="C417" t="n">
+        <v>53</v>
+      </c>
+      <c r="D417" t="n">
+        <v>1</v>
+      </c>
+      <c r="E417" t="n">
+        <v>1</v>
+      </c>
+      <c r="F417" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>6</v>
+      </c>
+      <c r="C418" t="n">
+        <v>45</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0</v>
+      </c>
+      <c r="E418" t="n">
+        <v>1</v>
+      </c>
+      <c r="F418" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>7</v>
+      </c>
+      <c r="C419" t="n">
+        <v>51</v>
+      </c>
+      <c r="D419" t="n">
+        <v>3</v>
+      </c>
+      <c r="E419" t="n">
+        <v>1</v>
+      </c>
+      <c r="F419" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>8</v>
+      </c>
+      <c r="C420" t="n">
+        <v>85</v>
+      </c>
+      <c r="D420" t="n">
+        <v>3</v>
+      </c>
+      <c r="E420" t="n">
+        <v>1</v>
+      </c>
+      <c r="F420" t="n">
+        <v>10.05</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>9</v>
+      </c>
+      <c r="C421" t="n">
+        <v>49</v>
+      </c>
+      <c r="D421" t="n">
+        <v>3</v>
+      </c>
+      <c r="E421" t="n">
+        <v>1</v>
+      </c>
+      <c r="F421" t="n">
+        <v>10.03</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>10</v>
+      </c>
+      <c r="C422" t="n">
+        <v>131</v>
+      </c>
+      <c r="D422" t="n">
+        <v>1</v>
+      </c>
+      <c r="E422" t="n">
+        <v>1</v>
+      </c>
+      <c r="F422" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>11</v>
+      </c>
+      <c r="C423" t="n">
+        <v>105</v>
+      </c>
+      <c r="D423" t="n">
+        <v>1</v>
+      </c>
+      <c r="E423" t="n">
+        <v>1</v>
+      </c>
+      <c r="F423" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>12</v>
+      </c>
+      <c r="C424" t="n">
+        <v>514</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0</v>
+      </c>
+      <c r="E424" t="n">
+        <v>1</v>
+      </c>
+      <c r="F424" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>13</v>
+      </c>
+      <c r="C425" t="n">
+        <v>337</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0</v>
+      </c>
+      <c r="E425" t="n">
+        <v>1</v>
+      </c>
+      <c r="F425" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>14</v>
+      </c>
+      <c r="C426" t="n">
+        <v>31</v>
+      </c>
+      <c r="D426" t="n">
+        <v>761</v>
+      </c>
+      <c r="E426" t="n">
+        <v>1</v>
+      </c>
+      <c r="F426" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>8</v>
+      </c>
+      <c r="C427" t="n">
+        <v>52</v>
+      </c>
+      <c r="D427" t="n">
+        <v>26</v>
+      </c>
+      <c r="E427" t="n">
+        <v>1</v>
+      </c>
+      <c r="F427" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>3</v>
+      </c>
+      <c r="C428" t="n">
+        <v>31</v>
+      </c>
+      <c r="D428" t="n">
+        <v>31</v>
+      </c>
+      <c r="E428" t="n">
+        <v>1</v>
+      </c>
+      <c r="F428" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>4</v>
+      </c>
+      <c r="C429" t="n">
+        <v>80</v>
+      </c>
+      <c r="D429" t="n">
+        <v>2</v>
+      </c>
+      <c r="E429" t="n">
+        <v>1</v>
+      </c>
+      <c r="F429" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>3</v>
+      </c>
+      <c r="C430" t="n">
+        <v>41</v>
+      </c>
+      <c r="D430" t="n">
+        <v>2</v>
+      </c>
+      <c r="E430" t="n">
+        <v>3</v>
+      </c>
+      <c r="F430" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>4</v>
+      </c>
+      <c r="C431" t="n">
+        <v>74</v>
+      </c>
+      <c r="D431" t="n">
+        <v>4</v>
+      </c>
+      <c r="E431" t="n">
+        <v>2</v>
+      </c>
+      <c r="F431" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>5</v>
+      </c>
+      <c r="C432" t="n">
+        <v>44</v>
+      </c>
+      <c r="D432" t="n">
+        <v>5</v>
+      </c>
+      <c r="E432" t="n">
+        <v>2</v>
+      </c>
+      <c r="F432" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>6</v>
+      </c>
+      <c r="C433" t="n">
+        <v>86</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0</v>
+      </c>
+      <c r="E433" t="n">
+        <v>2</v>
+      </c>
+      <c r="F433" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
